--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -4811,8 +4811,8 @@
   <dimension ref="A1:AL130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="893">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -1101,9 +1101,6 @@
   </si>
   <si>
     <t>7 1 237-242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M. Hallikainen. </t>
   </si>
   <si>
     <t>Experiences on Agile seating, facilities and solutions: Multisite environment</t>
@@ -2620,11 +2617,145 @@
   <si>
     <t>Not stated</t>
   </si>
+  <si>
+    <t>K. Korhonen.</t>
+  </si>
+  <si>
+    <t>Changes in defect data and reporting practices</t>
+  </si>
+  <si>
+    <t>Surveys, defect data records</t>
+  </si>
+  <si>
+    <t>Author in organization</t>
+  </si>
+  <si>
+    <t>150 experts, several locations globally</t>
+  </si>
+  <si>
+    <t>During first 12 months</t>
+  </si>
+  <si>
+    <t>Scrum teams. Agile practices such as TDD, refactoring, pair programming. Mixing practices.</t>
+  </si>
+  <si>
+    <t>In system testing there were too many test cases to run in one sprint, and automation was lacking. Missing functionalities before integration lead to later discovery of some bugs.</t>
+  </si>
+  <si>
+    <t>The viewpoint is defect management, not transition in general</t>
+  </si>
+  <si>
+    <t>M. Hallikainen.</t>
+  </si>
+  <si>
+    <t>No research method, bias</t>
+  </si>
+  <si>
+    <t>Two geographically separated sites</t>
+  </si>
+  <si>
+    <t>Traditional functional silo-based Telecom R&amp;D center. Both sites are working on the same product.</t>
+  </si>
+  <si>
+    <t>The change was coordinated by business needs.</t>
+  </si>
+  <si>
+    <t>Before the actual transformation an unsuccessful trial was made. At the beginning a one team pilot was made. Some investments were done in new facilities for the pilot team. The team participated in planning. The pilot came with positive feedback. The experiences of the pilot teams were used as a basis for how other teams would to proceed. There was one-to-one discussions between management and developers.</t>
+  </si>
+  <si>
+    <t>Collaboration is on a totally new level.</t>
+  </si>
+  <si>
+    <t>Involve the teams in planning of their environment. Listen to feedback from teams. Make it clear that there is no way back to the old way. Facilitate team building in a team building phase. Consider acoustic solutions for open team spaces. Have teleconferencing equipment in a multisite environment. Invest in common areas, such as coffee lounges.</t>
+  </si>
+  <si>
+    <t>There was change resistance. The old habits tended to stick.</t>
+  </si>
+  <si>
+    <t>On agile seating: 55% positive or neutral, 24% negative, 21% strongly negative. Varying feedback.</t>
+  </si>
+  <si>
+    <t>Change from individuals in separate rooms to teams in shared rooms.</t>
+  </si>
+  <si>
+    <t>The viewpoint of seating.</t>
+  </si>
+  <si>
+    <t>860 employees and contractors</t>
+  </si>
+  <si>
+    <t>100+ years of experience in regulated business. Waterfall-based approaches. System Life Cycle methodology based on James Martin's Information Engineering.</t>
+  </si>
+  <si>
+    <t>CIO sought an meaningful opportunity to apply lessons learned from senior leadership positions in agile pioneers (Chrysler, Netscape, etc.). Rapid business changes were anticipated. Market was changing due to Electric Choice program.</t>
+  </si>
+  <si>
+    <t>Around 1999-&gt;</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>The Electric Choice Implementation Team successfully piloted an iterative, time-boxed, priority driven approach. Agile remained an oddity to anyone outside the team. Project Management Organization (PMO) advocated traditional by-the-book project management. The organization was changed by a merger. CMM started to raise interest in the company. A small but growing community of agile practicioners developed a "house blend" of agile. The CMM program confirmed the passion for process improvement.
+By 2001 agile mindset was spreading. A set of "job aid" material was produced to support agile. By 2002 various infrastructure groups had become comfortable with agile, but the process improved program advocated waterfall-like processes under the banner of CMM. Tension was rising between the two camps, and management decided to act. A common work group with representatives from both camps was set up so that both viewpoints would be heard.</t>
+  </si>
+  <si>
+    <t>Have a round table for process improvement, where each voice can be heard. Facilitate team building in the process improvement group.</t>
+  </si>
+  <si>
+    <t>2000 IT employees</t>
+  </si>
+  <si>
+    <t>Author is an agile coach in the organization</t>
+  </si>
+  <si>
+    <t>CIO decided to introduce agile as a key strategic lever in order to deliver more with less, faster and with less risk.</t>
+  </si>
+  <si>
+    <t>Not any particular flavor, but combining the best ideas</t>
+  </si>
+  <si>
+    <t>The viewpoint of implementing CMMI and accreditation</t>
+  </si>
+  <si>
+    <t>Agile practices are an accelerator to process improvement. Physical attendance in process improvement is not enough, and the process improvement group must exhibit real teamwork.
+CMMI can be mixed with agile.</t>
+  </si>
+  <si>
+    <t>2007-&gt;
+Estimated to be a 3-5 year journey</t>
+  </si>
+  <si>
+    <t>A process improvement group (SEPG) aimed for hearing everybodys viewpoints was created.</t>
+  </si>
+  <si>
+    <t>Line Managers (LM) became involved in project management of agile projects, through influencing the project manager remotely. LMs intervented in intra-team conflicts, undermining trust in team. LMs pulled resources out from agile projects. LMs made decisions outside project workshops, which were a part of the agile practice. Resourcing was made according to the traditional silo model hampering cross functional teams. LMs made interventions on projects outside the normal process, which disrupted trust and balance.</t>
+  </si>
+  <si>
+    <t>Educate line management on agile practices. Resource projects according to agile models. Act as removers of obstacles that are reported by teams. Plan upcoming projects and have tems pull them from a prioritized project backlog.
+Commit to making the change. Have a dedicated change management team.</t>
+  </si>
+  <si>
+    <t>One of the first steps were to get commitment from senior management. Training was looked for, but there was no comprehensive agile curriculum. A curriculum was then constructed by the organization, by hiring competent agile experts. Coaching was made available. A communication team was created for spreading the word on agile successes within the company. Communities of competence were created to diffuse knowledge on specific topics across organization boundaries. Business and infrastructure were trained on interactions with agile teams.</t>
+  </si>
+  <si>
+    <t>Line management and agile teams must be aligned. Line management plays a central role in an agile transformation. Enabling change requires absolute commitment from all senior managers.
+Educate people so that they undestand what they benefit from agile, and do not have misconceptions. Leaders must understand agile and be ready to endorse it personally.</t>
+  </si>
+  <si>
+    <t>Increased productivity and throughput. Using "wisdom of the crowd" has mitigated project risks.</t>
+  </si>
+  <si>
+    <t>Safety and morale has increased. Employees feel appreciated, valued, empowered.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]#\ ?/?"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2742,7 +2873,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -2855,6 +2986,30 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4278,7 +4433,7 @@
         <v>111</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4811,8 +4966,8 @@
   <dimension ref="A1:AL130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4835,7 +4990,7 @@
     <col min="21" max="21" width="18" style="30" customWidth="1"/>
     <col min="22" max="23" width="21.140625" style="30" customWidth="1"/>
     <col min="24" max="24" width="22.5703125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" style="49" customWidth="1"/>
     <col min="26" max="26" width="47.85546875" style="19" customWidth="1"/>
     <col min="27" max="27" width="47.42578125" style="19" customWidth="1"/>
     <col min="28" max="28" width="77.42578125" style="19" customWidth="1"/>
@@ -4855,100 +5010,100 @@
     <row r="1" spans="1:38" s="15" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y1" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="AF1" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>693</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>695</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="AI1" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="W1" s="16" t="s">
-        <v>767</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>808</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AJ1" s="28" t="s">
+        <v>717</v>
+      </c>
+      <c r="AK1" s="28" t="s">
         <v>735</v>
       </c>
-      <c r="AI1" s="16" t="s">
-        <v>734</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>718</v>
-      </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>736</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -4956,10 +5111,10 @@
         <v>291</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>470</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>471</v>
       </c>
       <c r="D3" s="25">
         <v>2006</v>
@@ -4968,22 +5123,22 @@
         <v>298</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L3" s="24" t="e">
         <f>LOOKUP(I3,{"?","N","Y"},{1,0,2}) + LOOKUP(J3,{"?","N","Y"},{1,0,2}) + LOOKUP(K3,{"?","N","Y"},{1,0,2})</f>
@@ -4993,91 +5148,91 @@
       <c r="R3" s="23"/>
       <c r="S3" s="29"/>
       <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
+      <c r="Y3" s="47"/>
     </row>
     <row r="4" spans="1:38" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>628</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>629</v>
       </c>
       <c r="D4" s="25">
         <v>2009</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L4" s="24">
         <f>LOOKUP(I4,{"?","N","Y"},{1,0,2}) + LOOKUP(J4,{"?","N","Y"},{1,0,2}) + LOOKUP(K4,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S4" s="29">
         <v>3</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>697</v>
-      </c>
-      <c r="Y4" s="18" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y4" s="47" t="s">
+        <v>701</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA4" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="Z4" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="AB4" s="19" t="s">
-        <v>704</v>
-      </c>
       <c r="AD4" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AF4" s="19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -5085,10 +5240,10 @@
         <v>277</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>391</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>392</v>
       </c>
       <c r="D5" s="35">
         <v>2011</v>
@@ -5097,97 +5252,97 @@
         <v>280</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L5" s="34">
         <f>LOOKUP(I5,{"?","N","Y"},{1,0,2}) + LOOKUP(J5,{"?","N","Y"},{1,0,2}) + LOOKUP(K5,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S5" s="34">
         <v>3</v>
       </c>
       <c r="T5" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="U5" s="18" t="s">
         <v>764</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="X5" s="40" t="s">
         <v>765</v>
       </c>
-      <c r="V5" s="18" t="s">
-        <v>760</v>
-      </c>
-      <c r="W5" s="18" t="s">
+      <c r="Y5" s="48" t="s">
+        <v>770</v>
+      </c>
+      <c r="Z5" s="40" t="s">
         <v>768</v>
       </c>
-      <c r="X5" s="40" t="s">
-        <v>766</v>
-      </c>
-      <c r="Y5" s="40" t="s">
-        <v>771</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>769</v>
-      </c>
       <c r="AA5" s="40" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AB5" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AC5" s="40"/>
       <c r="AD5" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AE5" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AG5" s="40"/>
       <c r="AH5" s="40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AI5" s="40" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AJ5" s="40" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AK5" s="40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -5195,79 +5350,79 @@
         <v>271</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>653</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>654</v>
       </c>
       <c r="D6" s="35">
         <v>2004</v>
       </c>
       <c r="E6" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>655</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>656</v>
-      </c>
       <c r="G6" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L6" s="34">
         <f>LOOKUP(I6,{"?","N","Y"},{1,0,2}) + LOOKUP(J6,{"?","N","Y"},{1,0,2}) + LOOKUP(K6,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S6" s="34">
         <v>1</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
+      <c r="Y6" s="48"/>
       <c r="Z6" s="40"/>
       <c r="AA6" s="40"/>
       <c r="AB6" s="40"/>
       <c r="AC6" s="40"/>
       <c r="AD6" s="40"/>
       <c r="AE6" s="40" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AF6" s="40"/>
       <c r="AG6" s="40"/>
@@ -5290,96 +5445,96 @@
         <v>2008</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>357</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L7" s="34">
         <f>LOOKUP(I7,{"?","N","Y"},{1,0,2}) + LOOKUP(J7,{"?","N","Y"},{1,0,2}) + LOOKUP(K7,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S7" s="34">
         <v>4</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>779</v>
-      </c>
-      <c r="Y7" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y7" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z7" s="40" t="s">
+        <v>791</v>
+      </c>
+      <c r="AA7" s="40" t="s">
+        <v>790</v>
+      </c>
+      <c r="AB7" s="40" t="s">
         <v>782</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>792</v>
-      </c>
-      <c r="AA7" s="40" t="s">
-        <v>791</v>
-      </c>
-      <c r="AB7" s="40" t="s">
-        <v>783</v>
       </c>
       <c r="AC7" s="40"/>
       <c r="AD7" s="40" t="s">
+        <v>788</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>792</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>787</v>
+      </c>
+      <c r="AG7" s="40" t="s">
+        <v>784</v>
+      </c>
+      <c r="AH7" s="40" t="s">
         <v>789</v>
       </c>
-      <c r="AE7" s="40" t="s">
-        <v>793</v>
-      </c>
-      <c r="AF7" s="40" t="s">
-        <v>788</v>
-      </c>
-      <c r="AG7" s="40" t="s">
+      <c r="AI7" s="41" t="s">
         <v>785</v>
-      </c>
-      <c r="AH7" s="40" t="s">
-        <v>790</v>
-      </c>
-      <c r="AI7" s="41" t="s">
-        <v>786</v>
       </c>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
@@ -5404,87 +5559,87 @@
         <v>361</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L8" s="24">
         <f>LOOKUP(I8,{"?","N","Y"},{1,0,2}) + LOOKUP(J8,{"?","N","Y"},{1,0,2}) + LOOKUP(K8,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S8" s="24">
         <v>5</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="V8" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="W8" s="32"/>
       <c r="X8" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y8" s="49" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="AH8" s="19" t="s">
         <v>748</v>
       </c>
-      <c r="Y8" s="19" t="s">
-        <v>741</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>747</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>745</v>
-      </c>
-      <c r="AD8" s="19" t="s">
+      <c r="AI8" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="AE8" s="19" t="s">
-        <v>754</v>
-      </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AK8" s="19" t="s">
         <v>751</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="AK8" s="19" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -5492,103 +5647,103 @@
         <v>271</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>451</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>452</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>453</v>
       </c>
       <c r="D9" s="35">
         <v>2011</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L9" s="34">
         <f>LOOKUP(I9,{"?","N","Y"},{1,0,2}) + LOOKUP(J9,{"?","N","Y"},{1,0,2}) + LOOKUP(K9,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S9" s="34">
         <v>4</v>
       </c>
       <c r="T9" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="W9" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="X9" s="40" t="s">
         <v>796</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="Y9" s="48" t="s">
+        <v>803</v>
+      </c>
+      <c r="Z9" s="40" t="s">
+        <v>798</v>
+      </c>
+      <c r="AA9" s="40" t="s">
         <v>797</v>
       </c>
-      <c r="Y9" s="40" t="s">
-        <v>804</v>
-      </c>
-      <c r="Z9" s="40" t="s">
+      <c r="AB9" s="40" t="s">
         <v>799</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>798</v>
-      </c>
-      <c r="AB9" s="40" t="s">
-        <v>800</v>
       </c>
       <c r="AC9" s="40"/>
       <c r="AD9" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="AE9" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="AE9" s="40" t="s">
+      <c r="AF9" s="40" t="s">
         <v>802</v>
       </c>
-      <c r="AF9" s="40" t="s">
-        <v>803</v>
-      </c>
       <c r="AG9" s="40" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AH9" s="40" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AI9" s="40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
@@ -5598,101 +5753,101 @@
         <v>271</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>425</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>426</v>
       </c>
       <c r="D10" s="35">
         <v>2007</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L10" s="34">
         <f>LOOKUP(I10,{"?","N","Y"},{1,0,2}) + LOOKUP(J10,{"?","N","Y"},{1,0,2}) + LOOKUP(K10,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S10" s="34">
         <v>3</v>
       </c>
       <c r="T10" s="43" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="V10" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="W10" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="X10" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="X10" s="40" t="s">
+      <c r="Y10" s="48" t="s">
         <v>811</v>
-      </c>
-      <c r="Y10" s="40" t="s">
-        <v>812</v>
       </c>
       <c r="Z10" s="40"/>
       <c r="AA10" s="40" t="s">
+        <v>812</v>
+      </c>
+      <c r="AB10" s="40" t="s">
         <v>813</v>
       </c>
-      <c r="AB10" s="40" t="s">
+      <c r="AC10" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="AC10" s="40" t="s">
+      <c r="AD10" s="40" t="s">
         <v>815</v>
       </c>
-      <c r="AD10" s="40" t="s">
+      <c r="AE10" s="40" t="s">
         <v>816</v>
       </c>
-      <c r="AE10" s="40" t="s">
+      <c r="AF10" s="40" t="s">
         <v>817</v>
-      </c>
-      <c r="AF10" s="40" t="s">
-        <v>818</v>
       </c>
       <c r="AG10" s="40"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="40" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
@@ -5702,10 +5857,10 @@
         <v>291</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>387</v>
       </c>
       <c r="D11" s="25">
         <v>2005</v>
@@ -5714,74 +5869,74 @@
         <v>305</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L11" s="24">
         <f>LOOKUP(I11,{"?","N","Y"},{1,0,2}) + LOOKUP(J11,{"?","N","Y"},{1,0,2}) + LOOKUP(K11,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S11" s="24">
         <v>3</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="X11" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y11" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="Z11" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="Y11" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="Z11" s="19" t="s">
+      <c r="AA11" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="AA11" s="19" t="s">
+      <c r="AB11" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="AB11" s="19" t="s">
-        <v>711</v>
-      </c>
       <c r="AD11" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AF11" s="19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -5789,87 +5944,87 @@
         <v>271</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>468</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>469</v>
       </c>
       <c r="D12" s="35">
         <v>2007</v>
       </c>
       <c r="E12" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>537</v>
-      </c>
       <c r="G12" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L12" s="34">
         <f>LOOKUP(I12,{"?","N","Y"},{1,0,2}) + LOOKUP(J12,{"?","N","Y"},{1,0,2}) + LOOKUP(K12,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S12" s="34">
         <v>2</v>
       </c>
       <c r="T12" s="39"/>
       <c r="U12" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="V12" s="18" t="s">
         <v>823</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>824</v>
       </c>
       <c r="W12" s="18"/>
       <c r="X12" s="40" t="s">
-        <v>820</v>
-      </c>
-      <c r="Y12" s="40"/>
+        <v>819</v>
+      </c>
+      <c r="Y12" s="48"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="AB12" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>826</v>
+      </c>
+      <c r="AD12" s="40" t="s">
         <v>825</v>
       </c>
-      <c r="AB12" s="40" t="s">
-        <v>828</v>
-      </c>
-      <c r="AC12" s="40" t="s">
-        <v>827</v>
-      </c>
-      <c r="AD12" s="40" t="s">
-        <v>826</v>
-      </c>
       <c r="AE12" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40"/>
@@ -5877,7 +6032,7 @@
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="33" customFormat="1" ht="330" x14ac:dyDescent="0.25">
@@ -5885,105 +6040,105 @@
         <v>271</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>484</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>485</v>
       </c>
       <c r="D13" s="35">
         <v>2007</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L13" s="34">
         <f>LOOKUP(I13,{"?","N","Y"},{1,0,2}) + LOOKUP(J13,{"?","N","Y"},{1,0,2}) + LOOKUP(K13,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S13" s="34">
         <v>5</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="X13" s="40" t="s">
+        <v>836</v>
+      </c>
+      <c r="Y13" s="48" t="s">
         <v>837</v>
       </c>
-      <c r="Y13" s="40" t="s">
+      <c r="Z13" s="40" t="s">
+        <v>829</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="AB13" s="40" t="s">
+        <v>834</v>
+      </c>
+      <c r="AC13" s="40" t="s">
         <v>838</v>
       </c>
-      <c r="Z13" s="40" t="s">
-        <v>830</v>
-      </c>
-      <c r="AA13" s="40" t="s">
-        <v>829</v>
-      </c>
-      <c r="AB13" s="40" t="s">
+      <c r="AD13" s="40" t="s">
         <v>835</v>
-      </c>
-      <c r="AC13" s="40" t="s">
-        <v>839</v>
-      </c>
-      <c r="AD13" s="40" t="s">
-        <v>836</v>
       </c>
       <c r="AE13" s="40"/>
       <c r="AF13" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="AG13" s="40" t="s">
         <v>832</v>
       </c>
-      <c r="AG13" s="40" t="s">
+      <c r="AH13" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="AI13" s="40" t="s">
         <v>833</v>
-      </c>
-      <c r="AH13" s="40" t="s">
-        <v>831</v>
-      </c>
-      <c r="AI13" s="40" t="s">
-        <v>834</v>
       </c>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
@@ -5993,7 +6148,7 @@
         <v>271</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>15</v>
@@ -6002,145 +6157,203 @@
         <v>2009</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L14" s="34">
         <f>LOOKUP(I14,{"?","N","Y"},{1,0,2}) + LOOKUP(J14,{"?","N","Y"},{1,0,2}) + LOOKUP(K14,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S14" s="34">
         <v>5</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="V14" s="18" t="s">
+        <v>841</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="X14" s="40" t="s">
+        <v>839</v>
+      </c>
+      <c r="Y14" s="48" t="s">
+        <v>843</v>
+      </c>
+      <c r="Z14" s="40" t="s">
+        <v>850</v>
+      </c>
+      <c r="AA14" s="40" t="s">
         <v>842</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>781</v>
-      </c>
-      <c r="X14" s="40" t="s">
+      <c r="AB14" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="AC14" s="40" t="s">
+        <v>844</v>
+      </c>
+      <c r="AD14" s="40" t="s">
+        <v>848</v>
+      </c>
+      <c r="AE14" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="AF14" s="40" t="s">
+        <v>846</v>
+      </c>
+      <c r="AG14" s="40" t="s">
         <v>840</v>
       </c>
-      <c r="Y14" s="40" t="s">
-        <v>844</v>
-      </c>
-      <c r="Z14" s="40" t="s">
-        <v>851</v>
-      </c>
-      <c r="AA14" s="40" t="s">
-        <v>843</v>
-      </c>
-      <c r="AB14" s="40" t="s">
-        <v>846</v>
-      </c>
-      <c r="AC14" s="40" t="s">
-        <v>845</v>
-      </c>
-      <c r="AD14" s="40" t="s">
+      <c r="AH14" s="40" t="s">
         <v>849</v>
-      </c>
-      <c r="AE14" s="40" t="s">
-        <v>848</v>
-      </c>
-      <c r="AF14" s="40" t="s">
-        <v>847</v>
-      </c>
-      <c r="AG14" s="40" t="s">
-        <v>841</v>
-      </c>
-      <c r="AH14" s="40" t="s">
-        <v>850</v>
       </c>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="40"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="B15" s="34" t="s">
+        <v>851</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="D15" s="35">
         <v>2010</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="33" t="s">
+        <v>582</v>
+      </c>
+      <c r="F15" s="44" t="s">
         <v>583</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="L15" s="24">
-        <f>LOOKUP(I15,{"?","N","Y"},{1,0,2}) + LOOKUP(J15,{"?","N","Y"},{1,0,2}) + LOOKUP(K15,{"?","N","Y"},{1,0,2})</f>
+      <c r="G15" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="L15" s="34">
         <v>6</v>
       </c>
+      <c r="M15" s="42" t="s">
+        <v>685</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q15" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="S15" s="34">
+        <v>2</v>
+      </c>
+      <c r="T15" s="43" t="s">
+        <v>852</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="W15" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="X15" s="40" t="s">
+        <v>855</v>
+      </c>
+      <c r="Y15" s="48" t="s">
+        <v>856</v>
+      </c>
+      <c r="Z15" s="40" t="s">
+        <v>850</v>
+      </c>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="40"/>
+      <c r="AC15" s="40" t="s">
+        <v>857</v>
+      </c>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="40" t="s">
+        <v>858</v>
+      </c>
+      <c r="AG15" s="40"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40" t="s">
+        <v>859</v>
+      </c>
+      <c r="AK15" s="40"/>
     </row>
     <row r="16" spans="1:38" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>202</v>
@@ -6149,210 +6362,408 @@
         <v>2003</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L16" s="24">
         <f>LOOKUP(I16,{"?","N","Y"},{1,0,2}) + LOOKUP(J16,{"?","N","Y"},{1,0,2}) + LOOKUP(K16,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S16" s="24">
         <v>5</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="19" t="s">
-        <v>717</v>
-      </c>
-      <c r="Y16" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y16" s="49" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD16" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="Z16" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="AA16" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AE16" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="AF16" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="AD16" s="19" t="s">
-        <v>731</v>
-      </c>
-      <c r="AE16" s="19" t="s">
-        <v>729</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>728</v>
-      </c>
       <c r="AJ16" s="19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="35">
+        <v>2011</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>571</v>
+      </c>
+      <c r="F17" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="D17" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="L17" s="24">
-        <f>LOOKUP(I17,{"?","N","Y"},{1,0,2}) + LOOKUP(J17,{"?","N","Y"},{1,0,2}) + LOOKUP(K17,{"?","N","Y"},{1,0,2})</f>
+      <c r="G17" s="45" t="s">
+        <v>683</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="L17" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="M17" s="42" t="s">
+        <v>686</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="S17" s="34">
+        <v>3</v>
+      </c>
+      <c r="T17" s="43" t="s">
+        <v>741</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="W17" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="X17" s="40" t="s">
+        <v>862</v>
+      </c>
+      <c r="Y17" s="48" t="s">
+        <v>690</v>
+      </c>
+      <c r="Z17" s="40" t="s">
+        <v>863</v>
+      </c>
+      <c r="AA17" s="40" t="s">
+        <v>864</v>
+      </c>
+      <c r="AB17" s="40" t="s">
+        <v>865</v>
+      </c>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40" t="s">
+        <v>866</v>
+      </c>
+      <c r="AE17" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="AF17" s="40" t="s">
+        <v>868</v>
+      </c>
+      <c r="AG17" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="AH17" s="40" t="s">
+        <v>870</v>
+      </c>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40" t="s">
+        <v>871</v>
+      </c>
+      <c r="AK17" s="40"/>
+    </row>
+    <row r="18" spans="1:37" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="35">
         <v>2005</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="L18" s="24">
+      <c r="G18" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="L18" s="34">
         <f>LOOKUP(I18,{"?","N","Y"},{1,0,2}) + LOOKUP(J18,{"?","N","Y"},{1,0,2}) + LOOKUP(K18,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="M18" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="O18" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="S18" s="34">
+        <v>3</v>
+      </c>
+      <c r="T18" s="39" t="s">
+        <v>741</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="V18" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>780</v>
+      </c>
+      <c r="X18" s="40" t="s">
+        <v>872</v>
+      </c>
+      <c r="Y18" s="48" t="s">
+        <v>875</v>
+      </c>
+      <c r="Z18" s="40" t="s">
+        <v>873</v>
+      </c>
+      <c r="AA18" s="40" t="s">
+        <v>874</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>877</v>
+      </c>
+      <c r="AC18" s="40" t="s">
+        <v>876</v>
+      </c>
+      <c r="AD18" s="40" t="s">
+        <v>884</v>
+      </c>
+      <c r="AE18" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40" t="s">
+        <v>886</v>
+      </c>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40" t="s">
+        <v>883</v>
+      </c>
+      <c r="AK18" s="40"/>
+    </row>
+    <row r="19" spans="1:37" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="35">
         <v>2009</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="F19" s="26" t="s">
+      <c r="E19" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="F19" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="L19" s="24">
+      <c r="G19" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="L19" s="34">
         <f>LOOKUP(I19,{"?","N","Y"},{1,0,2}) + LOOKUP(J19,{"?","N","Y"},{1,0,2}) + LOOKUP(K19,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="T19" s="20"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M19" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>686</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="S19" s="34">
+        <v>3</v>
+      </c>
+      <c r="T19" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="U19" s="51" t="s">
+        <v>759</v>
+      </c>
+      <c r="V19" s="51" t="s">
+        <v>880</v>
+      </c>
+      <c r="W19" s="51" t="s">
+        <v>780</v>
+      </c>
+      <c r="X19" s="40" t="s">
+        <v>879</v>
+      </c>
+      <c r="Y19" s="48" t="s">
+        <v>885</v>
+      </c>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40" t="s">
+        <v>881</v>
+      </c>
+      <c r="AB19" s="40" t="s">
+        <v>889</v>
+      </c>
+      <c r="AC19" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="AD19" s="40" t="s">
+        <v>890</v>
+      </c>
+      <c r="AE19" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="AF19" s="40" t="s">
+        <v>887</v>
+      </c>
+      <c r="AG19" s="40" t="s">
+        <v>892</v>
+      </c>
+      <c r="AH19" s="40"/>
+      <c r="AI19" s="40" t="s">
+        <v>891</v>
+      </c>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>271</v>
       </c>
@@ -6366,25 +6777,25 @@
         <v>2007</v>
       </c>
       <c r="E20" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>551</v>
-      </c>
       <c r="G20" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L20" s="24">
         <f>LOOKUP(I20,{"?","N","Y"},{1,0,2}) + LOOKUP(J20,{"?","N","Y"},{1,0,2}) + LOOKUP(K20,{"?","N","Y"},{1,0,2})</f>
@@ -6395,46 +6806,46 @@
       <c r="V20" s="31"/>
       <c r="W20" s="31"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>481</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>482</v>
       </c>
       <c r="D21" s="25">
         <v>2010</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L21" s="24">
         <f>LOOKUP(I21,{"?","N","Y"},{1,0,2}) + LOOKUP(J21,{"?","N","Y"},{1,0,2}) + LOOKUP(K21,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>271</v>
       </c>
@@ -6448,32 +6859,32 @@
         <v>2003</v>
       </c>
       <c r="E22" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="F22" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>554</v>
-      </c>
       <c r="G22" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L22" s="24">
         <f>LOOKUP(I22,{"?","N","Y"},{1,0,2}) + LOOKUP(J22,{"?","N","Y"},{1,0,2}) + LOOKUP(K22,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>271</v>
       </c>
@@ -6487,32 +6898,32 @@
         <v>2007</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>342</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L23" s="24">
         <f>LOOKUP(I23,{"?","N","Y"},{1,0,2}) + LOOKUP(J23,{"?","N","Y"},{1,0,2}) + LOOKUP(K23,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>291</v>
       </c>
@@ -6532,65 +6943,65 @@
         <v>306</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L24" s="24">
         <f>LOOKUP(I24,{"?","N","Y"},{1,0,2}) + LOOKUP(J24,{"?","N","Y"},{1,0,2}) + LOOKUP(K24,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>419</v>
       </c>
       <c r="D25" s="25">
         <v>2011</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L25" s="24">
         <f>LOOKUP(I25,{"?","N","Y"},{1,0,2}) + LOOKUP(J25,{"?","N","Y"},{1,0,2}) + LOOKUP(K25,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>291</v>
       </c>
@@ -6610,221 +7021,221 @@
         <v>319</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L26" s="24">
         <f>LOOKUP(I26,{"?","N","Y"},{1,0,2}) + LOOKUP(J26,{"?","N","Y"},{1,0,2}) + LOOKUP(K26,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B27" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>526</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>527</v>
       </c>
       <c r="D27" s="25">
         <v>2009</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L27" s="24">
         <f>LOOKUP(I27,{"?","N","Y"},{1,0,2}) + LOOKUP(J27,{"?","N","Y"},{1,0,2}) + LOOKUP(K27,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>638</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>639</v>
       </c>
       <c r="D28" s="25">
         <v>2008</v>
       </c>
       <c r="E28" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="F28" s="26" t="s">
-        <v>641</v>
-      </c>
       <c r="G28" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L28" s="24">
         <f>LOOKUP(I28,{"?","N","Y"},{1,0,2}) + LOOKUP(J28,{"?","N","Y"},{1,0,2}) + LOOKUP(K28,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>433</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>434</v>
       </c>
       <c r="D29" s="25">
         <v>2008</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L29" s="24">
         <f>LOOKUP(I29,{"?","N","Y"},{1,0,2}) + LOOKUP(J29,{"?","N","Y"},{1,0,2}) + LOOKUP(K29,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>671</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>672</v>
       </c>
       <c r="D30" s="25">
         <v>2011</v>
       </c>
       <c r="E30" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>674</v>
-      </c>
       <c r="G30" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L30" s="24">
         <f>LOOKUP(I30,{"?","N","Y"},{1,0,2}) + LOOKUP(J30,{"?","N","Y"},{1,0,2}) + LOOKUP(K30,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>642</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>643</v>
       </c>
       <c r="D31" s="25">
         <v>2010</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L31" s="24">
         <f>LOOKUP(I31,{"?","N","Y"},{1,0,2}) + LOOKUP(J31,{"?","N","Y"},{1,0,2}) + LOOKUP(K31,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>271</v>
       </c>
@@ -6838,25 +7249,25 @@
         <v>2006</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>327</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L32" s="24">
         <f>LOOKUP(I32,{"?","N","Y"},{1,0,2}) + LOOKUP(J32,{"?","N","Y"},{1,0,2}) + LOOKUP(K32,{"?","N","Y"},{1,0,2})</f>
@@ -6868,10 +7279,10 @@
         <v>277</v>
       </c>
       <c r="B33" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>369</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>370</v>
       </c>
       <c r="D33" s="25">
         <v>2010</v>
@@ -6880,22 +7291,22 @@
         <v>280</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L33" s="24">
         <f>LOOKUP(I33,{"?","N","Y"},{1,0,2}) + LOOKUP(J33,{"?","N","Y"},{1,0,2}) + LOOKUP(K33,{"?","N","Y"},{1,0,2})</f>
@@ -6907,34 +7318,34 @@
         <v>291</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>461</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>462</v>
       </c>
       <c r="D34" s="25">
         <v>2010</v>
       </c>
       <c r="E34" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="F34" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>464</v>
-      </c>
       <c r="G34" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L34" s="24">
         <f>LOOKUP(I34,{"?","N","Y"},{1,0,2}) + LOOKUP(J34,{"?","N","Y"},{1,0,2}) + LOOKUP(K34,{"?","N","Y"},{1,0,2})</f>
@@ -6946,34 +7357,34 @@
         <v>271</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>494</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>495</v>
       </c>
       <c r="D35" s="25">
         <v>2007</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L35" s="24">
         <f>LOOKUP(I35,{"?","N","Y"},{1,0,2}) + LOOKUP(J35,{"?","N","Y"},{1,0,2}) + LOOKUP(K35,{"?","N","Y"},{1,0,2})</f>
@@ -6985,7 +7396,7 @@
         <v>271</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>140</v>
@@ -6994,25 +7405,25 @@
         <v>2008</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L36" s="24">
         <f>LOOKUP(I36,{"?","N","Y"},{1,0,2}) + LOOKUP(J36,{"?","N","Y"},{1,0,2}) + LOOKUP(K36,{"?","N","Y"},{1,0,2})</f>
@@ -7024,34 +7435,34 @@
         <v>271</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>502</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>503</v>
       </c>
       <c r="D37" s="25">
         <v>2011</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L37" s="24">
         <f>LOOKUP(I37,{"?","N","Y"},{1,0,2}) + LOOKUP(J37,{"?","N","Y"},{1,0,2}) + LOOKUP(K37,{"?","N","Y"},{1,0,2})</f>
@@ -7063,34 +7474,34 @@
         <v>271</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>506</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>507</v>
       </c>
       <c r="D38" s="25">
         <v>2010</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L38" s="24">
         <f>LOOKUP(I38,{"?","N","Y"},{1,0,2}) + LOOKUP(J38,{"?","N","Y"},{1,0,2}) + LOOKUP(K38,{"?","N","Y"},{1,0,2})</f>
@@ -7102,34 +7513,34 @@
         <v>271</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>372</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>373</v>
       </c>
       <c r="D39" s="25">
         <v>2008</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L39" s="24">
         <f>LOOKUP(I39,{"?","N","Y"},{1,0,2}) + LOOKUP(J39,{"?","N","Y"},{1,0,2}) + LOOKUP(K39,{"?","N","Y"},{1,0,2})</f>
@@ -7141,7 +7552,7 @@
         <v>291</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>157</v>
@@ -7153,22 +7564,22 @@
         <v>159</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L40" s="24">
         <f>LOOKUP(I40,{"?","N","Y"},{1,0,2}) + LOOKUP(J40,{"?","N","Y"},{1,0,2}) + LOOKUP(K40,{"?","N","Y"},{1,0,2})</f>
@@ -7180,7 +7591,7 @@
         <v>271</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>161</v>
@@ -7189,25 +7600,25 @@
         <v>2007</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L41" s="24">
         <f>LOOKUP(I41,{"?","N","Y"},{1,0,2}) + LOOKUP(J41,{"?","N","Y"},{1,0,2}) + LOOKUP(K41,{"?","N","Y"},{1,0,2})</f>
@@ -7219,34 +7630,34 @@
         <v>271</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>487</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>488</v>
       </c>
       <c r="D42" s="25">
         <v>2010</v>
       </c>
       <c r="E42" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="F42" s="26" t="s">
-        <v>614</v>
-      </c>
       <c r="G42" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L42" s="24">
         <f>LOOKUP(I42,{"?","N","Y"},{1,0,2}) + LOOKUP(J42,{"?","N","Y"},{1,0,2}) + LOOKUP(K42,{"?","N","Y"},{1,0,2})</f>
@@ -7267,25 +7678,25 @@
         <v>2007</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L43" s="24">
         <f>LOOKUP(I43,{"?","N","Y"},{1,0,2}) + LOOKUP(J43,{"?","N","Y"},{1,0,2}) + LOOKUP(K43,{"?","N","Y"},{1,0,2})</f>
@@ -7297,7 +7708,7 @@
         <v>291</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>256</v>
@@ -7309,22 +7720,22 @@
         <v>298</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L44" s="24">
         <f>LOOKUP(I44,{"?","N","Y"},{1,0,2}) + LOOKUP(J44,{"?","N","Y"},{1,0,2}) + LOOKUP(K44,{"?","N","Y"},{1,0,2})</f>
@@ -7336,34 +7747,34 @@
         <v>271</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>457</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>458</v>
       </c>
       <c r="D45" s="25">
         <v>2011</v>
       </c>
       <c r="E45" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="F45" s="26" t="s">
-        <v>607</v>
-      </c>
       <c r="G45" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L45" s="24">
         <f>LOOKUP(I45,{"?","N","Y"},{1,0,2}) + LOOKUP(J45,{"?","N","Y"},{1,0,2}) + LOOKUP(K45,{"?","N","Y"},{1,0,2})</f>
@@ -7375,34 +7786,34 @@
         <v>271</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>445</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>446</v>
       </c>
       <c r="D46" s="25">
         <v>2011</v>
       </c>
       <c r="E46" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="F46" s="26" t="s">
-        <v>601</v>
-      </c>
       <c r="G46" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L46" s="24">
         <f>LOOKUP(I46,{"?","N","Y"},{1,0,2}) + LOOKUP(J46,{"?","N","Y"},{1,0,2}) + LOOKUP(K46,{"?","N","Y"},{1,0,2})</f>
@@ -7414,7 +7825,7 @@
         <v>271</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>168</v>
@@ -7423,25 +7834,25 @@
         <v>2008</v>
       </c>
       <c r="E47" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="F47" s="26" t="s">
-        <v>670</v>
-      </c>
       <c r="G47" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L47" s="24">
         <f>LOOKUP(I47,{"?","N","Y"},{1,0,2}) + LOOKUP(J47,{"?","N","Y"},{1,0,2}) + LOOKUP(K47,{"?","N","Y"},{1,0,2})</f>
@@ -7462,25 +7873,25 @@
         <v>2008</v>
       </c>
       <c r="E48" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="F48" s="26" t="s">
-        <v>565</v>
-      </c>
       <c r="G48" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L48" s="24">
         <f>LOOKUP(I48,{"?","N","Y"},{1,0,2}) + LOOKUP(J48,{"?","N","Y"},{1,0,2}) + LOOKUP(K48,{"?","N","Y"},{1,0,2})</f>
@@ -7496,7 +7907,7 @@
         <v>271</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>94</v>
@@ -7505,25 +7916,25 @@
         <v>2008</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L49" s="24">
         <f>LOOKUP(I49,{"?","N","Y"},{1,0,2}) + LOOKUP(J49,{"?","N","Y"},{1,0,2}) + LOOKUP(K49,{"?","N","Y"},{1,0,2})</f>
@@ -7535,34 +7946,34 @@
         <v>271</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>517</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>518</v>
       </c>
       <c r="D50" s="25">
         <v>2009</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L50" s="24">
         <f>LOOKUP(I50,{"?","N","Y"},{1,0,2}) + LOOKUP(J50,{"?","N","Y"},{1,0,2}) + LOOKUP(K50,{"?","N","Y"},{1,0,2})</f>
@@ -7574,34 +7985,34 @@
         <v>271</v>
       </c>
       <c r="B51" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>515</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>516</v>
       </c>
       <c r="D51" s="25">
         <v>2011</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L51" s="24">
         <f>LOOKUP(I51,{"?","N","Y"},{1,0,2}) + LOOKUP(J51,{"?","N","Y"},{1,0,2}) + LOOKUP(K51,{"?","N","Y"},{1,0,2})</f>
@@ -7622,25 +8033,25 @@
         <v>2006</v>
       </c>
       <c r="E52" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>569</v>
-      </c>
       <c r="G52" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L52" s="24">
         <f>LOOKUP(I52,{"?","N","Y"},{1,0,2}) + LOOKUP(J52,{"?","N","Y"},{1,0,2}) + LOOKUP(K52,{"?","N","Y"},{1,0,2})</f>
@@ -7661,25 +8072,25 @@
         <v>2004</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F53" s="26" t="s">
         <v>313</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L53" s="24">
         <f>LOOKUP(I53,{"?","N","Y"},{1,0,2}) + LOOKUP(J53,{"?","N","Y"},{1,0,2}) + LOOKUP(K53,{"?","N","Y"},{1,0,2})</f>
@@ -7691,34 +8102,34 @@
         <v>291</v>
       </c>
       <c r="B54" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>429</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>430</v>
       </c>
       <c r="D54" s="25">
         <v>2010</v>
       </c>
       <c r="E54" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="F54" s="26" t="s">
-        <v>432</v>
-      </c>
       <c r="G54" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L54" s="24">
         <f>LOOKUP(I54,{"?","N","Y"},{1,0,2}) + LOOKUP(J54,{"?","N","Y"},{1,0,2}) + LOOKUP(K54,{"?","N","Y"},{1,0,2})</f>
@@ -7730,34 +8141,34 @@
         <v>271</v>
       </c>
       <c r="B55" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>406</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>407</v>
       </c>
       <c r="D55" s="25">
         <v>2008</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L55" s="24">
         <f>LOOKUP(I55,{"?","N","Y"},{1,0,2}) + LOOKUP(J55,{"?","N","Y"},{1,0,2}) + LOOKUP(K55,{"?","N","Y"},{1,0,2})</f>
@@ -7769,34 +8180,34 @@
         <v>271</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>634</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>635</v>
       </c>
       <c r="D56" s="25">
         <v>2012</v>
       </c>
       <c r="E56" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="F56" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="F56" s="26" t="s">
-        <v>637</v>
-      </c>
       <c r="G56" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L56" s="24">
         <f>LOOKUP(I56,{"?","N","Y"},{1,0,2}) + LOOKUP(J56,{"?","N","Y"},{1,0,2}) + LOOKUP(K56,{"?","N","Y"},{1,0,2})</f>
@@ -7817,25 +8228,25 @@
         <v>2008</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L57" s="24">
         <f>LOOKUP(I57,{"?","N","Y"},{1,0,2}) + LOOKUP(J57,{"?","N","Y"},{1,0,2}) + LOOKUP(K57,{"?","N","Y"},{1,0,2})</f>
@@ -7856,25 +8267,25 @@
         <v>2007</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L58" s="24">
         <f>LOOKUP(I58,{"?","N","Y"},{1,0,2}) + LOOKUP(J58,{"?","N","Y"},{1,0,2}) + LOOKUP(K58,{"?","N","Y"},{1,0,2})</f>
@@ -7895,25 +8306,25 @@
         <v>2007</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F59" s="26" t="s">
         <v>302</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L59" s="24">
         <f>LOOKUP(I59,{"?","N","Y"},{1,0,2}) + LOOKUP(J59,{"?","N","Y"},{1,0,2}) + LOOKUP(K59,{"?","N","Y"},{1,0,2})</f>
@@ -7929,34 +8340,34 @@
         <v>277</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D60" s="25">
         <v>2009</v>
       </c>
       <c r="E60" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="F60" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="F60" s="26" t="s">
-        <v>397</v>
-      </c>
       <c r="G60" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L60" s="24">
         <f>LOOKUP(I60,{"?","N","Y"},{1,0,2}) + LOOKUP(J60,{"?","N","Y"},{1,0,2}) + LOOKUP(K60,{"?","N","Y"},{1,0,2})</f>
@@ -7968,34 +8379,34 @@
         <v>271</v>
       </c>
       <c r="B61" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>375</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>376</v>
       </c>
       <c r="D61" s="25">
         <v>2005</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L61" s="24">
         <f>LOOKUP(I61,{"?","N","Y"},{1,0,2}) + LOOKUP(J61,{"?","N","Y"},{1,0,2}) + LOOKUP(K61,{"?","N","Y"},{1,0,2})</f>
@@ -8007,10 +8418,10 @@
         <v>291</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>478</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>479</v>
       </c>
       <c r="D62" s="25">
         <v>2005</v>
@@ -8019,22 +8430,22 @@
         <v>318</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J62" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L62" s="24">
         <f>LOOKUP(I62,{"?","N","Y"},{1,0,2}) + LOOKUP(J62,{"?","N","Y"},{1,0,2}) + LOOKUP(K62,{"?","N","Y"},{1,0,2})</f>
@@ -8046,34 +8457,34 @@
         <v>271</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>645</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>646</v>
       </c>
       <c r="D63" s="25">
         <v>2011</v>
       </c>
       <c r="E63" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="F63" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="F63" s="26" t="s">
-        <v>648</v>
-      </c>
       <c r="G63" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L63" s="24">
         <f>LOOKUP(I63,{"?","N","Y"},{1,0,2}) + LOOKUP(J63,{"?","N","Y"},{1,0,2}) + LOOKUP(K63,{"?","N","Y"},{1,0,2})</f>
@@ -8085,34 +8496,34 @@
         <v>271</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>442</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>443</v>
       </c>
       <c r="D64" s="25">
         <v>2005</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J64" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L64" s="24">
         <f>LOOKUP(I64,{"?","N","Y"},{1,0,2}) + LOOKUP(J64,{"?","N","Y"},{1,0,2}) + LOOKUP(K64,{"?","N","Y"},{1,0,2})</f>
@@ -8124,34 +8535,34 @@
         <v>271</v>
       </c>
       <c r="B65" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>523</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>524</v>
       </c>
       <c r="D65" s="25">
         <v>2008</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J65" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L65" s="24">
         <f>LOOKUP(I65,{"?","N","Y"},{1,0,2}) + LOOKUP(J65,{"?","N","Y"},{1,0,2}) + LOOKUP(K65,{"?","N","Y"},{1,0,2})</f>
@@ -8163,34 +8574,34 @@
         <v>271</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>367</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>368</v>
       </c>
       <c r="D66" s="25">
         <v>2006</v>
       </c>
       <c r="E66" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="F66" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="F66" s="26" t="s">
-        <v>575</v>
-      </c>
       <c r="G66" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L66" s="24">
         <f>LOOKUP(I66,{"?","N","Y"},{1,0,2}) + LOOKUP(J66,{"?","N","Y"},{1,0,2}) + LOOKUP(K66,{"?","N","Y"},{1,0,2})</f>
@@ -8202,34 +8613,34 @@
         <v>271</v>
       </c>
       <c r="B67" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>378</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>379</v>
       </c>
       <c r="D67" s="25">
         <v>2009</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L67" s="24">
         <f>LOOKUP(I67,{"?","N","Y"},{1,0,2}) + LOOKUP(J67,{"?","N","Y"},{1,0,2}) + LOOKUP(K67,{"?","N","Y"},{1,0,2})</f>
@@ -8241,34 +8652,34 @@
         <v>271</v>
       </c>
       <c r="B68" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>473</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>474</v>
       </c>
       <c r="D68" s="25">
         <v>2012</v>
       </c>
       <c r="E68" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="F68" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="F68" s="26" t="s">
-        <v>611</v>
-      </c>
       <c r="G68" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L68" s="24">
         <f>LOOKUP(I68,{"?","N","Y"},{1,0,2}) + LOOKUP(J68,{"?","N","Y"},{1,0,2}) + LOOKUP(K68,{"?","N","Y"},{1,0,2})</f>
@@ -8280,34 +8691,34 @@
         <v>271</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>383</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>384</v>
       </c>
       <c r="D69" s="25">
         <v>2009</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L69" s="24">
         <f>LOOKUP(I69,{"?","N","Y"},{1,0,2}) + LOOKUP(J69,{"?","N","Y"},{1,0,2}) + LOOKUP(K69,{"?","N","Y"},{1,0,2})</f>
@@ -8319,7 +8730,7 @@
         <v>271</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>114</v>
@@ -8328,25 +8739,25 @@
         <v>2006</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L70" s="24">
         <f>LOOKUP(I70,{"?","N","Y"},{1,0,2}) + LOOKUP(J70,{"?","N","Y"},{1,0,2}) + LOOKUP(K70,{"?","N","Y"},{1,0,2})</f>
@@ -8358,34 +8769,34 @@
         <v>271</v>
       </c>
       <c r="B71" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>489</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>490</v>
       </c>
       <c r="D71" s="25">
         <v>2007</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L71" s="24">
         <f>LOOKUP(I71,{"?","N","Y"},{1,0,2}) + LOOKUP(J71,{"?","N","Y"},{1,0,2}) + LOOKUP(K71,{"?","N","Y"},{1,0,2})</f>
@@ -8397,34 +8808,34 @@
         <v>271</v>
       </c>
       <c r="B72" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>398</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>399</v>
       </c>
       <c r="D72" s="25">
         <v>2009</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L72" s="24">
         <f>LOOKUP(I72,{"?","N","Y"},{1,0,2}) + LOOKUP(J72,{"?","N","Y"},{1,0,2}) + LOOKUP(K72,{"?","N","Y"},{1,0,2})</f>
@@ -8436,34 +8847,34 @@
         <v>291</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>409</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>410</v>
       </c>
       <c r="D73" s="25">
         <v>2011</v>
       </c>
       <c r="E73" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F73" s="26" t="s">
         <v>411</v>
       </c>
-      <c r="F73" s="26" t="s">
-        <v>412</v>
-      </c>
       <c r="G73" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L73" s="24">
         <f>LOOKUP(I73,{"?","N","Y"},{1,0,2}) + LOOKUP(J73,{"?","N","Y"},{1,0,2}) + LOOKUP(K73,{"?","N","Y"},{1,0,2})</f>
@@ -8475,34 +8886,34 @@
         <v>291</v>
       </c>
       <c r="B74" s="24" t="s">
+        <v>659</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>660</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>661</v>
       </c>
       <c r="D74" s="25">
         <v>2004</v>
       </c>
       <c r="E74" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="F74" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="F74" s="26" t="s">
-        <v>663</v>
-      </c>
       <c r="G74" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L74" s="24">
         <f>LOOKUP(I74,{"?","N","Y"},{1,0,2}) + LOOKUP(J74,{"?","N","Y"},{1,0,2}) + LOOKUP(K74,{"?","N","Y"},{1,0,2})</f>
@@ -8529,19 +8940,19 @@
         <v>281</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L75" s="24">
         <f>LOOKUP(I75,{"?","N","Y"},{1,0,2}) + LOOKUP(J75,{"?","N","Y"},{1,0,2}) + LOOKUP(K75,{"?","N","Y"},{1,0,2})</f>
@@ -8566,25 +8977,25 @@
         <v>1997</v>
       </c>
       <c r="E76" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="F76" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="F76" s="26" t="s">
-        <v>545</v>
-      </c>
       <c r="G76" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L76" s="24">
         <f>LOOKUP(I76,{"?","N","Y"},{1,0,2}) + LOOKUP(J76,{"?","N","Y"},{1,0,2}) + LOOKUP(K76,{"?","N","Y"},{1,0,2})</f>
@@ -8596,10 +9007,10 @@
         <v>291</v>
       </c>
       <c r="B77" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>449</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>450</v>
       </c>
       <c r="D77" s="25">
         <v>2008</v>
@@ -8608,22 +9019,22 @@
         <v>1</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L77" s="24">
         <f>LOOKUP(I77,{"?","N","Y"},{1,0,2}) + LOOKUP(J77,{"?","N","Y"},{1,0,2}) + LOOKUP(K77,{"?","N","Y"},{1,0,2})</f>
@@ -8650,19 +9061,19 @@
         <v>295</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L78" s="24">
         <f>LOOKUP(I78,{"?","N","Y"},{1,0,2}) + LOOKUP(J78,{"?","N","Y"},{1,0,2}) + LOOKUP(K78,{"?","N","Y"},{1,0,2})</f>
@@ -8674,34 +9085,34 @@
         <v>271</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>631</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>632</v>
       </c>
       <c r="D79" s="25">
         <v>2008</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L79" s="24">
         <f>LOOKUP(I79,{"?","N","Y"},{1,0,2}) + LOOKUP(J79,{"?","N","Y"},{1,0,2}) + LOOKUP(K79,{"?","N","Y"},{1,0,2})</f>
@@ -8713,34 +9124,34 @@
         <v>271</v>
       </c>
       <c r="B80" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>420</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>421</v>
       </c>
       <c r="D80" s="25">
         <v>2007</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L80" s="24">
         <f>LOOKUP(I80,{"?","N","Y"},{1,0,2}) + LOOKUP(J80,{"?","N","Y"},{1,0,2}) + LOOKUP(K80,{"?","N","Y"},{1,0,2})</f>
@@ -8752,34 +9163,34 @@
         <v>271</v>
       </c>
       <c r="B81" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>650</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>651</v>
       </c>
       <c r="D81" s="25">
         <v>2010</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L81" s="24">
         <f>LOOKUP(I81,{"?","N","Y"},{1,0,2}) + LOOKUP(J81,{"?","N","Y"},{1,0,2}) + LOOKUP(K81,{"?","N","Y"},{1,0,2})</f>
@@ -8800,25 +9211,25 @@
         <v>2011</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F82" s="26" t="s">
         <v>324</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L82" s="24">
         <f>LOOKUP(I82,{"?","N","Y"},{1,0,2}) + LOOKUP(J82,{"?","N","Y"},{1,0,2}) + LOOKUP(K82,{"?","N","Y"},{1,0,2})</f>
@@ -8830,7 +9241,7 @@
         <v>271</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>146</v>
@@ -8839,25 +9250,25 @@
         <v>2009</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L83" s="24">
         <f>LOOKUP(I83,{"?","N","Y"},{1,0,2}) + LOOKUP(J83,{"?","N","Y"},{1,0,2}) + LOOKUP(K83,{"?","N","Y"},{1,0,2})</f>
@@ -8869,7 +9280,7 @@
         <v>271</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>215</v>
@@ -8878,25 +9289,25 @@
         <v>2009</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L84" s="24">
         <f>LOOKUP(I84,{"?","N","Y"},{1,0,2}) + LOOKUP(J84,{"?","N","Y"},{1,0,2}) + LOOKUP(K84,{"?","N","Y"},{1,0,2})</f>
@@ -8908,34 +9319,34 @@
         <v>271</v>
       </c>
       <c r="B85" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>401</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>402</v>
       </c>
       <c r="D85" s="25">
         <v>2010</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L85" s="24">
         <f>LOOKUP(I85,{"?","N","Y"},{1,0,2}) + LOOKUP(J85,{"?","N","Y"},{1,0,2}) + LOOKUP(K85,{"?","N","Y"},{1,0,2})</f>
@@ -8947,7 +9358,7 @@
         <v>271</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>176</v>
@@ -8956,25 +9367,25 @@
         <v>2005</v>
       </c>
       <c r="E86" s="22" t="s">
+        <v>679</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="F86" s="26" t="s">
-        <v>681</v>
-      </c>
       <c r="G86" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L86" s="24">
         <f>LOOKUP(I86,{"?","N","Y"},{1,0,2}) + LOOKUP(J86,{"?","N","Y"},{1,0,2}) + LOOKUP(K86,{"?","N","Y"},{1,0,2})</f>
@@ -8995,25 +9406,25 @@
         <v>2005</v>
       </c>
       <c r="E87" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="F87" s="26" t="s">
-        <v>556</v>
-      </c>
       <c r="G87" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L87" s="24">
         <f>LOOKUP(I87,{"?","N","Y"},{1,0,2}) + LOOKUP(J87,{"?","N","Y"},{1,0,2}) + LOOKUP(K87,{"?","N","Y"},{1,0,2})</f>
@@ -9025,34 +9436,34 @@
         <v>271</v>
       </c>
       <c r="B88" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>403</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>404</v>
       </c>
       <c r="D88" s="25">
         <v>2011</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L88" s="24">
         <f>LOOKUP(I88,{"?","N","Y"},{1,0,2}) + LOOKUP(J88,{"?","N","Y"},{1,0,2}) + LOOKUP(K88,{"?","N","Y"},{1,0,2})</f>
@@ -9064,34 +9475,34 @@
         <v>271</v>
       </c>
       <c r="B89" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>455</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>456</v>
       </c>
       <c r="D89" s="25">
         <v>2010</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L89" s="24">
         <f>LOOKUP(I89,{"?","N","Y"},{1,0,2}) + LOOKUP(J89,{"?","N","Y"},{1,0,2}) + LOOKUP(K89,{"?","N","Y"},{1,0,2})</f>
@@ -9103,34 +9514,34 @@
         <v>271</v>
       </c>
       <c r="B90" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>521</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>522</v>
       </c>
       <c r="D90" s="25">
         <v>2008</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J90" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L90" s="24">
         <f>LOOKUP(I90,{"?","N","Y"},{1,0,2}) + LOOKUP(J90,{"?","N","Y"},{1,0,2}) + LOOKUP(K90,{"?","N","Y"},{1,0,2})</f>
@@ -9157,19 +9568,19 @@
         <v>299</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L91" s="24">
         <f>LOOKUP(I91,{"?","N","Y"},{1,0,2}) + LOOKUP(J91,{"?","N","Y"},{1,0,2}) + LOOKUP(K91,{"?","N","Y"},{1,0,2})</f>
@@ -9181,34 +9592,34 @@
         <v>271</v>
       </c>
       <c r="B92" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>423</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>424</v>
       </c>
       <c r="D92" s="25">
         <v>2011</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J92" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L92" s="24">
         <f>LOOKUP(I92,{"?","N","Y"},{1,0,2}) + LOOKUP(J92,{"?","N","Y"},{1,0,2}) + LOOKUP(K92,{"?","N","Y"},{1,0,2})</f>
@@ -9229,25 +9640,25 @@
         <v>2011</v>
       </c>
       <c r="E93" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="F93" s="26" t="s">
-        <v>541</v>
-      </c>
       <c r="G93" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L93" s="24">
         <f>LOOKUP(I93,{"?","N","Y"},{1,0,2}) + LOOKUP(J93,{"?","N","Y"},{1,0,2}) + LOOKUP(K93,{"?","N","Y"},{1,0,2})</f>
@@ -9259,7 +9670,7 @@
         <v>291</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>86</v>
@@ -9271,22 +9682,22 @@
         <v>305</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L94" s="24">
         <f>LOOKUP(I94,{"?","N","Y"},{1,0,2}) + LOOKUP(J94,{"?","N","Y"},{1,0,2}) + LOOKUP(K94,{"?","N","Y"},{1,0,2})</f>
@@ -9298,34 +9709,34 @@
         <v>271</v>
       </c>
       <c r="B95" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>414</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>415</v>
       </c>
       <c r="D95" s="25">
         <v>2009</v>
       </c>
       <c r="E95" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="F95" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="F95" s="26" t="s">
-        <v>591</v>
-      </c>
       <c r="G95" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L95" s="24">
         <f>LOOKUP(I95,{"?","N","Y"},{1,0,2}) + LOOKUP(J95,{"?","N","Y"},{1,0,2}) + LOOKUP(K95,{"?","N","Y"},{1,0,2})</f>
@@ -9337,34 +9748,34 @@
         <v>271</v>
       </c>
       <c r="B96" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>365</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>366</v>
       </c>
       <c r="D96" s="25">
         <v>2010</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L96" s="24">
         <f>LOOKUP(I96,{"?","N","Y"},{1,0,2}) + LOOKUP(J96,{"?","N","Y"},{1,0,2}) + LOOKUP(K96,{"?","N","Y"},{1,0,2})</f>
@@ -9376,10 +9787,10 @@
         <v>291</v>
       </c>
       <c r="B97" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>475</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>476</v>
       </c>
       <c r="D97" s="25">
         <v>2006</v>
@@ -9388,22 +9799,22 @@
         <v>1</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L97" s="24">
         <f>LOOKUP(I97,{"?","N","Y"},{1,0,2}) + LOOKUP(J97,{"?","N","Y"},{1,0,2}) + LOOKUP(K97,{"?","N","Y"},{1,0,2})</f>
@@ -9415,34 +9826,34 @@
         <v>271</v>
       </c>
       <c r="B98" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>459</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>460</v>
       </c>
       <c r="D98" s="25">
         <v>2007</v>
       </c>
       <c r="E98" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="F98" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="F98" s="26" t="s">
-        <v>609</v>
-      </c>
       <c r="G98" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L98" s="24">
         <f>LOOKUP(I98,{"?","N","Y"},{1,0,2}) + LOOKUP(J98,{"?","N","Y"},{1,0,2}) + LOOKUP(K98,{"?","N","Y"},{1,0,2})</f>
@@ -9463,25 +9874,25 @@
         <v>2005</v>
       </c>
       <c r="E99" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="F99" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="F99" s="26" t="s">
-        <v>559</v>
-      </c>
       <c r="G99" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L99" s="24">
         <f>LOOKUP(I99,{"?","N","Y"},{1,0,2}) + LOOKUP(J99,{"?","N","Y"},{1,0,2}) + LOOKUP(K99,{"?","N","Y"},{1,0,2})</f>
@@ -9493,34 +9904,34 @@
         <v>271</v>
       </c>
       <c r="B100" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>416</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>417</v>
       </c>
       <c r="D100" s="25">
         <v>2010</v>
       </c>
       <c r="E100" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="F100" s="26" t="s">
-        <v>593</v>
-      </c>
       <c r="G100" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J100" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L100" s="24">
         <f>LOOKUP(I100,{"?","N","Y"},{1,0,2}) + LOOKUP(J100,{"?","N","Y"},{1,0,2}) + LOOKUP(K100,{"?","N","Y"},{1,0,2})</f>
@@ -9532,34 +9943,34 @@
         <v>271</v>
       </c>
       <c r="B101" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>491</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>492</v>
       </c>
       <c r="D101" s="25">
         <v>2011</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J101" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L101" s="24">
         <f>LOOKUP(I101,{"?","N","Y"},{1,0,2}) + LOOKUP(J101,{"?","N","Y"},{1,0,2}) + LOOKUP(K101,{"?","N","Y"},{1,0,2})</f>
@@ -9571,34 +9982,34 @@
         <v>271</v>
       </c>
       <c r="B102" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>389</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>390</v>
       </c>
       <c r="D102" s="25">
         <v>1997</v>
       </c>
       <c r="E102" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="F102" s="26" t="s">
-        <v>582</v>
-      </c>
       <c r="G102" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I102" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J102" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L102" s="24">
         <f>LOOKUP(I102,{"?","N","Y"},{1,0,2}) + LOOKUP(J102,{"?","N","Y"},{1,0,2}) + LOOKUP(K102,{"?","N","Y"},{1,0,2})</f>
@@ -9610,34 +10021,34 @@
         <v>271</v>
       </c>
       <c r="B103" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>514</v>
       </c>
       <c r="D103" s="25">
         <v>2007</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I103" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J103" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L103" s="24">
         <f>LOOKUP(I103,{"?","N","Y"},{1,0,2}) + LOOKUP(J103,{"?","N","Y"},{1,0,2}) + LOOKUP(K103,{"?","N","Y"},{1,0,2})</f>
@@ -9649,34 +10060,34 @@
         <v>291</v>
       </c>
       <c r="B104" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>509</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>510</v>
       </c>
       <c r="D104" s="25">
         <v>2011</v>
       </c>
       <c r="E104" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="F104" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="F104" s="26" t="s">
-        <v>512</v>
-      </c>
       <c r="G104" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L104" s="24">
         <f>LOOKUP(I104,{"?","N","Y"},{1,0,2}) + LOOKUP(J104,{"?","N","Y"},{1,0,2}) + LOOKUP(K104,{"?","N","Y"},{1,0,2})</f>
@@ -9688,34 +10099,34 @@
         <v>271</v>
       </c>
       <c r="B105" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" s="24" t="s">
         <v>381</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>382</v>
       </c>
       <c r="D105" s="25">
         <v>2009</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I105" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J105" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L105" s="24">
         <f>LOOKUP(I105,{"?","N","Y"},{1,0,2}) + LOOKUP(J105,{"?","N","Y"},{1,0,2}) + LOOKUP(K105,{"?","N","Y"},{1,0,2})</f>
@@ -9742,19 +10153,19 @@
         <v>339</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L106" s="24">
         <f>LOOKUP(I106,{"?","N","Y"},{1,0,2}) + LOOKUP(J106,{"?","N","Y"},{1,0,2}) + LOOKUP(K106,{"?","N","Y"},{1,0,2})</f>
@@ -9781,19 +10192,19 @@
         <v>354</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I107" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L107" s="24">
         <f>LOOKUP(I107,{"?","N","Y"},{1,0,2}) + LOOKUP(J107,{"?","N","Y"},{1,0,2}) + LOOKUP(K107,{"?","N","Y"},{1,0,2})</f>
@@ -9805,34 +10216,34 @@
         <v>271</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D108" s="25">
         <v>2010</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L108" s="24">
         <f>LOOKUP(I108,{"?","N","Y"},{1,0,2}) + LOOKUP(J108,{"?","N","Y"},{1,0,2}) + LOOKUP(K108,{"?","N","Y"},{1,0,2})</f>
@@ -9853,25 +10264,25 @@
         <v>2010</v>
       </c>
       <c r="E109" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="F109" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="F109" s="26" t="s">
-        <v>562</v>
-      </c>
       <c r="G109" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J109" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L109" s="24">
         <f>LOOKUP(I109,{"?","N","Y"},{1,0,2}) + LOOKUP(J109,{"?","N","Y"},{1,0,2}) + LOOKUP(K109,{"?","N","Y"},{1,0,2})</f>
@@ -9892,25 +10303,25 @@
         <v>1998</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J110" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L110" s="24">
         <f>LOOKUP(I110,{"?","N","Y"},{1,0,2}) + LOOKUP(J110,{"?","N","Y"},{1,0,2}) + LOOKUP(K110,{"?","N","Y"},{1,0,2})</f>
@@ -9922,7 +10333,7 @@
         <v>291</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>250</v>
@@ -9931,25 +10342,25 @@
         <v>2006</v>
       </c>
       <c r="E111" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="F111" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="F111" s="26" t="s">
-        <v>467</v>
-      </c>
       <c r="G111" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J111" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L111" s="24">
         <f>LOOKUP(I111,{"?","N","Y"},{1,0,2}) + LOOKUP(J111,{"?","N","Y"},{1,0,2}) + LOOKUP(K111,{"?","N","Y"},{1,0,2})</f>
@@ -9970,25 +10381,25 @@
         <v>2011</v>
       </c>
       <c r="E112" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="F112" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="F112" s="26" t="s">
-        <v>549</v>
-      </c>
       <c r="G112" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J112" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L112" s="24">
         <f>LOOKUP(I112,{"?","N","Y"},{1,0,2}) + LOOKUP(J112,{"?","N","Y"},{1,0,2}) + LOOKUP(K112,{"?","N","Y"},{1,0,2})</f>
@@ -10000,34 +10411,34 @@
         <v>271</v>
       </c>
       <c r="B113" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" s="24" t="s">
         <v>447</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>448</v>
       </c>
       <c r="D113" s="25">
         <v>2004</v>
       </c>
       <c r="E113" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="F113" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="F113" s="26" t="s">
-        <v>603</v>
-      </c>
       <c r="G113" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J113" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L113" s="24">
         <f>LOOKUP(I113,{"?","N","Y"},{1,0,2}) + LOOKUP(J113,{"?","N","Y"},{1,0,2}) + LOOKUP(K113,{"?","N","Y"},{1,0,2})</f>
@@ -10039,34 +10450,34 @@
         <v>271</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D114" s="25">
         <v>2002</v>
       </c>
       <c r="E114" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="F114" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="F114" s="26" t="s">
-        <v>579</v>
-      </c>
       <c r="G114" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J114" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L114" s="24">
         <f>LOOKUP(I114,{"?","N","Y"},{1,0,2}) + LOOKUP(J114,{"?","N","Y"},{1,0,2}) + LOOKUP(K114,{"?","N","Y"},{1,0,2})</f>
@@ -10078,34 +10489,34 @@
         <v>291</v>
       </c>
       <c r="B115" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C115" s="24" t="s">
         <v>498</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>499</v>
       </c>
       <c r="D115" s="25">
         <v>1994</v>
       </c>
       <c r="E115" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="F115" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="F115" s="26" t="s">
-        <v>501</v>
-      </c>
       <c r="G115" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J115" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L115" s="24">
         <f>LOOKUP(I115,{"?","N","Y"},{1,0,2}) + LOOKUP(J115,{"?","N","Y"},{1,0,2}) + LOOKUP(K115,{"?","N","Y"},{1,0,2})</f>
@@ -10117,34 +10528,34 @@
         <v>271</v>
       </c>
       <c r="B116" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="C116" s="24" t="s">
         <v>531</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>532</v>
       </c>
       <c r="D116" s="25">
         <v>2007</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G116" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J116" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L116" s="24">
         <f>LOOKUP(I116,{"?","N","Y"},{1,0,2}) + LOOKUP(J116,{"?","N","Y"},{1,0,2}) + LOOKUP(K116,{"?","N","Y"},{1,0,2})</f>
@@ -10165,25 +10576,25 @@
         <v>2009</v>
       </c>
       <c r="E117" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="F117" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="F117" s="26" t="s">
-        <v>567</v>
-      </c>
       <c r="G117" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I117" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J117" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L117" s="24">
         <f>LOOKUP(I117,{"?","N","Y"},{1,0,2}) + LOOKUP(J117,{"?","N","Y"},{1,0,2}) + LOOKUP(K117,{"?","N","Y"},{1,0,2})</f>
@@ -10195,34 +10606,34 @@
         <v>277</v>
       </c>
       <c r="B118" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="C118" s="24" t="s">
         <v>438</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>439</v>
       </c>
       <c r="D118" s="25">
         <v>2011</v>
       </c>
       <c r="E118" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="F118" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="F118" s="26" t="s">
-        <v>441</v>
-      </c>
       <c r="G118" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L118" s="24">
         <f>LOOKUP(I118,{"?","N","Y"},{1,0,2}) + LOOKUP(J118,{"?","N","Y"},{1,0,2}) + LOOKUP(K118,{"?","N","Y"},{1,0,2})</f>
@@ -10234,34 +10645,34 @@
         <v>271</v>
       </c>
       <c r="B119" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C119" s="24" t="s">
         <v>427</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>428</v>
       </c>
       <c r="D119" s="25">
         <v>1996</v>
       </c>
       <c r="E119" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="F119" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="F119" s="26" t="s">
-        <v>599</v>
-      </c>
       <c r="G119" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J119" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L119" s="24">
         <f>LOOKUP(I119,{"?","N","Y"},{1,0,2}) + LOOKUP(J119,{"?","N","Y"},{1,0,2}) + LOOKUP(K119,{"?","N","Y"},{1,0,2})</f>
@@ -10288,19 +10699,19 @@
         <v>346</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L120" s="24">
         <f>LOOKUP(I120,{"?","N","Y"},{1,0,2}) + LOOKUP(J120,{"?","N","Y"},{1,0,2}) + LOOKUP(K120,{"?","N","Y"},{1,0,2})</f>
@@ -10309,42 +10720,42 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G121" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G122" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G123" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G124" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G125" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G126" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G127" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G128" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -10353,7 +10764,7 @@
       <c r="D129" s="22"/>
       <c r="F129" s="22"/>
       <c r="G129" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -10362,7 +10773,7 @@
       <c r="D130" s="22"/>
       <c r="F130" s="22"/>
       <c r="G130" s="27" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>

--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="921">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -882,9 +882,6 @@
   </si>
   <si>
     <t>Experience of executing fixed price off-shored agile project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom J. Bang. </t>
   </si>
   <si>
     <t>Introducing agile methods into a project organisation</t>
@@ -2748,13 +2745,108 @@
   <si>
     <t>Safety and morale has increased. Employees feel appreciated, valued, empowered.</t>
   </si>
+  <si>
+    <t>Tom J. Bang.</t>
+  </si>
+  <si>
+    <t>Bias, results presented seemingly subjectively</t>
+  </si>
+  <si>
+    <t>160 employees</t>
+  </si>
+  <si>
+    <t>2004-&gt; (2-3 years)</t>
+  </si>
+  <si>
+    <t>Waterfall-like projects. Use of RUP.</t>
+  </si>
+  <si>
+    <t>Higher quality was demanded. Late testing was some times a problem. A goal for higher external quality was set: improved “fitness for use” and “conformance to requirements”.
+Problems with process: misinterpreted documents, change requests coming in late, leaving risky integrations late</t>
+  </si>
+  <si>
+    <t>It was noted that agile would change the entire way of working. Management was supportive. A change group with representation from all internal project areas was established.
+The entire organization was educated on agile. Agile workshops, meetings and discussions were held weekly and monthly. Seminars and presentations were held for customers.
+Projects tested some agile methods without calling it an agile project. Projects evolved to agile step by step.</t>
+  </si>
+  <si>
+    <t>Not one specific method. Unified Process used as a framework.</t>
+  </si>
+  <si>
+    <t>Involve management, sales and other stakeholders. Find and use agile ambassadors. Don't become “religious”. The customer must understand and trust the new model. Do not do all at once, but focus on your needs.</t>
+  </si>
+  <si>
+    <t>Sales and project management must adjust contracts to suite agile projects. Some people are doing agile practices without understanding the agile values and principles. Convincing customers to trust agile.</t>
+  </si>
+  <si>
+    <t>2007-</t>
+  </si>
+  <si>
+    <t>Authon manager in organization</t>
+  </si>
+  <si>
+    <t>over 500 people, author's department with 100 people</t>
+  </si>
+  <si>
+    <t>Focus on managers' role in adopting agile</t>
+  </si>
+  <si>
+    <t>Teams organized around components, not customer deliverables. Single functional component teams.</t>
+  </si>
+  <si>
+    <t>Employ a cutomer-oriented product backlog and teams accordingly, so that potentially shippable increments are produced in every sprint.
+Even though the goal is to achieve self-management, the process of getting there requires management efforts.</t>
+  </si>
+  <si>
+    <t>Project managers disbanded. Cross functional teams implemented. Product manager as agile product owner. Scrum master community created.</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>None discussed</t>
+  </si>
+  <si>
+    <t>The organizational management must change in order to enable self-management in teams.</t>
+  </si>
+  <si>
+    <t>The product owner - scrum master - team model was chosen to be implemented. Project managers were eliminated to support this model. People managers were not threatened by this change. The challenge was to get people managers to understand their role as leaders and coaches.
+Management was planning the composition of teams. People were educated in self-organization. A team forming session was arranged for the entire department. 10 teams was formed in a one hour session.
+Scrum masters were not chosen solely by teams. Some line managers acted as scrum masters. Some people grew into scrum mansters. A community of scrum masters was evolving. Line managers acted as mentors for scrum masters. Great scrum masters were promoted to line managers. As the number of scrum masters grew the community evolved into a larger Community of Practice.</t>
+  </si>
+  <si>
+    <t>Ei löydy??</t>
+  </si>
+  <si>
+    <t>275 immediate and over 3000 supportive resources</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>Mitigate risks caused by parent organization delivering their functionality late.</t>
+  </si>
+  <si>
+    <t>Weaving together several agile methodologies: Scrum FDD, TDD, XP, reviews, etc.</t>
+  </si>
+  <si>
+    <t>Describes agile practices but not how to put them into use (transformation)</t>
+  </si>
+  <si>
+    <t>Weekly Iteration Transition Meeting involving all stakeholders, i.e. one person from each involved team participates. The ITM guided the project iteratively.
+Reflect on progress and use retrospectives.</t>
+  </si>
+  <si>
+    <t>Matrix organization with primary and secondary organization. Each project consisted of a cross-functional team.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]#\ ?/?"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -2873,7 +2965,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3010,6 +3102,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4433,7 +4531,7 @@
         <v>111</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4966,8 +5064,8 @@
   <dimension ref="A1:AL130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S20" sqref="S20"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5010,135 +5108,135 @@
     <row r="1" spans="1:38" s="15" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y1" s="46" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="AF1" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>687</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>692</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>738</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>719</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="AI1" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="W1" s="16" t="s">
-        <v>766</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="Y1" s="46" t="s">
-        <v>700</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>704</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>807</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AJ1" s="28" t="s">
+        <v>716</v>
+      </c>
+      <c r="AK1" s="28" t="s">
         <v>734</v>
       </c>
-      <c r="AI1" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>717</v>
-      </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>735</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>469</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>470</v>
       </c>
       <c r="D3" s="25">
         <v>2006</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L3" s="24" t="e">
         <f>LOOKUP(I3,{"?","N","Y"},{1,0,2}) + LOOKUP(J3,{"?","N","Y"},{1,0,2}) + LOOKUP(K3,{"?","N","Y"},{1,0,2})</f>
@@ -5155,84 +5253,84 @@
         <v>271</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>627</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>628</v>
       </c>
       <c r="D4" s="25">
         <v>2009</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L4" s="24">
         <f>LOOKUP(I4,{"?","N","Y"},{1,0,2}) + LOOKUP(J4,{"?","N","Y"},{1,0,2}) + LOOKUP(K4,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S4" s="29">
         <v>3</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Y4" s="47" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA4" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="Z4" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="AB4" s="19" t="s">
-        <v>703</v>
-      </c>
       <c r="AD4" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AF4" s="19" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -5240,10 +5338,10 @@
         <v>277</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>390</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>391</v>
       </c>
       <c r="D5" s="35">
         <v>2011</v>
@@ -5252,97 +5350,97 @@
         <v>280</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L5" s="34">
         <f>LOOKUP(I5,{"?","N","Y"},{1,0,2}) + LOOKUP(J5,{"?","N","Y"},{1,0,2}) + LOOKUP(K5,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S5" s="34">
         <v>3</v>
       </c>
       <c r="T5" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="U5" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="X5" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="V5" s="18" t="s">
-        <v>759</v>
-      </c>
-      <c r="W5" s="18" t="s">
+      <c r="Y5" s="48" t="s">
+        <v>769</v>
+      </c>
+      <c r="Z5" s="40" t="s">
         <v>767</v>
       </c>
-      <c r="X5" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="Y5" s="48" t="s">
-        <v>770</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>768</v>
-      </c>
       <c r="AA5" s="40" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AB5" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AC5" s="40"/>
       <c r="AD5" s="40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AE5" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AG5" s="40"/>
       <c r="AH5" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AI5" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AJ5" s="40" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AK5" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -5350,69 +5448,69 @@
         <v>271</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>652</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>653</v>
       </c>
       <c r="D6" s="35">
         <v>2004</v>
       </c>
       <c r="E6" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>654</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>655</v>
-      </c>
       <c r="G6" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L6" s="34">
         <f>LOOKUP(I6,{"?","N","Y"},{1,0,2}) + LOOKUP(J6,{"?","N","Y"},{1,0,2}) + LOOKUP(K6,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S6" s="34">
         <v>1</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="X6" s="40"/>
       <c r="Y6" s="48"/>
@@ -5422,7 +5520,7 @@
       <c r="AC6" s="40"/>
       <c r="AD6" s="40"/>
       <c r="AE6" s="40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AF6" s="40"/>
       <c r="AG6" s="40"/>
@@ -5436,210 +5534,210 @@
         <v>271</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>355</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>356</v>
       </c>
       <c r="D7" s="35">
         <v>2008</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L7" s="34">
         <f>LOOKUP(I7,{"?","N","Y"},{1,0,2}) + LOOKUP(J7,{"?","N","Y"},{1,0,2}) + LOOKUP(K7,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S7" s="34">
         <v>4</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="Y7" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="Z7" s="40" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA7" s="40" t="s">
+        <v>789</v>
+      </c>
+      <c r="AB7" s="40" t="s">
         <v>781</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>791</v>
-      </c>
-      <c r="AA7" s="40" t="s">
-        <v>790</v>
-      </c>
-      <c r="AB7" s="40" t="s">
-        <v>782</v>
       </c>
       <c r="AC7" s="40"/>
       <c r="AD7" s="40" t="s">
+        <v>787</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>791</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>786</v>
+      </c>
+      <c r="AG7" s="40" t="s">
+        <v>783</v>
+      </c>
+      <c r="AH7" s="40" t="s">
         <v>788</v>
       </c>
-      <c r="AE7" s="40" t="s">
-        <v>792</v>
-      </c>
-      <c r="AF7" s="40" t="s">
-        <v>787</v>
-      </c>
-      <c r="AG7" s="40" t="s">
+      <c r="AI7" s="41" t="s">
         <v>784</v>
-      </c>
-      <c r="AH7" s="40" t="s">
-        <v>789</v>
-      </c>
-      <c r="AI7" s="41" t="s">
-        <v>785</v>
       </c>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
     </row>
     <row r="8" spans="1:38" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>358</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>359</v>
       </c>
       <c r="D8" s="25">
         <v>2012</v>
       </c>
       <c r="E8" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>361</v>
-      </c>
       <c r="G8" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L8" s="24">
         <f>LOOKUP(I8,{"?","N","Y"},{1,0,2}) + LOOKUP(J8,{"?","N","Y"},{1,0,2}) + LOOKUP(K8,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S8" s="24">
         <v>5</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V8" s="32" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="W8" s="32"/>
       <c r="X8" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y8" s="49" t="s">
+        <v>739</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="AH8" s="19" t="s">
         <v>747</v>
       </c>
-      <c r="Y8" s="49" t="s">
-        <v>740</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>739</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="AD8" s="19" t="s">
+      <c r="AI8" s="19" t="s">
         <v>754</v>
       </c>
-      <c r="AE8" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AK8" s="19" t="s">
         <v>750</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>755</v>
-      </c>
-      <c r="AK8" s="19" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -5647,103 +5745,103 @@
         <v>271</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>451</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>452</v>
       </c>
       <c r="D9" s="35">
         <v>2011</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L9" s="34">
         <f>LOOKUP(I9,{"?","N","Y"},{1,0,2}) + LOOKUP(J9,{"?","N","Y"},{1,0,2}) + LOOKUP(K9,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S9" s="34">
         <v>4</v>
       </c>
       <c r="T9" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="W9" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="X9" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="Y9" s="48" t="s">
+        <v>802</v>
+      </c>
+      <c r="Z9" s="40" t="s">
+        <v>797</v>
+      </c>
+      <c r="AA9" s="40" t="s">
         <v>796</v>
       </c>
-      <c r="Y9" s="48" t="s">
-        <v>803</v>
-      </c>
-      <c r="Z9" s="40" t="s">
+      <c r="AB9" s="40" t="s">
         <v>798</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>797</v>
-      </c>
-      <c r="AB9" s="40" t="s">
-        <v>799</v>
       </c>
       <c r="AC9" s="40"/>
       <c r="AD9" s="40" t="s">
+        <v>799</v>
+      </c>
+      <c r="AE9" s="40" t="s">
         <v>800</v>
       </c>
-      <c r="AE9" s="40" t="s">
+      <c r="AF9" s="40" t="s">
         <v>801</v>
       </c>
-      <c r="AF9" s="40" t="s">
-        <v>802</v>
-      </c>
       <c r="AG9" s="40" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AH9" s="40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AI9" s="40" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
@@ -5753,190 +5851,190 @@
         <v>271</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>424</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>425</v>
       </c>
       <c r="D10" s="35">
         <v>2007</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L10" s="34">
         <f>LOOKUP(I10,{"?","N","Y"},{1,0,2}) + LOOKUP(J10,{"?","N","Y"},{1,0,2}) + LOOKUP(K10,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S10" s="34">
         <v>3</v>
       </c>
       <c r="T10" s="43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V10" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="W10" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="X10" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="X10" s="40" t="s">
+      <c r="Y10" s="48" t="s">
         <v>810</v>
-      </c>
-      <c r="Y10" s="48" t="s">
-        <v>811</v>
       </c>
       <c r="Z10" s="40"/>
       <c r="AA10" s="40" t="s">
+        <v>811</v>
+      </c>
+      <c r="AB10" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="AB10" s="40" t="s">
+      <c r="AC10" s="40" t="s">
         <v>813</v>
       </c>
-      <c r="AC10" s="40" t="s">
+      <c r="AD10" s="40" t="s">
         <v>814</v>
       </c>
-      <c r="AD10" s="40" t="s">
+      <c r="AE10" s="40" t="s">
         <v>815</v>
       </c>
-      <c r="AE10" s="40" t="s">
+      <c r="AF10" s="40" t="s">
         <v>816</v>
-      </c>
-      <c r="AF10" s="40" t="s">
-        <v>817</v>
       </c>
       <c r="AG10" s="40"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
     </row>
     <row r="11" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>385</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>386</v>
       </c>
       <c r="D11" s="25">
         <v>2005</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L11" s="24">
         <f>LOOKUP(I11,{"?","N","Y"},{1,0,2}) + LOOKUP(J11,{"?","N","Y"},{1,0,2}) + LOOKUP(K11,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S11" s="24">
         <v>3</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="X11" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y11" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="Z11" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="Y11" s="49" t="s">
-        <v>688</v>
-      </c>
-      <c r="Z11" s="19" t="s">
+      <c r="AA11" s="19" t="s">
         <v>708</v>
       </c>
-      <c r="AA11" s="19" t="s">
+      <c r="AB11" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="AB11" s="19" t="s">
-        <v>710</v>
-      </c>
       <c r="AD11" s="19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AF11" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -5944,87 +6042,87 @@
         <v>271</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>467</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>468</v>
       </c>
       <c r="D12" s="35">
         <v>2007</v>
       </c>
       <c r="E12" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>535</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>536</v>
-      </c>
       <c r="G12" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L12" s="34">
         <f>LOOKUP(I12,{"?","N","Y"},{1,0,2}) + LOOKUP(J12,{"?","N","Y"},{1,0,2}) + LOOKUP(K12,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S12" s="34">
         <v>2</v>
       </c>
       <c r="T12" s="39"/>
       <c r="U12" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="V12" s="18" t="s">
         <v>822</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>823</v>
       </c>
       <c r="W12" s="18"/>
       <c r="X12" s="40" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="Y12" s="48"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="40" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB12" s="40" t="s">
+        <v>826</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="AD12" s="40" t="s">
         <v>824</v>
       </c>
-      <c r="AB12" s="40" t="s">
-        <v>827</v>
-      </c>
-      <c r="AC12" s="40" t="s">
-        <v>826</v>
-      </c>
-      <c r="AD12" s="40" t="s">
-        <v>825</v>
-      </c>
       <c r="AE12" s="40" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40"/>
@@ -6032,7 +6130,7 @@
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="33" customFormat="1" ht="330" x14ac:dyDescent="0.25">
@@ -6040,105 +6138,105 @@
         <v>271</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>482</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>483</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>484</v>
       </c>
       <c r="D13" s="35">
         <v>2007</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L13" s="34">
         <f>LOOKUP(I13,{"?","N","Y"},{1,0,2}) + LOOKUP(J13,{"?","N","Y"},{1,0,2}) + LOOKUP(K13,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S13" s="34">
         <v>5</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="X13" s="40" t="s">
+        <v>835</v>
+      </c>
+      <c r="Y13" s="48" t="s">
         <v>836</v>
       </c>
-      <c r="Y13" s="48" t="s">
+      <c r="Z13" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="AB13" s="40" t="s">
+        <v>833</v>
+      </c>
+      <c r="AC13" s="40" t="s">
         <v>837</v>
       </c>
-      <c r="Z13" s="40" t="s">
-        <v>829</v>
-      </c>
-      <c r="AA13" s="40" t="s">
-        <v>828</v>
-      </c>
-      <c r="AB13" s="40" t="s">
+      <c r="AD13" s="40" t="s">
         <v>834</v>
-      </c>
-      <c r="AC13" s="40" t="s">
-        <v>838</v>
-      </c>
-      <c r="AD13" s="40" t="s">
-        <v>835</v>
       </c>
       <c r="AE13" s="40"/>
       <c r="AF13" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="AG13" s="40" t="s">
         <v>831</v>
       </c>
-      <c r="AG13" s="40" t="s">
+      <c r="AH13" s="40" t="s">
+        <v>829</v>
+      </c>
+      <c r="AI13" s="40" t="s">
         <v>832</v>
-      </c>
-      <c r="AH13" s="40" t="s">
-        <v>830</v>
-      </c>
-      <c r="AI13" s="40" t="s">
-        <v>833</v>
       </c>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
@@ -6148,7 +6246,7 @@
         <v>271</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>15</v>
@@ -6157,95 +6255,95 @@
         <v>2009</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L14" s="34">
         <f>LOOKUP(I14,{"?","N","Y"},{1,0,2}) + LOOKUP(J14,{"?","N","Y"},{1,0,2}) + LOOKUP(K14,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S14" s="34">
         <v>5</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V14" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="X14" s="40" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y14" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z14" s="40" t="s">
+        <v>849</v>
+      </c>
+      <c r="AA14" s="40" t="s">
         <v>841</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="X14" s="40" t="s">
+      <c r="AB14" s="40" t="s">
+        <v>844</v>
+      </c>
+      <c r="AC14" s="40" t="s">
+        <v>843</v>
+      </c>
+      <c r="AD14" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="AE14" s="40" t="s">
+        <v>846</v>
+      </c>
+      <c r="AF14" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="AG14" s="40" t="s">
         <v>839</v>
       </c>
-      <c r="Y14" s="48" t="s">
-        <v>843</v>
-      </c>
-      <c r="Z14" s="40" t="s">
-        <v>850</v>
-      </c>
-      <c r="AA14" s="40" t="s">
-        <v>842</v>
-      </c>
-      <c r="AB14" s="40" t="s">
-        <v>845</v>
-      </c>
-      <c r="AC14" s="40" t="s">
-        <v>844</v>
-      </c>
-      <c r="AD14" s="40" t="s">
+      <c r="AH14" s="40" t="s">
         <v>848</v>
-      </c>
-      <c r="AE14" s="40" t="s">
-        <v>847</v>
-      </c>
-      <c r="AF14" s="40" t="s">
-        <v>846</v>
-      </c>
-      <c r="AG14" s="40" t="s">
-        <v>840</v>
-      </c>
-      <c r="AH14" s="40" t="s">
-        <v>849</v>
       </c>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
@@ -6256,95 +6354,95 @@
         <v>271</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D15" s="35">
         <v>2010</v>
       </c>
       <c r="E15" s="33" t="s">
+        <v>581</v>
+      </c>
+      <c r="F15" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>583</v>
-      </c>
       <c r="G15" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L15" s="34">
         <v>6</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="S15" s="34">
         <v>2</v>
       </c>
       <c r="T15" s="43" t="s">
+        <v>851</v>
+      </c>
+      <c r="U15" s="18" t="s">
         <v>852</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="V15" s="18" t="s">
         <v>853</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="W15" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="X15" s="40" t="s">
         <v>854</v>
       </c>
-      <c r="W15" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="X15" s="40" t="s">
+      <c r="Y15" s="48" t="s">
         <v>855</v>
       </c>
-      <c r="Y15" s="48" t="s">
-        <v>856</v>
-      </c>
       <c r="Z15" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AA15" s="40"/>
       <c r="AB15" s="40"/>
       <c r="AC15" s="40" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AD15" s="40"/>
       <c r="AE15" s="40"/>
       <c r="AF15" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AG15" s="40"/>
       <c r="AH15" s="40"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="40" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AK15" s="40"/>
     </row>
@@ -6353,7 +6451,7 @@
         <v>271</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>202</v>
@@ -6362,86 +6460,86 @@
         <v>2003</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L16" s="24">
         <f>LOOKUP(I16,{"?","N","Y"},{1,0,2}) + LOOKUP(J16,{"?","N","Y"},{1,0,2}) + LOOKUP(K16,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S16" s="24">
         <v>5</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="19" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="Y16" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="AD16" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="Z16" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="AA16" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AE16" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF16" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="AD16" s="19" t="s">
-        <v>730</v>
-      </c>
-      <c r="AE16" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>727</v>
-      </c>
       <c r="AJ16" s="19" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:37" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -6449,105 +6547,105 @@
         <v>271</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D17" s="35">
         <v>2011</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L17" s="34">
         <v>6</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S17" s="34">
         <v>3</v>
       </c>
       <c r="T17" s="43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="W17" s="18" t="s">
+        <v>860</v>
+      </c>
+      <c r="X17" s="40" t="s">
         <v>861</v>
       </c>
-      <c r="X17" s="40" t="s">
+      <c r="Y17" s="48" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z17" s="40" t="s">
         <v>862</v>
       </c>
-      <c r="Y17" s="48" t="s">
-        <v>690</v>
-      </c>
-      <c r="Z17" s="40" t="s">
+      <c r="AA17" s="40" t="s">
         <v>863</v>
       </c>
-      <c r="AA17" s="40" t="s">
+      <c r="AB17" s="40" t="s">
         <v>864</v>
-      </c>
-      <c r="AB17" s="40" t="s">
-        <v>865</v>
       </c>
       <c r="AC17" s="40"/>
       <c r="AD17" s="40" t="s">
+        <v>865</v>
+      </c>
+      <c r="AE17" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="AE17" s="40" t="s">
+      <c r="AF17" s="40" t="s">
         <v>867</v>
       </c>
-      <c r="AF17" s="40" t="s">
+      <c r="AG17" s="40" t="s">
         <v>868</v>
       </c>
-      <c r="AG17" s="40" t="s">
+      <c r="AH17" s="40" t="s">
         <v>869</v>
-      </c>
-      <c r="AH17" s="40" t="s">
-        <v>870</v>
       </c>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AK17" s="40"/>
     </row>
@@ -6565,95 +6663,95 @@
         <v>2005</v>
       </c>
       <c r="E18" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>546</v>
-      </c>
       <c r="G18" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L18" s="34">
         <f>LOOKUP(I18,{"?","N","Y"},{1,0,2}) + LOOKUP(J18,{"?","N","Y"},{1,0,2}) + LOOKUP(K18,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S18" s="34">
         <v>3</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="X18" s="40" t="s">
+        <v>871</v>
+      </c>
+      <c r="Y18" s="48" t="s">
+        <v>874</v>
+      </c>
+      <c r="Z18" s="40" t="s">
         <v>872</v>
       </c>
-      <c r="Y18" s="48" t="s">
+      <c r="AA18" s="40" t="s">
+        <v>873</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>876</v>
+      </c>
+      <c r="AC18" s="40" t="s">
         <v>875</v>
       </c>
-      <c r="Z18" s="40" t="s">
-        <v>873</v>
-      </c>
-      <c r="AA18" s="40" t="s">
-        <v>874</v>
-      </c>
-      <c r="AB18" s="40" t="s">
+      <c r="AD18" s="40" t="s">
+        <v>883</v>
+      </c>
+      <c r="AE18" s="40" t="s">
         <v>877</v>
-      </c>
-      <c r="AC18" s="40" t="s">
-        <v>876</v>
-      </c>
-      <c r="AD18" s="40" t="s">
-        <v>884</v>
-      </c>
-      <c r="AE18" s="40" t="s">
-        <v>878</v>
       </c>
       <c r="AF18" s="40"/>
       <c r="AG18" s="40"/>
       <c r="AH18" s="40" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AK18" s="40"/>
     </row>
@@ -6671,252 +6769,374 @@
         <v>2009</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>276</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L19" s="34">
         <f>LOOKUP(I19,{"?","N","Y"},{1,0,2}) + LOOKUP(J19,{"?","N","Y"},{1,0,2}) + LOOKUP(K19,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S19" s="34">
         <v>3</v>
       </c>
       <c r="T19" s="50" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U19" s="51" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V19" s="51" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="W19" s="51" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="X19" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Y19" s="48" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Z19" s="40"/>
       <c r="AA19" s="40" t="s">
+        <v>880</v>
+      </c>
+      <c r="AB19" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="AC19" s="40" t="s">
         <v>881</v>
       </c>
-      <c r="AB19" s="40" t="s">
+      <c r="AD19" s="40" t="s">
         <v>889</v>
       </c>
-      <c r="AC19" s="40" t="s">
-        <v>882</v>
-      </c>
-      <c r="AD19" s="40" t="s">
-        <v>890</v>
-      </c>
       <c r="AE19" s="40" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AF19" s="40" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AG19" s="40" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AH19" s="40"/>
       <c r="AI19" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:37" s="33" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="34" t="s">
+        <v>892</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" s="25">
+      <c r="D20" s="35">
         <v>2007</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="F20" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="L20" s="24">
-        <f>LOOKUP(I20,{"?","N","Y"},{1,0,2}) + LOOKUP(J20,{"?","N","Y"},{1,0,2}) + LOOKUP(K20,{"?","N","Y"},{1,0,2})</f>
+      <c r="G20" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="L20" s="34">
         <v>6</v>
       </c>
-      <c r="T20" s="20"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
+      <c r="M20" s="42" t="s">
+        <v>685</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="R20" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="S20" s="34">
+        <v>3</v>
+      </c>
+      <c r="T20" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="U20" s="53" t="s">
+        <v>758</v>
+      </c>
+      <c r="V20" s="53" t="s">
+        <v>853</v>
+      </c>
+      <c r="W20" s="53" t="s">
+        <v>893</v>
+      </c>
+      <c r="X20" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="Y20" s="48" t="s">
+        <v>895</v>
+      </c>
+      <c r="Z20" s="40" t="s">
+        <v>896</v>
+      </c>
+      <c r="AA20" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="AB20" s="40" t="s">
+        <v>898</v>
+      </c>
+      <c r="AC20" s="40" t="s">
+        <v>899</v>
+      </c>
+      <c r="AD20" s="40" t="s">
+        <v>900</v>
+      </c>
+      <c r="AE20" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="AF20" s="40" t="s">
+        <v>901</v>
+      </c>
+      <c r="AG20" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="AH20" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="AI20" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>480</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>481</v>
       </c>
       <c r="D21" s="25">
         <v>2010</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L21" s="24">
         <f>LOOKUP(I21,{"?","N","Y"},{1,0,2}) + LOOKUP(J21,{"?","N","Y"},{1,0,2}) + LOOKUP(K21,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="T21" s="17" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" s="25">
+      <c r="D22" s="35">
         <v>2003</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="F22" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="L22" s="24">
+      <c r="G22" s="37" t="s">
+        <v>682</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="L22" s="34">
         <f>LOOKUP(I22,{"?","N","Y"},{1,0,2}) + LOOKUP(J22,{"?","N","Y"},{1,0,2}) + LOOKUP(K22,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
+      <c r="M22" s="38" t="s">
+        <v>684</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="S22" s="34">
+        <v>2</v>
+      </c>
+      <c r="T22" s="39"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="Y22" s="48" t="s">
+        <v>915</v>
+      </c>
+      <c r="Z22" s="40" t="s">
+        <v>920</v>
+      </c>
+      <c r="AA22" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="40" t="s">
+        <v>917</v>
+      </c>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="40" t="s">
+        <v>919</v>
+      </c>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40" t="s">
+        <v>918</v>
+      </c>
+      <c r="AK22" s="40"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>340</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>341</v>
       </c>
       <c r="D23" s="25">
         <v>2007</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L23" s="24">
         <f>LOOKUP(I23,{"?","N","Y"},{1,0,2}) + LOOKUP(J23,{"?","N","Y"},{1,0,2}) + LOOKUP(K23,{"?","N","Y"},{1,0,2})</f>
@@ -6925,115 +7145,188 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B24" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>303</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>304</v>
       </c>
       <c r="D24" s="25">
         <v>2005</v>
       </c>
       <c r="E24" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="F24" s="26" t="s">
-        <v>306</v>
-      </c>
       <c r="G24" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L24" s="24">
         <f>LOOKUP(I24,{"?","N","Y"},{1,0,2}) + LOOKUP(J24,{"?","N","Y"},{1,0,2}) + LOOKUP(K24,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:37" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="D25" s="25">
+      <c r="D25" s="35">
         <v>2011</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>539</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="L25" s="24">
+      <c r="E25" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>528</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>682</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="L25" s="34">
         <f>LOOKUP(I25,{"?","N","Y"},{1,0,2}) + LOOKUP(J25,{"?","N","Y"},{1,0,2}) + LOOKUP(K25,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
+      <c r="M25" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>684</v>
+      </c>
+      <c r="S25" s="34">
+        <v>3</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="V25" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="X25" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="Y25" s="48" t="s">
+        <v>902</v>
+      </c>
+      <c r="Z25" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="AA25" s="40" t="s">
+        <v>875</v>
+      </c>
+      <c r="AB25" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="AC25" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="AD25" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="AE25" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="AF25" s="40" t="s">
+        <v>910</v>
+      </c>
+      <c r="AG25" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="AH25" s="40" t="s">
+        <v>908</v>
+      </c>
+      <c r="AI25" s="40" t="s">
+        <v>689</v>
+      </c>
+      <c r="AJ25" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="AK25" s="40"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>316</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>317</v>
       </c>
       <c r="D26" s="25">
         <v>2011</v>
       </c>
       <c r="E26" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>319</v>
-      </c>
       <c r="G26" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L26" s="24">
         <f>LOOKUP(I26,{"?","N","Y"},{1,0,2}) + LOOKUP(J26,{"?","N","Y"},{1,0,2}) + LOOKUP(K26,{"?","N","Y"},{1,0,2})</f>
@@ -7045,34 +7338,34 @@
         <v>271</v>
       </c>
       <c r="B27" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>525</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>526</v>
       </c>
       <c r="D27" s="25">
         <v>2009</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L27" s="24">
         <f>LOOKUP(I27,{"?","N","Y"},{1,0,2}) + LOOKUP(J27,{"?","N","Y"},{1,0,2}) + LOOKUP(K27,{"?","N","Y"},{1,0,2})</f>
@@ -7084,34 +7377,34 @@
         <v>271</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>637</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>638</v>
       </c>
       <c r="D28" s="25">
         <v>2008</v>
       </c>
       <c r="E28" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="F28" s="26" t="s">
-        <v>640</v>
-      </c>
       <c r="G28" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L28" s="24">
         <f>LOOKUP(I28,{"?","N","Y"},{1,0,2}) + LOOKUP(J28,{"?","N","Y"},{1,0,2}) + LOOKUP(K28,{"?","N","Y"},{1,0,2})</f>
@@ -7123,34 +7416,34 @@
         <v>271</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>432</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>433</v>
       </c>
       <c r="D29" s="25">
         <v>2008</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L29" s="24">
         <f>LOOKUP(I29,{"?","N","Y"},{1,0,2}) + LOOKUP(J29,{"?","N","Y"},{1,0,2}) + LOOKUP(K29,{"?","N","Y"},{1,0,2})</f>
@@ -7162,34 +7455,34 @@
         <v>271</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>670</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>671</v>
       </c>
       <c r="D30" s="25">
         <v>2011</v>
       </c>
       <c r="E30" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>673</v>
-      </c>
       <c r="G30" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L30" s="24">
         <f>LOOKUP(I30,{"?","N","Y"},{1,0,2}) + LOOKUP(J30,{"?","N","Y"},{1,0,2}) + LOOKUP(K30,{"?","N","Y"},{1,0,2})</f>
@@ -7201,34 +7494,34 @@
         <v>271</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>641</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>642</v>
       </c>
       <c r="D31" s="25">
         <v>2010</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L31" s="24">
         <f>LOOKUP(I31,{"?","N","Y"},{1,0,2}) + LOOKUP(J31,{"?","N","Y"},{1,0,2}) + LOOKUP(K31,{"?","N","Y"},{1,0,2})</f>
@@ -7240,34 +7533,34 @@
         <v>271</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>325</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>326</v>
       </c>
       <c r="D32" s="25">
         <v>2006</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L32" s="24">
         <f>LOOKUP(I32,{"?","N","Y"},{1,0,2}) + LOOKUP(J32,{"?","N","Y"},{1,0,2}) + LOOKUP(K32,{"?","N","Y"},{1,0,2})</f>
@@ -7279,10 +7572,10 @@
         <v>277</v>
       </c>
       <c r="B33" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>368</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>369</v>
       </c>
       <c r="D33" s="25">
         <v>2010</v>
@@ -7291,22 +7584,22 @@
         <v>280</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L33" s="24">
         <f>LOOKUP(I33,{"?","N","Y"},{1,0,2}) + LOOKUP(J33,{"?","N","Y"},{1,0,2}) + LOOKUP(K33,{"?","N","Y"},{1,0,2})</f>
@@ -7315,37 +7608,37 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>460</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>461</v>
       </c>
       <c r="D34" s="25">
         <v>2010</v>
       </c>
       <c r="E34" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="F34" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>463</v>
-      </c>
       <c r="G34" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L34" s="24">
         <f>LOOKUP(I34,{"?","N","Y"},{1,0,2}) + LOOKUP(J34,{"?","N","Y"},{1,0,2}) + LOOKUP(K34,{"?","N","Y"},{1,0,2})</f>
@@ -7357,34 +7650,34 @@
         <v>271</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>493</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>494</v>
       </c>
       <c r="D35" s="25">
         <v>2007</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L35" s="24">
         <f>LOOKUP(I35,{"?","N","Y"},{1,0,2}) + LOOKUP(J35,{"?","N","Y"},{1,0,2}) + LOOKUP(K35,{"?","N","Y"},{1,0,2})</f>
@@ -7396,7 +7689,7 @@
         <v>271</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>140</v>
@@ -7405,25 +7698,25 @@
         <v>2008</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L36" s="24">
         <f>LOOKUP(I36,{"?","N","Y"},{1,0,2}) + LOOKUP(J36,{"?","N","Y"},{1,0,2}) + LOOKUP(K36,{"?","N","Y"},{1,0,2})</f>
@@ -7435,34 +7728,34 @@
         <v>271</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>501</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>502</v>
       </c>
       <c r="D37" s="25">
         <v>2011</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L37" s="24">
         <f>LOOKUP(I37,{"?","N","Y"},{1,0,2}) + LOOKUP(J37,{"?","N","Y"},{1,0,2}) + LOOKUP(K37,{"?","N","Y"},{1,0,2})</f>
@@ -7474,34 +7767,34 @@
         <v>271</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>505</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>506</v>
       </c>
       <c r="D38" s="25">
         <v>2010</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L38" s="24">
         <f>LOOKUP(I38,{"?","N","Y"},{1,0,2}) + LOOKUP(J38,{"?","N","Y"},{1,0,2}) + LOOKUP(K38,{"?","N","Y"},{1,0,2})</f>
@@ -7513,34 +7806,34 @@
         <v>271</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>371</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>372</v>
       </c>
       <c r="D39" s="25">
         <v>2008</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L39" s="24">
         <f>LOOKUP(I39,{"?","N","Y"},{1,0,2}) + LOOKUP(J39,{"?","N","Y"},{1,0,2}) + LOOKUP(K39,{"?","N","Y"},{1,0,2})</f>
@@ -7549,10 +7842,10 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>157</v>
@@ -7564,22 +7857,22 @@
         <v>159</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L40" s="24">
         <f>LOOKUP(I40,{"?","N","Y"},{1,0,2}) + LOOKUP(J40,{"?","N","Y"},{1,0,2}) + LOOKUP(K40,{"?","N","Y"},{1,0,2})</f>
@@ -7591,7 +7884,7 @@
         <v>271</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>161</v>
@@ -7600,25 +7893,25 @@
         <v>2007</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L41" s="24">
         <f>LOOKUP(I41,{"?","N","Y"},{1,0,2}) + LOOKUP(J41,{"?","N","Y"},{1,0,2}) + LOOKUP(K41,{"?","N","Y"},{1,0,2})</f>
@@ -7630,34 +7923,34 @@
         <v>271</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>486</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>487</v>
       </c>
       <c r="D42" s="25">
         <v>2010</v>
       </c>
       <c r="E42" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="F42" s="26" t="s">
-        <v>613</v>
-      </c>
       <c r="G42" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L42" s="24">
         <f>LOOKUP(I42,{"?","N","Y"},{1,0,2}) + LOOKUP(J42,{"?","N","Y"},{1,0,2}) + LOOKUP(K42,{"?","N","Y"},{1,0,2})</f>
@@ -7669,34 +7962,34 @@
         <v>271</v>
       </c>
       <c r="B43" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>330</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>331</v>
       </c>
       <c r="D43" s="25">
         <v>2007</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L43" s="24">
         <f>LOOKUP(I43,{"?","N","Y"},{1,0,2}) + LOOKUP(J43,{"?","N","Y"},{1,0,2}) + LOOKUP(K43,{"?","N","Y"},{1,0,2})</f>
@@ -7705,10 +7998,10 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>256</v>
@@ -7717,25 +8010,25 @@
         <v>2005</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L44" s="24">
         <f>LOOKUP(I44,{"?","N","Y"},{1,0,2}) + LOOKUP(J44,{"?","N","Y"},{1,0,2}) + LOOKUP(K44,{"?","N","Y"},{1,0,2})</f>
@@ -7747,34 +8040,34 @@
         <v>271</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>456</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>457</v>
       </c>
       <c r="D45" s="25">
         <v>2011</v>
       </c>
       <c r="E45" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="F45" s="26" t="s">
-        <v>606</v>
-      </c>
       <c r="G45" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L45" s="24">
         <f>LOOKUP(I45,{"?","N","Y"},{1,0,2}) + LOOKUP(J45,{"?","N","Y"},{1,0,2}) + LOOKUP(K45,{"?","N","Y"},{1,0,2})</f>
@@ -7786,34 +8079,34 @@
         <v>271</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>444</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>445</v>
       </c>
       <c r="D46" s="25">
         <v>2011</v>
       </c>
       <c r="E46" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="F46" s="26" t="s">
-        <v>600</v>
-      </c>
       <c r="G46" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L46" s="24">
         <f>LOOKUP(I46,{"?","N","Y"},{1,0,2}) + LOOKUP(J46,{"?","N","Y"},{1,0,2}) + LOOKUP(K46,{"?","N","Y"},{1,0,2})</f>
@@ -7825,7 +8118,7 @@
         <v>271</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>168</v>
@@ -7834,25 +8127,25 @@
         <v>2008</v>
       </c>
       <c r="E47" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="F47" s="26" t="s">
-        <v>669</v>
-      </c>
       <c r="G47" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L47" s="24">
         <f>LOOKUP(I47,{"?","N","Y"},{1,0,2}) + LOOKUP(J47,{"?","N","Y"},{1,0,2}) + LOOKUP(K47,{"?","N","Y"},{1,0,2})</f>
@@ -7864,34 +8157,34 @@
         <v>271</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>332</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>333</v>
       </c>
       <c r="D48" s="25">
         <v>2008</v>
       </c>
       <c r="E48" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="F48" s="26" t="s">
-        <v>564</v>
-      </c>
       <c r="G48" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L48" s="24">
         <f>LOOKUP(I48,{"?","N","Y"},{1,0,2}) + LOOKUP(J48,{"?","N","Y"},{1,0,2}) + LOOKUP(K48,{"?","N","Y"},{1,0,2})</f>
@@ -7907,7 +8200,7 @@
         <v>271</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>94</v>
@@ -7916,25 +8209,25 @@
         <v>2008</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L49" s="24">
         <f>LOOKUP(I49,{"?","N","Y"},{1,0,2}) + LOOKUP(J49,{"?","N","Y"},{1,0,2}) + LOOKUP(K49,{"?","N","Y"},{1,0,2})</f>
@@ -7946,34 +8239,34 @@
         <v>271</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>516</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>517</v>
       </c>
       <c r="D50" s="25">
         <v>2009</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L50" s="24">
         <f>LOOKUP(I50,{"?","N","Y"},{1,0,2}) + LOOKUP(J50,{"?","N","Y"},{1,0,2}) + LOOKUP(K50,{"?","N","Y"},{1,0,2})</f>
@@ -7985,34 +8278,34 @@
         <v>271</v>
       </c>
       <c r="B51" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>514</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>515</v>
       </c>
       <c r="D51" s="25">
         <v>2011</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L51" s="24">
         <f>LOOKUP(I51,{"?","N","Y"},{1,0,2}) + LOOKUP(J51,{"?","N","Y"},{1,0,2}) + LOOKUP(K51,{"?","N","Y"},{1,0,2})</f>
@@ -8024,34 +8317,34 @@
         <v>271</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>347</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>348</v>
       </c>
       <c r="D52" s="25">
         <v>2006</v>
       </c>
       <c r="E52" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>568</v>
-      </c>
       <c r="G52" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L52" s="24">
         <f>LOOKUP(I52,{"?","N","Y"},{1,0,2}) + LOOKUP(J52,{"?","N","Y"},{1,0,2}) + LOOKUP(K52,{"?","N","Y"},{1,0,2})</f>
@@ -8063,34 +8356,34 @@
         <v>271</v>
       </c>
       <c r="B53" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>312</v>
       </c>
       <c r="D53" s="25">
         <v>2004</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L53" s="24">
         <f>LOOKUP(I53,{"?","N","Y"},{1,0,2}) + LOOKUP(J53,{"?","N","Y"},{1,0,2}) + LOOKUP(K53,{"?","N","Y"},{1,0,2})</f>
@@ -8099,37 +8392,37 @@
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B54" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>428</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>429</v>
       </c>
       <c r="D54" s="25">
         <v>2010</v>
       </c>
       <c r="E54" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="F54" s="26" t="s">
-        <v>431</v>
-      </c>
       <c r="G54" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L54" s="24">
         <f>LOOKUP(I54,{"?","N","Y"},{1,0,2}) + LOOKUP(J54,{"?","N","Y"},{1,0,2}) + LOOKUP(K54,{"?","N","Y"},{1,0,2})</f>
@@ -8141,34 +8434,34 @@
         <v>271</v>
       </c>
       <c r="B55" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>405</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>406</v>
       </c>
       <c r="D55" s="25">
         <v>2008</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L55" s="24">
         <f>LOOKUP(I55,{"?","N","Y"},{1,0,2}) + LOOKUP(J55,{"?","N","Y"},{1,0,2}) + LOOKUP(K55,{"?","N","Y"},{1,0,2})</f>
@@ -8180,34 +8473,34 @@
         <v>271</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>633</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>634</v>
       </c>
       <c r="D56" s="25">
         <v>2012</v>
       </c>
       <c r="E56" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="F56" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="F56" s="26" t="s">
-        <v>636</v>
-      </c>
       <c r="G56" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L56" s="24">
         <f>LOOKUP(I56,{"?","N","Y"},{1,0,2}) + LOOKUP(J56,{"?","N","Y"},{1,0,2}) + LOOKUP(K56,{"?","N","Y"},{1,0,2})</f>
@@ -8219,34 +8512,34 @@
         <v>271</v>
       </c>
       <c r="B57" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>349</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>350</v>
       </c>
       <c r="D57" s="25">
         <v>2008</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L57" s="24">
         <f>LOOKUP(I57,{"?","N","Y"},{1,0,2}) + LOOKUP(J57,{"?","N","Y"},{1,0,2}) + LOOKUP(K57,{"?","N","Y"},{1,0,2})</f>
@@ -8258,34 +8551,34 @@
         <v>271</v>
       </c>
       <c r="B58" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>314</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>315</v>
       </c>
       <c r="D58" s="25">
         <v>2007</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L58" s="24">
         <f>LOOKUP(I58,{"?","N","Y"},{1,0,2}) + LOOKUP(J58,{"?","N","Y"},{1,0,2}) + LOOKUP(K58,{"?","N","Y"},{1,0,2})</f>
@@ -8297,34 +8590,34 @@
         <v>271</v>
       </c>
       <c r="B59" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>300</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>301</v>
       </c>
       <c r="D59" s="25">
         <v>2007</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L59" s="24">
         <f>LOOKUP(I59,{"?","N","Y"},{1,0,2}) + LOOKUP(J59,{"?","N","Y"},{1,0,2}) + LOOKUP(K59,{"?","N","Y"},{1,0,2})</f>
@@ -8340,34 +8633,34 @@
         <v>277</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D60" s="25">
         <v>2009</v>
       </c>
       <c r="E60" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="F60" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="F60" s="26" t="s">
-        <v>396</v>
-      </c>
       <c r="G60" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L60" s="24">
         <f>LOOKUP(I60,{"?","N","Y"},{1,0,2}) + LOOKUP(J60,{"?","N","Y"},{1,0,2}) + LOOKUP(K60,{"?","N","Y"},{1,0,2})</f>
@@ -8379,34 +8672,34 @@
         <v>271</v>
       </c>
       <c r="B61" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>374</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>375</v>
       </c>
       <c r="D61" s="25">
         <v>2005</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L61" s="24">
         <f>LOOKUP(I61,{"?","N","Y"},{1,0,2}) + LOOKUP(J61,{"?","N","Y"},{1,0,2}) + LOOKUP(K61,{"?","N","Y"},{1,0,2})</f>
@@ -8415,37 +8708,37 @@
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>477</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>478</v>
       </c>
       <c r="D62" s="25">
         <v>2005</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J62" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L62" s="24">
         <f>LOOKUP(I62,{"?","N","Y"},{1,0,2}) + LOOKUP(J62,{"?","N","Y"},{1,0,2}) + LOOKUP(K62,{"?","N","Y"},{1,0,2})</f>
@@ -8457,34 +8750,34 @@
         <v>271</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>644</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>645</v>
       </c>
       <c r="D63" s="25">
         <v>2011</v>
       </c>
       <c r="E63" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="F63" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="F63" s="26" t="s">
-        <v>647</v>
-      </c>
       <c r="G63" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L63" s="24">
         <f>LOOKUP(I63,{"?","N","Y"},{1,0,2}) + LOOKUP(J63,{"?","N","Y"},{1,0,2}) + LOOKUP(K63,{"?","N","Y"},{1,0,2})</f>
@@ -8496,34 +8789,34 @@
         <v>271</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>441</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>442</v>
       </c>
       <c r="D64" s="25">
         <v>2005</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J64" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L64" s="24">
         <f>LOOKUP(I64,{"?","N","Y"},{1,0,2}) + LOOKUP(J64,{"?","N","Y"},{1,0,2}) + LOOKUP(K64,{"?","N","Y"},{1,0,2})</f>
@@ -8535,34 +8828,34 @@
         <v>271</v>
       </c>
       <c r="B65" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>522</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>523</v>
       </c>
       <c r="D65" s="25">
         <v>2008</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J65" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L65" s="24">
         <f>LOOKUP(I65,{"?","N","Y"},{1,0,2}) + LOOKUP(J65,{"?","N","Y"},{1,0,2}) + LOOKUP(K65,{"?","N","Y"},{1,0,2})</f>
@@ -8574,34 +8867,34 @@
         <v>271</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>366</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>367</v>
       </c>
       <c r="D66" s="25">
         <v>2006</v>
       </c>
       <c r="E66" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="F66" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="F66" s="26" t="s">
-        <v>574</v>
-      </c>
       <c r="G66" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L66" s="24">
         <f>LOOKUP(I66,{"?","N","Y"},{1,0,2}) + LOOKUP(J66,{"?","N","Y"},{1,0,2}) + LOOKUP(K66,{"?","N","Y"},{1,0,2})</f>
@@ -8613,34 +8906,34 @@
         <v>271</v>
       </c>
       <c r="B67" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>377</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>378</v>
       </c>
       <c r="D67" s="25">
         <v>2009</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L67" s="24">
         <f>LOOKUP(I67,{"?","N","Y"},{1,0,2}) + LOOKUP(J67,{"?","N","Y"},{1,0,2}) + LOOKUP(K67,{"?","N","Y"},{1,0,2})</f>
@@ -8652,34 +8945,34 @@
         <v>271</v>
       </c>
       <c r="B68" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>472</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>473</v>
       </c>
       <c r="D68" s="25">
         <v>2012</v>
       </c>
       <c r="E68" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="F68" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="F68" s="26" t="s">
-        <v>610</v>
-      </c>
       <c r="G68" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L68" s="24">
         <f>LOOKUP(I68,{"?","N","Y"},{1,0,2}) + LOOKUP(J68,{"?","N","Y"},{1,0,2}) + LOOKUP(K68,{"?","N","Y"},{1,0,2})</f>
@@ -8691,34 +8984,34 @@
         <v>271</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>382</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>383</v>
       </c>
       <c r="D69" s="25">
         <v>2009</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L69" s="24">
         <f>LOOKUP(I69,{"?","N","Y"},{1,0,2}) + LOOKUP(J69,{"?","N","Y"},{1,0,2}) + LOOKUP(K69,{"?","N","Y"},{1,0,2})</f>
@@ -8730,7 +9023,7 @@
         <v>271</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>114</v>
@@ -8739,25 +9032,25 @@
         <v>2006</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L70" s="24">
         <f>LOOKUP(I70,{"?","N","Y"},{1,0,2}) + LOOKUP(J70,{"?","N","Y"},{1,0,2}) + LOOKUP(K70,{"?","N","Y"},{1,0,2})</f>
@@ -8769,34 +9062,34 @@
         <v>271</v>
       </c>
       <c r="B71" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>488</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>489</v>
       </c>
       <c r="D71" s="25">
         <v>2007</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L71" s="24">
         <f>LOOKUP(I71,{"?","N","Y"},{1,0,2}) + LOOKUP(J71,{"?","N","Y"},{1,0,2}) + LOOKUP(K71,{"?","N","Y"},{1,0,2})</f>
@@ -8808,34 +9101,34 @@
         <v>271</v>
       </c>
       <c r="B72" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>397</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>398</v>
       </c>
       <c r="D72" s="25">
         <v>2009</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L72" s="24">
         <f>LOOKUP(I72,{"?","N","Y"},{1,0,2}) + LOOKUP(J72,{"?","N","Y"},{1,0,2}) + LOOKUP(K72,{"?","N","Y"},{1,0,2})</f>
@@ -8844,37 +9137,37 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>408</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>409</v>
       </c>
       <c r="D73" s="25">
         <v>2011</v>
       </c>
       <c r="E73" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F73" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="F73" s="26" t="s">
-        <v>411</v>
-      </c>
       <c r="G73" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L73" s="24">
         <f>LOOKUP(I73,{"?","N","Y"},{1,0,2}) + LOOKUP(J73,{"?","N","Y"},{1,0,2}) + LOOKUP(K73,{"?","N","Y"},{1,0,2})</f>
@@ -8883,37 +9176,37 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B74" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>659</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>660</v>
       </c>
       <c r="D74" s="25">
         <v>2004</v>
       </c>
       <c r="E74" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="F74" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="F74" s="26" t="s">
-        <v>662</v>
-      </c>
       <c r="G74" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L74" s="24">
         <f>LOOKUP(I74,{"?","N","Y"},{1,0,2}) + LOOKUP(J74,{"?","N","Y"},{1,0,2}) + LOOKUP(K74,{"?","N","Y"},{1,0,2})</f>
@@ -8940,19 +9233,19 @@
         <v>281</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L75" s="24">
         <f>LOOKUP(I75,{"?","N","Y"},{1,0,2}) + LOOKUP(J75,{"?","N","Y"},{1,0,2}) + LOOKUP(K75,{"?","N","Y"},{1,0,2})</f>
@@ -8977,25 +9270,25 @@
         <v>1997</v>
       </c>
       <c r="E76" s="22" t="s">
+        <v>542</v>
+      </c>
+      <c r="F76" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="F76" s="26" t="s">
-        <v>544</v>
-      </c>
       <c r="G76" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L76" s="24">
         <f>LOOKUP(I76,{"?","N","Y"},{1,0,2}) + LOOKUP(J76,{"?","N","Y"},{1,0,2}) + LOOKUP(K76,{"?","N","Y"},{1,0,2})</f>
@@ -9004,13 +9297,13 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B77" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>448</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>449</v>
       </c>
       <c r="D77" s="25">
         <v>2008</v>
@@ -9019,22 +9312,22 @@
         <v>1</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L77" s="24">
         <f>LOOKUP(I77,{"?","N","Y"},{1,0,2}) + LOOKUP(J77,{"?","N","Y"},{1,0,2}) + LOOKUP(K77,{"?","N","Y"},{1,0,2})</f>
@@ -9043,37 +9336,37 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="C78" s="24" t="s">
         <v>292</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>293</v>
       </c>
       <c r="D78" s="25">
         <v>2010</v>
       </c>
       <c r="E78" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F78" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="F78" s="26" t="s">
-        <v>295</v>
-      </c>
       <c r="G78" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L78" s="24">
         <f>LOOKUP(I78,{"?","N","Y"},{1,0,2}) + LOOKUP(J78,{"?","N","Y"},{1,0,2}) + LOOKUP(K78,{"?","N","Y"},{1,0,2})</f>
@@ -9085,34 +9378,34 @@
         <v>271</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>630</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>631</v>
       </c>
       <c r="D79" s="25">
         <v>2008</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L79" s="24">
         <f>LOOKUP(I79,{"?","N","Y"},{1,0,2}) + LOOKUP(J79,{"?","N","Y"},{1,0,2}) + LOOKUP(K79,{"?","N","Y"},{1,0,2})</f>
@@ -9124,34 +9417,34 @@
         <v>271</v>
       </c>
       <c r="B80" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>419</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>420</v>
       </c>
       <c r="D80" s="25">
         <v>2007</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L80" s="24">
         <f>LOOKUP(I80,{"?","N","Y"},{1,0,2}) + LOOKUP(J80,{"?","N","Y"},{1,0,2}) + LOOKUP(K80,{"?","N","Y"},{1,0,2})</f>
@@ -9163,34 +9456,34 @@
         <v>271</v>
       </c>
       <c r="B81" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>649</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>650</v>
       </c>
       <c r="D81" s="25">
         <v>2010</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L81" s="24">
         <f>LOOKUP(I81,{"?","N","Y"},{1,0,2}) + LOOKUP(J81,{"?","N","Y"},{1,0,2}) + LOOKUP(K81,{"?","N","Y"},{1,0,2})</f>
@@ -9202,34 +9495,34 @@
         <v>271</v>
       </c>
       <c r="B82" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>322</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>323</v>
       </c>
       <c r="D82" s="25">
         <v>2011</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L82" s="24">
         <f>LOOKUP(I82,{"?","N","Y"},{1,0,2}) + LOOKUP(J82,{"?","N","Y"},{1,0,2}) + LOOKUP(K82,{"?","N","Y"},{1,0,2})</f>
@@ -9241,7 +9534,7 @@
         <v>271</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>146</v>
@@ -9250,25 +9543,25 @@
         <v>2009</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L83" s="24">
         <f>LOOKUP(I83,{"?","N","Y"},{1,0,2}) + LOOKUP(J83,{"?","N","Y"},{1,0,2}) + LOOKUP(K83,{"?","N","Y"},{1,0,2})</f>
@@ -9280,7 +9573,7 @@
         <v>271</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>215</v>
@@ -9289,25 +9582,25 @@
         <v>2009</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L84" s="24">
         <f>LOOKUP(I84,{"?","N","Y"},{1,0,2}) + LOOKUP(J84,{"?","N","Y"},{1,0,2}) + LOOKUP(K84,{"?","N","Y"},{1,0,2})</f>
@@ -9319,34 +9612,34 @@
         <v>271</v>
       </c>
       <c r="B85" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>400</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>401</v>
       </c>
       <c r="D85" s="25">
         <v>2010</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L85" s="24">
         <f>LOOKUP(I85,{"?","N","Y"},{1,0,2}) + LOOKUP(J85,{"?","N","Y"},{1,0,2}) + LOOKUP(K85,{"?","N","Y"},{1,0,2})</f>
@@ -9358,7 +9651,7 @@
         <v>271</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>176</v>
@@ -9367,25 +9660,25 @@
         <v>2005</v>
       </c>
       <c r="E86" s="22" t="s">
+        <v>678</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="F86" s="26" t="s">
-        <v>680</v>
-      </c>
       <c r="G86" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L86" s="24">
         <f>LOOKUP(I86,{"?","N","Y"},{1,0,2}) + LOOKUP(J86,{"?","N","Y"},{1,0,2}) + LOOKUP(K86,{"?","N","Y"},{1,0,2})</f>
@@ -9397,34 +9690,34 @@
         <v>271</v>
       </c>
       <c r="B87" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" s="24" t="s">
         <v>309</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>310</v>
       </c>
       <c r="D87" s="25">
         <v>2005</v>
       </c>
       <c r="E87" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="F87" s="26" t="s">
-        <v>555</v>
-      </c>
       <c r="G87" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L87" s="24">
         <f>LOOKUP(I87,{"?","N","Y"},{1,0,2}) + LOOKUP(J87,{"?","N","Y"},{1,0,2}) + LOOKUP(K87,{"?","N","Y"},{1,0,2})</f>
@@ -9436,34 +9729,34 @@
         <v>271</v>
       </c>
       <c r="B88" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>402</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>403</v>
       </c>
       <c r="D88" s="25">
         <v>2011</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L88" s="24">
         <f>LOOKUP(I88,{"?","N","Y"},{1,0,2}) + LOOKUP(J88,{"?","N","Y"},{1,0,2}) + LOOKUP(K88,{"?","N","Y"},{1,0,2})</f>
@@ -9475,34 +9768,34 @@
         <v>271</v>
       </c>
       <c r="B89" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>454</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>455</v>
       </c>
       <c r="D89" s="25">
         <v>2010</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L89" s="24">
         <f>LOOKUP(I89,{"?","N","Y"},{1,0,2}) + LOOKUP(J89,{"?","N","Y"},{1,0,2}) + LOOKUP(K89,{"?","N","Y"},{1,0,2})</f>
@@ -9514,34 +9807,34 @@
         <v>271</v>
       </c>
       <c r="B90" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>520</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>521</v>
       </c>
       <c r="D90" s="25">
         <v>2008</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J90" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L90" s="24">
         <f>LOOKUP(I90,{"?","N","Y"},{1,0,2}) + LOOKUP(J90,{"?","N","Y"},{1,0,2}) + LOOKUP(K90,{"?","N","Y"},{1,0,2})</f>
@@ -9550,37 +9843,37 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B91" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C91" s="24" t="s">
         <v>296</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>297</v>
       </c>
       <c r="D91" s="25">
         <v>2009</v>
       </c>
       <c r="E91" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F91" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="F91" s="26" t="s">
-        <v>299</v>
-      </c>
       <c r="G91" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L91" s="24">
         <f>LOOKUP(I91,{"?","N","Y"},{1,0,2}) + LOOKUP(J91,{"?","N","Y"},{1,0,2}) + LOOKUP(K91,{"?","N","Y"},{1,0,2})</f>
@@ -9592,34 +9885,34 @@
         <v>271</v>
       </c>
       <c r="B92" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>422</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>423</v>
       </c>
       <c r="D92" s="25">
         <v>2011</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J92" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L92" s="24">
         <f>LOOKUP(I92,{"?","N","Y"},{1,0,2}) + LOOKUP(J92,{"?","N","Y"},{1,0,2}) + LOOKUP(K92,{"?","N","Y"},{1,0,2})</f>
@@ -9640,25 +9933,25 @@
         <v>2011</v>
       </c>
       <c r="E93" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="F93" s="26" t="s">
-        <v>540</v>
-      </c>
       <c r="G93" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L93" s="24">
         <f>LOOKUP(I93,{"?","N","Y"},{1,0,2}) + LOOKUP(J93,{"?","N","Y"},{1,0,2}) + LOOKUP(K93,{"?","N","Y"},{1,0,2})</f>
@@ -9667,10 +9960,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>86</v>
@@ -9679,25 +9972,25 @@
         <v>2003</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L94" s="24">
         <f>LOOKUP(I94,{"?","N","Y"},{1,0,2}) + LOOKUP(J94,{"?","N","Y"},{1,0,2}) + LOOKUP(K94,{"?","N","Y"},{1,0,2})</f>
@@ -9709,34 +10002,34 @@
         <v>271</v>
       </c>
       <c r="B95" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>413</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>414</v>
       </c>
       <c r="D95" s="25">
         <v>2009</v>
       </c>
       <c r="E95" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="F95" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="F95" s="26" t="s">
-        <v>590</v>
-      </c>
       <c r="G95" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L95" s="24">
         <f>LOOKUP(I95,{"?","N","Y"},{1,0,2}) + LOOKUP(J95,{"?","N","Y"},{1,0,2}) + LOOKUP(K95,{"?","N","Y"},{1,0,2})</f>
@@ -9748,34 +10041,34 @@
         <v>271</v>
       </c>
       <c r="B96" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>364</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>365</v>
       </c>
       <c r="D96" s="25">
         <v>2010</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L96" s="24">
         <f>LOOKUP(I96,{"?","N","Y"},{1,0,2}) + LOOKUP(J96,{"?","N","Y"},{1,0,2}) + LOOKUP(K96,{"?","N","Y"},{1,0,2})</f>
@@ -9784,13 +10077,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B97" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>474</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>475</v>
       </c>
       <c r="D97" s="25">
         <v>2006</v>
@@ -9799,22 +10092,22 @@
         <v>1</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L97" s="24">
         <f>LOOKUP(I97,{"?","N","Y"},{1,0,2}) + LOOKUP(J97,{"?","N","Y"},{1,0,2}) + LOOKUP(K97,{"?","N","Y"},{1,0,2})</f>
@@ -9826,34 +10119,34 @@
         <v>271</v>
       </c>
       <c r="B98" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>458</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>459</v>
       </c>
       <c r="D98" s="25">
         <v>2007</v>
       </c>
       <c r="E98" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="F98" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="F98" s="26" t="s">
-        <v>608</v>
-      </c>
       <c r="G98" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L98" s="24">
         <f>LOOKUP(I98,{"?","N","Y"},{1,0,2}) + LOOKUP(J98,{"?","N","Y"},{1,0,2}) + LOOKUP(K98,{"?","N","Y"},{1,0,2})</f>
@@ -9865,34 +10158,34 @@
         <v>271</v>
       </c>
       <c r="B99" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>320</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>321</v>
       </c>
       <c r="D99" s="25">
         <v>2005</v>
       </c>
       <c r="E99" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="F99" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="F99" s="26" t="s">
-        <v>558</v>
-      </c>
       <c r="G99" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L99" s="24">
         <f>LOOKUP(I99,{"?","N","Y"},{1,0,2}) + LOOKUP(J99,{"?","N","Y"},{1,0,2}) + LOOKUP(K99,{"?","N","Y"},{1,0,2})</f>
@@ -9904,34 +10197,34 @@
         <v>271</v>
       </c>
       <c r="B100" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>415</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>416</v>
       </c>
       <c r="D100" s="25">
         <v>2010</v>
       </c>
       <c r="E100" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="F100" s="26" t="s">
-        <v>592</v>
-      </c>
       <c r="G100" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J100" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L100" s="24">
         <f>LOOKUP(I100,{"?","N","Y"},{1,0,2}) + LOOKUP(J100,{"?","N","Y"},{1,0,2}) + LOOKUP(K100,{"?","N","Y"},{1,0,2})</f>
@@ -9943,34 +10236,34 @@
         <v>271</v>
       </c>
       <c r="B101" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>490</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>491</v>
       </c>
       <c r="D101" s="25">
         <v>2011</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J101" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L101" s="24">
         <f>LOOKUP(I101,{"?","N","Y"},{1,0,2}) + LOOKUP(J101,{"?","N","Y"},{1,0,2}) + LOOKUP(K101,{"?","N","Y"},{1,0,2})</f>
@@ -9982,34 +10275,34 @@
         <v>271</v>
       </c>
       <c r="B102" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>388</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>389</v>
       </c>
       <c r="D102" s="25">
         <v>1997</v>
       </c>
       <c r="E102" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="F102" s="26" t="s">
-        <v>581</v>
-      </c>
       <c r="G102" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I102" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J102" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L102" s="24">
         <f>LOOKUP(I102,{"?","N","Y"},{1,0,2}) + LOOKUP(J102,{"?","N","Y"},{1,0,2}) + LOOKUP(K102,{"?","N","Y"},{1,0,2})</f>
@@ -10021,34 +10314,34 @@
         <v>271</v>
       </c>
       <c r="B103" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>512</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>513</v>
       </c>
       <c r="D103" s="25">
         <v>2007</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I103" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J103" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L103" s="24">
         <f>LOOKUP(I103,{"?","N","Y"},{1,0,2}) + LOOKUP(J103,{"?","N","Y"},{1,0,2}) + LOOKUP(K103,{"?","N","Y"},{1,0,2})</f>
@@ -10057,37 +10350,37 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B104" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>508</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>509</v>
       </c>
       <c r="D104" s="25">
         <v>2011</v>
       </c>
       <c r="E104" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="F104" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="F104" s="26" t="s">
-        <v>511</v>
-      </c>
       <c r="G104" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L104" s="24">
         <f>LOOKUP(I104,{"?","N","Y"},{1,0,2}) + LOOKUP(J104,{"?","N","Y"},{1,0,2}) + LOOKUP(K104,{"?","N","Y"},{1,0,2})</f>
@@ -10099,34 +10392,34 @@
         <v>271</v>
       </c>
       <c r="B105" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C105" s="24" t="s">
         <v>380</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>381</v>
       </c>
       <c r="D105" s="25">
         <v>2009</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I105" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J105" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L105" s="24">
         <f>LOOKUP(I105,{"?","N","Y"},{1,0,2}) + LOOKUP(J105,{"?","N","Y"},{1,0,2}) + LOOKUP(K105,{"?","N","Y"},{1,0,2})</f>
@@ -10135,37 +10428,37 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B106" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" s="24" t="s">
         <v>336</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>337</v>
       </c>
       <c r="D106" s="25">
         <v>2007</v>
       </c>
       <c r="E106" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="F106" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="F106" s="26" t="s">
-        <v>339</v>
-      </c>
       <c r="G106" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L106" s="24">
         <f>LOOKUP(I106,{"?","N","Y"},{1,0,2}) + LOOKUP(J106,{"?","N","Y"},{1,0,2}) + LOOKUP(K106,{"?","N","Y"},{1,0,2})</f>
@@ -10174,37 +10467,37 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B107" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>351</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>352</v>
       </c>
       <c r="D107" s="25">
         <v>2011</v>
       </c>
       <c r="E107" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F107" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="F107" s="26" t="s">
-        <v>354</v>
-      </c>
       <c r="G107" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I107" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L107" s="24">
         <f>LOOKUP(I107,{"?","N","Y"},{1,0,2}) + LOOKUP(J107,{"?","N","Y"},{1,0,2}) + LOOKUP(K107,{"?","N","Y"},{1,0,2})</f>
@@ -10216,34 +10509,34 @@
         <v>271</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D108" s="25">
         <v>2010</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L108" s="24">
         <f>LOOKUP(I108,{"?","N","Y"},{1,0,2}) + LOOKUP(J108,{"?","N","Y"},{1,0,2}) + LOOKUP(K108,{"?","N","Y"},{1,0,2})</f>
@@ -10255,34 +10548,34 @@
         <v>271</v>
       </c>
       <c r="B109" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C109" s="24" t="s">
         <v>328</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>329</v>
       </c>
       <c r="D109" s="25">
         <v>2010</v>
       </c>
       <c r="E109" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="F109" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="F109" s="26" t="s">
-        <v>561</v>
-      </c>
       <c r="G109" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J109" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L109" s="24">
         <f>LOOKUP(I109,{"?","N","Y"},{1,0,2}) + LOOKUP(J109,{"?","N","Y"},{1,0,2}) + LOOKUP(K109,{"?","N","Y"},{1,0,2})</f>
@@ -10303,25 +10596,25 @@
         <v>1998</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J110" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L110" s="24">
         <f>LOOKUP(I110,{"?","N","Y"},{1,0,2}) + LOOKUP(J110,{"?","N","Y"},{1,0,2}) + LOOKUP(K110,{"?","N","Y"},{1,0,2})</f>
@@ -10330,10 +10623,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>250</v>
@@ -10342,25 +10635,25 @@
         <v>2006</v>
       </c>
       <c r="E111" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="F111" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="F111" s="26" t="s">
-        <v>466</v>
-      </c>
       <c r="G111" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J111" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L111" s="24">
         <f>LOOKUP(I111,{"?","N","Y"},{1,0,2}) + LOOKUP(J111,{"?","N","Y"},{1,0,2}) + LOOKUP(K111,{"?","N","Y"},{1,0,2})</f>
@@ -10381,25 +10674,25 @@
         <v>2011</v>
       </c>
       <c r="E112" s="22" t="s">
+        <v>546</v>
+      </c>
+      <c r="F112" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="F112" s="26" t="s">
-        <v>548</v>
-      </c>
       <c r="G112" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J112" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L112" s="24">
         <f>LOOKUP(I112,{"?","N","Y"},{1,0,2}) + LOOKUP(J112,{"?","N","Y"},{1,0,2}) + LOOKUP(K112,{"?","N","Y"},{1,0,2})</f>
@@ -10411,34 +10704,34 @@
         <v>271</v>
       </c>
       <c r="B113" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="C113" s="24" t="s">
         <v>446</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>447</v>
       </c>
       <c r="D113" s="25">
         <v>2004</v>
       </c>
       <c r="E113" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="F113" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="F113" s="26" t="s">
-        <v>602</v>
-      </c>
       <c r="G113" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J113" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L113" s="24">
         <f>LOOKUP(I113,{"?","N","Y"},{1,0,2}) + LOOKUP(J113,{"?","N","Y"},{1,0,2}) + LOOKUP(K113,{"?","N","Y"},{1,0,2})</f>
@@ -10450,34 +10743,34 @@
         <v>271</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D114" s="25">
         <v>2002</v>
       </c>
       <c r="E114" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="F114" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="F114" s="26" t="s">
-        <v>578</v>
-      </c>
       <c r="G114" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J114" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L114" s="24">
         <f>LOOKUP(I114,{"?","N","Y"},{1,0,2}) + LOOKUP(J114,{"?","N","Y"},{1,0,2}) + LOOKUP(K114,{"?","N","Y"},{1,0,2})</f>
@@ -10486,37 +10779,37 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B115" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="C115" s="24" t="s">
         <v>497</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>498</v>
       </c>
       <c r="D115" s="25">
         <v>1994</v>
       </c>
       <c r="E115" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="F115" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="F115" s="26" t="s">
-        <v>500</v>
-      </c>
       <c r="G115" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J115" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L115" s="24">
         <f>LOOKUP(I115,{"?","N","Y"},{1,0,2}) + LOOKUP(J115,{"?","N","Y"},{1,0,2}) + LOOKUP(K115,{"?","N","Y"},{1,0,2})</f>
@@ -10528,34 +10821,34 @@
         <v>271</v>
       </c>
       <c r="B116" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="C116" s="24" t="s">
         <v>530</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>531</v>
       </c>
       <c r="D116" s="25">
         <v>2007</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G116" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J116" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L116" s="24">
         <f>LOOKUP(I116,{"?","N","Y"},{1,0,2}) + LOOKUP(J116,{"?","N","Y"},{1,0,2}) + LOOKUP(K116,{"?","N","Y"},{1,0,2})</f>
@@ -10567,34 +10860,34 @@
         <v>271</v>
       </c>
       <c r="B117" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" s="24" t="s">
         <v>334</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>335</v>
       </c>
       <c r="D117" s="25">
         <v>2009</v>
       </c>
       <c r="E117" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="F117" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="F117" s="26" t="s">
-        <v>566</v>
-      </c>
       <c r="G117" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I117" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J117" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L117" s="24">
         <f>LOOKUP(I117,{"?","N","Y"},{1,0,2}) + LOOKUP(J117,{"?","N","Y"},{1,0,2}) + LOOKUP(K117,{"?","N","Y"},{1,0,2})</f>
@@ -10606,34 +10899,34 @@
         <v>277</v>
       </c>
       <c r="B118" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="C118" s="24" t="s">
         <v>437</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>438</v>
       </c>
       <c r="D118" s="25">
         <v>2011</v>
       </c>
       <c r="E118" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F118" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="F118" s="26" t="s">
-        <v>440</v>
-      </c>
       <c r="G118" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L118" s="24">
         <f>LOOKUP(I118,{"?","N","Y"},{1,0,2}) + LOOKUP(J118,{"?","N","Y"},{1,0,2}) + LOOKUP(K118,{"?","N","Y"},{1,0,2})</f>
@@ -10645,34 +10938,34 @@
         <v>271</v>
       </c>
       <c r="B119" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="C119" s="24" t="s">
         <v>426</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>427</v>
       </c>
       <c r="D119" s="25">
         <v>1996</v>
       </c>
       <c r="E119" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="F119" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="F119" s="26" t="s">
-        <v>598</v>
-      </c>
       <c r="G119" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J119" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L119" s="24">
         <f>LOOKUP(I119,{"?","N","Y"},{1,0,2}) + LOOKUP(J119,{"?","N","Y"},{1,0,2}) + LOOKUP(K119,{"?","N","Y"},{1,0,2})</f>
@@ -10684,34 +10977,34 @@
         <v>277</v>
       </c>
       <c r="B120" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C120" s="24" t="s">
         <v>343</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>344</v>
       </c>
       <c r="D120" s="25">
         <v>2011</v>
       </c>
       <c r="E120" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="F120" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="F120" s="26" t="s">
-        <v>346</v>
-      </c>
       <c r="G120" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L120" s="24">
         <f>LOOKUP(I120,{"?","N","Y"},{1,0,2}) + LOOKUP(J120,{"?","N","Y"},{1,0,2}) + LOOKUP(K120,{"?","N","Y"},{1,0,2})</f>
@@ -10720,42 +11013,42 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G121" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G122" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G123" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G124" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G125" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G126" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G127" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G128" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -10764,7 +11057,7 @@
       <c r="D129" s="22"/>
       <c r="F129" s="22"/>
       <c r="G129" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -10773,7 +11066,7 @@
       <c r="D130" s="22"/>
       <c r="F130" s="22"/>
       <c r="G130" s="27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -10782,5 +11075,8 @@
   </sortState>
   <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="Y22" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="941">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -1034,9 +1034,6 @@
     <t xml:space="preserve">17 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">C. Fry and S. Greene. </t>
-  </si>
-  <si>
     <t>Large scale agile transformation in an on-demand world</t>
   </si>
   <si>
@@ -1587,9 +1584,6 @@
   </si>
   <si>
     <t>148-153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. Wilby. </t>
   </si>
   <si>
     <t>Roadmap Transformation: From Obstacle to Catalyst</t>
@@ -2839,6 +2833,79 @@
   <si>
     <t>Matrix organization with primary and secondary organization. Each project consisted of a cross-functional team.</t>
   </si>
+  <si>
+    <t>C. Fry and S. Greene.</t>
+  </si>
+  <si>
+    <t>Bias, no negative results</t>
+  </si>
+  <si>
+    <t>200 persons, 30 teams</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>A loose waterfall-based process with entrepreneurial culture. Teams organized by function.</t>
+  </si>
+  <si>
+    <t>Release cycle had slowed to once a year. Inaccurate estimates leading to missed release dates and reduced testing. Lack of visibility. Late feedback on features. Long and unpredictable schedules. Gradual productivity decline as the organization grew.
+The original waterfall-based process did not scale up well. Fast company growth introduced problems. As release cycles lengthened it took long for new employees to participate in a release, which cut off learning experiences and morale.</t>
+  </si>
+  <si>
+    <t>One of the company founders launched an organizational change program. One cross-functional team piloted and developed an agile approach. The new approach was presented for key people in the organization, who were given a chance to affect the final process to be. From executive level, a big-bang approach was chosen to avoid organizational dissonance. A risk of making same mistakes in parallel was identified, but as there had already been one successful pilot the risk was opted on. Management stayed firm with the change schedule. People were sent to Scrum and agile training (25% of R&amp;D). External consulting was employed. A consolidated agile approach was developed.
+A wiki was created for sharing knowledge. The new company values were communicated. Vision, plans and other information were over-communicated.
+The change was lead by a rollout team, which consisted of members from all organizational areas (developers to QA to product management). This team provide shared ownership.</t>
+  </si>
+  <si>
+    <t>Consolidation of Scrum, XP and lean.</t>
+  </si>
+  <si>
+    <t>The following things helped the agile transition: on-demand model fits agile, an extensive test suite existed, collocation.</t>
+  </si>
+  <si>
+    <t>Executive commitment. Dedicated rollout team for facilitating change. Follow on agile principles over dictation by documented methods. Early focus on integration and test automation. Provide transparency and over-communicate. Leverage training and coaching from early on. Be inclusive (e.g. inviting everyone to review meetings). Encourage a culture of experimentation and expect mistakes.
+Involve individual contributors early to avoid anti-agents. Have open space meetings early to involve everyone. Invest in product owner training. Automation is a key and it should be prioritized and built early. Give executives concrete deliverables around the rollout. Ensure momentum by getting some teams, but not necessary all, to excellence. Encourage peer coaching. Create a company sprint heartbeat.
+Use common agile vocabulary and rules. Define agile organization roles (PO, ScM, etc.) Daily focus on automated tests throughout the organization. Daily, weekly and monthly cadence with agile practices. Weekly SIGs.</t>
+  </si>
+  <si>
+    <t>Opinion survey: 87% scrum team is self-organizing, 80% the team is more effective. 1500+ bugs removed from backlog. Release readiness every 30 days.</t>
+  </si>
+  <si>
+    <t>Not a case study</t>
+  </si>
+  <si>
+    <t>D. Wilby.</t>
+  </si>
+  <si>
+    <t>Roadmaps created for 12 months ahead. The roadmap was to show prospective features for sales, and as a discussion tool with customers.</t>
+  </si>
+  <si>
+    <t>Roadmaps were not trusted by anyone (customer, sales, development, etc).</t>
+  </si>
+  <si>
+    <t>Agile teams were apparently in place at the time where this report starts. After implementing agile teams roadmapping became an issue. Roadmapping was first thrown out. This lead to new problems. Roadmapping was brought back, but fitted for agile. Consultants were engaged. Intensive one-week training was given for managers responsible for roadmapping. Roadmapping was decided to be done quarterly. The roadmapping process was changed to highly collaborative and to support agile.</t>
+  </si>
+  <si>
+    <t>Without roadmaps agile seemed chaotic. Roadmaps gave a reference point into what engineering was doing.
+When all parties engaged in roadmapping the actual impacts of roadmap reorganization could be seen and discussed. This kind of rearrangements had sometimes been done on lighter grounds before.
+Participation in planning creates ownership. With common ownership and understanding the roadmap breaks down barriers in accepting it across the organization.</t>
+  </si>
+  <si>
+    <t>Engage all parties (engineering, marketing, management, sales, support) in roadmapping.</t>
+  </si>
+  <si>
+    <t>Roadmapping practice hindered getting full benefits from agile practice. Absence of roadmaps led into problems which were interpreted as a sign that agile was not the right choice.</t>
+  </si>
+  <si>
+    <t>Highly increased collaboration and trust between engineering, management, sales and marketing.</t>
+  </si>
+  <si>
+    <t>Agile roadmapping has: increased customer and sales confidence, presents a clear direction in a clear way and organization wide.</t>
+  </si>
+  <si>
+    <t>Focus on roadmapping, and bypasses earlier stages of agile transformation.</t>
+  </si>
 </sst>
 </file>
 
@@ -2848,7 +2915,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]#\ ?/?"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2896,13 +2963,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -2965,7 +3046,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3108,6 +3189,48 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4531,7 +4654,7 @@
         <v>111</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5064,8 +5187,8 @@
   <dimension ref="A1:AL130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5108,100 +5231,100 @@
     <row r="1" spans="1:38" s="15" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y1" s="46" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>711</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="AF1" s="16" t="s">
         <v>681</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="AH1" s="16" t="s">
         <v>731</v>
       </c>
-      <c r="W1" s="16" t="s">
-        <v>765</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="Y1" s="46" t="s">
-        <v>699</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>806</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>683</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>714</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="AL1" s="28" t="s">
         <v>733</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>716</v>
-      </c>
-      <c r="AK1" s="28" t="s">
-        <v>734</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -5209,10 +5332,10 @@
         <v>290</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>468</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>469</v>
       </c>
       <c r="D3" s="25">
         <v>2006</v>
@@ -5221,22 +5344,22 @@
         <v>297</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L3" s="24" t="e">
         <f>LOOKUP(I3,{"?","N","Y"},{1,0,2}) + LOOKUP(J3,{"?","N","Y"},{1,0,2}) + LOOKUP(K3,{"?","N","Y"},{1,0,2})</f>
@@ -5253,84 +5376,84 @@
         <v>271</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D4" s="25">
         <v>2009</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L4" s="24">
         <f>LOOKUP(I4,{"?","N","Y"},{1,0,2}) + LOOKUP(J4,{"?","N","Y"},{1,0,2}) + LOOKUP(K4,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="23" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S4" s="29">
         <v>3</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="Y4" s="47" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="AB4" s="19" t="s">
         <v>700</v>
       </c>
-      <c r="Z4" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="AA4" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AD4" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="AF4" s="19" t="s">
         <v>702</v>
-      </c>
-      <c r="AD4" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>705</v>
-      </c>
-      <c r="AF4" s="19" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -5338,10 +5461,10 @@
         <v>277</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>389</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>390</v>
       </c>
       <c r="D5" s="35">
         <v>2011</v>
@@ -5350,97 +5473,97 @@
         <v>280</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L5" s="34">
         <f>LOOKUP(I5,{"?","N","Y"},{1,0,2}) + LOOKUP(J5,{"?","N","Y"},{1,0,2}) + LOOKUP(K5,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="S5" s="34">
         <v>3</v>
       </c>
       <c r="T5" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="X5" s="40" t="s">
         <v>762</v>
       </c>
-      <c r="U5" s="18" t="s">
-        <v>763</v>
-      </c>
-      <c r="V5" s="18" t="s">
+      <c r="Y5" s="48" t="s">
+        <v>767</v>
+      </c>
+      <c r="Z5" s="40" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA5" s="40" t="s">
         <v>758</v>
       </c>
-      <c r="W5" s="18" t="s">
-        <v>766</v>
-      </c>
-      <c r="X5" s="40" t="s">
-        <v>764</v>
-      </c>
-      <c r="Y5" s="48" t="s">
-        <v>769</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>767</v>
-      </c>
-      <c r="AA5" s="40" t="s">
-        <v>760</v>
-      </c>
       <c r="AB5" s="40" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AC5" s="40"/>
       <c r="AD5" s="40" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AE5" s="40" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AG5" s="40"/>
       <c r="AH5" s="40" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AI5" s="40" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AJ5" s="40" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AK5" s="40" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -5448,69 +5571,69 @@
         <v>271</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D6" s="35">
         <v>2004</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L6" s="34">
         <f>LOOKUP(I6,{"?","N","Y"},{1,0,2}) + LOOKUP(J6,{"?","N","Y"},{1,0,2}) + LOOKUP(K6,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S6" s="34">
         <v>1</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="X6" s="40"/>
       <c r="Y6" s="48"/>
@@ -5520,7 +5643,7 @@
       <c r="AC6" s="40"/>
       <c r="AD6" s="40"/>
       <c r="AE6" s="40" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="AF6" s="40"/>
       <c r="AG6" s="40"/>
@@ -5534,105 +5657,105 @@
         <v>271</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>354</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>355</v>
       </c>
       <c r="D7" s="35">
         <v>2008</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L7" s="34">
         <f>LOOKUP(I7,{"?","N","Y"},{1,0,2}) + LOOKUP(J7,{"?","N","Y"},{1,0,2}) + LOOKUP(K7,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S7" s="34">
         <v>4</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="V7" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="X7" s="40" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y7" s="48" t="s">
         <v>778</v>
       </c>
-      <c r="W7" s="18" t="s">
-        <v>792</v>
-      </c>
-      <c r="X7" s="40" t="s">
-        <v>777</v>
-      </c>
-      <c r="Y7" s="48" t="s">
-        <v>780</v>
-      </c>
       <c r="Z7" s="40" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AA7" s="40" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AB7" s="40" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AC7" s="40"/>
       <c r="AD7" s="40" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="AE7" s="40" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AF7" s="40" t="s">
+        <v>784</v>
+      </c>
+      <c r="AG7" s="40" t="s">
+        <v>781</v>
+      </c>
+      <c r="AH7" s="40" t="s">
         <v>786</v>
       </c>
-      <c r="AG7" s="40" t="s">
-        <v>783</v>
-      </c>
-      <c r="AH7" s="40" t="s">
-        <v>788</v>
-      </c>
       <c r="AI7" s="41" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
@@ -5642,102 +5765,102 @@
         <v>290</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>357</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>358</v>
       </c>
       <c r="D8" s="25">
         <v>2012</v>
       </c>
       <c r="E8" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>360</v>
-      </c>
       <c r="G8" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L8" s="24">
         <f>LOOKUP(I8,{"?","N","Y"},{1,0,2}) + LOOKUP(J8,{"?","N","Y"},{1,0,2}) + LOOKUP(K8,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="S8" s="24">
         <v>5</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="V8" s="32" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="W8" s="32"/>
       <c r="X8" s="19" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="Y8" s="49" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="Z8" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="AH8" s="19" t="s">
         <v>745</v>
       </c>
-      <c r="AA8" s="19" t="s">
-        <v>738</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>743</v>
-      </c>
-      <c r="AD8" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="AE8" s="19" t="s">
+      <c r="AI8" s="19" t="s">
         <v>752</v>
       </c>
-      <c r="AF8" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>747</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>754</v>
-      </c>
       <c r="AK8" s="19" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -5745,103 +5868,103 @@
         <v>271</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>450</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>451</v>
       </c>
       <c r="D9" s="35">
         <v>2011</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L9" s="34">
         <f>LOOKUP(I9,{"?","N","Y"},{1,0,2}) + LOOKUP(J9,{"?","N","Y"},{1,0,2}) + LOOKUP(K9,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S9" s="34">
         <v>4</v>
       </c>
       <c r="T9" s="39" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="X9" s="40" t="s">
         <v>793</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="Y9" s="48" t="s">
+        <v>800</v>
+      </c>
+      <c r="Z9" s="40" t="s">
+        <v>795</v>
+      </c>
+      <c r="AA9" s="40" t="s">
         <v>794</v>
       </c>
-      <c r="X9" s="40" t="s">
-        <v>795</v>
-      </c>
-      <c r="Y9" s="48" t="s">
-        <v>802</v>
-      </c>
-      <c r="Z9" s="40" t="s">
-        <v>797</v>
-      </c>
-      <c r="AA9" s="40" t="s">
+      <c r="AB9" s="40" t="s">
         <v>796</v>
-      </c>
-      <c r="AB9" s="40" t="s">
-        <v>798</v>
       </c>
       <c r="AC9" s="40"/>
       <c r="AD9" s="40" t="s">
+        <v>797</v>
+      </c>
+      <c r="AE9" s="40" t="s">
+        <v>798</v>
+      </c>
+      <c r="AF9" s="40" t="s">
         <v>799</v>
       </c>
-      <c r="AE9" s="40" t="s">
-        <v>800</v>
-      </c>
-      <c r="AF9" s="40" t="s">
+      <c r="AG9" s="40" t="s">
+        <v>803</v>
+      </c>
+      <c r="AH9" s="40" t="s">
+        <v>802</v>
+      </c>
+      <c r="AI9" s="40" t="s">
         <v>801</v>
-      </c>
-      <c r="AG9" s="40" t="s">
-        <v>805</v>
-      </c>
-      <c r="AH9" s="40" t="s">
-        <v>804</v>
-      </c>
-      <c r="AI9" s="40" t="s">
-        <v>803</v>
       </c>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
@@ -5851,101 +5974,101 @@
         <v>271</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>423</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>424</v>
       </c>
       <c r="D10" s="35">
         <v>2007</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L10" s="34">
         <f>LOOKUP(I10,{"?","N","Y"},{1,0,2}) + LOOKUP(J10,{"?","N","Y"},{1,0,2}) + LOOKUP(K10,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S10" s="34">
         <v>3</v>
       </c>
       <c r="T10" s="43" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="V10" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="X10" s="40" t="s">
         <v>807</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="Y10" s="48" t="s">
         <v>808</v>
-      </c>
-      <c r="X10" s="40" t="s">
-        <v>809</v>
-      </c>
-      <c r="Y10" s="48" t="s">
-        <v>810</v>
       </c>
       <c r="Z10" s="40"/>
       <c r="AA10" s="40" t="s">
+        <v>809</v>
+      </c>
+      <c r="AB10" s="40" t="s">
+        <v>810</v>
+      </c>
+      <c r="AC10" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="AB10" s="40" t="s">
+      <c r="AD10" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="AC10" s="40" t="s">
+      <c r="AE10" s="40" t="s">
         <v>813</v>
       </c>
-      <c r="AD10" s="40" t="s">
+      <c r="AF10" s="40" t="s">
         <v>814</v>
-      </c>
-      <c r="AE10" s="40" t="s">
-        <v>815</v>
-      </c>
-      <c r="AF10" s="40" t="s">
-        <v>816</v>
       </c>
       <c r="AG10" s="40"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="40" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
@@ -5955,10 +6078,10 @@
         <v>290</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>384</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>385</v>
       </c>
       <c r="D11" s="25">
         <v>2005</v>
@@ -5967,74 +6090,74 @@
         <v>304</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L11" s="24">
         <f>LOOKUP(I11,{"?","N","Y"},{1,0,2}) + LOOKUP(J11,{"?","N","Y"},{1,0,2}) + LOOKUP(K11,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="S11" s="24">
         <v>3</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="X11" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y11" s="49" t="s">
+        <v>685</v>
+      </c>
+      <c r="Z11" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA11" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="Y11" s="49" t="s">
-        <v>687</v>
-      </c>
-      <c r="Z11" s="19" t="s">
+      <c r="AB11" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="AA11" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="AB11" s="19" t="s">
+      <c r="AD11" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="AF11" s="19" t="s">
         <v>709</v>
       </c>
-      <c r="AD11" s="19" t="s">
-        <v>712</v>
-      </c>
-      <c r="AE11" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="AF11" s="19" t="s">
-        <v>711</v>
-      </c>
       <c r="AK11" s="19" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -6042,87 +6165,87 @@
         <v>271</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>466</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>467</v>
       </c>
       <c r="D12" s="35">
         <v>2007</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L12" s="34">
         <f>LOOKUP(I12,{"?","N","Y"},{1,0,2}) + LOOKUP(J12,{"?","N","Y"},{1,0,2}) + LOOKUP(K12,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="S12" s="34">
         <v>2</v>
       </c>
       <c r="T12" s="39"/>
       <c r="U12" s="18" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="W12" s="18"/>
       <c r="X12" s="40" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="Y12" s="48"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="40" t="s">
+        <v>821</v>
+      </c>
+      <c r="AB12" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="AC12" s="40" t="s">
         <v>823</v>
       </c>
-      <c r="AB12" s="40" t="s">
-        <v>826</v>
-      </c>
-      <c r="AC12" s="40" t="s">
-        <v>825</v>
-      </c>
       <c r="AD12" s="40" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="AE12" s="40" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40"/>
@@ -6130,7 +6253,7 @@
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="33" customFormat="1" ht="330" x14ac:dyDescent="0.25">
@@ -6138,105 +6261,105 @@
         <v>271</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>482</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>483</v>
       </c>
       <c r="D13" s="35">
         <v>2007</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L13" s="34">
         <f>LOOKUP(I13,{"?","N","Y"},{1,0,2}) + LOOKUP(J13,{"?","N","Y"},{1,0,2}) + LOOKUP(K13,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S13" s="34">
         <v>5</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="X13" s="40" t="s">
+        <v>833</v>
+      </c>
+      <c r="Y13" s="48" t="s">
+        <v>834</v>
+      </c>
+      <c r="Z13" s="40" t="s">
+        <v>826</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="AB13" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="AC13" s="40" t="s">
         <v>835</v>
       </c>
-      <c r="Y13" s="48" t="s">
-        <v>836</v>
-      </c>
-      <c r="Z13" s="40" t="s">
-        <v>828</v>
-      </c>
-      <c r="AA13" s="40" t="s">
-        <v>827</v>
-      </c>
-      <c r="AB13" s="40" t="s">
-        <v>833</v>
-      </c>
-      <c r="AC13" s="40" t="s">
-        <v>837</v>
-      </c>
       <c r="AD13" s="40" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="AE13" s="40"/>
       <c r="AF13" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="AG13" s="40" t="s">
+        <v>829</v>
+      </c>
+      <c r="AH13" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="AI13" s="40" t="s">
         <v>830</v>
-      </c>
-      <c r="AG13" s="40" t="s">
-        <v>831</v>
-      </c>
-      <c r="AH13" s="40" t="s">
-        <v>829</v>
-      </c>
-      <c r="AI13" s="40" t="s">
-        <v>832</v>
       </c>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
@@ -6246,7 +6369,7 @@
         <v>271</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>15</v>
@@ -6255,95 +6378,95 @@
         <v>2009</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L14" s="34">
         <f>LOOKUP(I14,{"?","N","Y"},{1,0,2}) + LOOKUP(J14,{"?","N","Y"},{1,0,2}) + LOOKUP(K14,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S14" s="34">
         <v>5</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="V14" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="X14" s="40" t="s">
+        <v>836</v>
+      </c>
+      <c r="Y14" s="48" t="s">
         <v>840</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>779</v>
-      </c>
-      <c r="X14" s="40" t="s">
-        <v>838</v>
-      </c>
-      <c r="Y14" s="48" t="s">
+      <c r="Z14" s="40" t="s">
+        <v>847</v>
+      </c>
+      <c r="AA14" s="40" t="s">
+        <v>839</v>
+      </c>
+      <c r="AB14" s="40" t="s">
         <v>842</v>
       </c>
-      <c r="Z14" s="40" t="s">
-        <v>849</v>
-      </c>
-      <c r="AA14" s="40" t="s">
+      <c r="AC14" s="40" t="s">
         <v>841</v>
       </c>
-      <c r="AB14" s="40" t="s">
+      <c r="AD14" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="AE14" s="40" t="s">
         <v>844</v>
       </c>
-      <c r="AC14" s="40" t="s">
+      <c r="AF14" s="40" t="s">
         <v>843</v>
       </c>
-      <c r="AD14" s="40" t="s">
-        <v>847</v>
-      </c>
-      <c r="AE14" s="40" t="s">
+      <c r="AG14" s="40" t="s">
+        <v>837</v>
+      </c>
+      <c r="AH14" s="40" t="s">
         <v>846</v>
-      </c>
-      <c r="AF14" s="40" t="s">
-        <v>845</v>
-      </c>
-      <c r="AG14" s="40" t="s">
-        <v>839</v>
-      </c>
-      <c r="AH14" s="40" t="s">
-        <v>848</v>
       </c>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
@@ -6354,95 +6477,95 @@
         <v>271</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D15" s="35">
         <v>2010</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L15" s="34">
         <v>6</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="S15" s="34">
         <v>2</v>
       </c>
       <c r="T15" s="43" t="s">
+        <v>849</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="V15" s="18" t="s">
         <v>851</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="W15" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="X15" s="40" t="s">
         <v>852</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="Y15" s="48" t="s">
         <v>853</v>
       </c>
-      <c r="W15" s="18" t="s">
-        <v>779</v>
-      </c>
-      <c r="X15" s="40" t="s">
-        <v>854</v>
-      </c>
-      <c r="Y15" s="48" t="s">
-        <v>855</v>
-      </c>
       <c r="Z15" s="40" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AA15" s="40"/>
       <c r="AB15" s="40"/>
       <c r="AC15" s="40" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AD15" s="40"/>
       <c r="AE15" s="40"/>
       <c r="AF15" s="40" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="AG15" s="40"/>
       <c r="AH15" s="40"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="40" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="AK15" s="40"/>
     </row>
@@ -6451,7 +6574,7 @@
         <v>271</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>202</v>
@@ -6460,86 +6583,86 @@
         <v>2003</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L16" s="24">
         <f>LOOKUP(I16,{"?","N","Y"},{1,0,2}) + LOOKUP(J16,{"?","N","Y"},{1,0,2}) + LOOKUP(K16,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S16" s="24">
         <v>5</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y16" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="AD16" s="19" t="s">
+        <v>727</v>
+      </c>
+      <c r="AE16" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="AF16" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="AJ16" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="Y16" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="Z16" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="AA16" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="AB16" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="AD16" s="19" t="s">
-        <v>729</v>
-      </c>
-      <c r="AE16" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="AJ16" s="19" t="s">
-        <v>717</v>
-      </c>
       <c r="AK16" s="19" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" spans="1:37" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -6547,105 +6670,105 @@
         <v>271</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D17" s="35">
         <v>2011</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L17" s="34">
         <v>6</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S17" s="34">
         <v>3</v>
       </c>
       <c r="T17" s="43" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="W17" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="X17" s="40" t="s">
+        <v>859</v>
+      </c>
+      <c r="Y17" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="Z17" s="40" t="s">
         <v>860</v>
       </c>
-      <c r="X17" s="40" t="s">
+      <c r="AA17" s="40" t="s">
         <v>861</v>
       </c>
-      <c r="Y17" s="48" t="s">
-        <v>689</v>
-      </c>
-      <c r="Z17" s="40" t="s">
+      <c r="AB17" s="40" t="s">
         <v>862</v>
-      </c>
-      <c r="AA17" s="40" t="s">
-        <v>863</v>
-      </c>
-      <c r="AB17" s="40" t="s">
-        <v>864</v>
       </c>
       <c r="AC17" s="40"/>
       <c r="AD17" s="40" t="s">
+        <v>863</v>
+      </c>
+      <c r="AE17" s="40" t="s">
+        <v>864</v>
+      </c>
+      <c r="AF17" s="40" t="s">
         <v>865</v>
       </c>
-      <c r="AE17" s="40" t="s">
+      <c r="AG17" s="40" t="s">
         <v>866</v>
       </c>
-      <c r="AF17" s="40" t="s">
+      <c r="AH17" s="40" t="s">
         <v>867</v>
-      </c>
-      <c r="AG17" s="40" t="s">
-        <v>868</v>
-      </c>
-      <c r="AH17" s="40" t="s">
-        <v>869</v>
       </c>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="40" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AK17" s="40"/>
     </row>
@@ -6663,95 +6786,95 @@
         <v>2005</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L18" s="34">
         <f>LOOKUP(I18,{"?","N","Y"},{1,0,2}) + LOOKUP(J18,{"?","N","Y"},{1,0,2}) + LOOKUP(K18,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S18" s="34">
         <v>3</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="X18" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="Y18" s="48" t="s">
+        <v>872</v>
+      </c>
+      <c r="Z18" s="40" t="s">
+        <v>870</v>
+      </c>
+      <c r="AA18" s="40" t="s">
         <v>871</v>
       </c>
-      <c r="Y18" s="48" t="s">
+      <c r="AB18" s="40" t="s">
         <v>874</v>
       </c>
-      <c r="Z18" s="40" t="s">
-        <v>872</v>
-      </c>
-      <c r="AA18" s="40" t="s">
+      <c r="AC18" s="40" t="s">
         <v>873</v>
       </c>
-      <c r="AB18" s="40" t="s">
-        <v>876</v>
-      </c>
-      <c r="AC18" s="40" t="s">
+      <c r="AD18" s="40" t="s">
+        <v>881</v>
+      </c>
+      <c r="AE18" s="40" t="s">
         <v>875</v>
-      </c>
-      <c r="AD18" s="40" t="s">
-        <v>883</v>
-      </c>
-      <c r="AE18" s="40" t="s">
-        <v>877</v>
       </c>
       <c r="AF18" s="40"/>
       <c r="AG18" s="40"/>
       <c r="AH18" s="40" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="40" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="AK18" s="40"/>
     </row>
@@ -6769,94 +6892,94 @@
         <v>2009</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>276</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L19" s="34">
         <f>LOOKUP(I19,{"?","N","Y"},{1,0,2}) + LOOKUP(J19,{"?","N","Y"},{1,0,2}) + LOOKUP(K19,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S19" s="34">
         <v>3</v>
       </c>
       <c r="T19" s="50" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U19" s="51" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="V19" s="51" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="W19" s="51" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="X19" s="40" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="Y19" s="48" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="Z19" s="40"/>
       <c r="AA19" s="40" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="AB19" s="40" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AC19" s="40" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="AD19" s="40" t="s">
+        <v>887</v>
+      </c>
+      <c r="AE19" s="40" t="s">
+        <v>885</v>
+      </c>
+      <c r="AF19" s="40" t="s">
+        <v>884</v>
+      </c>
+      <c r="AG19" s="40" t="s">
         <v>889</v>
-      </c>
-      <c r="AE19" s="40" t="s">
-        <v>887</v>
-      </c>
-      <c r="AF19" s="40" t="s">
-        <v>886</v>
-      </c>
-      <c r="AG19" s="40" t="s">
-        <v>891</v>
       </c>
       <c r="AH19" s="40"/>
       <c r="AI19" s="40" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
@@ -6866,7 +6989,7 @@
         <v>271</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>289</v>
@@ -6875,141 +6998,141 @@
         <v>2007</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L20" s="34">
         <v>6</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S20" s="34">
         <v>3</v>
       </c>
       <c r="T20" s="52" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U20" s="53" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="V20" s="53" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="W20" s="53" t="s">
+        <v>891</v>
+      </c>
+      <c r="X20" s="40" t="s">
+        <v>892</v>
+      </c>
+      <c r="Y20" s="48" t="s">
         <v>893</v>
       </c>
-      <c r="X20" s="40" t="s">
+      <c r="Z20" s="40" t="s">
         <v>894</v>
       </c>
-      <c r="Y20" s="48" t="s">
+      <c r="AA20" s="40" t="s">
         <v>895</v>
       </c>
-      <c r="Z20" s="40" t="s">
+      <c r="AB20" s="40" t="s">
         <v>896</v>
       </c>
-      <c r="AA20" s="40" t="s">
+      <c r="AC20" s="40" t="s">
         <v>897</v>
       </c>
-      <c r="AB20" s="40" t="s">
+      <c r="AD20" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="AC20" s="40" t="s">
+      <c r="AE20" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF20" s="40" t="s">
         <v>899</v>
       </c>
-      <c r="AD20" s="40" t="s">
-        <v>900</v>
-      </c>
-      <c r="AE20" s="40" t="s">
-        <v>689</v>
-      </c>
-      <c r="AF20" s="40" t="s">
-        <v>901</v>
-      </c>
       <c r="AG20" s="40" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AH20" s="40" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AI20" s="40" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="40"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="56" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="57" t="s">
         <v>479</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>480</v>
       </c>
       <c r="D21" s="25">
         <v>2010</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L21" s="24">
         <f>LOOKUP(I21,{"?","N","Y"},{1,0,2}) + LOOKUP(J21,{"?","N","Y"},{1,0,2}) + LOOKUP(K21,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:37" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -7026,47 +7149,47 @@
         <v>2003</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L22" s="34">
         <f>LOOKUP(I22,{"?","N","Y"},{1,0,2}) + LOOKUP(J22,{"?","N","Y"},{1,0,2}) + LOOKUP(K22,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S22" s="34">
         <v>2</v>
@@ -7076,81 +7199,145 @@
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
       <c r="X22" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="Y22" s="48" t="s">
+        <v>913</v>
+      </c>
+      <c r="Z22" s="40" t="s">
+        <v>918</v>
+      </c>
+      <c r="AA22" s="40" t="s">
         <v>914</v>
-      </c>
-      <c r="Y22" s="48" t="s">
-        <v>915</v>
-      </c>
-      <c r="Z22" s="40" t="s">
-        <v>920</v>
-      </c>
-      <c r="AA22" s="40" t="s">
-        <v>916</v>
       </c>
       <c r="AB22" s="40"/>
       <c r="AC22" s="40" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="AD22" s="40"/>
       <c r="AE22" s="40" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AF22" s="40"/>
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="40" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="AK22" s="40"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:37" s="33" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="34" t="s">
+        <v>919</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="35">
+        <v>2007</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="F23" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="D23" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="L23" s="24">
-        <f>LOOKUP(I23,{"?","N","Y"},{1,0,2}) + LOOKUP(J23,{"?","N","Y"},{1,0,2}) + LOOKUP(K23,{"?","N","Y"},{1,0,2})</f>
+      <c r="G23" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="L23" s="34">
         <v>6</v>
       </c>
+      <c r="M23" s="42" t="s">
+        <v>683</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="S23" s="34">
+        <v>5</v>
+      </c>
+      <c r="T23" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="V23" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="W23" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="X23" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="Y23" s="48" t="s">
+        <v>922</v>
+      </c>
+      <c r="Z23" s="40" t="s">
+        <v>923</v>
+      </c>
+      <c r="AA23" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="AB23" s="40" t="s">
+        <v>925</v>
+      </c>
+      <c r="AC23" s="40" t="s">
+        <v>926</v>
+      </c>
+      <c r="AD23" s="40" t="s">
+        <v>927</v>
+      </c>
+      <c r="AE23" s="40" t="s">
+        <v>928</v>
+      </c>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40" t="s">
+        <v>929</v>
+      </c>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="57" t="s">
         <v>303</v>
       </c>
       <c r="D24" s="25">
@@ -7163,145 +7350,148 @@
         <v>305</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L24" s="24">
         <f>LOOKUP(I24,{"?","N","Y"},{1,0,2}) + LOOKUP(J24,{"?","N","Y"},{1,0,2}) + LOOKUP(K24,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
+      <c r="T24" s="54" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="25" spans="1:37" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B25" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="C25" s="34" t="s">
         <v>416</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>417</v>
       </c>
       <c r="D25" s="35">
         <v>2011</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L25" s="34">
         <f>LOOKUP(I25,{"?","N","Y"},{1,0,2}) + LOOKUP(J25,{"?","N","Y"},{1,0,2}) + LOOKUP(K25,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="S25" s="34">
         <v>3</v>
       </c>
       <c r="T25" s="39" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="U25" s="18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="V25" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="X25" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="Y25" s="48" t="s">
+        <v>900</v>
+      </c>
+      <c r="Z25" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="AA25" s="40" t="s">
+        <v>873</v>
+      </c>
+      <c r="AB25" s="40" t="s">
+        <v>910</v>
+      </c>
+      <c r="AC25" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD25" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="AE25" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="AF25" s="40" t="s">
+        <v>908</v>
+      </c>
+      <c r="AG25" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="AH25" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="AI25" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="AJ25" s="40" t="s">
         <v>903</v>
       </c>
-      <c r="W25" s="18" t="s">
-        <v>779</v>
-      </c>
-      <c r="X25" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="Y25" s="48" t="s">
-        <v>902</v>
-      </c>
-      <c r="Z25" s="40" t="s">
-        <v>906</v>
-      </c>
-      <c r="AA25" s="40" t="s">
-        <v>875</v>
-      </c>
-      <c r="AB25" s="40" t="s">
-        <v>912</v>
-      </c>
-      <c r="AC25" s="40" t="s">
-        <v>909</v>
-      </c>
-      <c r="AD25" s="40" t="s">
-        <v>911</v>
-      </c>
-      <c r="AE25" s="40" t="s">
-        <v>907</v>
-      </c>
-      <c r="AF25" s="40" t="s">
-        <v>910</v>
-      </c>
-      <c r="AG25" s="40" t="s">
-        <v>689</v>
-      </c>
-      <c r="AH25" s="40" t="s">
-        <v>908</v>
-      </c>
-      <c r="AI25" s="40" t="s">
-        <v>689</v>
-      </c>
-      <c r="AJ25" s="40" t="s">
-        <v>905</v>
-      </c>
       <c r="AK25" s="40"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="57" t="s">
         <v>316</v>
       </c>
       <c r="D26" s="25">
@@ -7314,136 +7504,231 @@
         <v>318</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L26" s="24">
         <f>LOOKUP(I26,{"?","N","Y"},{1,0,2}) + LOOKUP(J26,{"?","N","Y"},{1,0,2}) + LOOKUP(K26,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="T26" s="54" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="D27" s="25">
+      <c r="B27" s="34" t="s">
+        <v>931</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="D27" s="35">
         <v>2009</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="L27" s="24">
-        <f>LOOKUP(I27,{"?","N","Y"},{1,0,2}) + LOOKUP(J27,{"?","N","Y"},{1,0,2}) + LOOKUP(K27,{"?","N","Y"},{1,0,2})</f>
+      <c r="E27" s="33" t="s">
+        <v>562</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>621</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="L27" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="M27" s="42" t="s">
+        <v>682</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q27" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="R27" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="S27" s="34">
+        <v>3</v>
+      </c>
+      <c r="T27" s="43" t="s">
+        <v>738</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="X27" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y27" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="Z27" s="40" t="s">
+        <v>932</v>
+      </c>
+      <c r="AA27" s="40" t="s">
+        <v>933</v>
+      </c>
+      <c r="AB27" s="40" t="s">
+        <v>934</v>
+      </c>
+      <c r="AC27" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD27" s="40" t="s">
+        <v>935</v>
+      </c>
+      <c r="AE27" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="AF27" s="40" t="s">
+        <v>937</v>
+      </c>
+      <c r="AG27" s="40" t="s">
+        <v>687</v>
+      </c>
+      <c r="AH27" s="55" t="s">
+        <v>938</v>
+      </c>
+      <c r="AI27" s="40" t="s">
+        <v>939</v>
+      </c>
+      <c r="AJ27" s="40" t="s">
+        <v>940</v>
+      </c>
+      <c r="AK27" s="40"/>
+    </row>
+    <row r="28" spans="1:37" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="59" t="s">
+        <v>634</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>635</v>
+      </c>
+      <c r="D28" s="60">
+        <v>2008</v>
+      </c>
+      <c r="E28" s="58" t="s">
         <v>636</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="F28" s="61" t="s">
         <v>637</v>
       </c>
-      <c r="D28" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>638</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>682</v>
-      </c>
-      <c r="H28" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J28" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="L28" s="24">
+      <c r="G28" s="62" t="s">
+        <v>680</v>
+      </c>
+      <c r="H28" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="I28" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="K28" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="L28" s="59">
         <f>LOOKUP(I28,{"?","N","Y"},{1,0,2}) + LOOKUP(J28,{"?","N","Y"},{1,0,2}) + LOOKUP(K28,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
+      <c r="M28" s="63"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="66"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>431</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>432</v>
       </c>
       <c r="D29" s="25">
         <v>2008</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L29" s="24">
         <f>LOOKUP(I29,{"?","N","Y"},{1,0,2}) + LOOKUP(J29,{"?","N","Y"},{1,0,2}) + LOOKUP(K29,{"?","N","Y"},{1,0,2})</f>
@@ -7455,34 +7740,34 @@
         <v>271</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D30" s="25">
         <v>2011</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L30" s="24">
         <f>LOOKUP(I30,{"?","N","Y"},{1,0,2}) + LOOKUP(J30,{"?","N","Y"},{1,0,2}) + LOOKUP(K30,{"?","N","Y"},{1,0,2})</f>
@@ -7494,34 +7779,34 @@
         <v>271</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D31" s="25">
         <v>2010</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L31" s="24">
         <f>LOOKUP(I31,{"?","N","Y"},{1,0,2}) + LOOKUP(J31,{"?","N","Y"},{1,0,2}) + LOOKUP(K31,{"?","N","Y"},{1,0,2})</f>
@@ -7542,25 +7827,25 @@
         <v>2006</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>326</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L32" s="24">
         <f>LOOKUP(I32,{"?","N","Y"},{1,0,2}) + LOOKUP(J32,{"?","N","Y"},{1,0,2}) + LOOKUP(K32,{"?","N","Y"},{1,0,2})</f>
@@ -7572,10 +7857,10 @@
         <v>277</v>
       </c>
       <c r="B33" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>367</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>368</v>
       </c>
       <c r="D33" s="25">
         <v>2010</v>
@@ -7584,22 +7869,22 @@
         <v>280</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L33" s="24">
         <f>LOOKUP(I33,{"?","N","Y"},{1,0,2}) + LOOKUP(J33,{"?","N","Y"},{1,0,2}) + LOOKUP(K33,{"?","N","Y"},{1,0,2})</f>
@@ -7611,34 +7896,34 @@
         <v>290</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>459</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>460</v>
       </c>
       <c r="D34" s="25">
         <v>2010</v>
       </c>
       <c r="E34" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="F34" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>462</v>
-      </c>
       <c r="G34" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L34" s="24">
         <f>LOOKUP(I34,{"?","N","Y"},{1,0,2}) + LOOKUP(J34,{"?","N","Y"},{1,0,2}) + LOOKUP(K34,{"?","N","Y"},{1,0,2})</f>
@@ -7650,34 +7935,34 @@
         <v>271</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>492</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>493</v>
       </c>
       <c r="D35" s="25">
         <v>2007</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L35" s="24">
         <f>LOOKUP(I35,{"?","N","Y"},{1,0,2}) + LOOKUP(J35,{"?","N","Y"},{1,0,2}) + LOOKUP(K35,{"?","N","Y"},{1,0,2})</f>
@@ -7689,7 +7974,7 @@
         <v>271</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>140</v>
@@ -7698,25 +7983,25 @@
         <v>2008</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L36" s="24">
         <f>LOOKUP(I36,{"?","N","Y"},{1,0,2}) + LOOKUP(J36,{"?","N","Y"},{1,0,2}) + LOOKUP(K36,{"?","N","Y"},{1,0,2})</f>
@@ -7728,34 +8013,34 @@
         <v>271</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>500</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>501</v>
       </c>
       <c r="D37" s="25">
         <v>2011</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H37" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J37" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="I37" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J37" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K37" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L37" s="24">
         <f>LOOKUP(I37,{"?","N","Y"},{1,0,2}) + LOOKUP(J37,{"?","N","Y"},{1,0,2}) + LOOKUP(K37,{"?","N","Y"},{1,0,2})</f>
@@ -7767,34 +8052,34 @@
         <v>271</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>504</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>505</v>
       </c>
       <c r="D38" s="25">
         <v>2010</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I38" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J38" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J38" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K38" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L38" s="24">
         <f>LOOKUP(I38,{"?","N","Y"},{1,0,2}) + LOOKUP(J38,{"?","N","Y"},{1,0,2}) + LOOKUP(K38,{"?","N","Y"},{1,0,2})</f>
@@ -7806,34 +8091,34 @@
         <v>271</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>370</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>371</v>
       </c>
       <c r="D39" s="25">
         <v>2008</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I39" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K39" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J39" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K39" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L39" s="24">
         <f>LOOKUP(I39,{"?","N","Y"},{1,0,2}) + LOOKUP(J39,{"?","N","Y"},{1,0,2}) + LOOKUP(K39,{"?","N","Y"},{1,0,2})</f>
@@ -7845,7 +8130,7 @@
         <v>290</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>157</v>
@@ -7857,22 +8142,22 @@
         <v>159</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I40" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J40" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J40" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K40" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L40" s="24">
         <f>LOOKUP(I40,{"?","N","Y"},{1,0,2}) + LOOKUP(J40,{"?","N","Y"},{1,0,2}) + LOOKUP(K40,{"?","N","Y"},{1,0,2})</f>
@@ -7884,7 +8169,7 @@
         <v>271</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>161</v>
@@ -7893,25 +8178,25 @@
         <v>2007</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I41" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K41" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L41" s="24">
         <f>LOOKUP(I41,{"?","N","Y"},{1,0,2}) + LOOKUP(J41,{"?","N","Y"},{1,0,2}) + LOOKUP(K41,{"?","N","Y"},{1,0,2})</f>
@@ -7923,34 +8208,34 @@
         <v>271</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>485</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>486</v>
       </c>
       <c r="D42" s="25">
         <v>2010</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H42" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K42" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K42" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L42" s="24">
         <f>LOOKUP(I42,{"?","N","Y"},{1,0,2}) + LOOKUP(J42,{"?","N","Y"},{1,0,2}) + LOOKUP(K42,{"?","N","Y"},{1,0,2})</f>
@@ -7971,25 +8256,25 @@
         <v>2007</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I43" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K43" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J43" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L43" s="24">
         <f>LOOKUP(I43,{"?","N","Y"},{1,0,2}) + LOOKUP(J43,{"?","N","Y"},{1,0,2}) + LOOKUP(K43,{"?","N","Y"},{1,0,2})</f>
@@ -8001,7 +8286,7 @@
         <v>290</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>256</v>
@@ -8013,22 +8298,22 @@
         <v>297</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I44" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J44" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J44" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K44" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L44" s="24">
         <f>LOOKUP(I44,{"?","N","Y"},{1,0,2}) + LOOKUP(J44,{"?","N","Y"},{1,0,2}) + LOOKUP(K44,{"?","N","Y"},{1,0,2})</f>
@@ -8040,34 +8325,34 @@
         <v>271</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>455</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>456</v>
       </c>
       <c r="D45" s="25">
         <v>2011</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I45" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J45" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J45" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K45" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L45" s="24">
         <f>LOOKUP(I45,{"?","N","Y"},{1,0,2}) + LOOKUP(J45,{"?","N","Y"},{1,0,2}) + LOOKUP(K45,{"?","N","Y"},{1,0,2})</f>
@@ -8079,34 +8364,34 @@
         <v>271</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>443</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>444</v>
       </c>
       <c r="D46" s="25">
         <v>2011</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H46" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J46" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="I46" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J46" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K46" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L46" s="24">
         <f>LOOKUP(I46,{"?","N","Y"},{1,0,2}) + LOOKUP(J46,{"?","N","Y"},{1,0,2}) + LOOKUP(K46,{"?","N","Y"},{1,0,2})</f>
@@ -8118,7 +8403,7 @@
         <v>271</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>168</v>
@@ -8127,25 +8412,25 @@
         <v>2008</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I47" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K47" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J47" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K47" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L47" s="24">
         <f>LOOKUP(I47,{"?","N","Y"},{1,0,2}) + LOOKUP(J47,{"?","N","Y"},{1,0,2}) + LOOKUP(K47,{"?","N","Y"},{1,0,2})</f>
@@ -8166,25 +8451,25 @@
         <v>2008</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I48" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K48" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J48" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K48" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L48" s="24">
         <f>LOOKUP(I48,{"?","N","Y"},{1,0,2}) + LOOKUP(J48,{"?","N","Y"},{1,0,2}) + LOOKUP(K48,{"?","N","Y"},{1,0,2})</f>
@@ -8200,7 +8485,7 @@
         <v>271</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C49" s="24" t="s">
         <v>94</v>
@@ -8209,25 +8494,25 @@
         <v>2008</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I49" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J49" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J49" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K49" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L49" s="24">
         <f>LOOKUP(I49,{"?","N","Y"},{1,0,2}) + LOOKUP(J49,{"?","N","Y"},{1,0,2}) + LOOKUP(K49,{"?","N","Y"},{1,0,2})</f>
@@ -8239,34 +8524,34 @@
         <v>271</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>515</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>516</v>
       </c>
       <c r="D50" s="25">
         <v>2009</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I50" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K50" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K50" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L50" s="24">
         <f>LOOKUP(I50,{"?","N","Y"},{1,0,2}) + LOOKUP(J50,{"?","N","Y"},{1,0,2}) + LOOKUP(K50,{"?","N","Y"},{1,0,2})</f>
@@ -8278,34 +8563,34 @@
         <v>271</v>
       </c>
       <c r="B51" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>513</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>514</v>
       </c>
       <c r="D51" s="25">
         <v>2011</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I51" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K51" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J51" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K51" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L51" s="24">
         <f>LOOKUP(I51,{"?","N","Y"},{1,0,2}) + LOOKUP(J51,{"?","N","Y"},{1,0,2}) + LOOKUP(K51,{"?","N","Y"},{1,0,2})</f>
@@ -8317,34 +8602,34 @@
         <v>271</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>346</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>347</v>
       </c>
       <c r="D52" s="25">
         <v>2006</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H52" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K52" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J52" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K52" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L52" s="24">
         <f>LOOKUP(I52,{"?","N","Y"},{1,0,2}) + LOOKUP(J52,{"?","N","Y"},{1,0,2}) + LOOKUP(K52,{"?","N","Y"},{1,0,2})</f>
@@ -8365,25 +8650,25 @@
         <v>2004</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F53" s="26" t="s">
         <v>312</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H53" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K53" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J53" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K53" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L53" s="24">
         <f>LOOKUP(I53,{"?","N","Y"},{1,0,2}) + LOOKUP(J53,{"?","N","Y"},{1,0,2}) + LOOKUP(K53,{"?","N","Y"},{1,0,2})</f>
@@ -8395,34 +8680,34 @@
         <v>290</v>
       </c>
       <c r="B54" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>427</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>428</v>
       </c>
       <c r="D54" s="25">
         <v>2010</v>
       </c>
       <c r="E54" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="F54" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="F54" s="26" t="s">
-        <v>430</v>
-      </c>
       <c r="G54" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H54" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J54" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="I54" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J54" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K54" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L54" s="24">
         <f>LOOKUP(I54,{"?","N","Y"},{1,0,2}) + LOOKUP(J54,{"?","N","Y"},{1,0,2}) + LOOKUP(K54,{"?","N","Y"},{1,0,2})</f>
@@ -8434,34 +8719,34 @@
         <v>271</v>
       </c>
       <c r="B55" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>404</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>405</v>
       </c>
       <c r="D55" s="25">
         <v>2008</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H55" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K55" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J55" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L55" s="24">
         <f>LOOKUP(I55,{"?","N","Y"},{1,0,2}) + LOOKUP(J55,{"?","N","Y"},{1,0,2}) + LOOKUP(K55,{"?","N","Y"},{1,0,2})</f>
@@ -8473,34 +8758,34 @@
         <v>271</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D56" s="25">
         <v>2012</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I56" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J56" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K56" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J56" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K56" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L56" s="24">
         <f>LOOKUP(I56,{"?","N","Y"},{1,0,2}) + LOOKUP(J56,{"?","N","Y"},{1,0,2}) + LOOKUP(K56,{"?","N","Y"},{1,0,2})</f>
@@ -8512,34 +8797,34 @@
         <v>271</v>
       </c>
       <c r="B57" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>348</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>349</v>
       </c>
       <c r="D57" s="25">
         <v>2008</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H57" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I57" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J57" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="I57" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J57" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K57" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L57" s="24">
         <f>LOOKUP(I57,{"?","N","Y"},{1,0,2}) + LOOKUP(J57,{"?","N","Y"},{1,0,2}) + LOOKUP(K57,{"?","N","Y"},{1,0,2})</f>
@@ -8560,25 +8845,25 @@
         <v>2007</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I58" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K58" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J58" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K58" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L58" s="24">
         <f>LOOKUP(I58,{"?","N","Y"},{1,0,2}) + LOOKUP(J58,{"?","N","Y"},{1,0,2}) + LOOKUP(K58,{"?","N","Y"},{1,0,2})</f>
@@ -8599,25 +8884,25 @@
         <v>2007</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F59" s="26" t="s">
         <v>301</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I59" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J59" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J59" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K59" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L59" s="24">
         <f>LOOKUP(I59,{"?","N","Y"},{1,0,2}) + LOOKUP(J59,{"?","N","Y"},{1,0,2}) + LOOKUP(K59,{"?","N","Y"},{1,0,2})</f>
@@ -8633,34 +8918,34 @@
         <v>277</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D60" s="25">
         <v>2009</v>
       </c>
       <c r="E60" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="F60" s="26" t="s">
         <v>394</v>
       </c>
-      <c r="F60" s="26" t="s">
-        <v>395</v>
-      </c>
       <c r="G60" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L60" s="24">
         <f>LOOKUP(I60,{"?","N","Y"},{1,0,2}) + LOOKUP(J60,{"?","N","Y"},{1,0,2}) + LOOKUP(K60,{"?","N","Y"},{1,0,2})</f>
@@ -8672,34 +8957,34 @@
         <v>271</v>
       </c>
       <c r="B61" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>373</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>374</v>
       </c>
       <c r="D61" s="25">
         <v>2005</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I61" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J61" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J61" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K61" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L61" s="24">
         <f>LOOKUP(I61,{"?","N","Y"},{1,0,2}) + LOOKUP(J61,{"?","N","Y"},{1,0,2}) + LOOKUP(K61,{"?","N","Y"},{1,0,2})</f>
@@ -8711,10 +8996,10 @@
         <v>290</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>476</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>477</v>
       </c>
       <c r="D62" s="25">
         <v>2005</v>
@@ -8723,22 +9008,22 @@
         <v>317</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H62" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I62" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J62" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="I62" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J62" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K62" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L62" s="24">
         <f>LOOKUP(I62,{"?","N","Y"},{1,0,2}) + LOOKUP(J62,{"?","N","Y"},{1,0,2}) + LOOKUP(K62,{"?","N","Y"},{1,0,2})</f>
@@ -8750,34 +9035,34 @@
         <v>271</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D63" s="25">
         <v>2011</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I63" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J63" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K63" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L63" s="24">
         <f>LOOKUP(I63,{"?","N","Y"},{1,0,2}) + LOOKUP(J63,{"?","N","Y"},{1,0,2}) + LOOKUP(K63,{"?","N","Y"},{1,0,2})</f>
@@ -8789,34 +9074,34 @@
         <v>271</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>440</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>441</v>
       </c>
       <c r="D64" s="25">
         <v>2005</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H64" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I64" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J64" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="I64" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K64" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L64" s="24">
         <f>LOOKUP(I64,{"?","N","Y"},{1,0,2}) + LOOKUP(J64,{"?","N","Y"},{1,0,2}) + LOOKUP(K64,{"?","N","Y"},{1,0,2})</f>
@@ -8828,34 +9113,34 @@
         <v>271</v>
       </c>
       <c r="B65" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>521</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>522</v>
       </c>
       <c r="D65" s="25">
         <v>2008</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H65" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J65" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="K65" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J65" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="K65" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L65" s="24">
         <f>LOOKUP(I65,{"?","N","Y"},{1,0,2}) + LOOKUP(J65,{"?","N","Y"},{1,0,2}) + LOOKUP(K65,{"?","N","Y"},{1,0,2})</f>
@@ -8867,34 +9152,34 @@
         <v>271</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>365</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>366</v>
       </c>
       <c r="D66" s="25">
         <v>2006</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I66" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J66" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J66" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K66" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L66" s="24">
         <f>LOOKUP(I66,{"?","N","Y"},{1,0,2}) + LOOKUP(J66,{"?","N","Y"},{1,0,2}) + LOOKUP(K66,{"?","N","Y"},{1,0,2})</f>
@@ -8906,34 +9191,34 @@
         <v>271</v>
       </c>
       <c r="B67" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>376</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>377</v>
       </c>
       <c r="D67" s="25">
         <v>2009</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I67" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J67" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J67" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K67" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L67" s="24">
         <f>LOOKUP(I67,{"?","N","Y"},{1,0,2}) + LOOKUP(J67,{"?","N","Y"},{1,0,2}) + LOOKUP(K67,{"?","N","Y"},{1,0,2})</f>
@@ -8945,34 +9230,34 @@
         <v>271</v>
       </c>
       <c r="B68" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>471</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>472</v>
       </c>
       <c r="D68" s="25">
         <v>2012</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I68" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J68" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J68" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K68" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L68" s="24">
         <f>LOOKUP(I68,{"?","N","Y"},{1,0,2}) + LOOKUP(J68,{"?","N","Y"},{1,0,2}) + LOOKUP(K68,{"?","N","Y"},{1,0,2})</f>
@@ -8984,34 +9269,34 @@
         <v>271</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>381</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>382</v>
       </c>
       <c r="D69" s="25">
         <v>2009</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I69" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J69" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J69" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K69" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L69" s="24">
         <f>LOOKUP(I69,{"?","N","Y"},{1,0,2}) + LOOKUP(J69,{"?","N","Y"},{1,0,2}) + LOOKUP(K69,{"?","N","Y"},{1,0,2})</f>
@@ -9023,7 +9308,7 @@
         <v>271</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>114</v>
@@ -9032,25 +9317,25 @@
         <v>2006</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H70" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J70" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="I70" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K70" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L70" s="24">
         <f>LOOKUP(I70,{"?","N","Y"},{1,0,2}) + LOOKUP(J70,{"?","N","Y"},{1,0,2}) + LOOKUP(K70,{"?","N","Y"},{1,0,2})</f>
@@ -9062,34 +9347,34 @@
         <v>271</v>
       </c>
       <c r="B71" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>487</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>488</v>
       </c>
       <c r="D71" s="25">
         <v>2007</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L71" s="24">
         <f>LOOKUP(I71,{"?","N","Y"},{1,0,2}) + LOOKUP(J71,{"?","N","Y"},{1,0,2}) + LOOKUP(K71,{"?","N","Y"},{1,0,2})</f>
@@ -9101,34 +9386,34 @@
         <v>271</v>
       </c>
       <c r="B72" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>396</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>397</v>
       </c>
       <c r="D72" s="25">
         <v>2009</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L72" s="24">
         <f>LOOKUP(I72,{"?","N","Y"},{1,0,2}) + LOOKUP(J72,{"?","N","Y"},{1,0,2}) + LOOKUP(K72,{"?","N","Y"},{1,0,2})</f>
@@ -9140,34 +9425,34 @@
         <v>290</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>407</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>408</v>
       </c>
       <c r="D73" s="25">
         <v>2011</v>
       </c>
       <c r="E73" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F73" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="F73" s="26" t="s">
-        <v>410</v>
-      </c>
       <c r="G73" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L73" s="24">
         <f>LOOKUP(I73,{"?","N","Y"},{1,0,2}) + LOOKUP(J73,{"?","N","Y"},{1,0,2}) + LOOKUP(K73,{"?","N","Y"},{1,0,2})</f>
@@ -9179,34 +9464,34 @@
         <v>290</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D74" s="25">
         <v>2004</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L74" s="24">
         <f>LOOKUP(I74,{"?","N","Y"},{1,0,2}) + LOOKUP(J74,{"?","N","Y"},{1,0,2}) + LOOKUP(K74,{"?","N","Y"},{1,0,2})</f>
@@ -9233,19 +9518,19 @@
         <v>281</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L75" s="24">
         <f>LOOKUP(I75,{"?","N","Y"},{1,0,2}) + LOOKUP(J75,{"?","N","Y"},{1,0,2}) + LOOKUP(K75,{"?","N","Y"},{1,0,2})</f>
@@ -9270,25 +9555,25 @@
         <v>1997</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L76" s="24">
         <f>LOOKUP(I76,{"?","N","Y"},{1,0,2}) + LOOKUP(J76,{"?","N","Y"},{1,0,2}) + LOOKUP(K76,{"?","N","Y"},{1,0,2})</f>
@@ -9300,10 +9585,10 @@
         <v>290</v>
       </c>
       <c r="B77" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>447</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>448</v>
       </c>
       <c r="D77" s="25">
         <v>2008</v>
@@ -9312,22 +9597,22 @@
         <v>1</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L77" s="24">
         <f>LOOKUP(I77,{"?","N","Y"},{1,0,2}) + LOOKUP(J77,{"?","N","Y"},{1,0,2}) + LOOKUP(K77,{"?","N","Y"},{1,0,2})</f>
@@ -9354,19 +9639,19 @@
         <v>294</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L78" s="24">
         <f>LOOKUP(I78,{"?","N","Y"},{1,0,2}) + LOOKUP(J78,{"?","N","Y"},{1,0,2}) + LOOKUP(K78,{"?","N","Y"},{1,0,2})</f>
@@ -9378,34 +9663,34 @@
         <v>271</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D79" s="25">
         <v>2008</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L79" s="24">
         <f>LOOKUP(I79,{"?","N","Y"},{1,0,2}) + LOOKUP(J79,{"?","N","Y"},{1,0,2}) + LOOKUP(K79,{"?","N","Y"},{1,0,2})</f>
@@ -9417,34 +9702,34 @@
         <v>271</v>
       </c>
       <c r="B80" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>418</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>419</v>
       </c>
       <c r="D80" s="25">
         <v>2007</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L80" s="24">
         <f>LOOKUP(I80,{"?","N","Y"},{1,0,2}) + LOOKUP(J80,{"?","N","Y"},{1,0,2}) + LOOKUP(K80,{"?","N","Y"},{1,0,2})</f>
@@ -9456,34 +9741,34 @@
         <v>271</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D81" s="25">
         <v>2010</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L81" s="24">
         <f>LOOKUP(I81,{"?","N","Y"},{1,0,2}) + LOOKUP(J81,{"?","N","Y"},{1,0,2}) + LOOKUP(K81,{"?","N","Y"},{1,0,2})</f>
@@ -9504,25 +9789,25 @@
         <v>2011</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F82" s="26" t="s">
         <v>323</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L82" s="24">
         <f>LOOKUP(I82,{"?","N","Y"},{1,0,2}) + LOOKUP(J82,{"?","N","Y"},{1,0,2}) + LOOKUP(K82,{"?","N","Y"},{1,0,2})</f>
@@ -9534,7 +9819,7 @@
         <v>271</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>146</v>
@@ -9543,25 +9828,25 @@
         <v>2009</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L83" s="24">
         <f>LOOKUP(I83,{"?","N","Y"},{1,0,2}) + LOOKUP(J83,{"?","N","Y"},{1,0,2}) + LOOKUP(K83,{"?","N","Y"},{1,0,2})</f>
@@ -9573,7 +9858,7 @@
         <v>271</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>215</v>
@@ -9582,25 +9867,25 @@
         <v>2009</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L84" s="24">
         <f>LOOKUP(I84,{"?","N","Y"},{1,0,2}) + LOOKUP(J84,{"?","N","Y"},{1,0,2}) + LOOKUP(K84,{"?","N","Y"},{1,0,2})</f>
@@ -9612,34 +9897,34 @@
         <v>271</v>
       </c>
       <c r="B85" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>399</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>400</v>
       </c>
       <c r="D85" s="25">
         <v>2010</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I85" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J85" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J85" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K85" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L85" s="24">
         <f>LOOKUP(I85,{"?","N","Y"},{1,0,2}) + LOOKUP(J85,{"?","N","Y"},{1,0,2}) + LOOKUP(K85,{"?","N","Y"},{1,0,2})</f>
@@ -9651,7 +9936,7 @@
         <v>271</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>176</v>
@@ -9660,25 +9945,25 @@
         <v>2005</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L86" s="24">
         <f>LOOKUP(I86,{"?","N","Y"},{1,0,2}) + LOOKUP(J86,{"?","N","Y"},{1,0,2}) + LOOKUP(K86,{"?","N","Y"},{1,0,2})</f>
@@ -9699,25 +9984,25 @@
         <v>2005</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L87" s="24">
         <f>LOOKUP(I87,{"?","N","Y"},{1,0,2}) + LOOKUP(J87,{"?","N","Y"},{1,0,2}) + LOOKUP(K87,{"?","N","Y"},{1,0,2})</f>
@@ -9729,34 +10014,34 @@
         <v>271</v>
       </c>
       <c r="B88" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>401</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>402</v>
       </c>
       <c r="D88" s="25">
         <v>2011</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L88" s="24">
         <f>LOOKUP(I88,{"?","N","Y"},{1,0,2}) + LOOKUP(J88,{"?","N","Y"},{1,0,2}) + LOOKUP(K88,{"?","N","Y"},{1,0,2})</f>
@@ -9768,34 +10053,34 @@
         <v>271</v>
       </c>
       <c r="B89" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>453</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>454</v>
       </c>
       <c r="D89" s="25">
         <v>2010</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L89" s="24">
         <f>LOOKUP(I89,{"?","N","Y"},{1,0,2}) + LOOKUP(J89,{"?","N","Y"},{1,0,2}) + LOOKUP(K89,{"?","N","Y"},{1,0,2})</f>
@@ -9807,34 +10092,34 @@
         <v>271</v>
       </c>
       <c r="B90" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>519</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>520</v>
       </c>
       <c r="D90" s="25">
         <v>2008</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J90" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L90" s="24">
         <f>LOOKUP(I90,{"?","N","Y"},{1,0,2}) + LOOKUP(J90,{"?","N","Y"},{1,0,2}) + LOOKUP(K90,{"?","N","Y"},{1,0,2})</f>
@@ -9861,19 +10146,19 @@
         <v>298</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L91" s="24">
         <f>LOOKUP(I91,{"?","N","Y"},{1,0,2}) + LOOKUP(J91,{"?","N","Y"},{1,0,2}) + LOOKUP(K91,{"?","N","Y"},{1,0,2})</f>
@@ -9885,34 +10170,34 @@
         <v>271</v>
       </c>
       <c r="B92" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>421</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>422</v>
       </c>
       <c r="D92" s="25">
         <v>2011</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H92" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J92" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="I92" s="22" t="s">
+      <c r="K92" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J92" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K92" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L92" s="24">
         <f>LOOKUP(I92,{"?","N","Y"},{1,0,2}) + LOOKUP(J92,{"?","N","Y"},{1,0,2}) + LOOKUP(K92,{"?","N","Y"},{1,0,2})</f>
@@ -9933,25 +10218,25 @@
         <v>2011</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L93" s="24">
         <f>LOOKUP(I93,{"?","N","Y"},{1,0,2}) + LOOKUP(J93,{"?","N","Y"},{1,0,2}) + LOOKUP(K93,{"?","N","Y"},{1,0,2})</f>
@@ -9963,7 +10248,7 @@
         <v>290</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>86</v>
@@ -9975,22 +10260,22 @@
         <v>304</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L94" s="24">
         <f>LOOKUP(I94,{"?","N","Y"},{1,0,2}) + LOOKUP(J94,{"?","N","Y"},{1,0,2}) + LOOKUP(K94,{"?","N","Y"},{1,0,2})</f>
@@ -10002,34 +10287,34 @@
         <v>271</v>
       </c>
       <c r="B95" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>412</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>413</v>
       </c>
       <c r="D95" s="25">
         <v>2009</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H95" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I95" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J95" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="I95" s="22" t="s">
+      <c r="K95" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J95" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K95" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L95" s="24">
         <f>LOOKUP(I95,{"?","N","Y"},{1,0,2}) + LOOKUP(J95,{"?","N","Y"},{1,0,2}) + LOOKUP(K95,{"?","N","Y"},{1,0,2})</f>
@@ -10041,34 +10326,34 @@
         <v>271</v>
       </c>
       <c r="B96" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>363</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>364</v>
       </c>
       <c r="D96" s="25">
         <v>2010</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L96" s="24">
         <f>LOOKUP(I96,{"?","N","Y"},{1,0,2}) + LOOKUP(J96,{"?","N","Y"},{1,0,2}) + LOOKUP(K96,{"?","N","Y"},{1,0,2})</f>
@@ -10080,10 +10365,10 @@
         <v>290</v>
       </c>
       <c r="B97" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>473</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>474</v>
       </c>
       <c r="D97" s="25">
         <v>2006</v>
@@ -10092,22 +10377,22 @@
         <v>1</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L97" s="24">
         <f>LOOKUP(I97,{"?","N","Y"},{1,0,2}) + LOOKUP(J97,{"?","N","Y"},{1,0,2}) + LOOKUP(K97,{"?","N","Y"},{1,0,2})</f>
@@ -10119,34 +10404,34 @@
         <v>271</v>
       </c>
       <c r="B98" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>457</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>458</v>
       </c>
       <c r="D98" s="25">
         <v>2007</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G98" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I98" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J98" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J98" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K98" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L98" s="24">
         <f>LOOKUP(I98,{"?","N","Y"},{1,0,2}) + LOOKUP(J98,{"?","N","Y"},{1,0,2}) + LOOKUP(K98,{"?","N","Y"},{1,0,2})</f>
@@ -10167,25 +10452,25 @@
         <v>2005</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L99" s="24">
         <f>LOOKUP(I99,{"?","N","Y"},{1,0,2}) + LOOKUP(J99,{"?","N","Y"},{1,0,2}) + LOOKUP(K99,{"?","N","Y"},{1,0,2})</f>
@@ -10197,34 +10482,34 @@
         <v>271</v>
       </c>
       <c r="B100" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C100" s="24" t="s">
         <v>414</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>415</v>
       </c>
       <c r="D100" s="25">
         <v>2010</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H100" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J100" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="I100" s="22" t="s">
+      <c r="K100" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J100" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="K100" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L100" s="24">
         <f>LOOKUP(I100,{"?","N","Y"},{1,0,2}) + LOOKUP(J100,{"?","N","Y"},{1,0,2}) + LOOKUP(K100,{"?","N","Y"},{1,0,2})</f>
@@ -10236,34 +10521,34 @@
         <v>271</v>
       </c>
       <c r="B101" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>489</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>490</v>
       </c>
       <c r="D101" s="25">
         <v>2011</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I101" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J101" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="K101" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J101" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="K101" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L101" s="24">
         <f>LOOKUP(I101,{"?","N","Y"},{1,0,2}) + LOOKUP(J101,{"?","N","Y"},{1,0,2}) + LOOKUP(K101,{"?","N","Y"},{1,0,2})</f>
@@ -10275,34 +10560,34 @@
         <v>271</v>
       </c>
       <c r="B102" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>387</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>388</v>
       </c>
       <c r="D102" s="25">
         <v>1997</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I102" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J102" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J102" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K102" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L102" s="24">
         <f>LOOKUP(I102,{"?","N","Y"},{1,0,2}) + LOOKUP(J102,{"?","N","Y"},{1,0,2}) + LOOKUP(K102,{"?","N","Y"},{1,0,2})</f>
@@ -10314,34 +10599,34 @@
         <v>271</v>
       </c>
       <c r="B103" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>511</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>512</v>
       </c>
       <c r="D103" s="25">
         <v>2007</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I103" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J103" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J103" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K103" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L103" s="24">
         <f>LOOKUP(I103,{"?","N","Y"},{1,0,2}) + LOOKUP(J103,{"?","N","Y"},{1,0,2}) + LOOKUP(K103,{"?","N","Y"},{1,0,2})</f>
@@ -10353,34 +10638,34 @@
         <v>290</v>
       </c>
       <c r="B104" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>507</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>508</v>
       </c>
       <c r="D104" s="25">
         <v>2011</v>
       </c>
       <c r="E104" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="F104" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="F104" s="26" t="s">
-        <v>510</v>
-      </c>
       <c r="G104" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L104" s="24">
         <f>LOOKUP(I104,{"?","N","Y"},{1,0,2}) + LOOKUP(J104,{"?","N","Y"},{1,0,2}) + LOOKUP(K104,{"?","N","Y"},{1,0,2})</f>
@@ -10392,34 +10677,34 @@
         <v>271</v>
       </c>
       <c r="B105" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C105" s="24" t="s">
         <v>379</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>380</v>
       </c>
       <c r="D105" s="25">
         <v>2009</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I105" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J105" s="22" t="s">
+        <v>682</v>
+      </c>
+      <c r="K105" s="22" t="s">
         <v>685</v>
-      </c>
-      <c r="J105" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="K105" s="22" t="s">
-        <v>687</v>
       </c>
       <c r="L105" s="24">
         <f>LOOKUP(I105,{"?","N","Y"},{1,0,2}) + LOOKUP(J105,{"?","N","Y"},{1,0,2}) + LOOKUP(K105,{"?","N","Y"},{1,0,2})</f>
@@ -10446,19 +10731,19 @@
         <v>338</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L106" s="24">
         <f>LOOKUP(I106,{"?","N","Y"},{1,0,2}) + LOOKUP(J106,{"?","N","Y"},{1,0,2}) + LOOKUP(K106,{"?","N","Y"},{1,0,2})</f>
@@ -10470,34 +10755,34 @@
         <v>290</v>
       </c>
       <c r="B107" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>350</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>351</v>
       </c>
       <c r="D107" s="25">
         <v>2011</v>
       </c>
       <c r="E107" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F107" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="F107" s="26" t="s">
-        <v>353</v>
-      </c>
       <c r="G107" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I107" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L107" s="24">
         <f>LOOKUP(I107,{"?","N","Y"},{1,0,2}) + LOOKUP(J107,{"?","N","Y"},{1,0,2}) + LOOKUP(K107,{"?","N","Y"},{1,0,2})</f>
@@ -10509,34 +10794,34 @@
         <v>271</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D108" s="25">
         <v>2010</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I108" s="22" t="s">
+        <v>683</v>
+      </c>
+      <c r="J108" s="22" t="s">
         <v>685</v>
       </c>
-      <c r="J108" s="22" t="s">
-        <v>687</v>
-      </c>
       <c r="K108" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L108" s="24">
         <f>LOOKUP(I108,{"?","N","Y"},{1,0,2}) + LOOKUP(J108,{"?","N","Y"},{1,0,2}) + LOOKUP(K108,{"?","N","Y"},{1,0,2})</f>
@@ -10557,25 +10842,25 @@
         <v>2010</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J109" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L109" s="24">
         <f>LOOKUP(I109,{"?","N","Y"},{1,0,2}) + LOOKUP(J109,{"?","N","Y"},{1,0,2}) + LOOKUP(K109,{"?","N","Y"},{1,0,2})</f>
@@ -10596,25 +10881,25 @@
         <v>1998</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J110" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L110" s="24">
         <f>LOOKUP(I110,{"?","N","Y"},{1,0,2}) + LOOKUP(J110,{"?","N","Y"},{1,0,2}) + LOOKUP(K110,{"?","N","Y"},{1,0,2})</f>
@@ -10626,7 +10911,7 @@
         <v>290</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>250</v>
@@ -10635,25 +10920,25 @@
         <v>2006</v>
       </c>
       <c r="E111" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="F111" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="F111" s="26" t="s">
-        <v>465</v>
-      </c>
       <c r="G111" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J111" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L111" s="24">
         <f>LOOKUP(I111,{"?","N","Y"},{1,0,2}) + LOOKUP(J111,{"?","N","Y"},{1,0,2}) + LOOKUP(K111,{"?","N","Y"},{1,0,2})</f>
@@ -10674,25 +10959,25 @@
         <v>2011</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G112" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J112" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L112" s="24">
         <f>LOOKUP(I112,{"?","N","Y"},{1,0,2}) + LOOKUP(J112,{"?","N","Y"},{1,0,2}) + LOOKUP(K112,{"?","N","Y"},{1,0,2})</f>
@@ -10704,34 +10989,34 @@
         <v>271</v>
       </c>
       <c r="B113" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="C113" s="24" t="s">
         <v>445</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>446</v>
       </c>
       <c r="D113" s="25">
         <v>2004</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G113" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J113" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L113" s="24">
         <f>LOOKUP(I113,{"?","N","Y"},{1,0,2}) + LOOKUP(J113,{"?","N","Y"},{1,0,2}) + LOOKUP(K113,{"?","N","Y"},{1,0,2})</f>
@@ -10743,34 +11028,34 @@
         <v>271</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D114" s="25">
         <v>2002</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G114" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J114" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L114" s="24">
         <f>LOOKUP(I114,{"?","N","Y"},{1,0,2}) + LOOKUP(J114,{"?","N","Y"},{1,0,2}) + LOOKUP(K114,{"?","N","Y"},{1,0,2})</f>
@@ -10782,34 +11067,34 @@
         <v>290</v>
       </c>
       <c r="B115" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C115" s="24" t="s">
         <v>496</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>497</v>
       </c>
       <c r="D115" s="25">
         <v>1994</v>
       </c>
       <c r="E115" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="F115" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="F115" s="26" t="s">
-        <v>499</v>
-      </c>
       <c r="G115" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J115" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L115" s="24">
         <f>LOOKUP(I115,{"?","N","Y"},{1,0,2}) + LOOKUP(J115,{"?","N","Y"},{1,0,2}) + LOOKUP(K115,{"?","N","Y"},{1,0,2})</f>
@@ -10821,34 +11106,34 @@
         <v>271</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D116" s="25">
         <v>2007</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G116" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J116" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L116" s="24">
         <f>LOOKUP(I116,{"?","N","Y"},{1,0,2}) + LOOKUP(J116,{"?","N","Y"},{1,0,2}) + LOOKUP(K116,{"?","N","Y"},{1,0,2})</f>
@@ -10869,25 +11154,25 @@
         <v>2009</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I117" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J117" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L117" s="24">
         <f>LOOKUP(I117,{"?","N","Y"},{1,0,2}) + LOOKUP(J117,{"?","N","Y"},{1,0,2}) + LOOKUP(K117,{"?","N","Y"},{1,0,2})</f>
@@ -10899,34 +11184,34 @@
         <v>277</v>
       </c>
       <c r="B118" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C118" s="24" t="s">
         <v>436</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>437</v>
       </c>
       <c r="D118" s="25">
         <v>2011</v>
       </c>
       <c r="E118" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="F118" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="F118" s="26" t="s">
-        <v>439</v>
-      </c>
       <c r="G118" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L118" s="24">
         <f>LOOKUP(I118,{"?","N","Y"},{1,0,2}) + LOOKUP(J118,{"?","N","Y"},{1,0,2}) + LOOKUP(K118,{"?","N","Y"},{1,0,2})</f>
@@ -10938,34 +11223,34 @@
         <v>271</v>
       </c>
       <c r="B119" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C119" s="24" t="s">
         <v>425</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>426</v>
       </c>
       <c r="D119" s="25">
         <v>1996</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G119" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J119" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L119" s="24">
         <f>LOOKUP(I119,{"?","N","Y"},{1,0,2}) + LOOKUP(J119,{"?","N","Y"},{1,0,2}) + LOOKUP(K119,{"?","N","Y"},{1,0,2})</f>
@@ -10977,34 +11262,34 @@
         <v>277</v>
       </c>
       <c r="B120" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C120" s="24" t="s">
         <v>342</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>343</v>
       </c>
       <c r="D120" s="25">
         <v>2011</v>
       </c>
       <c r="E120" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="F120" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="F120" s="26" t="s">
-        <v>345</v>
-      </c>
       <c r="G120" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L120" s="24">
         <f>LOOKUP(I120,{"?","N","Y"},{1,0,2}) + LOOKUP(J120,{"?","N","Y"},{1,0,2}) + LOOKUP(K120,{"?","N","Y"},{1,0,2})</f>
@@ -11013,42 +11298,42 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G121" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G122" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G123" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G124" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G125" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G126" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G127" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G128" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -11057,7 +11342,7 @@
       <c r="D129" s="22"/>
       <c r="F129" s="22"/>
       <c r="G129" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -11066,7 +11351,7 @@
       <c r="D130" s="22"/>
       <c r="F130" s="22"/>
       <c r="G130" s="27" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Haut" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="949">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -1942,9 +1942,6 @@
     <t>1-9</t>
   </si>
   <si>
-    <t xml:space="preserve">G. Benefield. </t>
-  </si>
-  <si>
     <t>Rolling Out Agile in a Large Enterprise</t>
   </si>
   <si>
@@ -2905,6 +2902,38 @@
   </si>
   <si>
     <t>Focus on roadmapping, and bypasses earlier stages of agile transformation.</t>
+  </si>
+  <si>
+    <t>G. Benefield.</t>
+  </si>
+  <si>
+    <t>Over 150 teams</t>
+  </si>
+  <si>
+    <t>In 2002 a waterfall-like process was mandated. Many teams ignored it, or paid lip service where ti could not be escaped. The teams did not like the process, found it heavy and unproductive.</t>
+  </si>
+  <si>
+    <t>Jeff Sutherland was invited to talk about Scrum to management, who got very enthusiastic. Lit sparked an internal discussion on how agile should be embraced.</t>
+  </si>
+  <si>
+    <t>Scrum, lean</t>
+  </si>
+  <si>
+    <t>2005 Scrum pilot program
+End of 2005 more teams
+2006 many teams</t>
+  </si>
+  <si>
+    <t>One agile coach that prepares teams for more productive use of Scrum would give the value of 30 people in return.</t>
+  </si>
+  <si>
+    <t>Initially there was discussion on mandated top-down implementation, but a grass-root approach was chosen. Scrum practice was chosen to be introduced first, as the most visible symptoms of dysfunction were in project planning and management. A Scrum pilot with 4 projects was started. Comprehensive training and external coaching was used in the pilot projects. At the end of the two-month pilot there were positive results and the teams liked the new process. During piloting many general impediments were identified and solved. Surveys were conducted on the pilot projects, and the results showed that most teams perceived that Scrum improved productivity compared to previous processes. 81% of team members wanted to continue with Scrum. The survey results were used to convince others teams that Scrum was good. The Scrum work group presented results to upper management as the pilots progressed.
+A cocahing model was created for introducing teams to Scrum. The coaching model included a number of overview presentations and training for the team, and preparing the backlog with the product owner. The aim was to make the teams free standing as soon as possible. The practices were revisited over time, so that the teams would not forget them. As adoption was progressing 84% of the team members favored Scrum over the previous processes.
+The Scrum work group faced cuts in budget. The work group suggested to delay new teams from introducing Scrum. Teams introduced Scrum anyway without the recommended training, which resulted in misinterpretations. The Scrum work group set to find metrics to show that Scrum training was well worth its cost. Many measures were considered, but most seemed to risk skewing the results. A survey with POs was made and it showed 0% to 200% subjectively estimated productivity gain. A calculation that agile coaches improve productivity was presented. The Scrum work group was allowed to hire coaches although the company was on budget. A bottom up agile movement was created by means such as guerilla marketing.</t>
+  </si>
+  <si>
+    <t>Top-down by-the-book mandates for Scrum did not work, and the process had to be grown by the team.
+Finding good coaches, preferrably originally from within teams, is an important activity.</t>
   </si>
 </sst>
 </file>
@@ -2981,8 +3010,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -3212,16 +3241,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5186,9 +5215,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
+      <selection pane="bottomLeft" activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,7 +5243,7 @@
     <col min="25" max="25" width="17.5703125" style="49" customWidth="1"/>
     <col min="26" max="26" width="47.85546875" style="19" customWidth="1"/>
     <col min="27" max="27" width="47.42578125" style="19" customWidth="1"/>
-    <col min="28" max="28" width="77.42578125" style="19" customWidth="1"/>
+    <col min="28" max="28" width="90.140625" style="19" customWidth="1"/>
     <col min="29" max="29" width="22.42578125" style="19" customWidth="1"/>
     <col min="30" max="30" width="56.42578125" style="19" customWidth="1"/>
     <col min="31" max="31" width="66.28515625" style="19" customWidth="1"/>
@@ -5231,100 +5260,100 @@
     <row r="1" spans="1:38" s="15" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y1" s="46" t="s">
+        <v>696</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="AF1" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>679</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>689</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>718</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="AI1" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="W1" s="16" t="s">
-        <v>763</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="Y1" s="46" t="s">
-        <v>697</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>804</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>749</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>681</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>746</v>
-      </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AJ1" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="AK1" s="28" t="s">
         <v>731</v>
       </c>
-      <c r="AI1" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>714</v>
-      </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>732</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -5347,19 +5376,19 @@
         <v>469</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L3" s="24" t="e">
         <f>LOOKUP(I3,{"?","N","Y"},{1,0,2}) + LOOKUP(J3,{"?","N","Y"},{1,0,2}) + LOOKUP(K3,{"?","N","Y"},{1,0,2})</f>
@@ -5391,69 +5420,69 @@
         <v>626</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L4" s="24">
         <f>LOOKUP(I4,{"?","N","Y"},{1,0,2}) + LOOKUP(J4,{"?","N","Y"},{1,0,2}) + LOOKUP(K4,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S4" s="29">
         <v>3</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y4" s="47" t="s">
+        <v>697</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA4" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="Z4" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>699</v>
       </c>
-      <c r="AB4" s="19" t="s">
-        <v>700</v>
-      </c>
       <c r="AD4" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AF4" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -5476,94 +5505,94 @@
         <v>390</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L5" s="34">
         <f>LOOKUP(I5,{"?","N","Y"},{1,0,2}) + LOOKUP(J5,{"?","N","Y"},{1,0,2}) + LOOKUP(K5,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S5" s="34">
         <v>3</v>
       </c>
       <c r="T5" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="U5" s="18" t="s">
         <v>760</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="X5" s="40" t="s">
         <v>761</v>
       </c>
-      <c r="V5" s="18" t="s">
-        <v>756</v>
-      </c>
-      <c r="W5" s="18" t="s">
+      <c r="Y5" s="48" t="s">
+        <v>766</v>
+      </c>
+      <c r="Z5" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="X5" s="40" t="s">
-        <v>762</v>
-      </c>
-      <c r="Y5" s="48" t="s">
-        <v>767</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>765</v>
-      </c>
       <c r="AA5" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AB5" s="40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AC5" s="40"/>
       <c r="AD5" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AE5" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AG5" s="40"/>
       <c r="AH5" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AI5" s="40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AJ5" s="40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AK5" s="40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -5571,69 +5600,69 @@
         <v>271</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>649</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>650</v>
       </c>
       <c r="D6" s="35">
         <v>2004</v>
       </c>
       <c r="E6" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>652</v>
-      </c>
       <c r="G6" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L6" s="34">
         <f>LOOKUP(I6,{"?","N","Y"},{1,0,2}) + LOOKUP(J6,{"?","N","Y"},{1,0,2}) + LOOKUP(K6,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S6" s="34">
         <v>1</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="X6" s="40"/>
       <c r="Y6" s="48"/>
@@ -5643,7 +5672,7 @@
       <c r="AC6" s="40"/>
       <c r="AD6" s="40"/>
       <c r="AE6" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF6" s="40"/>
       <c r="AG6" s="40"/>
@@ -5672,90 +5701,90 @@
         <v>355</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L7" s="34">
         <f>LOOKUP(I7,{"?","N","Y"},{1,0,2}) + LOOKUP(J7,{"?","N","Y"},{1,0,2}) + LOOKUP(K7,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S7" s="34">
         <v>4</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Y7" s="48" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z7" s="40" t="s">
+        <v>787</v>
+      </c>
+      <c r="AA7" s="40" t="s">
+        <v>786</v>
+      </c>
+      <c r="AB7" s="40" t="s">
         <v>778</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>788</v>
-      </c>
-      <c r="AA7" s="40" t="s">
-        <v>787</v>
-      </c>
-      <c r="AB7" s="40" t="s">
-        <v>779</v>
       </c>
       <c r="AC7" s="40"/>
       <c r="AD7" s="40" t="s">
+        <v>784</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>788</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>783</v>
+      </c>
+      <c r="AG7" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="AH7" s="40" t="s">
         <v>785</v>
       </c>
-      <c r="AE7" s="40" t="s">
-        <v>789</v>
-      </c>
-      <c r="AF7" s="40" t="s">
-        <v>784</v>
-      </c>
-      <c r="AG7" s="40" t="s">
+      <c r="AI7" s="41" t="s">
         <v>781</v>
-      </c>
-      <c r="AH7" s="40" t="s">
-        <v>786</v>
-      </c>
-      <c r="AI7" s="41" t="s">
-        <v>782</v>
       </c>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
@@ -5780,87 +5809,87 @@
         <v>359</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L8" s="24">
         <f>LOOKUP(I8,{"?","N","Y"},{1,0,2}) + LOOKUP(J8,{"?","N","Y"},{1,0,2}) + LOOKUP(K8,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S8" s="24">
         <v>5</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="V8" s="32" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="W8" s="32"/>
       <c r="X8" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y8" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="AH8" s="19" t="s">
         <v>744</v>
       </c>
-      <c r="Y8" s="49" t="s">
-        <v>737</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>743</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>736</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>741</v>
-      </c>
-      <c r="AD8" s="19" t="s">
+      <c r="AI8" s="19" t="s">
         <v>751</v>
       </c>
-      <c r="AE8" s="19" t="s">
-        <v>750</v>
-      </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AK8" s="19" t="s">
         <v>747</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>745</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="AK8" s="19" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -5883,88 +5912,88 @@
         <v>451</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L9" s="34">
         <f>LOOKUP(I9,{"?","N","Y"},{1,0,2}) + LOOKUP(J9,{"?","N","Y"},{1,0,2}) + LOOKUP(K9,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S9" s="34">
         <v>4</v>
       </c>
       <c r="T9" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="W9" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="X9" s="40" t="s">
         <v>792</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="Y9" s="48" t="s">
+        <v>799</v>
+      </c>
+      <c r="Z9" s="40" t="s">
+        <v>794</v>
+      </c>
+      <c r="AA9" s="40" t="s">
         <v>793</v>
       </c>
-      <c r="Y9" s="48" t="s">
-        <v>800</v>
-      </c>
-      <c r="Z9" s="40" t="s">
+      <c r="AB9" s="40" t="s">
         <v>795</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>794</v>
-      </c>
-      <c r="AB9" s="40" t="s">
-        <v>796</v>
       </c>
       <c r="AC9" s="40"/>
       <c r="AD9" s="40" t="s">
+        <v>796</v>
+      </c>
+      <c r="AE9" s="40" t="s">
         <v>797</v>
       </c>
-      <c r="AE9" s="40" t="s">
+      <c r="AF9" s="40" t="s">
         <v>798</v>
       </c>
-      <c r="AF9" s="40" t="s">
-        <v>799</v>
-      </c>
       <c r="AG9" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AH9" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AI9" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
@@ -5989,86 +6018,86 @@
         <v>593</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L10" s="34">
         <f>LOOKUP(I10,{"?","N","Y"},{1,0,2}) + LOOKUP(J10,{"?","N","Y"},{1,0,2}) + LOOKUP(K10,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S10" s="34">
         <v>3</v>
       </c>
       <c r="T10" s="43" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V10" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="W10" s="18" t="s">
         <v>805</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="X10" s="40" t="s">
         <v>806</v>
       </c>
-      <c r="X10" s="40" t="s">
+      <c r="Y10" s="48" t="s">
         <v>807</v>
-      </c>
-      <c r="Y10" s="48" t="s">
-        <v>808</v>
       </c>
       <c r="Z10" s="40"/>
       <c r="AA10" s="40" t="s">
+        <v>808</v>
+      </c>
+      <c r="AB10" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="AB10" s="40" t="s">
+      <c r="AC10" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="AC10" s="40" t="s">
+      <c r="AD10" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="AD10" s="40" t="s">
+      <c r="AE10" s="40" t="s">
         <v>812</v>
       </c>
-      <c r="AE10" s="40" t="s">
+      <c r="AF10" s="40" t="s">
         <v>813</v>
-      </c>
-      <c r="AF10" s="40" t="s">
-        <v>814</v>
       </c>
       <c r="AG10" s="40"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="40" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
@@ -6093,71 +6122,71 @@
         <v>385</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L11" s="24">
         <f>LOOKUP(I11,{"?","N","Y"},{1,0,2}) + LOOKUP(J11,{"?","N","Y"},{1,0,2}) + LOOKUP(K11,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S11" s="24">
         <v>3</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="X11" s="19" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y11" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z11" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="Y11" s="49" t="s">
-        <v>685</v>
-      </c>
-      <c r="Z11" s="19" t="s">
+      <c r="AA11" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="AA11" s="19" t="s">
+      <c r="AB11" s="19" t="s">
         <v>706</v>
       </c>
-      <c r="AB11" s="19" t="s">
-        <v>707</v>
-      </c>
       <c r="AD11" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AF11" s="19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -6180,72 +6209,72 @@
         <v>533</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L12" s="34">
         <f>LOOKUP(I12,{"?","N","Y"},{1,0,2}) + LOOKUP(J12,{"?","N","Y"},{1,0,2}) + LOOKUP(K12,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S12" s="34">
         <v>2</v>
       </c>
       <c r="T12" s="39"/>
       <c r="U12" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="V12" s="18" t="s">
         <v>819</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>820</v>
       </c>
       <c r="W12" s="18"/>
       <c r="X12" s="40" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Y12" s="48"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="AB12" s="40" t="s">
+        <v>823</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>822</v>
+      </c>
+      <c r="AD12" s="40" t="s">
         <v>821</v>
       </c>
-      <c r="AB12" s="40" t="s">
-        <v>824</v>
-      </c>
-      <c r="AC12" s="40" t="s">
-        <v>823</v>
-      </c>
-      <c r="AD12" s="40" t="s">
-        <v>822</v>
-      </c>
       <c r="AE12" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40"/>
@@ -6253,10 +6282,10 @@
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" s="33" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="33" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>271</v>
       </c>
@@ -6276,90 +6305,90 @@
         <v>483</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L13" s="34">
         <f>LOOKUP(I13,{"?","N","Y"},{1,0,2}) + LOOKUP(J13,{"?","N","Y"},{1,0,2}) + LOOKUP(K13,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S13" s="34">
         <v>5</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="X13" s="40" t="s">
+        <v>832</v>
+      </c>
+      <c r="Y13" s="48" t="s">
         <v>833</v>
       </c>
-      <c r="Y13" s="48" t="s">
+      <c r="Z13" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="AB13" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="AC13" s="40" t="s">
         <v>834</v>
       </c>
-      <c r="Z13" s="40" t="s">
-        <v>826</v>
-      </c>
-      <c r="AA13" s="40" t="s">
-        <v>825</v>
-      </c>
-      <c r="AB13" s="40" t="s">
+      <c r="AD13" s="40" t="s">
         <v>831</v>
-      </c>
-      <c r="AC13" s="40" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD13" s="40" t="s">
-        <v>832</v>
       </c>
       <c r="AE13" s="40"/>
       <c r="AF13" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="AG13" s="40" t="s">
         <v>828</v>
       </c>
-      <c r="AG13" s="40" t="s">
+      <c r="AH13" s="40" t="s">
+        <v>826</v>
+      </c>
+      <c r="AI13" s="40" t="s">
         <v>829</v>
-      </c>
-      <c r="AH13" s="40" t="s">
-        <v>827</v>
-      </c>
-      <c r="AI13" s="40" t="s">
-        <v>830</v>
       </c>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
@@ -6384,89 +6413,89 @@
         <v>591</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L14" s="34">
         <f>LOOKUP(I14,{"?","N","Y"},{1,0,2}) + LOOKUP(J14,{"?","N","Y"},{1,0,2}) + LOOKUP(K14,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S14" s="34">
         <v>5</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V14" s="18" t="s">
+        <v>837</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="X14" s="40" t="s">
+        <v>835</v>
+      </c>
+      <c r="Y14" s="48" t="s">
+        <v>839</v>
+      </c>
+      <c r="Z14" s="40" t="s">
+        <v>846</v>
+      </c>
+      <c r="AA14" s="40" t="s">
         <v>838</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="X14" s="40" t="s">
+      <c r="AB14" s="40" t="s">
+        <v>841</v>
+      </c>
+      <c r="AC14" s="40" t="s">
+        <v>840</v>
+      </c>
+      <c r="AD14" s="40" t="s">
+        <v>844</v>
+      </c>
+      <c r="AE14" s="40" t="s">
+        <v>843</v>
+      </c>
+      <c r="AF14" s="40" t="s">
+        <v>842</v>
+      </c>
+      <c r="AG14" s="40" t="s">
         <v>836</v>
       </c>
-      <c r="Y14" s="48" t="s">
-        <v>840</v>
-      </c>
-      <c r="Z14" s="40" t="s">
-        <v>847</v>
-      </c>
-      <c r="AA14" s="40" t="s">
-        <v>839</v>
-      </c>
-      <c r="AB14" s="40" t="s">
-        <v>842</v>
-      </c>
-      <c r="AC14" s="40" t="s">
-        <v>841</v>
-      </c>
-      <c r="AD14" s="40" t="s">
+      <c r="AH14" s="40" t="s">
         <v>845</v>
-      </c>
-      <c r="AE14" s="40" t="s">
-        <v>844</v>
-      </c>
-      <c r="AF14" s="40" t="s">
-        <v>843</v>
-      </c>
-      <c r="AG14" s="40" t="s">
-        <v>837</v>
-      </c>
-      <c r="AH14" s="40" t="s">
-        <v>846</v>
       </c>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
@@ -6477,7 +6506,7 @@
         <v>271</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>391</v>
@@ -6492,80 +6521,80 @@
         <v>580</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L15" s="34">
         <v>6</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S15" s="34">
         <v>2</v>
       </c>
       <c r="T15" s="43" t="s">
+        <v>848</v>
+      </c>
+      <c r="U15" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="V15" s="18" t="s">
         <v>850</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="W15" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="X15" s="40" t="s">
         <v>851</v>
       </c>
-      <c r="W15" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="X15" s="40" t="s">
+      <c r="Y15" s="48" t="s">
         <v>852</v>
       </c>
-      <c r="Y15" s="48" t="s">
-        <v>853</v>
-      </c>
       <c r="Z15" s="40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AA15" s="40"/>
       <c r="AB15" s="40"/>
       <c r="AC15" s="40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AD15" s="40"/>
       <c r="AE15" s="40"/>
       <c r="AF15" s="40" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AG15" s="40"/>
       <c r="AH15" s="40"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="40" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AK15" s="40"/>
     </row>
@@ -6589,80 +6618,80 @@
         <v>615</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L16" s="24">
         <f>LOOKUP(I16,{"?","N","Y"},{1,0,2}) + LOOKUP(J16,{"?","N","Y"},{1,0,2}) + LOOKUP(K16,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S16" s="24">
         <v>5</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Y16" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="AD16" s="19" t="s">
         <v>726</v>
       </c>
-      <c r="Z16" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="AA16" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AE16" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="AF16" s="19" t="s">
         <v>723</v>
       </c>
-      <c r="AD16" s="19" t="s">
-        <v>727</v>
-      </c>
-      <c r="AE16" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>724</v>
-      </c>
       <c r="AJ16" s="19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:37" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -6670,7 +6699,7 @@
         <v>271</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>360</v>
@@ -6685,90 +6714,90 @@
         <v>361</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L17" s="34">
         <v>6</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S17" s="34">
         <v>3</v>
       </c>
       <c r="T17" s="43" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="W17" s="18" t="s">
+        <v>857</v>
+      </c>
+      <c r="X17" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="X17" s="40" t="s">
+      <c r="Y17" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="Z17" s="40" t="s">
         <v>859</v>
       </c>
-      <c r="Y17" s="48" t="s">
-        <v>687</v>
-      </c>
-      <c r="Z17" s="40" t="s">
+      <c r="AA17" s="40" t="s">
         <v>860</v>
       </c>
-      <c r="AA17" s="40" t="s">
+      <c r="AB17" s="40" t="s">
         <v>861</v>
-      </c>
-      <c r="AB17" s="40" t="s">
-        <v>862</v>
       </c>
       <c r="AC17" s="40"/>
       <c r="AD17" s="40" t="s">
+        <v>862</v>
+      </c>
+      <c r="AE17" s="40" t="s">
         <v>863</v>
       </c>
-      <c r="AE17" s="40" t="s">
+      <c r="AF17" s="40" t="s">
         <v>864</v>
       </c>
-      <c r="AF17" s="40" t="s">
+      <c r="AG17" s="40" t="s">
         <v>865</v>
       </c>
-      <c r="AG17" s="40" t="s">
+      <c r="AH17" s="40" t="s">
         <v>866</v>
-      </c>
-      <c r="AH17" s="40" t="s">
-        <v>867</v>
       </c>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="40" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AK17" s="40"/>
     </row>
@@ -6792,89 +6821,89 @@
         <v>543</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L18" s="34">
         <f>LOOKUP(I18,{"?","N","Y"},{1,0,2}) + LOOKUP(J18,{"?","N","Y"},{1,0,2}) + LOOKUP(K18,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S18" s="34">
         <v>3</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="X18" s="40" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y18" s="48" t="s">
+        <v>871</v>
+      </c>
+      <c r="Z18" s="40" t="s">
         <v>869</v>
       </c>
-      <c r="Y18" s="48" t="s">
+      <c r="AA18" s="40" t="s">
+        <v>870</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>873</v>
+      </c>
+      <c r="AC18" s="40" t="s">
         <v>872</v>
       </c>
-      <c r="Z18" s="40" t="s">
-        <v>870</v>
-      </c>
-      <c r="AA18" s="40" t="s">
-        <v>871</v>
-      </c>
-      <c r="AB18" s="40" t="s">
+      <c r="AD18" s="40" t="s">
+        <v>880</v>
+      </c>
+      <c r="AE18" s="40" t="s">
         <v>874</v>
-      </c>
-      <c r="AC18" s="40" t="s">
-        <v>873</v>
-      </c>
-      <c r="AD18" s="40" t="s">
-        <v>881</v>
-      </c>
-      <c r="AE18" s="40" t="s">
-        <v>875</v>
       </c>
       <c r="AF18" s="40"/>
       <c r="AG18" s="40"/>
       <c r="AH18" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="40" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AK18" s="40"/>
     </row>
@@ -6898,88 +6927,88 @@
         <v>276</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L19" s="34">
         <f>LOOKUP(I19,{"?","N","Y"},{1,0,2}) + LOOKUP(J19,{"?","N","Y"},{1,0,2}) + LOOKUP(K19,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S19" s="34">
         <v>3</v>
       </c>
       <c r="T19" s="50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U19" s="51" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V19" s="51" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="W19" s="51" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="X19" s="40" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Y19" s="48" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Z19" s="40"/>
       <c r="AA19" s="40" t="s">
+        <v>877</v>
+      </c>
+      <c r="AB19" s="40" t="s">
+        <v>885</v>
+      </c>
+      <c r="AC19" s="40" t="s">
         <v>878</v>
       </c>
-      <c r="AB19" s="40" t="s">
+      <c r="AD19" s="40" t="s">
         <v>886</v>
       </c>
-      <c r="AC19" s="40" t="s">
-        <v>879</v>
-      </c>
-      <c r="AD19" s="40" t="s">
-        <v>887</v>
-      </c>
       <c r="AE19" s="40" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF19" s="40" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AG19" s="40" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AH19" s="40"/>
       <c r="AI19" s="40" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
@@ -6989,7 +7018,7 @@
         <v>271</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>289</v>
@@ -7004,91 +7033,91 @@
         <v>547</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L20" s="34">
         <v>6</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S20" s="34">
         <v>3</v>
       </c>
       <c r="T20" s="52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U20" s="53" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V20" s="53" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="W20" s="53" t="s">
+        <v>890</v>
+      </c>
+      <c r="X20" s="40" t="s">
         <v>891</v>
       </c>
-      <c r="X20" s="40" t="s">
+      <c r="Y20" s="48" t="s">
         <v>892</v>
       </c>
-      <c r="Y20" s="48" t="s">
+      <c r="Z20" s="40" t="s">
         <v>893</v>
       </c>
-      <c r="Z20" s="40" t="s">
+      <c r="AA20" s="40" t="s">
         <v>894</v>
       </c>
-      <c r="AA20" s="40" t="s">
+      <c r="AB20" s="40" t="s">
         <v>895</v>
       </c>
-      <c r="AB20" s="40" t="s">
+      <c r="AC20" s="40" t="s">
         <v>896</v>
       </c>
-      <c r="AC20" s="40" t="s">
+      <c r="AD20" s="40" t="s">
         <v>897</v>
       </c>
-      <c r="AD20" s="40" t="s">
+      <c r="AE20" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="AF20" s="40" t="s">
         <v>898</v>
       </c>
-      <c r="AE20" s="40" t="s">
-        <v>687</v>
-      </c>
-      <c r="AF20" s="40" t="s">
-        <v>899</v>
-      </c>
       <c r="AG20" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AH20" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AI20" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="40"/>
@@ -7113,26 +7142,26 @@
         <v>480</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L21" s="24">
         <f>LOOKUP(I21,{"?","N","Y"},{1,0,2}) + LOOKUP(J21,{"?","N","Y"},{1,0,2}) + LOOKUP(K21,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="22" spans="1:37" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -7155,41 +7184,41 @@
         <v>550</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L22" s="34">
         <f>LOOKUP(I22,{"?","N","Y"},{1,0,2}) + LOOKUP(J22,{"?","N","Y"},{1,0,2}) + LOOKUP(K22,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S22" s="34">
         <v>2</v>
@@ -7199,31 +7228,31 @@
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
       <c r="X22" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="Y22" s="48" t="s">
         <v>912</v>
       </c>
-      <c r="Y22" s="48" t="s">
+      <c r="Z22" s="40" t="s">
+        <v>917</v>
+      </c>
+      <c r="AA22" s="40" t="s">
         <v>913</v>
-      </c>
-      <c r="Z22" s="40" t="s">
-        <v>918</v>
-      </c>
-      <c r="AA22" s="40" t="s">
-        <v>914</v>
       </c>
       <c r="AB22" s="40"/>
       <c r="AC22" s="40" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AD22" s="40"/>
       <c r="AE22" s="40" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF22" s="40"/>
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AK22" s="40"/>
     </row>
@@ -7232,7 +7261,7 @@
         <v>271</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>339</v>
@@ -7247,85 +7276,85 @@
         <v>340</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L23" s="34">
         <v>6</v>
       </c>
       <c r="M23" s="42" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S23" s="34">
         <v>5</v>
       </c>
       <c r="T23" s="43" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="W23" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="X23" s="40" t="s">
         <v>920</v>
       </c>
-      <c r="X23" s="40" t="s">
+      <c r="Y23" s="48" t="s">
         <v>921</v>
       </c>
-      <c r="Y23" s="48" t="s">
+      <c r="Z23" s="40" t="s">
         <v>922</v>
       </c>
-      <c r="Z23" s="40" t="s">
+      <c r="AA23" s="40" t="s">
         <v>923</v>
       </c>
-      <c r="AA23" s="40" t="s">
+      <c r="AB23" s="40" t="s">
         <v>924</v>
       </c>
-      <c r="AB23" s="40" t="s">
+      <c r="AC23" s="40" t="s">
         <v>925</v>
       </c>
-      <c r="AC23" s="40" t="s">
+      <c r="AD23" s="40" t="s">
         <v>926</v>
       </c>
-      <c r="AD23" s="40" t="s">
+      <c r="AE23" s="40" t="s">
         <v>927</v>
-      </c>
-      <c r="AE23" s="40" t="s">
-        <v>928</v>
       </c>
       <c r="AF23" s="40"/>
       <c r="AG23" s="40"/>
       <c r="AH23" s="40"/>
       <c r="AI23" s="40" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
@@ -7350,26 +7379,26 @@
         <v>305</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L24" s="24">
         <f>LOOKUP(I24,{"?","N","Y"},{1,0,2}) + LOOKUP(J24,{"?","N","Y"},{1,0,2}) + LOOKUP(K24,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="T24" s="54" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="25" spans="1:37" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -7392,95 +7421,95 @@
         <v>526</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L25" s="34">
         <f>LOOKUP(I25,{"?","N","Y"},{1,0,2}) + LOOKUP(J25,{"?","N","Y"},{1,0,2}) + LOOKUP(K25,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S25" s="34">
         <v>3</v>
       </c>
       <c r="T25" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U25" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V25" s="18" t="s">
+        <v>900</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="X25" s="40" t="s">
         <v>901</v>
       </c>
-      <c r="W25" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="X25" s="40" t="s">
+      <c r="Y25" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="Z25" s="40" t="s">
+        <v>903</v>
+      </c>
+      <c r="AA25" s="40" t="s">
+        <v>872</v>
+      </c>
+      <c r="AB25" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="AC25" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="AD25" s="40" t="s">
+        <v>908</v>
+      </c>
+      <c r="AE25" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="AF25" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="AG25" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="AH25" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="AI25" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="AJ25" s="40" t="s">
         <v>902</v>
-      </c>
-      <c r="Y25" s="48" t="s">
-        <v>900</v>
-      </c>
-      <c r="Z25" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="AA25" s="40" t="s">
-        <v>873</v>
-      </c>
-      <c r="AB25" s="40" t="s">
-        <v>910</v>
-      </c>
-      <c r="AC25" s="40" t="s">
-        <v>907</v>
-      </c>
-      <c r="AD25" s="40" t="s">
-        <v>909</v>
-      </c>
-      <c r="AE25" s="40" t="s">
-        <v>905</v>
-      </c>
-      <c r="AF25" s="40" t="s">
-        <v>908</v>
-      </c>
-      <c r="AG25" s="40" t="s">
-        <v>687</v>
-      </c>
-      <c r="AH25" s="40" t="s">
-        <v>906</v>
-      </c>
-      <c r="AI25" s="40" t="s">
-        <v>687</v>
-      </c>
-      <c r="AJ25" s="40" t="s">
-        <v>903</v>
       </c>
       <c r="AK25" s="40"/>
     </row>
@@ -7504,26 +7533,26 @@
         <v>318</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L26" s="24">
         <f>LOOKUP(I26,{"?","N","Y"},{1,0,2}) + LOOKUP(J26,{"?","N","Y"},{1,0,2}) + LOOKUP(K26,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="T26" s="54" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="27" spans="1:37" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -7531,7 +7560,7 @@
         <v>271</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>523</v>
@@ -7546,133 +7575,132 @@
         <v>621</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L27" s="34">
         <v>6</v>
       </c>
       <c r="M27" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S27" s="34">
         <v>3</v>
       </c>
       <c r="T27" s="43" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V27" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="W27" s="18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="X27" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Y27" s="48" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Z27" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="AA27" s="40" t="s">
         <v>932</v>
       </c>
-      <c r="AA27" s="40" t="s">
+      <c r="AB27" s="40" t="s">
         <v>933</v>
       </c>
-      <c r="AB27" s="40" t="s">
+      <c r="AC27" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="AD27" s="40" t="s">
         <v>934</v>
       </c>
-      <c r="AC27" s="40" t="s">
-        <v>907</v>
-      </c>
-      <c r="AD27" s="40" t="s">
+      <c r="AE27" s="40" t="s">
         <v>935</v>
       </c>
-      <c r="AE27" s="40" t="s">
+      <c r="AF27" s="40" t="s">
         <v>936</v>
       </c>
-      <c r="AF27" s="40" t="s">
+      <c r="AG27" s="40" t="s">
+        <v>686</v>
+      </c>
+      <c r="AH27" s="55" t="s">
         <v>937</v>
       </c>
-      <c r="AG27" s="40" t="s">
-        <v>687</v>
-      </c>
-      <c r="AH27" s="55" t="s">
+      <c r="AI27" s="40" t="s">
         <v>938</v>
       </c>
-      <c r="AI27" s="40" t="s">
+      <c r="AJ27" s="40" t="s">
         <v>939</v>
       </c>
-      <c r="AJ27" s="40" t="s">
-        <v>940</v>
-      </c>
       <c r="AK27" s="40"/>
     </row>
-    <row r="28" spans="1:37" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" s="58" customFormat="1" ht="375" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
         <v>271</v>
       </c>
       <c r="B28" s="59" t="s">
+        <v>940</v>
+      </c>
+      <c r="C28" s="59" t="s">
         <v>634</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>635</v>
       </c>
       <c r="D28" s="60">
         <v>2008</v>
       </c>
       <c r="E28" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="F28" s="61" t="s">
         <v>636</v>
       </c>
-      <c r="F28" s="61" t="s">
-        <v>637</v>
-      </c>
       <c r="G28" s="62" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H28" s="58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I28" s="58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J28" s="58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K28" s="58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L28" s="59">
-        <f>LOOKUP(I28,{"?","N","Y"},{1,0,2}) + LOOKUP(J28,{"?","N","Y"},{1,0,2}) + LOOKUP(K28,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M28" s="63"/>
@@ -7681,18 +7709,34 @@
       <c r="U28" s="65"/>
       <c r="V28" s="65"/>
       <c r="W28" s="65"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="66"/>
-      <c r="AC28" s="66"/>
-      <c r="AD28" s="66"/>
+      <c r="X28" s="66" t="s">
+        <v>941</v>
+      </c>
+      <c r="Y28" s="67" t="s">
+        <v>945</v>
+      </c>
+      <c r="Z28" s="66" t="s">
+        <v>942</v>
+      </c>
+      <c r="AA28" s="66" t="s">
+        <v>943</v>
+      </c>
+      <c r="AB28" s="66" t="s">
+        <v>947</v>
+      </c>
+      <c r="AC28" s="66" t="s">
+        <v>944</v>
+      </c>
+      <c r="AD28" s="66" t="s">
+        <v>948</v>
+      </c>
       <c r="AE28" s="66"/>
       <c r="AF28" s="66"/>
       <c r="AG28" s="66"/>
       <c r="AH28" s="66"/>
-      <c r="AI28" s="66"/>
+      <c r="AI28" s="66" t="s">
+        <v>946</v>
+      </c>
       <c r="AJ28" s="66"/>
       <c r="AK28" s="66"/>
     </row>
@@ -7716,19 +7760,19 @@
         <v>432</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L29" s="24">
         <f>LOOKUP(I29,{"?","N","Y"},{1,0,2}) + LOOKUP(J29,{"?","N","Y"},{1,0,2}) + LOOKUP(K29,{"?","N","Y"},{1,0,2})</f>
@@ -7740,34 +7784,34 @@
         <v>271</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>667</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>668</v>
       </c>
       <c r="D30" s="25">
         <v>2011</v>
       </c>
       <c r="E30" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>670</v>
-      </c>
       <c r="G30" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L30" s="24">
         <f>LOOKUP(I30,{"?","N","Y"},{1,0,2}) + LOOKUP(J30,{"?","N","Y"},{1,0,2}) + LOOKUP(K30,{"?","N","Y"},{1,0,2})</f>
@@ -7779,10 +7823,10 @@
         <v>271</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>638</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>639</v>
       </c>
       <c r="D31" s="25">
         <v>2010</v>
@@ -7791,22 +7835,22 @@
         <v>569</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L31" s="24">
         <f>LOOKUP(I31,{"?","N","Y"},{1,0,2}) + LOOKUP(J31,{"?","N","Y"},{1,0,2}) + LOOKUP(K31,{"?","N","Y"},{1,0,2})</f>
@@ -7833,19 +7877,19 @@
         <v>326</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L32" s="24">
         <f>LOOKUP(I32,{"?","N","Y"},{1,0,2}) + LOOKUP(J32,{"?","N","Y"},{1,0,2}) + LOOKUP(K32,{"?","N","Y"},{1,0,2})</f>
@@ -7872,19 +7916,19 @@
         <v>368</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L33" s="24">
         <f>LOOKUP(I33,{"?","N","Y"},{1,0,2}) + LOOKUP(J33,{"?","N","Y"},{1,0,2}) + LOOKUP(K33,{"?","N","Y"},{1,0,2})</f>
@@ -7911,19 +7955,19 @@
         <v>461</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L34" s="24">
         <f>LOOKUP(I34,{"?","N","Y"},{1,0,2}) + LOOKUP(J34,{"?","N","Y"},{1,0,2}) + LOOKUP(K34,{"?","N","Y"},{1,0,2})</f>
@@ -7950,19 +7994,19 @@
         <v>613</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L35" s="24">
         <f>LOOKUP(I35,{"?","N","Y"},{1,0,2}) + LOOKUP(J35,{"?","N","Y"},{1,0,2}) + LOOKUP(K35,{"?","N","Y"},{1,0,2})</f>
@@ -7974,7 +8018,7 @@
         <v>271</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>140</v>
@@ -7986,22 +8030,22 @@
         <v>560</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L36" s="24">
         <f>LOOKUP(I36,{"?","N","Y"},{1,0,2}) + LOOKUP(J36,{"?","N","Y"},{1,0,2}) + LOOKUP(K36,{"?","N","Y"},{1,0,2})</f>
@@ -8028,19 +8072,19 @@
         <v>501</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L37" s="24">
         <f>LOOKUP(I37,{"?","N","Y"},{1,0,2}) + LOOKUP(J37,{"?","N","Y"},{1,0,2}) + LOOKUP(K37,{"?","N","Y"},{1,0,2})</f>
@@ -8067,19 +8111,19 @@
         <v>505</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L38" s="24">
         <f>LOOKUP(I38,{"?","N","Y"},{1,0,2}) + LOOKUP(J38,{"?","N","Y"},{1,0,2}) + LOOKUP(K38,{"?","N","Y"},{1,0,2})</f>
@@ -8106,19 +8150,19 @@
         <v>371</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L39" s="24">
         <f>LOOKUP(I39,{"?","N","Y"},{1,0,2}) + LOOKUP(J39,{"?","N","Y"},{1,0,2}) + LOOKUP(K39,{"?","N","Y"},{1,0,2})</f>
@@ -8145,19 +8189,19 @@
         <v>525</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L40" s="24">
         <f>LOOKUP(I40,{"?","N","Y"},{1,0,2}) + LOOKUP(J40,{"?","N","Y"},{1,0,2}) + LOOKUP(K40,{"?","N","Y"},{1,0,2})</f>
@@ -8169,7 +8213,7 @@
         <v>271</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>161</v>
@@ -8181,22 +8225,22 @@
         <v>604</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L41" s="24">
         <f>LOOKUP(I41,{"?","N","Y"},{1,0,2}) + LOOKUP(J41,{"?","N","Y"},{1,0,2}) + LOOKUP(K41,{"?","N","Y"},{1,0,2})</f>
@@ -8223,19 +8267,19 @@
         <v>610</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L42" s="24">
         <f>LOOKUP(I42,{"?","N","Y"},{1,0,2}) + LOOKUP(J42,{"?","N","Y"},{1,0,2}) + LOOKUP(K42,{"?","N","Y"},{1,0,2})</f>
@@ -8262,19 +8306,19 @@
         <v>559</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L43" s="24">
         <f>LOOKUP(I43,{"?","N","Y"},{1,0,2}) + LOOKUP(J43,{"?","N","Y"},{1,0,2}) + LOOKUP(K43,{"?","N","Y"},{1,0,2})</f>
@@ -8301,19 +8345,19 @@
         <v>434</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L44" s="24">
         <f>LOOKUP(I44,{"?","N","Y"},{1,0,2}) + LOOKUP(J44,{"?","N","Y"},{1,0,2}) + LOOKUP(K44,{"?","N","Y"},{1,0,2})</f>
@@ -8340,19 +8384,19 @@
         <v>603</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L45" s="24">
         <f>LOOKUP(I45,{"?","N","Y"},{1,0,2}) + LOOKUP(J45,{"?","N","Y"},{1,0,2}) + LOOKUP(K45,{"?","N","Y"},{1,0,2})</f>
@@ -8379,19 +8423,19 @@
         <v>597</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L46" s="24">
         <f>LOOKUP(I46,{"?","N","Y"},{1,0,2}) + LOOKUP(J46,{"?","N","Y"},{1,0,2}) + LOOKUP(K46,{"?","N","Y"},{1,0,2})</f>
@@ -8403,7 +8447,7 @@
         <v>271</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>168</v>
@@ -8412,25 +8456,25 @@
         <v>2008</v>
       </c>
       <c r="E47" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="F47" s="26" t="s">
-        <v>666</v>
-      </c>
       <c r="G47" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L47" s="24">
         <f>LOOKUP(I47,{"?","N","Y"},{1,0,2}) + LOOKUP(J47,{"?","N","Y"},{1,0,2}) + LOOKUP(K47,{"?","N","Y"},{1,0,2})</f>
@@ -8457,19 +8501,19 @@
         <v>561</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L48" s="24">
         <f>LOOKUP(I48,{"?","N","Y"},{1,0,2}) + LOOKUP(J48,{"?","N","Y"},{1,0,2}) + LOOKUP(K48,{"?","N","Y"},{1,0,2})</f>
@@ -8500,19 +8544,19 @@
         <v>585</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L49" s="24">
         <f>LOOKUP(I49,{"?","N","Y"},{1,0,2}) + LOOKUP(J49,{"?","N","Y"},{1,0,2}) + LOOKUP(K49,{"?","N","Y"},{1,0,2})</f>
@@ -8539,19 +8583,19 @@
         <v>619</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L50" s="24">
         <f>LOOKUP(I50,{"?","N","Y"},{1,0,2}) + LOOKUP(J50,{"?","N","Y"},{1,0,2}) + LOOKUP(K50,{"?","N","Y"},{1,0,2})</f>
@@ -8575,22 +8619,22 @@
         <v>618</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L51" s="24">
         <f>LOOKUP(I51,{"?","N","Y"},{1,0,2}) + LOOKUP(J51,{"?","N","Y"},{1,0,2}) + LOOKUP(K51,{"?","N","Y"},{1,0,2})</f>
@@ -8617,19 +8661,19 @@
         <v>565</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L52" s="24">
         <f>LOOKUP(I52,{"?","N","Y"},{1,0,2}) + LOOKUP(J52,{"?","N","Y"},{1,0,2}) + LOOKUP(K52,{"?","N","Y"},{1,0,2})</f>
@@ -8656,19 +8700,19 @@
         <v>312</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L53" s="24">
         <f>LOOKUP(I53,{"?","N","Y"},{1,0,2}) + LOOKUP(J53,{"?","N","Y"},{1,0,2}) + LOOKUP(K53,{"?","N","Y"},{1,0,2})</f>
@@ -8695,19 +8739,19 @@
         <v>429</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L54" s="24">
         <f>LOOKUP(I54,{"?","N","Y"},{1,0,2}) + LOOKUP(J54,{"?","N","Y"},{1,0,2}) + LOOKUP(K54,{"?","N","Y"},{1,0,2})</f>
@@ -8734,19 +8778,19 @@
         <v>405</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L55" s="24">
         <f>LOOKUP(I55,{"?","N","Y"},{1,0,2}) + LOOKUP(J55,{"?","N","Y"},{1,0,2}) + LOOKUP(K55,{"?","N","Y"},{1,0,2})</f>
@@ -8773,19 +8817,19 @@
         <v>633</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L56" s="24">
         <f>LOOKUP(I56,{"?","N","Y"},{1,0,2}) + LOOKUP(J56,{"?","N","Y"},{1,0,2}) + LOOKUP(K56,{"?","N","Y"},{1,0,2})</f>
@@ -8812,19 +8856,19 @@
         <v>566</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L57" s="24">
         <f>LOOKUP(I57,{"?","N","Y"},{1,0,2}) + LOOKUP(J57,{"?","N","Y"},{1,0,2}) + LOOKUP(K57,{"?","N","Y"},{1,0,2})</f>
@@ -8848,22 +8892,22 @@
         <v>553</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L58" s="24">
         <f>LOOKUP(I58,{"?","N","Y"},{1,0,2}) + LOOKUP(J58,{"?","N","Y"},{1,0,2}) + LOOKUP(K58,{"?","N","Y"},{1,0,2})</f>
@@ -8890,19 +8934,19 @@
         <v>301</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L59" s="24">
         <f>LOOKUP(I59,{"?","N","Y"},{1,0,2}) + LOOKUP(J59,{"?","N","Y"},{1,0,2}) + LOOKUP(K59,{"?","N","Y"},{1,0,2})</f>
@@ -8933,19 +8977,19 @@
         <v>394</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L60" s="24">
         <f>LOOKUP(I60,{"?","N","Y"},{1,0,2}) + LOOKUP(J60,{"?","N","Y"},{1,0,2}) + LOOKUP(K60,{"?","N","Y"},{1,0,2})</f>
@@ -8972,19 +9016,19 @@
         <v>573</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L61" s="24">
         <f>LOOKUP(I61,{"?","N","Y"},{1,0,2}) + LOOKUP(J61,{"?","N","Y"},{1,0,2}) + LOOKUP(K61,{"?","N","Y"},{1,0,2})</f>
@@ -9011,19 +9055,19 @@
         <v>477</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J62" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L62" s="24">
         <f>LOOKUP(I62,{"?","N","Y"},{1,0,2}) + LOOKUP(J62,{"?","N","Y"},{1,0,2}) + LOOKUP(K62,{"?","N","Y"},{1,0,2})</f>
@@ -9035,34 +9079,34 @@
         <v>271</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>641</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>642</v>
       </c>
       <c r="D63" s="25">
         <v>2011</v>
       </c>
       <c r="E63" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="F63" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="F63" s="26" t="s">
-        <v>644</v>
-      </c>
       <c r="G63" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L63" s="24">
         <f>LOOKUP(I63,{"?","N","Y"},{1,0,2}) + LOOKUP(J63,{"?","N","Y"},{1,0,2}) + LOOKUP(K63,{"?","N","Y"},{1,0,2})</f>
@@ -9089,19 +9133,19 @@
         <v>441</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J64" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L64" s="24">
         <f>LOOKUP(I64,{"?","N","Y"},{1,0,2}) + LOOKUP(J64,{"?","N","Y"},{1,0,2}) + LOOKUP(K64,{"?","N","Y"},{1,0,2})</f>
@@ -9128,19 +9172,19 @@
         <v>522</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J65" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L65" s="24">
         <f>LOOKUP(I65,{"?","N","Y"},{1,0,2}) + LOOKUP(J65,{"?","N","Y"},{1,0,2}) + LOOKUP(K65,{"?","N","Y"},{1,0,2})</f>
@@ -9167,19 +9211,19 @@
         <v>571</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L66" s="24">
         <f>LOOKUP(I66,{"?","N","Y"},{1,0,2}) + LOOKUP(J66,{"?","N","Y"},{1,0,2}) + LOOKUP(K66,{"?","N","Y"},{1,0,2})</f>
@@ -9206,19 +9250,19 @@
         <v>377</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L67" s="24">
         <f>LOOKUP(I67,{"?","N","Y"},{1,0,2}) + LOOKUP(J67,{"?","N","Y"},{1,0,2}) + LOOKUP(K67,{"?","N","Y"},{1,0,2})</f>
@@ -9245,19 +9289,19 @@
         <v>607</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L68" s="24">
         <f>LOOKUP(I68,{"?","N","Y"},{1,0,2}) + LOOKUP(J68,{"?","N","Y"},{1,0,2}) + LOOKUP(K68,{"?","N","Y"},{1,0,2})</f>
@@ -9284,19 +9328,19 @@
         <v>382</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L69" s="24">
         <f>LOOKUP(I69,{"?","N","Y"},{1,0,2}) + LOOKUP(J69,{"?","N","Y"},{1,0,2}) + LOOKUP(K69,{"?","N","Y"},{1,0,2})</f>
@@ -9323,19 +9367,19 @@
         <v>517</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L70" s="24">
         <f>LOOKUP(I70,{"?","N","Y"},{1,0,2}) + LOOKUP(J70,{"?","N","Y"},{1,0,2}) + LOOKUP(K70,{"?","N","Y"},{1,0,2})</f>
@@ -9362,19 +9406,19 @@
         <v>611</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L71" s="24">
         <f>LOOKUP(I71,{"?","N","Y"},{1,0,2}) + LOOKUP(J71,{"?","N","Y"},{1,0,2}) + LOOKUP(K71,{"?","N","Y"},{1,0,2})</f>
@@ -9401,19 +9445,19 @@
         <v>397</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L72" s="24">
         <f>LOOKUP(I72,{"?","N","Y"},{1,0,2}) + LOOKUP(J72,{"?","N","Y"},{1,0,2}) + LOOKUP(K72,{"?","N","Y"},{1,0,2})</f>
@@ -9440,19 +9484,19 @@
         <v>409</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L73" s="24">
         <f>LOOKUP(I73,{"?","N","Y"},{1,0,2}) + LOOKUP(J73,{"?","N","Y"},{1,0,2}) + LOOKUP(K73,{"?","N","Y"},{1,0,2})</f>
@@ -9464,34 +9508,34 @@
         <v>290</v>
       </c>
       <c r="B74" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>656</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>657</v>
       </c>
       <c r="D74" s="25">
         <v>2004</v>
       </c>
       <c r="E74" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="F74" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="F74" s="26" t="s">
-        <v>659</v>
-      </c>
       <c r="G74" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L74" s="24">
         <f>LOOKUP(I74,{"?","N","Y"},{1,0,2}) + LOOKUP(J74,{"?","N","Y"},{1,0,2}) + LOOKUP(K74,{"?","N","Y"},{1,0,2})</f>
@@ -9518,19 +9562,19 @@
         <v>281</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L75" s="24">
         <f>LOOKUP(I75,{"?","N","Y"},{1,0,2}) + LOOKUP(J75,{"?","N","Y"},{1,0,2}) + LOOKUP(K75,{"?","N","Y"},{1,0,2})</f>
@@ -9561,19 +9605,19 @@
         <v>541</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L76" s="24">
         <f>LOOKUP(I76,{"?","N","Y"},{1,0,2}) + LOOKUP(J76,{"?","N","Y"},{1,0,2}) + LOOKUP(K76,{"?","N","Y"},{1,0,2})</f>
@@ -9600,19 +9644,19 @@
         <v>448</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L77" s="24">
         <f>LOOKUP(I77,{"?","N","Y"},{1,0,2}) + LOOKUP(J77,{"?","N","Y"},{1,0,2}) + LOOKUP(K77,{"?","N","Y"},{1,0,2})</f>
@@ -9639,19 +9683,19 @@
         <v>294</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L78" s="24">
         <f>LOOKUP(I78,{"?","N","Y"},{1,0,2}) + LOOKUP(J78,{"?","N","Y"},{1,0,2}) + LOOKUP(K78,{"?","N","Y"},{1,0,2})</f>
@@ -9678,19 +9722,19 @@
         <v>629</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L79" s="24">
         <f>LOOKUP(I79,{"?","N","Y"},{1,0,2}) + LOOKUP(J79,{"?","N","Y"},{1,0,2}) + LOOKUP(K79,{"?","N","Y"},{1,0,2})</f>
@@ -9717,19 +9761,19 @@
         <v>590</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L80" s="24">
         <f>LOOKUP(I80,{"?","N","Y"},{1,0,2}) + LOOKUP(J80,{"?","N","Y"},{1,0,2}) + LOOKUP(K80,{"?","N","Y"},{1,0,2})</f>
@@ -9741,10 +9785,10 @@
         <v>271</v>
       </c>
       <c r="B81" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>646</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>647</v>
       </c>
       <c r="D81" s="25">
         <v>2010</v>
@@ -9753,22 +9797,22 @@
         <v>569</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L81" s="24">
         <f>LOOKUP(I81,{"?","N","Y"},{1,0,2}) + LOOKUP(J81,{"?","N","Y"},{1,0,2}) + LOOKUP(K81,{"?","N","Y"},{1,0,2})</f>
@@ -9795,19 +9839,19 @@
         <v>323</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L82" s="24">
         <f>LOOKUP(I82,{"?","N","Y"},{1,0,2}) + LOOKUP(J82,{"?","N","Y"},{1,0,2}) + LOOKUP(K82,{"?","N","Y"},{1,0,2})</f>
@@ -9819,7 +9863,7 @@
         <v>271</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>146</v>
@@ -9831,22 +9875,22 @@
         <v>562</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L83" s="24">
         <f>LOOKUP(I83,{"?","N","Y"},{1,0,2}) + LOOKUP(J83,{"?","N","Y"},{1,0,2}) + LOOKUP(K83,{"?","N","Y"},{1,0,2})</f>
@@ -9858,7 +9902,7 @@
         <v>271</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>215</v>
@@ -9870,22 +9914,22 @@
         <v>562</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L84" s="24">
         <f>LOOKUP(I84,{"?","N","Y"},{1,0,2}) + LOOKUP(J84,{"?","N","Y"},{1,0,2}) + LOOKUP(K84,{"?","N","Y"},{1,0,2})</f>
@@ -9909,22 +9953,22 @@
         <v>582</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L85" s="24">
         <f>LOOKUP(I85,{"?","N","Y"},{1,0,2}) + LOOKUP(J85,{"?","N","Y"},{1,0,2}) + LOOKUP(K85,{"?","N","Y"},{1,0,2})</f>
@@ -9936,7 +9980,7 @@
         <v>271</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>176</v>
@@ -9945,25 +9989,25 @@
         <v>2005</v>
       </c>
       <c r="E86" s="22" t="s">
+        <v>675</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="F86" s="26" t="s">
-        <v>677</v>
-      </c>
       <c r="G86" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L86" s="24">
         <f>LOOKUP(I86,{"?","N","Y"},{1,0,2}) + LOOKUP(J86,{"?","N","Y"},{1,0,2}) + LOOKUP(K86,{"?","N","Y"},{1,0,2})</f>
@@ -9990,19 +10034,19 @@
         <v>552</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L87" s="24">
         <f>LOOKUP(I87,{"?","N","Y"},{1,0,2}) + LOOKUP(J87,{"?","N","Y"},{1,0,2}) + LOOKUP(K87,{"?","N","Y"},{1,0,2})</f>
@@ -10029,19 +10073,19 @@
         <v>402</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L88" s="24">
         <f>LOOKUP(I88,{"?","N","Y"},{1,0,2}) + LOOKUP(J88,{"?","N","Y"},{1,0,2}) + LOOKUP(K88,{"?","N","Y"},{1,0,2})</f>
@@ -10068,19 +10112,19 @@
         <v>601</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L89" s="24">
         <f>LOOKUP(I89,{"?","N","Y"},{1,0,2}) + LOOKUP(J89,{"?","N","Y"},{1,0,2}) + LOOKUP(K89,{"?","N","Y"},{1,0,2})</f>
@@ -10107,19 +10151,19 @@
         <v>620</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J90" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L90" s="24">
         <f>LOOKUP(I90,{"?","N","Y"},{1,0,2}) + LOOKUP(J90,{"?","N","Y"},{1,0,2}) + LOOKUP(K90,{"?","N","Y"},{1,0,2})</f>
@@ -10146,19 +10190,19 @@
         <v>298</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L91" s="24">
         <f>LOOKUP(I91,{"?","N","Y"},{1,0,2}) + LOOKUP(J91,{"?","N","Y"},{1,0,2}) + LOOKUP(K91,{"?","N","Y"},{1,0,2})</f>
@@ -10185,19 +10229,19 @@
         <v>505</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J92" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L92" s="24">
         <f>LOOKUP(I92,{"?","N","Y"},{1,0,2}) + LOOKUP(J92,{"?","N","Y"},{1,0,2}) + LOOKUP(K92,{"?","N","Y"},{1,0,2})</f>
@@ -10224,19 +10268,19 @@
         <v>537</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L93" s="24">
         <f>LOOKUP(I93,{"?","N","Y"},{1,0,2}) + LOOKUP(J93,{"?","N","Y"},{1,0,2}) + LOOKUP(K93,{"?","N","Y"},{1,0,2})</f>
@@ -10248,7 +10292,7 @@
         <v>290</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>86</v>
@@ -10260,22 +10304,22 @@
         <v>304</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L94" s="24">
         <f>LOOKUP(I94,{"?","N","Y"},{1,0,2}) + LOOKUP(J94,{"?","N","Y"},{1,0,2}) + LOOKUP(K94,{"?","N","Y"},{1,0,2})</f>
@@ -10302,19 +10346,19 @@
         <v>587</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L95" s="24">
         <f>LOOKUP(I95,{"?","N","Y"},{1,0,2}) + LOOKUP(J95,{"?","N","Y"},{1,0,2}) + LOOKUP(K95,{"?","N","Y"},{1,0,2})</f>
@@ -10338,22 +10382,22 @@
         <v>569</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L96" s="24">
         <f>LOOKUP(I96,{"?","N","Y"},{1,0,2}) + LOOKUP(J96,{"?","N","Y"},{1,0,2}) + LOOKUP(K96,{"?","N","Y"},{1,0,2})</f>
@@ -10380,19 +10424,19 @@
         <v>474</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L97" s="24">
         <f>LOOKUP(I97,{"?","N","Y"},{1,0,2}) + LOOKUP(J97,{"?","N","Y"},{1,0,2}) + LOOKUP(K97,{"?","N","Y"},{1,0,2})</f>
@@ -10419,19 +10463,19 @@
         <v>605</v>
       </c>
       <c r="G98" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L98" s="24">
         <f>LOOKUP(I98,{"?","N","Y"},{1,0,2}) + LOOKUP(J98,{"?","N","Y"},{1,0,2}) + LOOKUP(K98,{"?","N","Y"},{1,0,2})</f>
@@ -10458,19 +10502,19 @@
         <v>555</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L99" s="24">
         <f>LOOKUP(I99,{"?","N","Y"},{1,0,2}) + LOOKUP(J99,{"?","N","Y"},{1,0,2}) + LOOKUP(K99,{"?","N","Y"},{1,0,2})</f>
@@ -10497,19 +10541,19 @@
         <v>589</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J100" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L100" s="24">
         <f>LOOKUP(I100,{"?","N","Y"},{1,0,2}) + LOOKUP(J100,{"?","N","Y"},{1,0,2}) + LOOKUP(K100,{"?","N","Y"},{1,0,2})</f>
@@ -10536,19 +10580,19 @@
         <v>490</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J101" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L101" s="24">
         <f>LOOKUP(I101,{"?","N","Y"},{1,0,2}) + LOOKUP(J101,{"?","N","Y"},{1,0,2}) + LOOKUP(K101,{"?","N","Y"},{1,0,2})</f>
@@ -10575,19 +10619,19 @@
         <v>578</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I102" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J102" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L102" s="24">
         <f>LOOKUP(I102,{"?","N","Y"},{1,0,2}) + LOOKUP(J102,{"?","N","Y"},{1,0,2}) + LOOKUP(K102,{"?","N","Y"},{1,0,2})</f>
@@ -10614,19 +10658,19 @@
         <v>617</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I103" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J103" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L103" s="24">
         <f>LOOKUP(I103,{"?","N","Y"},{1,0,2}) + LOOKUP(J103,{"?","N","Y"},{1,0,2}) + LOOKUP(K103,{"?","N","Y"},{1,0,2})</f>
@@ -10653,19 +10697,19 @@
         <v>509</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L104" s="24">
         <f>LOOKUP(I104,{"?","N","Y"},{1,0,2}) + LOOKUP(J104,{"?","N","Y"},{1,0,2}) + LOOKUP(K104,{"?","N","Y"},{1,0,2})</f>
@@ -10692,19 +10736,19 @@
         <v>576</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I105" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J105" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L105" s="24">
         <f>LOOKUP(I105,{"?","N","Y"},{1,0,2}) + LOOKUP(J105,{"?","N","Y"},{1,0,2}) + LOOKUP(K105,{"?","N","Y"},{1,0,2})</f>
@@ -10731,19 +10775,19 @@
         <v>338</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L106" s="24">
         <f>LOOKUP(I106,{"?","N","Y"},{1,0,2}) + LOOKUP(J106,{"?","N","Y"},{1,0,2}) + LOOKUP(K106,{"?","N","Y"},{1,0,2})</f>
@@ -10770,19 +10814,19 @@
         <v>352</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I107" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L107" s="24">
         <f>LOOKUP(I107,{"?","N","Y"},{1,0,2}) + LOOKUP(J107,{"?","N","Y"},{1,0,2}) + LOOKUP(K107,{"?","N","Y"},{1,0,2})</f>
@@ -10809,19 +10853,19 @@
         <v>494</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L108" s="24">
         <f>LOOKUP(I108,{"?","N","Y"},{1,0,2}) + LOOKUP(J108,{"?","N","Y"},{1,0,2}) + LOOKUP(K108,{"?","N","Y"},{1,0,2})</f>
@@ -10848,19 +10892,19 @@
         <v>558</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J109" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L109" s="24">
         <f>LOOKUP(I109,{"?","N","Y"},{1,0,2}) + LOOKUP(J109,{"?","N","Y"},{1,0,2}) + LOOKUP(K109,{"?","N","Y"},{1,0,2})</f>
@@ -10887,19 +10931,19 @@
         <v>623</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J110" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L110" s="24">
         <f>LOOKUP(I110,{"?","N","Y"},{1,0,2}) + LOOKUP(J110,{"?","N","Y"},{1,0,2}) + LOOKUP(K110,{"?","N","Y"},{1,0,2})</f>
@@ -10926,19 +10970,19 @@
         <v>464</v>
       </c>
       <c r="G111" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J111" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L111" s="24">
         <f>LOOKUP(I111,{"?","N","Y"},{1,0,2}) + LOOKUP(J111,{"?","N","Y"},{1,0,2}) + LOOKUP(K111,{"?","N","Y"},{1,0,2})</f>
@@ -10965,19 +11009,19 @@
         <v>545</v>
       </c>
       <c r="G112" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J112" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L112" s="24">
         <f>LOOKUP(I112,{"?","N","Y"},{1,0,2}) + LOOKUP(J112,{"?","N","Y"},{1,0,2}) + LOOKUP(K112,{"?","N","Y"},{1,0,2})</f>
@@ -11004,19 +11048,19 @@
         <v>599</v>
       </c>
       <c r="G113" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J113" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L113" s="24">
         <f>LOOKUP(I113,{"?","N","Y"},{1,0,2}) + LOOKUP(J113,{"?","N","Y"},{1,0,2}) + LOOKUP(K113,{"?","N","Y"},{1,0,2})</f>
@@ -11043,19 +11087,19 @@
         <v>575</v>
       </c>
       <c r="G114" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J114" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L114" s="24">
         <f>LOOKUP(I114,{"?","N","Y"},{1,0,2}) + LOOKUP(J114,{"?","N","Y"},{1,0,2}) + LOOKUP(K114,{"?","N","Y"},{1,0,2})</f>
@@ -11082,19 +11126,19 @@
         <v>498</v>
       </c>
       <c r="G115" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J115" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L115" s="24">
         <f>LOOKUP(I115,{"?","N","Y"},{1,0,2}) + LOOKUP(J115,{"?","N","Y"},{1,0,2}) + LOOKUP(K115,{"?","N","Y"},{1,0,2})</f>
@@ -11118,22 +11162,22 @@
         <v>546</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G116" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J116" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L116" s="24">
         <f>LOOKUP(I116,{"?","N","Y"},{1,0,2}) + LOOKUP(J116,{"?","N","Y"},{1,0,2}) + LOOKUP(K116,{"?","N","Y"},{1,0,2})</f>
@@ -11160,19 +11204,19 @@
         <v>563</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I117" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J117" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L117" s="24">
         <f>LOOKUP(I117,{"?","N","Y"},{1,0,2}) + LOOKUP(J117,{"?","N","Y"},{1,0,2}) + LOOKUP(K117,{"?","N","Y"},{1,0,2})</f>
@@ -11199,19 +11243,19 @@
         <v>438</v>
       </c>
       <c r="G118" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L118" s="24">
         <f>LOOKUP(I118,{"?","N","Y"},{1,0,2}) + LOOKUP(J118,{"?","N","Y"},{1,0,2}) + LOOKUP(K118,{"?","N","Y"},{1,0,2})</f>
@@ -11238,19 +11282,19 @@
         <v>595</v>
       </c>
       <c r="G119" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J119" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L119" s="24">
         <f>LOOKUP(I119,{"?","N","Y"},{1,0,2}) + LOOKUP(J119,{"?","N","Y"},{1,0,2}) + LOOKUP(K119,{"?","N","Y"},{1,0,2})</f>
@@ -11277,19 +11321,19 @@
         <v>344</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L120" s="24">
         <f>LOOKUP(I120,{"?","N","Y"},{1,0,2}) + LOOKUP(J120,{"?","N","Y"},{1,0,2}) + LOOKUP(K120,{"?","N","Y"},{1,0,2})</f>
@@ -11298,42 +11342,42 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G121" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G122" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G123" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G124" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G125" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G126" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G127" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G128" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -11342,7 +11386,7 @@
       <c r="D129" s="22"/>
       <c r="F129" s="22"/>
       <c r="G129" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -11351,7 +11395,7 @@
       <c r="D130" s="22"/>
       <c r="F130" s="22"/>
       <c r="G130" s="27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="961">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -1305,9 +1305,6 @@
   </si>
   <si>
     <t>27 4 451-474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E. Moore and J. Spens. </t>
   </si>
   <si>
     <t>Scaling agile: Finding your agile tribe</t>
@@ -2919,30 +2916,93 @@
     <t>Scrum, lean</t>
   </si>
   <si>
+    <t>One agile coach that prepares teams for more productive use of Scrum would give the value of 30 people in return.</t>
+  </si>
+  <si>
+    <t>Author member of Scrum work group</t>
+  </si>
+  <si>
+    <t>Bias, neglecting negative results</t>
+  </si>
+  <si>
     <t>2005 Scrum pilot program
 End of 2005 more teams
-2006 many teams</t>
-  </si>
-  <si>
-    <t>One agile coach that prepares teams for more productive use of Scrum would give the value of 30 people in return.</t>
+2006 many teams
+2007 ongoing</t>
   </si>
   <si>
     <t>Initially there was discussion on mandated top-down implementation, but a grass-root approach was chosen. Scrum practice was chosen to be introduced first, as the most visible symptoms of dysfunction were in project planning and management. A Scrum pilot with 4 projects was started. Comprehensive training and external coaching was used in the pilot projects. At the end of the two-month pilot there were positive results and the teams liked the new process. During piloting many general impediments were identified and solved. Surveys were conducted on the pilot projects, and the results showed that most teams perceived that Scrum improved productivity compared to previous processes. 81% of team members wanted to continue with Scrum. The survey results were used to convince others teams that Scrum was good. The Scrum work group presented results to upper management as the pilots progressed.
 A cocahing model was created for introducing teams to Scrum. The coaching model included a number of overview presentations and training for the team, and preparing the backlog with the product owner. The aim was to make the teams free standing as soon as possible. The practices were revisited over time, so that the teams would not forget them. As adoption was progressing 84% of the team members favored Scrum over the previous processes.
-The Scrum work group faced cuts in budget. The work group suggested to delay new teams from introducing Scrum. Teams introduced Scrum anyway without the recommended training, which resulted in misinterpretations. The Scrum work group set to find metrics to show that Scrum training was well worth its cost. Many measures were considered, but most seemed to risk skewing the results. A survey with POs was made and it showed 0% to 200% subjectively estimated productivity gain. A calculation that agile coaches improve productivity was presented. The Scrum work group was allowed to hire coaches although the company was on budget. A bottom up agile movement was created by means such as guerilla marketing.</t>
+The Scrum work group faced cuts in budget. The work group suggested to delay new teams from introducing Scrum. Teams introduced Scrum anyway without the recommended training, which resulted in misinterpretations. The Scrum work group set to find metrics to show that Scrum training was well worth its cost. Many measures were considered, but most seemed to risk skewing the results. A survey with POs was made and it showed 0% to 200% subjectively estimated productivity gain. A calculation that agile coaches improve productivity was presented. The Scrum work group was allowed to hire coaches although the company was on budget. A bottom up agile movement was created by means such as guerrilla marketing.
+The coach community was strengthened by new internal members and external consultants. Investments were made to enable constantly better coaching,</t>
   </si>
   <si>
     <t>Top-down by-the-book mandates for Scrum did not work, and the process had to be grown by the team.
-Finding good coaches, preferrably originally from within teams, is an important activity.</t>
+Finding good coaches, preferably originally from within teams, is an important activity. The best agile champions were people already in the teams, as they knew the context and particular challenges.
+Change can not be dictated. Be careful with privacy when presenting measures on performance. Align with management early and train management also. Be careful to speak the same language when approaching designers (UI and such), and find common ground for implementing agile. Fund the coaching team adequately.
+Not everyone will like agile (10% - 15% do not like the status quo at any given time). Watch out if no-one reacts badly to changes.
+The agile change affects the entire organization. Groups such as project management and HR must be aligned to agile mindsets.</t>
+  </si>
+  <si>
+    <t>Some teams claimed to be agile, but were doing mini waterfalls. Some teams also dropped key elements of Scrum, such as daily standups.
+Wrong choice of words (e.g. saying “must” of something) may give a backlash that will be noticed after time. For example, teams may be put off and stop attending to coaching.
+The privacy of a team was violated when showing results. As a consequence the team lost trust in the Scrum work group and Scrum itself.
+As the change was spreading management became familiar with Scrum. Some managers refused to attend training, insisting on that they were already familiar with agile. Some managers became anti-agile when they did not properly understand the values.
+Adoption was slowed down by insufficient resources in coaching.
+Solid engineering practices were not fully applied at start, which resulted in delays and lowered quality.</t>
+  </si>
+  <si>
+    <t>There seems to have been little organizational, as no organizational entity was reported to be totally reorganized. The organization seemed to be team-oriented from start.</t>
+  </si>
+  <si>
+    <t>E. Moore and J. Spens.</t>
+  </si>
+  <si>
+    <t>Present experience, present two key challenges in scaling</t>
+  </si>
+  <si>
+    <t>Over 300 people in 3 global sites, 25 teams</t>
+  </si>
+  <si>
+    <t>A consultancy was hired to provide project management and development support to accelerate the use of agile practices. This report starts off at a situation where agile practices were already in place. As the size of the agile project grew several challenges emerged, especially with integration and dependencies.
+At first dependencies between teams were tried to be reduced, but dependencies increased with more concurrent work. A choice of SOA lead to a significant number of integration points. A lightweight process was sought for managing the integration points. An approach with direct communication was sought for instead of a traditional document-centric one. Collocated teams were able to handle a light process, but pushing it further to the program across the globe created significant problems.
+A distinction arose between teams taking ownership of modules and managing integration points to those teams that did not. As more global interactions occurred, the integration problems created a tendency of reverting back to contractual communication. In some cases individuals managed to break through communication barriers, in other cases teams regressed.
+Significant investments were made in continuous integration. New technologies were put in place. Automatic integration and component suites were built,</t>
+  </si>
+  <si>
+    <t>A challenge over techniques and methods was to find the right people to form the agile community.
+A sign of bad communication is teams with no personal contacts to the party the were integrating with.
+Integration issues were best solved by people who were willing to work outside their team room.
+Some of the agile practices that made teams effective in isolation actually reduced their productivity in a large-scale environment.
+In smaller projects teams are encouraged to focus only on their own goals, but in larger scale team members must participate in project wide activities. In particular team leaders were required to spend much time outside the team room. Trade-offs must be made between stabilizing and completing as many story points as possible.</t>
+  </si>
+  <si>
+    <t>Think outside the team room walls. Do not allow “us versus them” mentality. Strive to think of the overall best solutions, even if making sacrifices to your own team.
+Raise issues and fight for the program's attention to solve them. Within one team it is easy to be heard, but in a large setting you must compete for priority with a host of other issues.
+Accept and trust decisions made outside the team. On projects of scale it is tremendously difficult to get everyone to buy-in for changes.</t>
+  </si>
+  <si>
+    <t>Dependencies and integration were the largest challenges when scaling up.
+As more global interactions occurred, the integration problems created a tendency of reverting back to contractual communication.
+Creating a culture of working builds. Producing fully functional builds at sprint reviews and toll-gates still required management intercession. Teams did not take on a passion to solve integration challenges proactively.
+Tracking down issues caused by dependencies was found demoralizing.
+While it was not a problem to find skilled agile team members, it was hard to find enough talented people with skill required to bring agile to scale.</t>
+  </si>
+  <si>
+    <t>The number of teams was scaled back to accommodate enough people capable of inter-team communication within each team.</t>
+  </si>
+  <si>
+    <t>“... we found that some of the qualities and practices that made the teams work effectively in isolation actually reduced their effectiveness in the large-scale environment”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]#\ ?/?"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm"/>
+    <numFmt numFmtId="166" formatCode="[$-409]#\ ??/??&quot; &quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -3001,18 +3061,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -3075,7 +3129,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3232,35 +3286,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4683,7 +4713,7 @@
         <v>111</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5215,9 +5245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD28" sqref="AD28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5253,107 +5283,107 @@
     <col min="35" max="35" width="44.85546875" style="19" customWidth="1"/>
     <col min="36" max="36" width="38.28515625" style="19" customWidth="1"/>
     <col min="37" max="37" width="17.140625" style="19" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" style="22" customWidth="1"/>
+    <col min="38" max="38" width="31.42578125" style="22" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="15" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>714</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>716</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y1" s="46" t="s">
+        <v>695</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="AF1" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>678</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>738</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>717</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="AI1" s="16" t="s">
         <v>728</v>
       </c>
-      <c r="W1" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="Y1" s="46" t="s">
-        <v>696</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>710</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>680</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AJ1" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="AK1" s="28" t="s">
         <v>730</v>
       </c>
-      <c r="AI1" s="16" t="s">
-        <v>729</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>713</v>
-      </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>731</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -5361,10 +5391,10 @@
         <v>290</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>467</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>468</v>
       </c>
       <c r="D3" s="25">
         <v>2006</v>
@@ -5373,22 +5403,22 @@
         <v>297</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L3" s="24" t="e">
         <f>LOOKUP(I3,{"?","N","Y"},{1,0,2}) + LOOKUP(J3,{"?","N","Y"},{1,0,2}) + LOOKUP(K3,{"?","N","Y"},{1,0,2})</f>
@@ -5405,84 +5435,84 @@
         <v>271</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>624</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>625</v>
       </c>
       <c r="D4" s="25">
         <v>2009</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L4" s="24">
         <f>LOOKUP(I4,{"?","N","Y"},{1,0,2}) + LOOKUP(J4,{"?","N","Y"},{1,0,2}) + LOOKUP(K4,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="23" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S4" s="29">
         <v>3</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Y4" s="47" t="s">
+        <v>696</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA4" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="Z4" s="19" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="AB4" s="19" t="s">
-        <v>699</v>
-      </c>
       <c r="AD4" s="19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AF4" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -5505,94 +5535,94 @@
         <v>390</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L5" s="34">
         <f>LOOKUP(I5,{"?","N","Y"},{1,0,2}) + LOOKUP(J5,{"?","N","Y"},{1,0,2}) + LOOKUP(K5,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S5" s="34">
         <v>3</v>
       </c>
       <c r="T5" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="U5" s="18" t="s">
         <v>759</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="X5" s="40" t="s">
         <v>760</v>
       </c>
-      <c r="V5" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="W5" s="18" t="s">
+      <c r="Y5" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z5" s="40" t="s">
         <v>763</v>
       </c>
-      <c r="X5" s="40" t="s">
-        <v>761</v>
-      </c>
-      <c r="Y5" s="48" t="s">
-        <v>766</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>764</v>
-      </c>
       <c r="AA5" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AB5" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AC5" s="40"/>
       <c r="AD5" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AE5" s="40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AG5" s="40"/>
       <c r="AH5" s="40" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AI5" s="40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AJ5" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AK5" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -5600,69 +5630,69 @@
         <v>271</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>648</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>649</v>
       </c>
       <c r="D6" s="35">
         <v>2004</v>
       </c>
       <c r="E6" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="F6" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>651</v>
-      </c>
       <c r="G6" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L6" s="34">
         <f>LOOKUP(I6,{"?","N","Y"},{1,0,2}) + LOOKUP(J6,{"?","N","Y"},{1,0,2}) + LOOKUP(K6,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S6" s="34">
         <v>1</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="X6" s="40"/>
       <c r="Y6" s="48"/>
@@ -5672,7 +5702,7 @@
       <c r="AC6" s="40"/>
       <c r="AD6" s="40"/>
       <c r="AE6" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF6" s="40"/>
       <c r="AG6" s="40"/>
@@ -5695,96 +5725,96 @@
         <v>2008</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>355</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L7" s="34">
         <f>LOOKUP(I7,{"?","N","Y"},{1,0,2}) + LOOKUP(J7,{"?","N","Y"},{1,0,2}) + LOOKUP(K7,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S7" s="34">
         <v>4</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Y7" s="48" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z7" s="40" t="s">
+        <v>786</v>
+      </c>
+      <c r="AA7" s="40" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB7" s="40" t="s">
         <v>777</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>787</v>
-      </c>
-      <c r="AA7" s="40" t="s">
-        <v>786</v>
-      </c>
-      <c r="AB7" s="40" t="s">
-        <v>778</v>
       </c>
       <c r="AC7" s="40"/>
       <c r="AD7" s="40" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>787</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>782</v>
+      </c>
+      <c r="AG7" s="40" t="s">
+        <v>779</v>
+      </c>
+      <c r="AH7" s="40" t="s">
         <v>784</v>
       </c>
-      <c r="AE7" s="40" t="s">
-        <v>788</v>
-      </c>
-      <c r="AF7" s="40" t="s">
-        <v>783</v>
-      </c>
-      <c r="AG7" s="40" t="s">
+      <c r="AI7" s="41" t="s">
         <v>780</v>
-      </c>
-      <c r="AH7" s="40" t="s">
-        <v>785</v>
-      </c>
-      <c r="AI7" s="41" t="s">
-        <v>781</v>
       </c>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
@@ -5809,87 +5839,87 @@
         <v>359</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L8" s="24">
         <f>LOOKUP(I8,{"?","N","Y"},{1,0,2}) + LOOKUP(J8,{"?","N","Y"},{1,0,2}) + LOOKUP(K8,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S8" s="24">
         <v>5</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V8" s="32" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="W8" s="32"/>
       <c r="X8" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y8" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="AH8" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="Y8" s="49" t="s">
-        <v>736</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="AD8" s="19" t="s">
+      <c r="AI8" s="19" t="s">
         <v>750</v>
       </c>
-      <c r="AE8" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AK8" s="19" t="s">
         <v>746</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>751</v>
-      </c>
-      <c r="AK8" s="19" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -5897,108 +5927,108 @@
         <v>271</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>449</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>450</v>
       </c>
       <c r="D9" s="35">
         <v>2011</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L9" s="34">
         <f>LOOKUP(I9,{"?","N","Y"},{1,0,2}) + LOOKUP(J9,{"?","N","Y"},{1,0,2}) + LOOKUP(K9,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S9" s="34">
         <v>4</v>
       </c>
       <c r="T9" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="W9" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="X9" s="40" t="s">
         <v>791</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="Y9" s="48" t="s">
+        <v>798</v>
+      </c>
+      <c r="Z9" s="40" t="s">
+        <v>793</v>
+      </c>
+      <c r="AA9" s="40" t="s">
         <v>792</v>
       </c>
-      <c r="Y9" s="48" t="s">
-        <v>799</v>
-      </c>
-      <c r="Z9" s="40" t="s">
+      <c r="AB9" s="40" t="s">
         <v>794</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>793</v>
-      </c>
-      <c r="AB9" s="40" t="s">
-        <v>795</v>
       </c>
       <c r="AC9" s="40"/>
       <c r="AD9" s="40" t="s">
+        <v>795</v>
+      </c>
+      <c r="AE9" s="40" t="s">
         <v>796</v>
       </c>
-      <c r="AE9" s="40" t="s">
+      <c r="AF9" s="40" t="s">
         <v>797</v>
       </c>
-      <c r="AF9" s="40" t="s">
-        <v>798</v>
-      </c>
       <c r="AG9" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AH9" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AI9" s="40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
     </row>
-    <row r="10" spans="1:38" s="33" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="33" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>271</v>
       </c>
@@ -6012,92 +6042,92 @@
         <v>2007</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L10" s="34">
         <f>LOOKUP(I10,{"?","N","Y"},{1,0,2}) + LOOKUP(J10,{"?","N","Y"},{1,0,2}) + LOOKUP(K10,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S10" s="34">
         <v>3</v>
       </c>
       <c r="T10" s="43" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V10" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="W10" s="18" t="s">
         <v>804</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="X10" s="40" t="s">
         <v>805</v>
       </c>
-      <c r="X10" s="40" t="s">
+      <c r="Y10" s="48" t="s">
         <v>806</v>
-      </c>
-      <c r="Y10" s="48" t="s">
-        <v>807</v>
       </c>
       <c r="Z10" s="40"/>
       <c r="AA10" s="40" t="s">
+        <v>807</v>
+      </c>
+      <c r="AB10" s="40" t="s">
         <v>808</v>
       </c>
-      <c r="AB10" s="40" t="s">
+      <c r="AC10" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="AC10" s="40" t="s">
+      <c r="AD10" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="AD10" s="40" t="s">
+      <c r="AE10" s="40" t="s">
         <v>811</v>
       </c>
-      <c r="AE10" s="40" t="s">
+      <c r="AF10" s="40" t="s">
         <v>812</v>
-      </c>
-      <c r="AF10" s="40" t="s">
-        <v>813</v>
       </c>
       <c r="AG10" s="40"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="40" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
@@ -6122,71 +6152,71 @@
         <v>385</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L11" s="24">
         <f>LOOKUP(I11,{"?","N","Y"},{1,0,2}) + LOOKUP(J11,{"?","N","Y"},{1,0,2}) + LOOKUP(K11,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S11" s="24">
         <v>3</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="X11" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="Y11" s="49" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z11" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="Y11" s="49" t="s">
-        <v>684</v>
-      </c>
-      <c r="Z11" s="19" t="s">
+      <c r="AA11" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="AA11" s="19" t="s">
+      <c r="AB11" s="19" t="s">
         <v>705</v>
       </c>
-      <c r="AB11" s="19" t="s">
-        <v>706</v>
-      </c>
       <c r="AD11" s="19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AF11" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -6194,87 +6224,87 @@
         <v>271</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>465</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>466</v>
       </c>
       <c r="D12" s="35">
         <v>2007</v>
       </c>
       <c r="E12" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>532</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>533</v>
-      </c>
       <c r="G12" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L12" s="34">
         <f>LOOKUP(I12,{"?","N","Y"},{1,0,2}) + LOOKUP(J12,{"?","N","Y"},{1,0,2}) + LOOKUP(K12,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S12" s="34">
         <v>2</v>
       </c>
       <c r="T12" s="39"/>
       <c r="U12" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="V12" s="18" t="s">
         <v>818</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>819</v>
       </c>
       <c r="W12" s="18"/>
       <c r="X12" s="40" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="Y12" s="48"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="40" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB12" s="40" t="s">
+        <v>822</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>821</v>
+      </c>
+      <c r="AD12" s="40" t="s">
         <v>820</v>
       </c>
-      <c r="AB12" s="40" t="s">
-        <v>823</v>
-      </c>
-      <c r="AC12" s="40" t="s">
-        <v>822</v>
-      </c>
-      <c r="AD12" s="40" t="s">
-        <v>821</v>
-      </c>
       <c r="AE12" s="40" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40"/>
@@ -6282,7 +6312,7 @@
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="33" customFormat="1" ht="285" x14ac:dyDescent="0.25">
@@ -6290,105 +6320,105 @@
         <v>271</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>481</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>482</v>
       </c>
       <c r="D13" s="35">
         <v>2007</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L13" s="34">
         <f>LOOKUP(I13,{"?","N","Y"},{1,0,2}) + LOOKUP(J13,{"?","N","Y"},{1,0,2}) + LOOKUP(K13,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S13" s="34">
         <v>5</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="X13" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="Y13" s="48" t="s">
         <v>832</v>
       </c>
-      <c r="Y13" s="48" t="s">
+      <c r="Z13" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB13" s="40" t="s">
+        <v>829</v>
+      </c>
+      <c r="AC13" s="40" t="s">
         <v>833</v>
       </c>
-      <c r="Z13" s="40" t="s">
-        <v>825</v>
-      </c>
-      <c r="AA13" s="40" t="s">
-        <v>824</v>
-      </c>
-      <c r="AB13" s="40" t="s">
+      <c r="AD13" s="40" t="s">
         <v>830</v>
-      </c>
-      <c r="AC13" s="40" t="s">
-        <v>834</v>
-      </c>
-      <c r="AD13" s="40" t="s">
-        <v>831</v>
       </c>
       <c r="AE13" s="40"/>
       <c r="AF13" s="40" t="s">
+        <v>826</v>
+      </c>
+      <c r="AG13" s="40" t="s">
         <v>827</v>
       </c>
-      <c r="AG13" s="40" t="s">
+      <c r="AH13" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="AI13" s="40" t="s">
         <v>828</v>
-      </c>
-      <c r="AH13" s="40" t="s">
-        <v>826</v>
-      </c>
-      <c r="AI13" s="40" t="s">
-        <v>829</v>
       </c>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
@@ -6407,95 +6437,95 @@
         <v>2009</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L14" s="34">
         <f>LOOKUP(I14,{"?","N","Y"},{1,0,2}) + LOOKUP(J14,{"?","N","Y"},{1,0,2}) + LOOKUP(K14,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S14" s="34">
         <v>5</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V14" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="X14" s="40" t="s">
+        <v>834</v>
+      </c>
+      <c r="Y14" s="48" t="s">
+        <v>838</v>
+      </c>
+      <c r="Z14" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="AA14" s="40" t="s">
         <v>837</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>776</v>
-      </c>
-      <c r="X14" s="40" t="s">
+      <c r="AB14" s="40" t="s">
+        <v>840</v>
+      </c>
+      <c r="AC14" s="40" t="s">
+        <v>839</v>
+      </c>
+      <c r="AD14" s="40" t="s">
+        <v>843</v>
+      </c>
+      <c r="AE14" s="40" t="s">
+        <v>842</v>
+      </c>
+      <c r="AF14" s="40" t="s">
+        <v>841</v>
+      </c>
+      <c r="AG14" s="40" t="s">
         <v>835</v>
       </c>
-      <c r="Y14" s="48" t="s">
-        <v>839</v>
-      </c>
-      <c r="Z14" s="40" t="s">
-        <v>846</v>
-      </c>
-      <c r="AA14" s="40" t="s">
-        <v>838</v>
-      </c>
-      <c r="AB14" s="40" t="s">
-        <v>841</v>
-      </c>
-      <c r="AC14" s="40" t="s">
-        <v>840</v>
-      </c>
-      <c r="AD14" s="40" t="s">
+      <c r="AH14" s="40" t="s">
         <v>844</v>
-      </c>
-      <c r="AE14" s="40" t="s">
-        <v>843</v>
-      </c>
-      <c r="AF14" s="40" t="s">
-        <v>842</v>
-      </c>
-      <c r="AG14" s="40" t="s">
-        <v>836</v>
-      </c>
-      <c r="AH14" s="40" t="s">
-        <v>845</v>
       </c>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
@@ -6506,7 +6536,7 @@
         <v>271</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>391</v>
@@ -6515,86 +6545,86 @@
         <v>2010</v>
       </c>
       <c r="E15" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="F15" s="44" t="s">
         <v>579</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>580</v>
-      </c>
       <c r="G15" s="45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L15" s="34">
         <v>6</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S15" s="34">
         <v>2</v>
       </c>
       <c r="T15" s="43" t="s">
+        <v>847</v>
+      </c>
+      <c r="U15" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="V15" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="W15" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="X15" s="40" t="s">
         <v>850</v>
       </c>
-      <c r="W15" s="18" t="s">
-        <v>776</v>
-      </c>
-      <c r="X15" s="40" t="s">
+      <c r="Y15" s="48" t="s">
         <v>851</v>
       </c>
-      <c r="Y15" s="48" t="s">
-        <v>852</v>
-      </c>
       <c r="Z15" s="40" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AA15" s="40"/>
       <c r="AB15" s="40"/>
       <c r="AC15" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AD15" s="40"/>
       <c r="AE15" s="40"/>
       <c r="AF15" s="40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AG15" s="40"/>
       <c r="AH15" s="40"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="40" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AK15" s="40"/>
     </row>
@@ -6603,7 +6633,7 @@
         <v>271</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>202</v>
@@ -6612,94 +6642,94 @@
         <v>2003</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L16" s="24">
         <f>LOOKUP(I16,{"?","N","Y"},{1,0,2}) + LOOKUP(J16,{"?","N","Y"},{1,0,2}) + LOOKUP(K16,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S16" s="24">
         <v>5</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Y16" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="AD16" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="Z16" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="AA16" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AE16" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="AF16" s="19" t="s">
         <v>722</v>
       </c>
-      <c r="AD16" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="AE16" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>723</v>
-      </c>
       <c r="AJ16" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>360</v>
@@ -6708,100 +6738,100 @@
         <v>2011</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F17" s="44" t="s">
         <v>361</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L17" s="34">
         <v>6</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S17" s="34">
         <v>3</v>
       </c>
       <c r="T17" s="43" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="W17" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="X17" s="40" t="s">
         <v>857</v>
       </c>
-      <c r="X17" s="40" t="s">
+      <c r="Y17" s="48" t="s">
+        <v>685</v>
+      </c>
+      <c r="Z17" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="Y17" s="48" t="s">
-        <v>686</v>
-      </c>
-      <c r="Z17" s="40" t="s">
+      <c r="AA17" s="40" t="s">
         <v>859</v>
       </c>
-      <c r="AA17" s="40" t="s">
+      <c r="AB17" s="40" t="s">
         <v>860</v>
-      </c>
-      <c r="AB17" s="40" t="s">
-        <v>861</v>
       </c>
       <c r="AC17" s="40"/>
       <c r="AD17" s="40" t="s">
+        <v>861</v>
+      </c>
+      <c r="AE17" s="40" t="s">
         <v>862</v>
       </c>
-      <c r="AE17" s="40" t="s">
+      <c r="AF17" s="40" t="s">
         <v>863</v>
       </c>
-      <c r="AF17" s="40" t="s">
+      <c r="AG17" s="40" t="s">
         <v>864</v>
       </c>
-      <c r="AG17" s="40" t="s">
+      <c r="AH17" s="40" t="s">
         <v>865</v>
-      </c>
-      <c r="AH17" s="40" t="s">
-        <v>866</v>
       </c>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="40" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AK17" s="40"/>
     </row>
-    <row r="18" spans="1:37" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>271</v>
       </c>
@@ -6815,99 +6845,99 @@
         <v>2005</v>
       </c>
       <c r="E18" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>542</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>543</v>
-      </c>
       <c r="G18" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L18" s="34">
         <f>LOOKUP(I18,{"?","N","Y"},{1,0,2}) + LOOKUP(J18,{"?","N","Y"},{1,0,2}) + LOOKUP(K18,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S18" s="34">
         <v>3</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="X18" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="Y18" s="48" t="s">
+        <v>870</v>
+      </c>
+      <c r="Z18" s="40" t="s">
         <v>868</v>
       </c>
-      <c r="Y18" s="48" t="s">
+      <c r="AA18" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>872</v>
+      </c>
+      <c r="AC18" s="40" t="s">
         <v>871</v>
       </c>
-      <c r="Z18" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="AA18" s="40" t="s">
-        <v>870</v>
-      </c>
-      <c r="AB18" s="40" t="s">
+      <c r="AD18" s="40" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE18" s="40" t="s">
         <v>873</v>
-      </c>
-      <c r="AC18" s="40" t="s">
-        <v>872</v>
-      </c>
-      <c r="AD18" s="40" t="s">
-        <v>880</v>
-      </c>
-      <c r="AE18" s="40" t="s">
-        <v>874</v>
       </c>
       <c r="AF18" s="40"/>
       <c r="AG18" s="40"/>
       <c r="AH18" s="40" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="40" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AK18" s="40"/>
     </row>
-    <row r="19" spans="1:37" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>271</v>
       </c>
@@ -6921,104 +6951,104 @@
         <v>2009</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>276</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L19" s="34">
         <f>LOOKUP(I19,{"?","N","Y"},{1,0,2}) + LOOKUP(J19,{"?","N","Y"},{1,0,2}) + LOOKUP(K19,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S19" s="34">
         <v>3</v>
       </c>
       <c r="T19" s="50" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U19" s="51" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V19" s="51" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="W19" s="51" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="X19" s="40" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Y19" s="48" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Z19" s="40"/>
       <c r="AA19" s="40" t="s">
+        <v>876</v>
+      </c>
+      <c r="AB19" s="40" t="s">
+        <v>884</v>
+      </c>
+      <c r="AC19" s="40" t="s">
         <v>877</v>
       </c>
-      <c r="AB19" s="40" t="s">
+      <c r="AD19" s="40" t="s">
         <v>885</v>
       </c>
-      <c r="AC19" s="40" t="s">
-        <v>878</v>
-      </c>
-      <c r="AD19" s="40" t="s">
-        <v>886</v>
-      </c>
       <c r="AE19" s="40" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF19" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AG19" s="40" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AH19" s="40"/>
       <c r="AI19" s="40" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
     </row>
-    <row r="20" spans="1:37" s="33" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>289</v>
@@ -7027,144 +7057,144 @@
         <v>2007</v>
       </c>
       <c r="E20" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="F20" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="F20" s="44" t="s">
-        <v>547</v>
-      </c>
       <c r="G20" s="45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L20" s="34">
         <v>6</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S20" s="34">
         <v>3</v>
       </c>
       <c r="T20" s="52" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U20" s="53" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V20" s="53" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="W20" s="53" t="s">
+        <v>889</v>
+      </c>
+      <c r="X20" s="40" t="s">
         <v>890</v>
       </c>
-      <c r="X20" s="40" t="s">
+      <c r="Y20" s="48" t="s">
         <v>891</v>
       </c>
-      <c r="Y20" s="48" t="s">
+      <c r="Z20" s="40" t="s">
         <v>892</v>
       </c>
-      <c r="Z20" s="40" t="s">
+      <c r="AA20" s="40" t="s">
         <v>893</v>
       </c>
-      <c r="AA20" s="40" t="s">
+      <c r="AB20" s="40" t="s">
         <v>894</v>
       </c>
-      <c r="AB20" s="40" t="s">
+      <c r="AC20" s="40" t="s">
         <v>895</v>
       </c>
-      <c r="AC20" s="40" t="s">
+      <c r="AD20" s="40" t="s">
         <v>896</v>
       </c>
-      <c r="AD20" s="40" t="s">
+      <c r="AE20" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="AF20" s="40" t="s">
         <v>897</v>
       </c>
-      <c r="AE20" s="40" t="s">
-        <v>686</v>
-      </c>
-      <c r="AF20" s="40" t="s">
-        <v>898</v>
-      </c>
       <c r="AG20" s="40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AH20" s="40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AI20" s="40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="40"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
         <v>271</v>
       </c>
       <c r="B21" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="C21" s="57" t="s">
         <v>478</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>479</v>
       </c>
       <c r="D21" s="25">
         <v>2010</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L21" s="24">
         <f>LOOKUP(I21,{"?","N","Y"},{1,0,2}) + LOOKUP(J21,{"?","N","Y"},{1,0,2}) + LOOKUP(K21,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>271</v>
       </c>
@@ -7178,47 +7208,47 @@
         <v>2003</v>
       </c>
       <c r="E22" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="F22" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>550</v>
-      </c>
       <c r="G22" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L22" s="34">
         <f>LOOKUP(I22,{"?","N","Y"},{1,0,2}) + LOOKUP(J22,{"?","N","Y"},{1,0,2}) + LOOKUP(K22,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S22" s="34">
         <v>2</v>
@@ -7228,40 +7258,40 @@
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
       <c r="X22" s="40" t="s">
+        <v>910</v>
+      </c>
+      <c r="Y22" s="48" t="s">
         <v>911</v>
       </c>
-      <c r="Y22" s="48" t="s">
+      <c r="Z22" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="AA22" s="40" t="s">
         <v>912</v>
-      </c>
-      <c r="Z22" s="40" t="s">
-        <v>917</v>
-      </c>
-      <c r="AA22" s="40" t="s">
-        <v>913</v>
       </c>
       <c r="AB22" s="40"/>
       <c r="AC22" s="40" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AD22" s="40"/>
       <c r="AE22" s="40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF22" s="40"/>
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="40" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AK22" s="40"/>
     </row>
-    <row r="23" spans="1:37" s="33" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" s="33" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>339</v>
@@ -7270,96 +7300,96 @@
         <v>2007</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>340</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L23" s="34">
         <v>6</v>
       </c>
       <c r="M23" s="42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S23" s="34">
         <v>5</v>
       </c>
       <c r="T23" s="43" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="W23" s="18" t="s">
+        <v>918</v>
+      </c>
+      <c r="X23" s="40" t="s">
         <v>919</v>
       </c>
-      <c r="X23" s="40" t="s">
+      <c r="Y23" s="48" t="s">
         <v>920</v>
       </c>
-      <c r="Y23" s="48" t="s">
+      <c r="Z23" s="40" t="s">
         <v>921</v>
       </c>
-      <c r="Z23" s="40" t="s">
+      <c r="AA23" s="40" t="s">
         <v>922</v>
       </c>
-      <c r="AA23" s="40" t="s">
+      <c r="AB23" s="40" t="s">
         <v>923</v>
       </c>
-      <c r="AB23" s="40" t="s">
+      <c r="AC23" s="40" t="s">
         <v>924</v>
       </c>
-      <c r="AC23" s="40" t="s">
+      <c r="AD23" s="40" t="s">
         <v>925</v>
       </c>
-      <c r="AD23" s="40" t="s">
+      <c r="AE23" s="40" t="s">
         <v>926</v>
-      </c>
-      <c r="AE23" s="40" t="s">
-        <v>927</v>
       </c>
       <c r="AF23" s="40"/>
       <c r="AG23" s="40"/>
       <c r="AH23" s="40"/>
       <c r="AI23" s="40" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>290</v>
       </c>
@@ -7379,29 +7409,29 @@
         <v>305</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L24" s="24">
         <f>LOOKUP(I24,{"?","N","Y"},{1,0,2}) + LOOKUP(J24,{"?","N","Y"},{1,0,2}) + LOOKUP(K24,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="T24" s="54" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>271</v>
       </c>
@@ -7415,105 +7445,105 @@
         <v>2011</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L25" s="34">
         <f>LOOKUP(I25,{"?","N","Y"},{1,0,2}) + LOOKUP(J25,{"?","N","Y"},{1,0,2}) + LOOKUP(K25,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S25" s="34">
         <v>3</v>
       </c>
       <c r="T25" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U25" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V25" s="18" t="s">
+        <v>899</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="X25" s="40" t="s">
         <v>900</v>
       </c>
-      <c r="W25" s="18" t="s">
-        <v>776</v>
-      </c>
-      <c r="X25" s="40" t="s">
+      <c r="Y25" s="48" t="s">
+        <v>898</v>
+      </c>
+      <c r="Z25" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="AA25" s="40" t="s">
+        <v>871</v>
+      </c>
+      <c r="AB25" s="40" t="s">
+        <v>908</v>
+      </c>
+      <c r="AC25" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD25" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE25" s="40" t="s">
+        <v>903</v>
+      </c>
+      <c r="AF25" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="AG25" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH25" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="AI25" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="AJ25" s="40" t="s">
         <v>901</v>
       </c>
-      <c r="Y25" s="48" t="s">
-        <v>899</v>
-      </c>
-      <c r="Z25" s="40" t="s">
-        <v>903</v>
-      </c>
-      <c r="AA25" s="40" t="s">
-        <v>872</v>
-      </c>
-      <c r="AB25" s="40" t="s">
-        <v>909</v>
-      </c>
-      <c r="AC25" s="40" t="s">
-        <v>906</v>
-      </c>
-      <c r="AD25" s="40" t="s">
-        <v>908</v>
-      </c>
-      <c r="AE25" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="AF25" s="40" t="s">
-        <v>907</v>
-      </c>
-      <c r="AG25" s="40" t="s">
-        <v>686</v>
-      </c>
-      <c r="AH25" s="40" t="s">
-        <v>905</v>
-      </c>
-      <c r="AI25" s="40" t="s">
-        <v>686</v>
-      </c>
-      <c r="AJ25" s="40" t="s">
-        <v>902</v>
-      </c>
       <c r="AK25" s="40"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>290</v>
       </c>
@@ -7533,331 +7563,435 @@
         <v>318</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L26" s="24">
         <f>LOOKUP(I26,{"?","N","Y"},{1,0,2}) + LOOKUP(J26,{"?","N","Y"},{1,0,2}) + LOOKUP(K26,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="T26" s="54" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D27" s="35">
         <v>2009</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L27" s="34">
         <v>6</v>
       </c>
       <c r="M27" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S27" s="34">
         <v>3</v>
       </c>
       <c r="T27" s="43" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V27" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="W27" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="X27" s="40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y27" s="48" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z27" s="40" t="s">
+        <v>930</v>
+      </c>
+      <c r="AA27" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="AA27" s="40" t="s">
+      <c r="AB27" s="40" t="s">
         <v>932</v>
       </c>
-      <c r="AB27" s="40" t="s">
+      <c r="AC27" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD27" s="40" t="s">
         <v>933</v>
       </c>
-      <c r="AC27" s="40" t="s">
-        <v>906</v>
-      </c>
-      <c r="AD27" s="40" t="s">
+      <c r="AE27" s="40" t="s">
         <v>934</v>
       </c>
-      <c r="AE27" s="40" t="s">
+      <c r="AF27" s="40" t="s">
         <v>935</v>
       </c>
-      <c r="AF27" s="40" t="s">
+      <c r="AG27" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH27" s="55" t="s">
         <v>936</v>
       </c>
-      <c r="AG27" s="40" t="s">
-        <v>686</v>
-      </c>
-      <c r="AH27" s="55" t="s">
+      <c r="AI27" s="40" t="s">
         <v>937</v>
       </c>
-      <c r="AI27" s="40" t="s">
+      <c r="AJ27" s="40" t="s">
         <v>938</v>
       </c>
-      <c r="AJ27" s="40" t="s">
+      <c r="AK27" s="40"/>
+    </row>
+    <row r="28" spans="1:38" s="33" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>939</v>
       </c>
-      <c r="AK27" s="40"/>
-    </row>
-    <row r="28" spans="1:37" s="58" customFormat="1" ht="375" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="C28" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="D28" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>678</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="L28" s="34">
+        <v>6</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>681</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="P28" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q28" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="R28" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="S28" s="34">
+        <v>4</v>
+      </c>
+      <c r="T28" s="43" t="s">
+        <v>736</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="V28" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>946</v>
+      </c>
+      <c r="X28" s="40" t="s">
+        <v>940</v>
+      </c>
+      <c r="Y28" s="48" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z28" s="40" t="s">
+        <v>941</v>
+      </c>
+      <c r="AA28" s="40" t="s">
+        <v>942</v>
+      </c>
+      <c r="AB28" s="40" t="s">
+        <v>948</v>
+      </c>
+      <c r="AC28" s="40" t="s">
+        <v>943</v>
+      </c>
+      <c r="AD28" s="40" t="s">
+        <v>949</v>
+      </c>
+      <c r="AE28" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="AF28" s="40" t="s">
+        <v>950</v>
+      </c>
+      <c r="AG28" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH28" s="40" t="s">
+        <v>951</v>
+      </c>
+      <c r="AI28" s="40" t="s">
+        <v>944</v>
+      </c>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+    </row>
+    <row r="29" spans="1:38" s="33" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="59" t="s">
-        <v>940</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>634</v>
-      </c>
-      <c r="D28" s="60">
+      <c r="B29" s="34" t="s">
+        <v>952</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D29" s="35">
         <v>2008</v>
       </c>
-      <c r="E28" s="58" t="s">
-        <v>635</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>636</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>679</v>
-      </c>
-      <c r="H28" s="58" t="s">
-        <v>682</v>
-      </c>
-      <c r="I28" s="58" t="s">
-        <v>682</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>682</v>
-      </c>
-      <c r="K28" s="58" t="s">
-        <v>682</v>
-      </c>
-      <c r="L28" s="59">
+      <c r="E29" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="I29" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="L29" s="34">
         <v>6</v>
       </c>
-      <c r="M28" s="63"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="66" t="s">
-        <v>941</v>
-      </c>
-      <c r="Y28" s="67" t="s">
-        <v>945</v>
-      </c>
-      <c r="Z28" s="66" t="s">
-        <v>942</v>
-      </c>
-      <c r="AA28" s="66" t="s">
-        <v>943</v>
-      </c>
-      <c r="AB28" s="66" t="s">
-        <v>947</v>
-      </c>
-      <c r="AC28" s="66" t="s">
-        <v>944</v>
-      </c>
-      <c r="AD28" s="66" t="s">
-        <v>948</v>
-      </c>
-      <c r="AE28" s="66"/>
-      <c r="AF28" s="66"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="66"/>
-      <c r="AI28" s="66" t="s">
-        <v>946</v>
-      </c>
-      <c r="AJ28" s="66"/>
-      <c r="AK28" s="66"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="D29" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>567</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="G29" s="27" t="s">
-        <v>679</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="J29" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="L29" s="24">
-        <f>LOOKUP(I29,{"?","N","Y"},{1,0,2}) + LOOKUP(J29,{"?","N","Y"},{1,0,2}) + LOOKUP(K29,{"?","N","Y"},{1,0,2})</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="M29" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="N29" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q29" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="R29" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="S29" s="34">
+        <v>3</v>
+      </c>
+      <c r="T29" s="43" t="s">
+        <v>953</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="V29" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="W29" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="X29" s="40" t="s">
+        <v>954</v>
+      </c>
+      <c r="Y29" s="48" t="s">
+        <v>685</v>
+      </c>
+      <c r="Z29" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="AA29" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB29" s="40" t="s">
+        <v>955</v>
+      </c>
+      <c r="AC29" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD29" s="40" t="s">
+        <v>956</v>
+      </c>
+      <c r="AE29" s="40" t="s">
+        <v>957</v>
+      </c>
+      <c r="AF29" s="40" t="s">
+        <v>958</v>
+      </c>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40" t="s">
+        <v>959</v>
+      </c>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="40" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>666</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>667</v>
       </c>
       <c r="D30" s="25">
         <v>2011</v>
       </c>
       <c r="E30" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="F30" s="26" t="s">
-        <v>669</v>
-      </c>
       <c r="G30" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L30" s="24">
         <f>LOOKUP(I30,{"?","N","Y"},{1,0,2}) + LOOKUP(J30,{"?","N","Y"},{1,0,2}) + LOOKUP(K30,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>637</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>638</v>
       </c>
       <c r="D31" s="25">
         <v>2010</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L31" s="24">
         <f>LOOKUP(I31,{"?","N","Y"},{1,0,2}) + LOOKUP(J31,{"?","N","Y"},{1,0,2}) + LOOKUP(K31,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>271</v>
       </c>
@@ -7871,25 +8005,25 @@
         <v>2006</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>326</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L32" s="24">
         <f>LOOKUP(I32,{"?","N","Y"},{1,0,2}) + LOOKUP(J32,{"?","N","Y"},{1,0,2}) + LOOKUP(K32,{"?","N","Y"},{1,0,2})</f>
@@ -7916,19 +8050,19 @@
         <v>368</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L33" s="24">
         <f>LOOKUP(I33,{"?","N","Y"},{1,0,2}) + LOOKUP(J33,{"?","N","Y"},{1,0,2}) + LOOKUP(K33,{"?","N","Y"},{1,0,2})</f>
@@ -7940,34 +8074,34 @@
         <v>290</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>458</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>459</v>
       </c>
       <c r="D34" s="25">
         <v>2010</v>
       </c>
       <c r="E34" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="F34" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>461</v>
-      </c>
       <c r="G34" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L34" s="24">
         <f>LOOKUP(I34,{"?","N","Y"},{1,0,2}) + LOOKUP(J34,{"?","N","Y"},{1,0,2}) + LOOKUP(K34,{"?","N","Y"},{1,0,2})</f>
@@ -7979,34 +8113,34 @@
         <v>271</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>491</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>492</v>
       </c>
       <c r="D35" s="25">
         <v>2007</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L35" s="24">
         <f>LOOKUP(I35,{"?","N","Y"},{1,0,2}) + LOOKUP(J35,{"?","N","Y"},{1,0,2}) + LOOKUP(K35,{"?","N","Y"},{1,0,2})</f>
@@ -8018,7 +8152,7 @@
         <v>271</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>140</v>
@@ -8027,25 +8161,25 @@
         <v>2008</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L36" s="24">
         <f>LOOKUP(I36,{"?","N","Y"},{1,0,2}) + LOOKUP(J36,{"?","N","Y"},{1,0,2}) + LOOKUP(K36,{"?","N","Y"},{1,0,2})</f>
@@ -8057,34 +8191,34 @@
         <v>271</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>499</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>500</v>
       </c>
       <c r="D37" s="25">
         <v>2011</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L37" s="24">
         <f>LOOKUP(I37,{"?","N","Y"},{1,0,2}) + LOOKUP(J37,{"?","N","Y"},{1,0,2}) + LOOKUP(K37,{"?","N","Y"},{1,0,2})</f>
@@ -8096,34 +8230,34 @@
         <v>271</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>503</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>504</v>
       </c>
       <c r="D38" s="25">
         <v>2010</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L38" s="24">
         <f>LOOKUP(I38,{"?","N","Y"},{1,0,2}) + LOOKUP(J38,{"?","N","Y"},{1,0,2}) + LOOKUP(K38,{"?","N","Y"},{1,0,2})</f>
@@ -8144,25 +8278,25 @@
         <v>2008</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>371</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L39" s="24">
         <f>LOOKUP(I39,{"?","N","Y"},{1,0,2}) + LOOKUP(J39,{"?","N","Y"},{1,0,2}) + LOOKUP(K39,{"?","N","Y"},{1,0,2})</f>
@@ -8174,7 +8308,7 @@
         <v>290</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>157</v>
@@ -8186,22 +8320,22 @@
         <v>159</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L40" s="24">
         <f>LOOKUP(I40,{"?","N","Y"},{1,0,2}) + LOOKUP(J40,{"?","N","Y"},{1,0,2}) + LOOKUP(K40,{"?","N","Y"},{1,0,2})</f>
@@ -8213,7 +8347,7 @@
         <v>271</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>161</v>
@@ -8222,25 +8356,25 @@
         <v>2007</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L41" s="24">
         <f>LOOKUP(I41,{"?","N","Y"},{1,0,2}) + LOOKUP(J41,{"?","N","Y"},{1,0,2}) + LOOKUP(K41,{"?","N","Y"},{1,0,2})</f>
@@ -8252,34 +8386,34 @@
         <v>271</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>484</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>485</v>
       </c>
       <c r="D42" s="25">
         <v>2010</v>
       </c>
       <c r="E42" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="F42" s="26" t="s">
-        <v>610</v>
-      </c>
       <c r="G42" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L42" s="24">
         <f>LOOKUP(I42,{"?","N","Y"},{1,0,2}) + LOOKUP(J42,{"?","N","Y"},{1,0,2}) + LOOKUP(K42,{"?","N","Y"},{1,0,2})</f>
@@ -8300,25 +8434,25 @@
         <v>2007</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L43" s="24">
         <f>LOOKUP(I43,{"?","N","Y"},{1,0,2}) + LOOKUP(J43,{"?","N","Y"},{1,0,2}) + LOOKUP(K43,{"?","N","Y"},{1,0,2})</f>
@@ -8330,7 +8464,7 @@
         <v>290</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>256</v>
@@ -8342,22 +8476,22 @@
         <v>297</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L44" s="24">
         <f>LOOKUP(I44,{"?","N","Y"},{1,0,2}) + LOOKUP(J44,{"?","N","Y"},{1,0,2}) + LOOKUP(K44,{"?","N","Y"},{1,0,2})</f>
@@ -8369,34 +8503,34 @@
         <v>271</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>454</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>455</v>
       </c>
       <c r="D45" s="25">
         <v>2011</v>
       </c>
       <c r="E45" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="F45" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="F45" s="26" t="s">
-        <v>603</v>
-      </c>
       <c r="G45" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L45" s="24">
         <f>LOOKUP(I45,{"?","N","Y"},{1,0,2}) + LOOKUP(J45,{"?","N","Y"},{1,0,2}) + LOOKUP(K45,{"?","N","Y"},{1,0,2})</f>
@@ -8408,34 +8542,34 @@
         <v>271</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>442</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>443</v>
       </c>
       <c r="D46" s="25">
         <v>2011</v>
       </c>
       <c r="E46" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="F46" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="F46" s="26" t="s">
-        <v>597</v>
-      </c>
       <c r="G46" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L46" s="24">
         <f>LOOKUP(I46,{"?","N","Y"},{1,0,2}) + LOOKUP(J46,{"?","N","Y"},{1,0,2}) + LOOKUP(K46,{"?","N","Y"},{1,0,2})</f>
@@ -8447,7 +8581,7 @@
         <v>271</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>168</v>
@@ -8456,25 +8590,25 @@
         <v>2008</v>
       </c>
       <c r="E47" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="F47" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="F47" s="26" t="s">
-        <v>665</v>
-      </c>
       <c r="G47" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L47" s="24">
         <f>LOOKUP(I47,{"?","N","Y"},{1,0,2}) + LOOKUP(J47,{"?","N","Y"},{1,0,2}) + LOOKUP(K47,{"?","N","Y"},{1,0,2})</f>
@@ -8495,25 +8629,25 @@
         <v>2008</v>
       </c>
       <c r="E48" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="F48" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="F48" s="26" t="s">
-        <v>561</v>
-      </c>
       <c r="G48" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L48" s="24">
         <f>LOOKUP(I48,{"?","N","Y"},{1,0,2}) + LOOKUP(J48,{"?","N","Y"},{1,0,2}) + LOOKUP(K48,{"?","N","Y"},{1,0,2})</f>
@@ -8538,25 +8672,25 @@
         <v>2008</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L49" s="24">
         <f>LOOKUP(I49,{"?","N","Y"},{1,0,2}) + LOOKUP(J49,{"?","N","Y"},{1,0,2}) + LOOKUP(K49,{"?","N","Y"},{1,0,2})</f>
@@ -8568,34 +8702,34 @@
         <v>271</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>514</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>515</v>
       </c>
       <c r="D50" s="25">
         <v>2009</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L50" s="24">
         <f>LOOKUP(I50,{"?","N","Y"},{1,0,2}) + LOOKUP(J50,{"?","N","Y"},{1,0,2}) + LOOKUP(K50,{"?","N","Y"},{1,0,2})</f>
@@ -8607,34 +8741,34 @@
         <v>271</v>
       </c>
       <c r="B51" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>512</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>513</v>
       </c>
       <c r="D51" s="25">
         <v>2011</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L51" s="24">
         <f>LOOKUP(I51,{"?","N","Y"},{1,0,2}) + LOOKUP(J51,{"?","N","Y"},{1,0,2}) + LOOKUP(K51,{"?","N","Y"},{1,0,2})</f>
@@ -8655,25 +8789,25 @@
         <v>2006</v>
       </c>
       <c r="E52" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="F52" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>565</v>
-      </c>
       <c r="G52" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L52" s="24">
         <f>LOOKUP(I52,{"?","N","Y"},{1,0,2}) + LOOKUP(J52,{"?","N","Y"},{1,0,2}) + LOOKUP(K52,{"?","N","Y"},{1,0,2})</f>
@@ -8694,25 +8828,25 @@
         <v>2004</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F53" s="26" t="s">
         <v>312</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L53" s="24">
         <f>LOOKUP(I53,{"?","N","Y"},{1,0,2}) + LOOKUP(J53,{"?","N","Y"},{1,0,2}) + LOOKUP(K53,{"?","N","Y"},{1,0,2})</f>
@@ -8739,19 +8873,19 @@
         <v>429</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L54" s="24">
         <f>LOOKUP(I54,{"?","N","Y"},{1,0,2}) + LOOKUP(J54,{"?","N","Y"},{1,0,2}) + LOOKUP(K54,{"?","N","Y"},{1,0,2})</f>
@@ -8772,25 +8906,25 @@
         <v>2008</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F55" s="26" t="s">
         <v>405</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L55" s="24">
         <f>LOOKUP(I55,{"?","N","Y"},{1,0,2}) + LOOKUP(J55,{"?","N","Y"},{1,0,2}) + LOOKUP(K55,{"?","N","Y"},{1,0,2})</f>
@@ -8802,34 +8936,34 @@
         <v>271</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>630</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>631</v>
       </c>
       <c r="D56" s="25">
         <v>2012</v>
       </c>
       <c r="E56" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="F56" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="F56" s="26" t="s">
-        <v>633</v>
-      </c>
       <c r="G56" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L56" s="24">
         <f>LOOKUP(I56,{"?","N","Y"},{1,0,2}) + LOOKUP(J56,{"?","N","Y"},{1,0,2}) + LOOKUP(K56,{"?","N","Y"},{1,0,2})</f>
@@ -8850,25 +8984,25 @@
         <v>2008</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L57" s="24">
         <f>LOOKUP(I57,{"?","N","Y"},{1,0,2}) + LOOKUP(J57,{"?","N","Y"},{1,0,2}) + LOOKUP(K57,{"?","N","Y"},{1,0,2})</f>
@@ -8889,25 +9023,25 @@
         <v>2007</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L58" s="24">
         <f>LOOKUP(I58,{"?","N","Y"},{1,0,2}) + LOOKUP(J58,{"?","N","Y"},{1,0,2}) + LOOKUP(K58,{"?","N","Y"},{1,0,2})</f>
@@ -8928,25 +9062,25 @@
         <v>2007</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F59" s="26" t="s">
         <v>301</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L59" s="24">
         <f>LOOKUP(I59,{"?","N","Y"},{1,0,2}) + LOOKUP(J59,{"?","N","Y"},{1,0,2}) + LOOKUP(K59,{"?","N","Y"},{1,0,2})</f>
@@ -8977,19 +9111,19 @@
         <v>394</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L60" s="24">
         <f>LOOKUP(I60,{"?","N","Y"},{1,0,2}) + LOOKUP(J60,{"?","N","Y"},{1,0,2}) + LOOKUP(K60,{"?","N","Y"},{1,0,2})</f>
@@ -9010,25 +9144,25 @@
         <v>2005</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L61" s="24">
         <f>LOOKUP(I61,{"?","N","Y"},{1,0,2}) + LOOKUP(J61,{"?","N","Y"},{1,0,2}) + LOOKUP(K61,{"?","N","Y"},{1,0,2})</f>
@@ -9040,10 +9174,10 @@
         <v>290</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>475</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>476</v>
       </c>
       <c r="D62" s="25">
         <v>2005</v>
@@ -9052,22 +9186,22 @@
         <v>317</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J62" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L62" s="24">
         <f>LOOKUP(I62,{"?","N","Y"},{1,0,2}) + LOOKUP(J62,{"?","N","Y"},{1,0,2}) + LOOKUP(K62,{"?","N","Y"},{1,0,2})</f>
@@ -9079,34 +9213,34 @@
         <v>271</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>640</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>641</v>
       </c>
       <c r="D63" s="25">
         <v>2011</v>
       </c>
       <c r="E63" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="F63" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="F63" s="26" t="s">
-        <v>643</v>
-      </c>
       <c r="G63" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L63" s="24">
         <f>LOOKUP(I63,{"?","N","Y"},{1,0,2}) + LOOKUP(J63,{"?","N","Y"},{1,0,2}) + LOOKUP(K63,{"?","N","Y"},{1,0,2})</f>
@@ -9118,34 +9252,34 @@
         <v>271</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>439</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>440</v>
       </c>
       <c r="D64" s="25">
         <v>2005</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J64" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L64" s="24">
         <f>LOOKUP(I64,{"?","N","Y"},{1,0,2}) + LOOKUP(J64,{"?","N","Y"},{1,0,2}) + LOOKUP(K64,{"?","N","Y"},{1,0,2})</f>
@@ -9157,34 +9291,34 @@
         <v>271</v>
       </c>
       <c r="B65" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>520</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>521</v>
       </c>
       <c r="D65" s="25">
         <v>2008</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J65" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L65" s="24">
         <f>LOOKUP(I65,{"?","N","Y"},{1,0,2}) + LOOKUP(J65,{"?","N","Y"},{1,0,2}) + LOOKUP(K65,{"?","N","Y"},{1,0,2})</f>
@@ -9205,25 +9339,25 @@
         <v>2006</v>
       </c>
       <c r="E66" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="F66" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="F66" s="26" t="s">
-        <v>571</v>
-      </c>
       <c r="G66" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L66" s="24">
         <f>LOOKUP(I66,{"?","N","Y"},{1,0,2}) + LOOKUP(J66,{"?","N","Y"},{1,0,2}) + LOOKUP(K66,{"?","N","Y"},{1,0,2})</f>
@@ -9244,25 +9378,25 @@
         <v>2009</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F67" s="26" t="s">
         <v>377</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L67" s="24">
         <f>LOOKUP(I67,{"?","N","Y"},{1,0,2}) + LOOKUP(J67,{"?","N","Y"},{1,0,2}) + LOOKUP(K67,{"?","N","Y"},{1,0,2})</f>
@@ -9274,34 +9408,34 @@
         <v>271</v>
       </c>
       <c r="B68" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>470</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>471</v>
       </c>
       <c r="D68" s="25">
         <v>2012</v>
       </c>
       <c r="E68" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="F68" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="F68" s="26" t="s">
-        <v>607</v>
-      </c>
       <c r="G68" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L68" s="24">
         <f>LOOKUP(I68,{"?","N","Y"},{1,0,2}) + LOOKUP(J68,{"?","N","Y"},{1,0,2}) + LOOKUP(K68,{"?","N","Y"},{1,0,2})</f>
@@ -9322,25 +9456,25 @@
         <v>2009</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F69" s="26" t="s">
         <v>382</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L69" s="24">
         <f>LOOKUP(I69,{"?","N","Y"},{1,0,2}) + LOOKUP(J69,{"?","N","Y"},{1,0,2}) + LOOKUP(K69,{"?","N","Y"},{1,0,2})</f>
@@ -9352,7 +9486,7 @@
         <v>271</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C70" s="24" t="s">
         <v>114</v>
@@ -9361,25 +9495,25 @@
         <v>2006</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L70" s="24">
         <f>LOOKUP(I70,{"?","N","Y"},{1,0,2}) + LOOKUP(J70,{"?","N","Y"},{1,0,2}) + LOOKUP(K70,{"?","N","Y"},{1,0,2})</f>
@@ -9391,34 +9525,34 @@
         <v>271</v>
       </c>
       <c r="B71" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>486</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>487</v>
       </c>
       <c r="D71" s="25">
         <v>2007</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L71" s="24">
         <f>LOOKUP(I71,{"?","N","Y"},{1,0,2}) + LOOKUP(J71,{"?","N","Y"},{1,0,2}) + LOOKUP(K71,{"?","N","Y"},{1,0,2})</f>
@@ -9439,25 +9573,25 @@
         <v>2009</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F72" s="26" t="s">
         <v>397</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L72" s="24">
         <f>LOOKUP(I72,{"?","N","Y"},{1,0,2}) + LOOKUP(J72,{"?","N","Y"},{1,0,2}) + LOOKUP(K72,{"?","N","Y"},{1,0,2})</f>
@@ -9484,19 +9618,19 @@
         <v>409</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L73" s="24">
         <f>LOOKUP(I73,{"?","N","Y"},{1,0,2}) + LOOKUP(J73,{"?","N","Y"},{1,0,2}) + LOOKUP(K73,{"?","N","Y"},{1,0,2})</f>
@@ -9508,34 +9642,34 @@
         <v>290</v>
       </c>
       <c r="B74" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>655</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>656</v>
       </c>
       <c r="D74" s="25">
         <v>2004</v>
       </c>
       <c r="E74" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="F74" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="F74" s="26" t="s">
-        <v>658</v>
-      </c>
       <c r="G74" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L74" s="24">
         <f>LOOKUP(I74,{"?","N","Y"},{1,0,2}) + LOOKUP(J74,{"?","N","Y"},{1,0,2}) + LOOKUP(K74,{"?","N","Y"},{1,0,2})</f>
@@ -9562,19 +9696,19 @@
         <v>281</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L75" s="24">
         <f>LOOKUP(I75,{"?","N","Y"},{1,0,2}) + LOOKUP(J75,{"?","N","Y"},{1,0,2}) + LOOKUP(K75,{"?","N","Y"},{1,0,2})</f>
@@ -9599,25 +9733,25 @@
         <v>1997</v>
       </c>
       <c r="E76" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="F76" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="F76" s="26" t="s">
-        <v>541</v>
-      </c>
       <c r="G76" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L76" s="24">
         <f>LOOKUP(I76,{"?","N","Y"},{1,0,2}) + LOOKUP(J76,{"?","N","Y"},{1,0,2}) + LOOKUP(K76,{"?","N","Y"},{1,0,2})</f>
@@ -9629,10 +9763,10 @@
         <v>290</v>
       </c>
       <c r="B77" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>446</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>447</v>
       </c>
       <c r="D77" s="25">
         <v>2008</v>
@@ -9641,22 +9775,22 @@
         <v>1</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L77" s="24">
         <f>LOOKUP(I77,{"?","N","Y"},{1,0,2}) + LOOKUP(J77,{"?","N","Y"},{1,0,2}) + LOOKUP(K77,{"?","N","Y"},{1,0,2})</f>
@@ -9683,19 +9817,19 @@
         <v>294</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L78" s="24">
         <f>LOOKUP(I78,{"?","N","Y"},{1,0,2}) + LOOKUP(J78,{"?","N","Y"},{1,0,2}) + LOOKUP(K78,{"?","N","Y"},{1,0,2})</f>
@@ -9707,34 +9841,34 @@
         <v>271</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>627</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>628</v>
       </c>
       <c r="D79" s="25">
         <v>2008</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L79" s="24">
         <f>LOOKUP(I79,{"?","N","Y"},{1,0,2}) + LOOKUP(J79,{"?","N","Y"},{1,0,2}) + LOOKUP(K79,{"?","N","Y"},{1,0,2})</f>
@@ -9755,25 +9889,25 @@
         <v>2007</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L80" s="24">
         <f>LOOKUP(I80,{"?","N","Y"},{1,0,2}) + LOOKUP(J80,{"?","N","Y"},{1,0,2}) + LOOKUP(K80,{"?","N","Y"},{1,0,2})</f>
@@ -9785,34 +9919,34 @@
         <v>271</v>
       </c>
       <c r="B81" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>645</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>646</v>
       </c>
       <c r="D81" s="25">
         <v>2010</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L81" s="24">
         <f>LOOKUP(I81,{"?","N","Y"},{1,0,2}) + LOOKUP(J81,{"?","N","Y"},{1,0,2}) + LOOKUP(K81,{"?","N","Y"},{1,0,2})</f>
@@ -9833,25 +9967,25 @@
         <v>2011</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F82" s="26" t="s">
         <v>323</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L82" s="24">
         <f>LOOKUP(I82,{"?","N","Y"},{1,0,2}) + LOOKUP(J82,{"?","N","Y"},{1,0,2}) + LOOKUP(K82,{"?","N","Y"},{1,0,2})</f>
@@ -9863,7 +9997,7 @@
         <v>271</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>146</v>
@@ -9872,25 +10006,25 @@
         <v>2009</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L83" s="24">
         <f>LOOKUP(I83,{"?","N","Y"},{1,0,2}) + LOOKUP(J83,{"?","N","Y"},{1,0,2}) + LOOKUP(K83,{"?","N","Y"},{1,0,2})</f>
@@ -9902,7 +10036,7 @@
         <v>271</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>215</v>
@@ -9911,25 +10045,25 @@
         <v>2009</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L84" s="24">
         <f>LOOKUP(I84,{"?","N","Y"},{1,0,2}) + LOOKUP(J84,{"?","N","Y"},{1,0,2}) + LOOKUP(K84,{"?","N","Y"},{1,0,2})</f>
@@ -9950,25 +10084,25 @@
         <v>2010</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L85" s="24">
         <f>LOOKUP(I85,{"?","N","Y"},{1,0,2}) + LOOKUP(J85,{"?","N","Y"},{1,0,2}) + LOOKUP(K85,{"?","N","Y"},{1,0,2})</f>
@@ -9980,7 +10114,7 @@
         <v>271</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>176</v>
@@ -9989,25 +10123,25 @@
         <v>2005</v>
       </c>
       <c r="E86" s="22" t="s">
+        <v>674</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="F86" s="26" t="s">
-        <v>676</v>
-      </c>
       <c r="G86" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L86" s="24">
         <f>LOOKUP(I86,{"?","N","Y"},{1,0,2}) + LOOKUP(J86,{"?","N","Y"},{1,0,2}) + LOOKUP(K86,{"?","N","Y"},{1,0,2})</f>
@@ -10028,25 +10162,25 @@
         <v>2005</v>
       </c>
       <c r="E87" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="F87" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="F87" s="26" t="s">
-        <v>552</v>
-      </c>
       <c r="G87" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L87" s="24">
         <f>LOOKUP(I87,{"?","N","Y"},{1,0,2}) + LOOKUP(J87,{"?","N","Y"},{1,0,2}) + LOOKUP(K87,{"?","N","Y"},{1,0,2})</f>
@@ -10067,25 +10201,25 @@
         <v>2011</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F88" s="26" t="s">
         <v>402</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L88" s="24">
         <f>LOOKUP(I88,{"?","N","Y"},{1,0,2}) + LOOKUP(J88,{"?","N","Y"},{1,0,2}) + LOOKUP(K88,{"?","N","Y"},{1,0,2})</f>
@@ -10097,34 +10231,34 @@
         <v>271</v>
       </c>
       <c r="B89" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>452</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>453</v>
       </c>
       <c r="D89" s="25">
         <v>2010</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L89" s="24">
         <f>LOOKUP(I89,{"?","N","Y"},{1,0,2}) + LOOKUP(J89,{"?","N","Y"},{1,0,2}) + LOOKUP(K89,{"?","N","Y"},{1,0,2})</f>
@@ -10136,34 +10270,34 @@
         <v>271</v>
       </c>
       <c r="B90" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>518</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>519</v>
       </c>
       <c r="D90" s="25">
         <v>2008</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J90" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L90" s="24">
         <f>LOOKUP(I90,{"?","N","Y"},{1,0,2}) + LOOKUP(J90,{"?","N","Y"},{1,0,2}) + LOOKUP(K90,{"?","N","Y"},{1,0,2})</f>
@@ -10190,19 +10324,19 @@
         <v>298</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L91" s="24">
         <f>LOOKUP(I91,{"?","N","Y"},{1,0,2}) + LOOKUP(J91,{"?","N","Y"},{1,0,2}) + LOOKUP(K91,{"?","N","Y"},{1,0,2})</f>
@@ -10223,25 +10357,25 @@
         <v>2011</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J92" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L92" s="24">
         <f>LOOKUP(I92,{"?","N","Y"},{1,0,2}) + LOOKUP(J92,{"?","N","Y"},{1,0,2}) + LOOKUP(K92,{"?","N","Y"},{1,0,2})</f>
@@ -10262,25 +10396,25 @@
         <v>2011</v>
       </c>
       <c r="E93" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="F93" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="F93" s="26" t="s">
-        <v>537</v>
-      </c>
       <c r="G93" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L93" s="24">
         <f>LOOKUP(I93,{"?","N","Y"},{1,0,2}) + LOOKUP(J93,{"?","N","Y"},{1,0,2}) + LOOKUP(K93,{"?","N","Y"},{1,0,2})</f>
@@ -10292,7 +10426,7 @@
         <v>290</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>86</v>
@@ -10304,22 +10438,22 @@
         <v>304</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L94" s="24">
         <f>LOOKUP(I94,{"?","N","Y"},{1,0,2}) + LOOKUP(J94,{"?","N","Y"},{1,0,2}) + LOOKUP(K94,{"?","N","Y"},{1,0,2})</f>
@@ -10340,25 +10474,25 @@
         <v>2009</v>
       </c>
       <c r="E95" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="F95" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="F95" s="26" t="s">
-        <v>587</v>
-      </c>
       <c r="G95" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L95" s="24">
         <f>LOOKUP(I95,{"?","N","Y"},{1,0,2}) + LOOKUP(J95,{"?","N","Y"},{1,0,2}) + LOOKUP(K95,{"?","N","Y"},{1,0,2})</f>
@@ -10379,25 +10513,25 @@
         <v>2010</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L96" s="24">
         <f>LOOKUP(I96,{"?","N","Y"},{1,0,2}) + LOOKUP(J96,{"?","N","Y"},{1,0,2}) + LOOKUP(K96,{"?","N","Y"},{1,0,2})</f>
@@ -10409,10 +10543,10 @@
         <v>290</v>
       </c>
       <c r="B97" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>472</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>473</v>
       </c>
       <c r="D97" s="25">
         <v>2006</v>
@@ -10421,22 +10555,22 @@
         <v>1</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L97" s="24">
         <f>LOOKUP(I97,{"?","N","Y"},{1,0,2}) + LOOKUP(J97,{"?","N","Y"},{1,0,2}) + LOOKUP(K97,{"?","N","Y"},{1,0,2})</f>
@@ -10448,34 +10582,34 @@
         <v>271</v>
       </c>
       <c r="B98" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>456</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>457</v>
       </c>
       <c r="D98" s="25">
         <v>2007</v>
       </c>
       <c r="E98" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="F98" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="F98" s="26" t="s">
-        <v>605</v>
-      </c>
       <c r="G98" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L98" s="24">
         <f>LOOKUP(I98,{"?","N","Y"},{1,0,2}) + LOOKUP(J98,{"?","N","Y"},{1,0,2}) + LOOKUP(K98,{"?","N","Y"},{1,0,2})</f>
@@ -10496,25 +10630,25 @@
         <v>2005</v>
       </c>
       <c r="E99" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="F99" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="F99" s="26" t="s">
-        <v>555</v>
-      </c>
       <c r="G99" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L99" s="24">
         <f>LOOKUP(I99,{"?","N","Y"},{1,0,2}) + LOOKUP(J99,{"?","N","Y"},{1,0,2}) + LOOKUP(K99,{"?","N","Y"},{1,0,2})</f>
@@ -10535,25 +10669,25 @@
         <v>2010</v>
       </c>
       <c r="E100" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="F100" s="26" t="s">
-        <v>589</v>
-      </c>
       <c r="G100" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J100" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L100" s="24">
         <f>LOOKUP(I100,{"?","N","Y"},{1,0,2}) + LOOKUP(J100,{"?","N","Y"},{1,0,2}) + LOOKUP(K100,{"?","N","Y"},{1,0,2})</f>
@@ -10565,34 +10699,34 @@
         <v>271</v>
       </c>
       <c r="B101" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>488</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>489</v>
       </c>
       <c r="D101" s="25">
         <v>2011</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J101" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L101" s="24">
         <f>LOOKUP(I101,{"?","N","Y"},{1,0,2}) + LOOKUP(J101,{"?","N","Y"},{1,0,2}) + LOOKUP(K101,{"?","N","Y"},{1,0,2})</f>
@@ -10613,25 +10747,25 @@
         <v>1997</v>
       </c>
       <c r="E102" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="F102" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="F102" s="26" t="s">
-        <v>578</v>
-      </c>
       <c r="G102" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I102" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J102" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L102" s="24">
         <f>LOOKUP(I102,{"?","N","Y"},{1,0,2}) + LOOKUP(J102,{"?","N","Y"},{1,0,2}) + LOOKUP(K102,{"?","N","Y"},{1,0,2})</f>
@@ -10643,34 +10777,34 @@
         <v>271</v>
       </c>
       <c r="B103" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>510</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>511</v>
       </c>
       <c r="D103" s="25">
         <v>2007</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I103" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J103" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L103" s="24">
         <f>LOOKUP(I103,{"?","N","Y"},{1,0,2}) + LOOKUP(J103,{"?","N","Y"},{1,0,2}) + LOOKUP(K103,{"?","N","Y"},{1,0,2})</f>
@@ -10682,34 +10816,34 @@
         <v>290</v>
       </c>
       <c r="B104" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>506</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>507</v>
       </c>
       <c r="D104" s="25">
         <v>2011</v>
       </c>
       <c r="E104" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="F104" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="F104" s="26" t="s">
-        <v>509</v>
-      </c>
       <c r="G104" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L104" s="24">
         <f>LOOKUP(I104,{"?","N","Y"},{1,0,2}) + LOOKUP(J104,{"?","N","Y"},{1,0,2}) + LOOKUP(K104,{"?","N","Y"},{1,0,2})</f>
@@ -10730,25 +10864,25 @@
         <v>2009</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I105" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J105" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L105" s="24">
         <f>LOOKUP(I105,{"?","N","Y"},{1,0,2}) + LOOKUP(J105,{"?","N","Y"},{1,0,2}) + LOOKUP(K105,{"?","N","Y"},{1,0,2})</f>
@@ -10775,19 +10909,19 @@
         <v>338</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L106" s="24">
         <f>LOOKUP(I106,{"?","N","Y"},{1,0,2}) + LOOKUP(J106,{"?","N","Y"},{1,0,2}) + LOOKUP(K106,{"?","N","Y"},{1,0,2})</f>
@@ -10814,19 +10948,19 @@
         <v>352</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I107" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L107" s="24">
         <f>LOOKUP(I107,{"?","N","Y"},{1,0,2}) + LOOKUP(J107,{"?","N","Y"},{1,0,2}) + LOOKUP(K107,{"?","N","Y"},{1,0,2})</f>
@@ -10838,34 +10972,34 @@
         <v>271</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D108" s="25">
         <v>2010</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L108" s="24">
         <f>LOOKUP(I108,{"?","N","Y"},{1,0,2}) + LOOKUP(J108,{"?","N","Y"},{1,0,2}) + LOOKUP(K108,{"?","N","Y"},{1,0,2})</f>
@@ -10886,25 +11020,25 @@
         <v>2010</v>
       </c>
       <c r="E109" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="F109" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="F109" s="26" t="s">
-        <v>558</v>
-      </c>
       <c r="G109" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J109" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L109" s="24">
         <f>LOOKUP(I109,{"?","N","Y"},{1,0,2}) + LOOKUP(J109,{"?","N","Y"},{1,0,2}) + LOOKUP(K109,{"?","N","Y"},{1,0,2})</f>
@@ -10925,25 +11059,25 @@
         <v>1998</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J110" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L110" s="24">
         <f>LOOKUP(I110,{"?","N","Y"},{1,0,2}) + LOOKUP(J110,{"?","N","Y"},{1,0,2}) + LOOKUP(K110,{"?","N","Y"},{1,0,2})</f>
@@ -10955,7 +11089,7 @@
         <v>290</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>250</v>
@@ -10964,25 +11098,25 @@
         <v>2006</v>
       </c>
       <c r="E111" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="F111" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="F111" s="26" t="s">
-        <v>464</v>
-      </c>
       <c r="G111" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J111" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L111" s="24">
         <f>LOOKUP(I111,{"?","N","Y"},{1,0,2}) + LOOKUP(J111,{"?","N","Y"},{1,0,2}) + LOOKUP(K111,{"?","N","Y"},{1,0,2})</f>
@@ -11003,25 +11137,25 @@
         <v>2011</v>
       </c>
       <c r="E112" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="F112" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="F112" s="26" t="s">
-        <v>545</v>
-      </c>
       <c r="G112" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J112" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L112" s="24">
         <f>LOOKUP(I112,{"?","N","Y"},{1,0,2}) + LOOKUP(J112,{"?","N","Y"},{1,0,2}) + LOOKUP(K112,{"?","N","Y"},{1,0,2})</f>
@@ -11033,34 +11167,34 @@
         <v>271</v>
       </c>
       <c r="B113" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C113" s="24" t="s">
         <v>444</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>445</v>
       </c>
       <c r="D113" s="25">
         <v>2004</v>
       </c>
       <c r="E113" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="F113" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="F113" s="26" t="s">
-        <v>599</v>
-      </c>
       <c r="G113" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J113" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L113" s="24">
         <f>LOOKUP(I113,{"?","N","Y"},{1,0,2}) + LOOKUP(J113,{"?","N","Y"},{1,0,2}) + LOOKUP(K113,{"?","N","Y"},{1,0,2})</f>
@@ -11081,25 +11215,25 @@
         <v>2002</v>
       </c>
       <c r="E114" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="F114" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="F114" s="26" t="s">
-        <v>575</v>
-      </c>
       <c r="G114" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J114" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L114" s="24">
         <f>LOOKUP(I114,{"?","N","Y"},{1,0,2}) + LOOKUP(J114,{"?","N","Y"},{1,0,2}) + LOOKUP(K114,{"?","N","Y"},{1,0,2})</f>
@@ -11111,34 +11245,34 @@
         <v>290</v>
       </c>
       <c r="B115" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="C115" s="24" t="s">
         <v>495</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>496</v>
       </c>
       <c r="D115" s="25">
         <v>1994</v>
       </c>
       <c r="E115" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="F115" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="F115" s="26" t="s">
-        <v>498</v>
-      </c>
       <c r="G115" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J115" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L115" s="24">
         <f>LOOKUP(I115,{"?","N","Y"},{1,0,2}) + LOOKUP(J115,{"?","N","Y"},{1,0,2}) + LOOKUP(K115,{"?","N","Y"},{1,0,2})</f>
@@ -11150,34 +11284,34 @@
         <v>271</v>
       </c>
       <c r="B116" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="C116" s="24" t="s">
         <v>527</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>528</v>
       </c>
       <c r="D116" s="25">
         <v>2007</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G116" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J116" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L116" s="24">
         <f>LOOKUP(I116,{"?","N","Y"},{1,0,2}) + LOOKUP(J116,{"?","N","Y"},{1,0,2}) + LOOKUP(K116,{"?","N","Y"},{1,0,2})</f>
@@ -11198,25 +11332,25 @@
         <v>2009</v>
       </c>
       <c r="E117" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="F117" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="F117" s="26" t="s">
-        <v>563</v>
-      </c>
       <c r="G117" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I117" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J117" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L117" s="24">
         <f>LOOKUP(I117,{"?","N","Y"},{1,0,2}) + LOOKUP(J117,{"?","N","Y"},{1,0,2}) + LOOKUP(K117,{"?","N","Y"},{1,0,2})</f>
@@ -11228,34 +11362,34 @@
         <v>277</v>
       </c>
       <c r="B118" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C118" s="24" t="s">
         <v>435</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>436</v>
       </c>
       <c r="D118" s="25">
         <v>2011</v>
       </c>
       <c r="E118" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F118" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="F118" s="26" t="s">
-        <v>438</v>
-      </c>
       <c r="G118" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L118" s="24">
         <f>LOOKUP(I118,{"?","N","Y"},{1,0,2}) + LOOKUP(J118,{"?","N","Y"},{1,0,2}) + LOOKUP(K118,{"?","N","Y"},{1,0,2})</f>
@@ -11276,25 +11410,25 @@
         <v>1996</v>
       </c>
       <c r="E119" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="F119" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="F119" s="26" t="s">
-        <v>595</v>
-      </c>
       <c r="G119" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J119" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L119" s="24">
         <f>LOOKUP(I119,{"?","N","Y"},{1,0,2}) + LOOKUP(J119,{"?","N","Y"},{1,0,2}) + LOOKUP(K119,{"?","N","Y"},{1,0,2})</f>
@@ -11321,19 +11455,19 @@
         <v>344</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L120" s="24">
         <f>LOOKUP(I120,{"?","N","Y"},{1,0,2}) + LOOKUP(J120,{"?","N","Y"},{1,0,2}) + LOOKUP(K120,{"?","N","Y"},{1,0,2})</f>
@@ -11342,42 +11476,42 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G121" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G122" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G123" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G124" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G125" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G126" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G127" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G128" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -11386,7 +11520,7 @@
       <c r="D129" s="22"/>
       <c r="F129" s="22"/>
       <c r="G129" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -11395,7 +11529,7 @@
       <c r="D130" s="22"/>
       <c r="F130" s="22"/>
       <c r="G130" s="27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="970">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -2053,9 +2053,6 @@
     <t>20 4 12-14</t>
   </si>
   <si>
-    <t xml:space="preserve">J. J. Ryan and R. Scudiere. </t>
-  </si>
-  <si>
     <t>125-128</t>
   </si>
   <si>
@@ -2993,6 +2990,45 @@
   </si>
   <si>
     <t>“... we found that some of the qualities and practices that made the teams work effectively in isolation actually reduced their effectiveness in the large-scale environment”</t>
+  </si>
+  <si>
+    <t>J. J. Ryan and R. Scudiere.</t>
+  </si>
+  <si>
+    <t>50 people in four locations</t>
+  </si>
+  <si>
+    <t>Pilot start: June 2006.
+Start of rollout: Feb 2007</t>
+  </si>
+  <si>
+    <t>Setting up of non-negotiable practices. Setting up of procedures, metrics and reporting.
+A Scrum pilot of eight months and a number of projects was conducted. The vice president of engineering sponsored the pilot, and there was a six person management team dedicated for making agile work. Three teams piloted agile first, and the pilot was successful. The developers and QA people were forming into agile teams.
+After some time it became apparent that it was difficult to apply agile practices consistently. Consistence was seen as a success factor. At the mean time the executive sponsor stayed highly involved. Management made efforts to look consistent in the efforts, at least outside the management team.
+Non-negotiable practices were listed. The non-negotiable practices were enforced by communicating them extensively to teams. Practices were communicated through scrum masters, POs and team leads. A wiki was set up to improve and make transparent communication. The processes and rules were then improved continuously.</t>
+  </si>
+  <si>
+    <t>When we deviated from organizational constitution or tried new things without setting rules, we failed constantly. In addition to setting guidelines it was necessary to constantly examine, adjust and communicate the new policies.
+Everyone had to be engaged to keep the process hones and speak out when rules are not followed.</t>
+  </si>
+  <si>
+    <t>Setting predetermined release dates four times a year.
+Non-negotiable practices: Planning meetings, Scrum meetings, retrospectives. Scrum wall as iteration record. Two week sprints with no story changes. DoD by dev complete, QA sign-off, PO acceptance. Standard spreadsheets for velocity tracking. For major releases code freeze, regression and piloting. Entropy reduction sprint parallel to regression.
+Consistency was good for comparing teams, although points-estimating was left to the teams.
+Make everyone aware of what to deliver and what is expected to create a culture with focus on behavior and deliverables.</t>
+  </si>
+  <si>
+    <t>Inconsistence of new practices.
+If expectations were not widely communicated there were failures. Missed practices also lead to trouble. Missed retrospectives made small problems spiral.</t>
+  </si>
+  <si>
+    <t>“Agile team discipline coming from the bottom-up must be complemented with strong executive leadership coming from the top-down.”</t>
+  </si>
+  <si>
+    <t>Authors in management group in organization</t>
+  </si>
+  <si>
+    <t>Focus not quite on transformation</t>
   </si>
 </sst>
 </file>
@@ -5247,7 +5283,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,107 +5319,107 @@
     <col min="35" max="35" width="44.85546875" style="19" customWidth="1"/>
     <col min="36" max="36" width="38.28515625" style="19" customWidth="1"/>
     <col min="37" max="37" width="17.140625" style="19" customWidth="1"/>
-    <col min="38" max="38" width="31.42578125" style="22" customWidth="1"/>
+    <col min="38" max="38" width="37.140625" style="19" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="15" customFormat="1" ht="121.5" x14ac:dyDescent="0.25">
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="Y1" s="46" t="s">
+        <v>694</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="AF1" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>677</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>738</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
+        <v>743</v>
+      </c>
+      <c r="AH1" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="AI1" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="W1" s="16" t="s">
-        <v>761</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="Y1" s="46" t="s">
-        <v>695</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>692</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>744</v>
-      </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AJ1" s="28" t="s">
+        <v>711</v>
+      </c>
+      <c r="AK1" s="28" t="s">
         <v>729</v>
       </c>
-      <c r="AI1" s="16" t="s">
-        <v>728</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>712</v>
-      </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>730</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -5406,19 +5442,19 @@
         <v>468</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L3" s="24" t="e">
         <f>LOOKUP(I3,{"?","N","Y"},{1,0,2}) + LOOKUP(J3,{"?","N","Y"},{1,0,2}) + LOOKUP(K3,{"?","N","Y"},{1,0,2})</f>
@@ -5450,69 +5486,69 @@
         <v>625</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L4" s="24">
         <f>LOOKUP(I4,{"?","N","Y"},{1,0,2}) + LOOKUP(J4,{"?","N","Y"},{1,0,2}) + LOOKUP(K4,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S4" s="29">
         <v>3</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Y4" s="47" t="s">
+        <v>695</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="AA4" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="Z4" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="AB4" s="19" t="s">
-        <v>698</v>
-      </c>
       <c r="AD4" s="19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AE4" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF4" s="19" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:38" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
@@ -5535,95 +5571,96 @@
         <v>390</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L5" s="34">
         <f>LOOKUP(I5,{"?","N","Y"},{1,0,2}) + LOOKUP(J5,{"?","N","Y"},{1,0,2}) + LOOKUP(K5,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S5" s="34">
         <v>3</v>
       </c>
       <c r="T5" s="39" t="s">
+        <v>757</v>
+      </c>
+      <c r="U5" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="X5" s="40" t="s">
         <v>759</v>
       </c>
-      <c r="V5" s="18" t="s">
-        <v>754</v>
-      </c>
-      <c r="W5" s="18" t="s">
+      <c r="Y5" s="48" t="s">
+        <v>764</v>
+      </c>
+      <c r="Z5" s="40" t="s">
         <v>762</v>
       </c>
-      <c r="X5" s="40" t="s">
-        <v>760</v>
-      </c>
-      <c r="Y5" s="48" t="s">
-        <v>765</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>763</v>
-      </c>
       <c r="AA5" s="40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AB5" s="40" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AC5" s="40"/>
       <c r="AD5" s="40" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AE5" s="40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AF5" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AG5" s="40"/>
       <c r="AH5" s="40" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AI5" s="40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AJ5" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AK5" s="40" t="s">
-        <v>753</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="AL5" s="40"/>
     </row>
     <row r="6" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
@@ -5645,54 +5682,54 @@
         <v>650</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L6" s="34">
         <f>LOOKUP(I6,{"?","N","Y"},{1,0,2}) + LOOKUP(J6,{"?","N","Y"},{1,0,2}) + LOOKUP(K6,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R6" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S6" s="34">
         <v>1</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X6" s="40"/>
       <c r="Y6" s="48"/>
@@ -5702,7 +5739,7 @@
       <c r="AC6" s="40"/>
       <c r="AD6" s="40"/>
       <c r="AE6" s="40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF6" s="40"/>
       <c r="AG6" s="40"/>
@@ -5710,6 +5747,7 @@
       <c r="AI6" s="40"/>
       <c r="AJ6" s="40"/>
       <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
     </row>
     <row r="7" spans="1:38" s="33" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -5731,93 +5769,94 @@
         <v>355</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L7" s="34">
         <f>LOOKUP(I7,{"?","N","Y"},{1,0,2}) + LOOKUP(J7,{"?","N","Y"},{1,0,2}) + LOOKUP(K7,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q7" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R7" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S7" s="34">
         <v>4</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Y7" s="48" t="s">
+        <v>775</v>
+      </c>
+      <c r="Z7" s="40" t="s">
+        <v>785</v>
+      </c>
+      <c r="AA7" s="40" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB7" s="40" t="s">
         <v>776</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>786</v>
-      </c>
-      <c r="AA7" s="40" t="s">
-        <v>785</v>
-      </c>
-      <c r="AB7" s="40" t="s">
-        <v>777</v>
       </c>
       <c r="AC7" s="40"/>
       <c r="AD7" s="40" t="s">
+        <v>782</v>
+      </c>
+      <c r="AE7" s="40" t="s">
+        <v>786</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>781</v>
+      </c>
+      <c r="AG7" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="AH7" s="40" t="s">
         <v>783</v>
       </c>
-      <c r="AE7" s="40" t="s">
-        <v>787</v>
-      </c>
-      <c r="AF7" s="40" t="s">
-        <v>782</v>
-      </c>
-      <c r="AG7" s="40" t="s">
+      <c r="AI7" s="41" t="s">
         <v>779</v>
-      </c>
-      <c r="AH7" s="40" t="s">
-        <v>784</v>
-      </c>
-      <c r="AI7" s="41" t="s">
-        <v>780</v>
       </c>
       <c r="AJ7" s="40"/>
       <c r="AK7" s="40"/>
+      <c r="AL7" s="40"/>
     </row>
     <row r="8" spans="1:38" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -5839,87 +5878,87 @@
         <v>359</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L8" s="24">
         <f>LOOKUP(I8,{"?","N","Y"},{1,0,2}) + LOOKUP(J8,{"?","N","Y"},{1,0,2}) + LOOKUP(K8,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O8" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S8" s="24">
         <v>5</v>
       </c>
       <c r="T8" s="17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="U8" s="30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="V8" s="32" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="W8" s="32"/>
       <c r="X8" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y8" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="AF8" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH8" s="19" t="s">
         <v>742</v>
       </c>
-      <c r="Y8" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>741</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>739</v>
-      </c>
-      <c r="AD8" s="19" t="s">
+      <c r="AI8" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="AE8" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="AF8" s="19" t="s">
+      <c r="AK8" s="19" t="s">
         <v>745</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>743</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>750</v>
-      </c>
-      <c r="AK8" s="19" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -5942,91 +5981,92 @@
         <v>450</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L9" s="34">
         <f>LOOKUP(I9,{"?","N","Y"},{1,0,2}) + LOOKUP(J9,{"?","N","Y"},{1,0,2}) + LOOKUP(K9,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S9" s="34">
         <v>4</v>
       </c>
       <c r="T9" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="W9" s="18" t="s">
         <v>789</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="X9" s="40" t="s">
         <v>790</v>
       </c>
-      <c r="X9" s="40" t="s">
+      <c r="Y9" s="48" t="s">
+        <v>797</v>
+      </c>
+      <c r="Z9" s="40" t="s">
+        <v>792</v>
+      </c>
+      <c r="AA9" s="40" t="s">
         <v>791</v>
       </c>
-      <c r="Y9" s="48" t="s">
-        <v>798</v>
-      </c>
-      <c r="Z9" s="40" t="s">
+      <c r="AB9" s="40" t="s">
         <v>793</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>792</v>
-      </c>
-      <c r="AB9" s="40" t="s">
-        <v>794</v>
       </c>
       <c r="AC9" s="40"/>
       <c r="AD9" s="40" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE9" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="AE9" s="40" t="s">
+      <c r="AF9" s="40" t="s">
         <v>796</v>
       </c>
-      <c r="AF9" s="40" t="s">
-        <v>797</v>
-      </c>
       <c r="AG9" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AH9" s="40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AI9" s="40" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AJ9" s="40"/>
       <c r="AK9" s="40"/>
+      <c r="AL9" s="40"/>
     </row>
     <row r="10" spans="1:38" s="33" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -6048,89 +6088,90 @@
         <v>592</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L10" s="34">
         <f>LOOKUP(I10,{"?","N","Y"},{1,0,2}) + LOOKUP(J10,{"?","N","Y"},{1,0,2}) + LOOKUP(K10,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M10" s="42" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S10" s="34">
         <v>3</v>
       </c>
       <c r="T10" s="43" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V10" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="W10" s="18" t="s">
         <v>803</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="X10" s="40" t="s">
         <v>804</v>
       </c>
-      <c r="X10" s="40" t="s">
+      <c r="Y10" s="48" t="s">
         <v>805</v>
-      </c>
-      <c r="Y10" s="48" t="s">
-        <v>806</v>
       </c>
       <c r="Z10" s="40"/>
       <c r="AA10" s="40" t="s">
+        <v>806</v>
+      </c>
+      <c r="AB10" s="40" t="s">
         <v>807</v>
       </c>
-      <c r="AB10" s="40" t="s">
+      <c r="AC10" s="40" t="s">
         <v>808</v>
       </c>
-      <c r="AC10" s="40" t="s">
+      <c r="AD10" s="40" t="s">
         <v>809</v>
       </c>
-      <c r="AD10" s="40" t="s">
+      <c r="AE10" s="40" t="s">
         <v>810</v>
       </c>
-      <c r="AE10" s="40" t="s">
+      <c r="AF10" s="40" t="s">
         <v>811</v>
-      </c>
-      <c r="AF10" s="40" t="s">
-        <v>812</v>
       </c>
       <c r="AG10" s="40"/>
       <c r="AH10" s="40"/>
       <c r="AI10" s="40" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AJ10" s="40"/>
       <c r="AK10" s="40"/>
+      <c r="AL10" s="40"/>
     </row>
     <row r="11" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
@@ -6152,71 +6193,71 @@
         <v>385</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L11" s="24">
         <f>LOOKUP(I11,{"?","N","Y"},{1,0,2}) + LOOKUP(J11,{"?","N","Y"},{1,0,2}) + LOOKUP(K11,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S11" s="24">
         <v>3</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="X11" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y11" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="Z11" s="19" t="s">
         <v>702</v>
       </c>
-      <c r="Y11" s="49" t="s">
-        <v>683</v>
-      </c>
-      <c r="Z11" s="19" t="s">
+      <c r="AA11" s="19" t="s">
         <v>703</v>
       </c>
-      <c r="AA11" s="19" t="s">
+      <c r="AB11" s="19" t="s">
         <v>704</v>
       </c>
-      <c r="AB11" s="19" t="s">
-        <v>705</v>
-      </c>
       <c r="AD11" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF11" s="19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -6239,72 +6280,72 @@
         <v>532</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L12" s="34">
         <f>LOOKUP(I12,{"?","N","Y"},{1,0,2}) + LOOKUP(J12,{"?","N","Y"},{1,0,2}) + LOOKUP(K12,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S12" s="34">
         <v>2</v>
       </c>
       <c r="T12" s="39"/>
       <c r="U12" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="V12" s="18" t="s">
         <v>817</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>818</v>
       </c>
       <c r="W12" s="18"/>
       <c r="X12" s="40" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Y12" s="48"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="40" t="s">
+        <v>818</v>
+      </c>
+      <c r="AB12" s="40" t="s">
+        <v>821</v>
+      </c>
+      <c r="AC12" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="AD12" s="40" t="s">
         <v>819</v>
       </c>
-      <c r="AB12" s="40" t="s">
-        <v>822</v>
-      </c>
-      <c r="AC12" s="40" t="s">
-        <v>821</v>
-      </c>
-      <c r="AD12" s="40" t="s">
-        <v>820</v>
-      </c>
       <c r="AE12" s="40" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AF12" s="40"/>
       <c r="AG12" s="40"/>
@@ -6312,8 +6353,9 @@
       <c r="AI12" s="40"/>
       <c r="AJ12" s="40"/>
       <c r="AK12" s="40" t="s">
-        <v>816</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="AL12" s="40"/>
     </row>
     <row r="13" spans="1:38" s="33" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -6335,93 +6377,94 @@
         <v>482</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L13" s="34">
         <f>LOOKUP(I13,{"?","N","Y"},{1,0,2}) + LOOKUP(J13,{"?","N","Y"},{1,0,2}) + LOOKUP(K13,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S13" s="34">
         <v>5</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X13" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y13" s="48" t="s">
         <v>831</v>
       </c>
-      <c r="Y13" s="48" t="s">
+      <c r="Z13" s="40" t="s">
+        <v>823</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>822</v>
+      </c>
+      <c r="AB13" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="AC13" s="40" t="s">
         <v>832</v>
       </c>
-      <c r="Z13" s="40" t="s">
-        <v>824</v>
-      </c>
-      <c r="AA13" s="40" t="s">
-        <v>823</v>
-      </c>
-      <c r="AB13" s="40" t="s">
+      <c r="AD13" s="40" t="s">
         <v>829</v>
-      </c>
-      <c r="AC13" s="40" t="s">
-        <v>833</v>
-      </c>
-      <c r="AD13" s="40" t="s">
-        <v>830</v>
       </c>
       <c r="AE13" s="40"/>
       <c r="AF13" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="AG13" s="40" t="s">
         <v>826</v>
       </c>
-      <c r="AG13" s="40" t="s">
+      <c r="AH13" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="AI13" s="40" t="s">
         <v>827</v>
-      </c>
-      <c r="AH13" s="40" t="s">
-        <v>825</v>
-      </c>
-      <c r="AI13" s="40" t="s">
-        <v>828</v>
       </c>
       <c r="AJ13" s="40"/>
       <c r="AK13" s="40"/>
+      <c r="AL13" s="40"/>
     </row>
     <row r="14" spans="1:38" s="33" customFormat="1" ht="405" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
@@ -6443,100 +6486,101 @@
         <v>590</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L14" s="34">
         <f>LOOKUP(I14,{"?","N","Y"},{1,0,2}) + LOOKUP(J14,{"?","N","Y"},{1,0,2}) + LOOKUP(K14,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S14" s="34">
         <v>5</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V14" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="X14" s="40" t="s">
+        <v>833</v>
+      </c>
+      <c r="Y14" s="48" t="s">
+        <v>837</v>
+      </c>
+      <c r="Z14" s="40" t="s">
+        <v>844</v>
+      </c>
+      <c r="AA14" s="40" t="s">
         <v>836</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>775</v>
-      </c>
-      <c r="X14" s="40" t="s">
+      <c r="AB14" s="40" t="s">
+        <v>839</v>
+      </c>
+      <c r="AC14" s="40" t="s">
+        <v>838</v>
+      </c>
+      <c r="AD14" s="40" t="s">
+        <v>842</v>
+      </c>
+      <c r="AE14" s="40" t="s">
+        <v>841</v>
+      </c>
+      <c r="AF14" s="40" t="s">
+        <v>840</v>
+      </c>
+      <c r="AG14" s="40" t="s">
         <v>834</v>
       </c>
-      <c r="Y14" s="48" t="s">
-        <v>838</v>
-      </c>
-      <c r="Z14" s="40" t="s">
-        <v>845</v>
-      </c>
-      <c r="AA14" s="40" t="s">
-        <v>837</v>
-      </c>
-      <c r="AB14" s="40" t="s">
-        <v>840</v>
-      </c>
-      <c r="AC14" s="40" t="s">
-        <v>839</v>
-      </c>
-      <c r="AD14" s="40" t="s">
+      <c r="AH14" s="40" t="s">
         <v>843</v>
-      </c>
-      <c r="AE14" s="40" t="s">
-        <v>842</v>
-      </c>
-      <c r="AF14" s="40" t="s">
-        <v>841</v>
-      </c>
-      <c r="AG14" s="40" t="s">
-        <v>835</v>
-      </c>
-      <c r="AH14" s="40" t="s">
-        <v>844</v>
       </c>
       <c r="AI14" s="40"/>
       <c r="AJ14" s="40"/>
       <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
     </row>
     <row r="15" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>391</v>
@@ -6551,82 +6595,83 @@
         <v>579</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L15" s="34">
         <v>6</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S15" s="34">
         <v>2</v>
       </c>
       <c r="T15" s="43" t="s">
+        <v>846</v>
+      </c>
+      <c r="U15" s="18" t="s">
         <v>847</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="V15" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="W15" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="X15" s="40" t="s">
         <v>849</v>
       </c>
-      <c r="W15" s="18" t="s">
-        <v>775</v>
-      </c>
-      <c r="X15" s="40" t="s">
+      <c r="Y15" s="48" t="s">
         <v>850</v>
       </c>
-      <c r="Y15" s="48" t="s">
-        <v>851</v>
-      </c>
       <c r="Z15" s="40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AA15" s="40"/>
       <c r="AB15" s="40"/>
       <c r="AC15" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AD15" s="40"/>
       <c r="AE15" s="40"/>
       <c r="AF15" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AG15" s="40"/>
       <c r="AH15" s="40"/>
       <c r="AI15" s="40"/>
       <c r="AJ15" s="40" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AK15" s="40"/>
+      <c r="AL15" s="40"/>
     </row>
     <row r="16" spans="1:38" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
@@ -6648,88 +6693,88 @@
         <v>614</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L16" s="24">
         <f>LOOKUP(I16,{"?","N","Y"},{1,0,2}) + LOOKUP(J16,{"?","N","Y"},{1,0,2}) + LOOKUP(K16,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M16" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N16" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P16" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R16" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S16" s="24">
         <v>5</v>
       </c>
       <c r="T16" s="20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Y16" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="AD16" s="19" t="s">
         <v>724</v>
       </c>
-      <c r="Z16" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="AA16" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="AB16" s="19" t="s">
+      <c r="AE16" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF16" s="19" t="s">
         <v>721</v>
       </c>
-      <c r="AD16" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="AE16" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>722</v>
-      </c>
       <c r="AJ16" s="19" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>360</v>
@@ -6744,94 +6789,95 @@
         <v>361</v>
       </c>
       <c r="G17" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L17" s="34">
         <v>6</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S17" s="34">
         <v>3</v>
       </c>
       <c r="T17" s="43" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="W17" s="18" t="s">
+        <v>855</v>
+      </c>
+      <c r="X17" s="40" t="s">
         <v>856</v>
       </c>
-      <c r="X17" s="40" t="s">
+      <c r="Y17" s="48" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z17" s="40" t="s">
         <v>857</v>
       </c>
-      <c r="Y17" s="48" t="s">
-        <v>685</v>
-      </c>
-      <c r="Z17" s="40" t="s">
+      <c r="AA17" s="40" t="s">
         <v>858</v>
       </c>
-      <c r="AA17" s="40" t="s">
+      <c r="AB17" s="40" t="s">
         <v>859</v>
-      </c>
-      <c r="AB17" s="40" t="s">
-        <v>860</v>
       </c>
       <c r="AC17" s="40"/>
       <c r="AD17" s="40" t="s">
+        <v>860</v>
+      </c>
+      <c r="AE17" s="40" t="s">
         <v>861</v>
       </c>
-      <c r="AE17" s="40" t="s">
+      <c r="AF17" s="40" t="s">
         <v>862</v>
       </c>
-      <c r="AF17" s="40" t="s">
+      <c r="AG17" s="40" t="s">
         <v>863</v>
       </c>
-      <c r="AG17" s="40" t="s">
+      <c r="AH17" s="40" t="s">
         <v>864</v>
-      </c>
-      <c r="AH17" s="40" t="s">
-        <v>865</v>
       </c>
       <c r="AI17" s="40"/>
       <c r="AJ17" s="40" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AK17" s="40"/>
-    </row>
-    <row r="18" spans="1:38" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="AL17" s="40"/>
+    </row>
+    <row r="18" spans="1:38" s="33" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>271</v>
       </c>
@@ -6851,91 +6897,92 @@
         <v>542</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L18" s="34">
         <f>LOOKUP(I18,{"?","N","Y"},{1,0,2}) + LOOKUP(J18,{"?","N","Y"},{1,0,2}) + LOOKUP(K18,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S18" s="34">
         <v>3</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X18" s="40" t="s">
+        <v>866</v>
+      </c>
+      <c r="Y18" s="48" t="s">
+        <v>869</v>
+      </c>
+      <c r="Z18" s="40" t="s">
         <v>867</v>
       </c>
-      <c r="Y18" s="48" t="s">
+      <c r="AA18" s="40" t="s">
+        <v>868</v>
+      </c>
+      <c r="AB18" s="40" t="s">
+        <v>871</v>
+      </c>
+      <c r="AC18" s="40" t="s">
         <v>870</v>
       </c>
-      <c r="Z18" s="40" t="s">
-        <v>868</v>
-      </c>
-      <c r="AA18" s="40" t="s">
-        <v>869</v>
-      </c>
-      <c r="AB18" s="40" t="s">
+      <c r="AD18" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE18" s="40" t="s">
         <v>872</v>
-      </c>
-      <c r="AC18" s="40" t="s">
-        <v>871</v>
-      </c>
-      <c r="AD18" s="40" t="s">
-        <v>879</v>
-      </c>
-      <c r="AE18" s="40" t="s">
-        <v>873</v>
       </c>
       <c r="AF18" s="40"/>
       <c r="AG18" s="40"/>
       <c r="AH18" s="40" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AI18" s="40"/>
       <c r="AJ18" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AK18" s="40"/>
+      <c r="AL18" s="40"/>
     </row>
     <row r="19" spans="1:38" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
@@ -6957,98 +7004,99 @@
         <v>276</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L19" s="34">
         <f>LOOKUP(I19,{"?","N","Y"},{1,0,2}) + LOOKUP(J19,{"?","N","Y"},{1,0,2}) + LOOKUP(K19,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S19" s="34">
         <v>3</v>
       </c>
       <c r="T19" s="50" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U19" s="51" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V19" s="51" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="W19" s="51" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X19" s="40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="Y19" s="48" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Z19" s="40"/>
       <c r="AA19" s="40" t="s">
+        <v>875</v>
+      </c>
+      <c r="AB19" s="40" t="s">
+        <v>883</v>
+      </c>
+      <c r="AC19" s="40" t="s">
         <v>876</v>
       </c>
-      <c r="AB19" s="40" t="s">
+      <c r="AD19" s="40" t="s">
         <v>884</v>
       </c>
-      <c r="AC19" s="40" t="s">
-        <v>877</v>
-      </c>
-      <c r="AD19" s="40" t="s">
-        <v>885</v>
-      </c>
       <c r="AE19" s="40" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AF19" s="40" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AG19" s="40" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AH19" s="40"/>
       <c r="AI19" s="40" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AJ19" s="40"/>
       <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
     </row>
     <row r="20" spans="1:38" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>289</v>
@@ -7063,94 +7111,95 @@
         <v>546</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L20" s="34">
         <v>6</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S20" s="34">
         <v>3</v>
       </c>
       <c r="T20" s="52" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U20" s="53" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V20" s="53" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="W20" s="53" t="s">
+        <v>888</v>
+      </c>
+      <c r="X20" s="40" t="s">
         <v>889</v>
       </c>
-      <c r="X20" s="40" t="s">
+      <c r="Y20" s="48" t="s">
         <v>890</v>
       </c>
-      <c r="Y20" s="48" t="s">
+      <c r="Z20" s="40" t="s">
         <v>891</v>
       </c>
-      <c r="Z20" s="40" t="s">
+      <c r="AA20" s="40" t="s">
         <v>892</v>
       </c>
-      <c r="AA20" s="40" t="s">
+      <c r="AB20" s="40" t="s">
         <v>893</v>
       </c>
-      <c r="AB20" s="40" t="s">
+      <c r="AC20" s="40" t="s">
         <v>894</v>
       </c>
-      <c r="AC20" s="40" t="s">
+      <c r="AD20" s="40" t="s">
         <v>895</v>
       </c>
-      <c r="AD20" s="40" t="s">
+      <c r="AE20" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF20" s="40" t="s">
         <v>896</v>
       </c>
-      <c r="AE20" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="AF20" s="40" t="s">
-        <v>897</v>
-      </c>
       <c r="AG20" s="40" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AH20" s="40" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AI20" s="40" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AJ20" s="40"/>
       <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="56" t="s">
@@ -7172,26 +7221,26 @@
         <v>479</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L21" s="24">
         <f>LOOKUP(I21,{"?","N","Y"},{1,0,2}) + LOOKUP(J21,{"?","N","Y"},{1,0,2}) + LOOKUP(K21,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="22" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -7214,41 +7263,41 @@
         <v>549</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L22" s="34">
         <f>LOOKUP(I22,{"?","N","Y"},{1,0,2}) + LOOKUP(J22,{"?","N","Y"},{1,0,2}) + LOOKUP(K22,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N22" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O22" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q22" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S22" s="34">
         <v>2</v>
@@ -7258,40 +7307,41 @@
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
       <c r="X22" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="Y22" s="48" t="s">
         <v>910</v>
       </c>
-      <c r="Y22" s="48" t="s">
+      <c r="Z22" s="40" t="s">
+        <v>915</v>
+      </c>
+      <c r="AA22" s="40" t="s">
         <v>911</v>
-      </c>
-      <c r="Z22" s="40" t="s">
-        <v>916</v>
-      </c>
-      <c r="AA22" s="40" t="s">
-        <v>912</v>
       </c>
       <c r="AB22" s="40"/>
       <c r="AC22" s="40" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AD22" s="40"/>
       <c r="AE22" s="40" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AF22" s="40"/>
       <c r="AG22" s="40"/>
       <c r="AH22" s="40"/>
       <c r="AI22" s="40"/>
       <c r="AJ22" s="40" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AK22" s="40"/>
+      <c r="AL22" s="40"/>
     </row>
     <row r="23" spans="1:38" s="33" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>339</v>
@@ -7306,88 +7356,89 @@
         <v>340</v>
       </c>
       <c r="G23" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I23" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J23" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L23" s="34">
         <v>6</v>
       </c>
       <c r="M23" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N23" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q23" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S23" s="34">
         <v>5</v>
       </c>
       <c r="T23" s="43" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="W23" s="18" t="s">
+        <v>917</v>
+      </c>
+      <c r="X23" s="40" t="s">
         <v>918</v>
       </c>
-      <c r="X23" s="40" t="s">
+      <c r="Y23" s="48" t="s">
         <v>919</v>
       </c>
-      <c r="Y23" s="48" t="s">
+      <c r="Z23" s="40" t="s">
         <v>920</v>
       </c>
-      <c r="Z23" s="40" t="s">
+      <c r="AA23" s="40" t="s">
         <v>921</v>
       </c>
-      <c r="AA23" s="40" t="s">
+      <c r="AB23" s="40" t="s">
         <v>922</v>
       </c>
-      <c r="AB23" s="40" t="s">
+      <c r="AC23" s="40" t="s">
         <v>923</v>
       </c>
-      <c r="AC23" s="40" t="s">
+      <c r="AD23" s="40" t="s">
         <v>924</v>
       </c>
-      <c r="AD23" s="40" t="s">
+      <c r="AE23" s="40" t="s">
         <v>925</v>
-      </c>
-      <c r="AE23" s="40" t="s">
-        <v>926</v>
       </c>
       <c r="AF23" s="40"/>
       <c r="AG23" s="40"/>
       <c r="AH23" s="40"/>
       <c r="AI23" s="40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AJ23" s="40"/>
       <c r="AK23" s="40"/>
+      <c r="AL23" s="40"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
@@ -7409,26 +7460,26 @@
         <v>305</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L24" s="24">
         <f>LOOKUP(I24,{"?","N","Y"},{1,0,2}) + LOOKUP(J24,{"?","N","Y"},{1,0,2}) + LOOKUP(K24,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="T24" s="54" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="25" spans="1:38" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -7451,97 +7502,98 @@
         <v>525</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J25" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L25" s="34">
         <f>LOOKUP(I25,{"?","N","Y"},{1,0,2}) + LOOKUP(J25,{"?","N","Y"},{1,0,2}) + LOOKUP(K25,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N25" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P25" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q25" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S25" s="34">
         <v>3</v>
       </c>
       <c r="T25" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U25" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V25" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="X25" s="40" t="s">
         <v>899</v>
       </c>
-      <c r="W25" s="18" t="s">
-        <v>775</v>
-      </c>
-      <c r="X25" s="40" t="s">
+      <c r="Y25" s="48" t="s">
+        <v>897</v>
+      </c>
+      <c r="Z25" s="40" t="s">
+        <v>901</v>
+      </c>
+      <c r="AA25" s="40" t="s">
+        <v>870</v>
+      </c>
+      <c r="AB25" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="AC25" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD25" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="AE25" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="AF25" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="AG25" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH25" s="40" t="s">
+        <v>903</v>
+      </c>
+      <c r="AI25" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ25" s="40" t="s">
         <v>900</v>
       </c>
-      <c r="Y25" s="48" t="s">
-        <v>898</v>
-      </c>
-      <c r="Z25" s="40" t="s">
-        <v>902</v>
-      </c>
-      <c r="AA25" s="40" t="s">
-        <v>871</v>
-      </c>
-      <c r="AB25" s="40" t="s">
-        <v>908</v>
-      </c>
-      <c r="AC25" s="40" t="s">
-        <v>905</v>
-      </c>
-      <c r="AD25" s="40" t="s">
-        <v>907</v>
-      </c>
-      <c r="AE25" s="40" t="s">
-        <v>903</v>
-      </c>
-      <c r="AF25" s="40" t="s">
-        <v>906</v>
-      </c>
-      <c r="AG25" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="AH25" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="AI25" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="AJ25" s="40" t="s">
-        <v>901</v>
-      </c>
       <c r="AK25" s="40"/>
+      <c r="AL25" s="40"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
@@ -7563,26 +7615,26 @@
         <v>318</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L26" s="24">
         <f>LOOKUP(I26,{"?","N","Y"},{1,0,2}) + LOOKUP(J26,{"?","N","Y"},{1,0,2}) + LOOKUP(K26,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
       <c r="T26" s="54" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="27" spans="1:38" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
@@ -7590,7 +7642,7 @@
         <v>271</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C27" s="34" t="s">
         <v>522</v>
@@ -7605,103 +7657,104 @@
         <v>620</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K27" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L27" s="34">
         <v>6</v>
       </c>
       <c r="M27" s="42" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N27" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P27" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q27" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S27" s="34">
         <v>3</v>
       </c>
       <c r="T27" s="43" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V27" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="W27" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X27" s="40" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Y27" s="48" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Z27" s="40" t="s">
+        <v>929</v>
+      </c>
+      <c r="AA27" s="40" t="s">
         <v>930</v>
       </c>
-      <c r="AA27" s="40" t="s">
+      <c r="AB27" s="40" t="s">
         <v>931</v>
       </c>
-      <c r="AB27" s="40" t="s">
+      <c r="AC27" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD27" s="40" t="s">
         <v>932</v>
       </c>
-      <c r="AC27" s="40" t="s">
-        <v>905</v>
-      </c>
-      <c r="AD27" s="40" t="s">
+      <c r="AE27" s="40" t="s">
         <v>933</v>
       </c>
-      <c r="AE27" s="40" t="s">
+      <c r="AF27" s="40" t="s">
         <v>934</v>
       </c>
-      <c r="AF27" s="40" t="s">
+      <c r="AG27" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH27" s="55" t="s">
         <v>935</v>
       </c>
-      <c r="AG27" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="AH27" s="55" t="s">
+      <c r="AI27" s="40" t="s">
         <v>936</v>
       </c>
-      <c r="AI27" s="40" t="s">
+      <c r="AJ27" s="40" t="s">
         <v>937</v>
       </c>
-      <c r="AJ27" s="40" t="s">
-        <v>938</v>
-      </c>
       <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
     </row>
     <row r="28" spans="1:38" s="33" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>633</v>
@@ -7716,101 +7769,102 @@
         <v>635</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L28" s="34">
         <v>6</v>
       </c>
       <c r="M28" s="42" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S28" s="34">
         <v>4</v>
       </c>
       <c r="T28" s="43" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U28" s="18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V28" s="18" t="s">
+        <v>944</v>
+      </c>
+      <c r="W28" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="W28" s="18" t="s">
+      <c r="X28" s="40" t="s">
+        <v>939</v>
+      </c>
+      <c r="Y28" s="48" t="s">
         <v>946</v>
       </c>
-      <c r="X28" s="40" t="s">
+      <c r="Z28" s="40" t="s">
         <v>940</v>
       </c>
-      <c r="Y28" s="48" t="s">
+      <c r="AA28" s="40" t="s">
+        <v>941</v>
+      </c>
+      <c r="AB28" s="40" t="s">
         <v>947</v>
       </c>
-      <c r="Z28" s="40" t="s">
-        <v>941</v>
-      </c>
-      <c r="AA28" s="40" t="s">
+      <c r="AC28" s="40" t="s">
         <v>942</v>
       </c>
-      <c r="AB28" s="40" t="s">
+      <c r="AD28" s="40" t="s">
         <v>948</v>
       </c>
-      <c r="AC28" s="40" t="s">
+      <c r="AE28" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF28" s="40" t="s">
+        <v>949</v>
+      </c>
+      <c r="AG28" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH28" s="40" t="s">
+        <v>950</v>
+      </c>
+      <c r="AI28" s="40" t="s">
         <v>943</v>
-      </c>
-      <c r="AD28" s="40" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE28" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="AF28" s="40" t="s">
-        <v>950</v>
-      </c>
-      <c r="AG28" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="AH28" s="40" t="s">
-        <v>951</v>
-      </c>
-      <c r="AI28" s="40" t="s">
-        <v>944</v>
       </c>
       <c r="AJ28" s="40"/>
       <c r="AK28" s="40"/>
-    </row>
-    <row r="29" spans="1:38" s="33" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+      <c r="AL28" s="40"/>
+    </row>
+    <row r="29" spans="1:38" s="33" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>271</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C29" s="34" t="s">
         <v>430</v>
@@ -7825,92 +7879,92 @@
         <v>431</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I29" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K29" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L29" s="34">
         <v>6</v>
       </c>
       <c r="M29" s="42" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N29" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O29" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P29" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Q29" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R29" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S29" s="34">
         <v>3</v>
       </c>
       <c r="T29" s="43" t="s">
+        <v>952</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="V29" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="W29" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="X29" s="40" t="s">
         <v>953</v>
       </c>
-      <c r="U29" s="18" t="s">
-        <v>754</v>
-      </c>
-      <c r="V29" s="18" t="s">
-        <v>849</v>
-      </c>
-      <c r="W29" s="18" t="s">
-        <v>775</v>
-      </c>
-      <c r="X29" s="40" t="s">
+      <c r="Y29" s="48" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z29" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA29" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB29" s="40" t="s">
         <v>954</v>
       </c>
-      <c r="Y29" s="48" t="s">
-        <v>685</v>
-      </c>
-      <c r="Z29" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="AA29" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="AB29" s="40" t="s">
+      <c r="AC29" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD29" s="40" t="s">
         <v>955</v>
       </c>
-      <c r="AC29" s="40" t="s">
-        <v>905</v>
-      </c>
-      <c r="AD29" s="40" t="s">
+      <c r="AE29" s="40" t="s">
         <v>956</v>
       </c>
-      <c r="AE29" s="40" t="s">
+      <c r="AF29" s="40" t="s">
         <v>957</v>
-      </c>
-      <c r="AF29" s="40" t="s">
-        <v>958</v>
       </c>
       <c r="AG29" s="40"/>
       <c r="AH29" s="40" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AI29" s="40"/>
       <c r="AJ29" s="40"/>
       <c r="AK29" s="40"/>
       <c r="AL29" s="40" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
@@ -7933,19 +7987,19 @@
         <v>668</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L30" s="24">
         <f>LOOKUP(I30,{"?","N","Y"},{1,0,2}) + LOOKUP(J30,{"?","N","Y"},{1,0,2}) + LOOKUP(K30,{"?","N","Y"},{1,0,2})</f>
@@ -7972,19 +8026,19 @@
         <v>638</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L31" s="24">
         <f>LOOKUP(I31,{"?","N","Y"},{1,0,2}) + LOOKUP(J31,{"?","N","Y"},{1,0,2}) + LOOKUP(K31,{"?","N","Y"},{1,0,2})</f>
@@ -8011,26 +8065,26 @@
         <v>326</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L32" s="24">
         <f>LOOKUP(I32,{"?","N","Y"},{1,0,2}) + LOOKUP(J32,{"?","N","Y"},{1,0,2}) + LOOKUP(K32,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>277</v>
       </c>
@@ -8050,26 +8104,26 @@
         <v>368</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L33" s="24">
         <f>LOOKUP(I33,{"?","N","Y"},{1,0,2}) + LOOKUP(J33,{"?","N","Y"},{1,0,2}) + LOOKUP(K33,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>290</v>
       </c>
@@ -8089,26 +8143,26 @@
         <v>460</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L34" s="24">
         <f>LOOKUP(I34,{"?","N","Y"},{1,0,2}) + LOOKUP(J34,{"?","N","Y"},{1,0,2}) + LOOKUP(K34,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>271</v>
       </c>
@@ -8128,65 +8182,142 @@
         <v>612</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L35" s="24">
         <f>LOOKUP(I35,{"?","N","Y"},{1,0,2}) + LOOKUP(J35,{"?","N","Y"},{1,0,2}) + LOOKUP(K35,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:38" s="33" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="F36" s="44" t="s">
         <v>671</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>672</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="L36" s="24">
-        <f>LOOKUP(I36,{"?","N","Y"},{1,0,2}) + LOOKUP(J36,{"?","N","Y"},{1,0,2}) + LOOKUP(K36,{"?","N","Y"},{1,0,2})</f>
+      <c r="G36" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="L36" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M36" s="42" t="s">
+        <v>679</v>
+      </c>
+      <c r="N36" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q36" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="R36" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="S36" s="34">
+        <v>2</v>
+      </c>
+      <c r="T36" s="43" t="s">
+        <v>735</v>
+      </c>
+      <c r="U36" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="V36" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="W36" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="X36" s="40" t="s">
+        <v>961</v>
+      </c>
+      <c r="Y36" s="48" t="s">
+        <v>962</v>
+      </c>
+      <c r="Z36" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA36" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB36" s="40" t="s">
+        <v>963</v>
+      </c>
+      <c r="AC36" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD36" s="40" t="s">
+        <v>964</v>
+      </c>
+      <c r="AE36" s="40" t="s">
+        <v>965</v>
+      </c>
+      <c r="AF36" s="40" t="s">
+        <v>966</v>
+      </c>
+      <c r="AG36" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH36" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI36" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ36" s="40" t="s">
+        <v>969</v>
+      </c>
+      <c r="AK36" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AL36" s="40" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>271</v>
       </c>
@@ -8206,26 +8337,26 @@
         <v>500</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L37" s="24">
         <f>LOOKUP(I37,{"?","N","Y"},{1,0,2}) + LOOKUP(J37,{"?","N","Y"},{1,0,2}) + LOOKUP(K37,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>271</v>
       </c>
@@ -8245,26 +8376,26 @@
         <v>504</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L38" s="24">
         <f>LOOKUP(I38,{"?","N","Y"},{1,0,2}) + LOOKUP(J38,{"?","N","Y"},{1,0,2}) + LOOKUP(K38,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>271</v>
       </c>
@@ -8284,26 +8415,26 @@
         <v>371</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L39" s="24">
         <f>LOOKUP(I39,{"?","N","Y"},{1,0,2}) + LOOKUP(J39,{"?","N","Y"},{1,0,2}) + LOOKUP(K39,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>290</v>
       </c>
@@ -8323,26 +8454,26 @@
         <v>524</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L40" s="24">
         <f>LOOKUP(I40,{"?","N","Y"},{1,0,2}) + LOOKUP(J40,{"?","N","Y"},{1,0,2}) + LOOKUP(K40,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>271</v>
       </c>
@@ -8362,26 +8493,26 @@
         <v>659</v>
       </c>
       <c r="G41" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L41" s="24">
         <f>LOOKUP(I41,{"?","N","Y"},{1,0,2}) + LOOKUP(J41,{"?","N","Y"},{1,0,2}) + LOOKUP(K41,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>271</v>
       </c>
@@ -8401,26 +8532,26 @@
         <v>609</v>
       </c>
       <c r="G42" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L42" s="24">
         <f>LOOKUP(I42,{"?","N","Y"},{1,0,2}) + LOOKUP(J42,{"?","N","Y"},{1,0,2}) + LOOKUP(K42,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>271</v>
       </c>
@@ -8440,26 +8571,26 @@
         <v>558</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L43" s="24">
         <f>LOOKUP(I43,{"?","N","Y"},{1,0,2}) + LOOKUP(J43,{"?","N","Y"},{1,0,2}) + LOOKUP(K43,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>290</v>
       </c>
@@ -8479,26 +8610,26 @@
         <v>433</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L44" s="24">
         <f>LOOKUP(I44,{"?","N","Y"},{1,0,2}) + LOOKUP(J44,{"?","N","Y"},{1,0,2}) + LOOKUP(K44,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>271</v>
       </c>
@@ -8518,26 +8649,26 @@
         <v>602</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L45" s="24">
         <f>LOOKUP(I45,{"?","N","Y"},{1,0,2}) + LOOKUP(J45,{"?","N","Y"},{1,0,2}) + LOOKUP(K45,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>271</v>
       </c>
@@ -8557,26 +8688,26 @@
         <v>596</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L46" s="24">
         <f>LOOKUP(I46,{"?","N","Y"},{1,0,2}) + LOOKUP(J46,{"?","N","Y"},{1,0,2}) + LOOKUP(K46,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>271</v>
       </c>
@@ -8596,26 +8727,26 @@
         <v>664</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L47" s="24">
         <f>LOOKUP(I47,{"?","N","Y"},{1,0,2}) + LOOKUP(J47,{"?","N","Y"},{1,0,2}) + LOOKUP(K47,{"?","N","Y"},{1,0,2})</f>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>271</v>
       </c>
@@ -8635,19 +8766,19 @@
         <v>560</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L48" s="24">
         <f>LOOKUP(I48,{"?","N","Y"},{1,0,2}) + LOOKUP(J48,{"?","N","Y"},{1,0,2}) + LOOKUP(K48,{"?","N","Y"},{1,0,2})</f>
@@ -8678,19 +8809,19 @@
         <v>584</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L49" s="24">
         <f>LOOKUP(I49,{"?","N","Y"},{1,0,2}) + LOOKUP(J49,{"?","N","Y"},{1,0,2}) + LOOKUP(K49,{"?","N","Y"},{1,0,2})</f>
@@ -8717,19 +8848,19 @@
         <v>618</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L50" s="24">
         <f>LOOKUP(I50,{"?","N","Y"},{1,0,2}) + LOOKUP(J50,{"?","N","Y"},{1,0,2}) + LOOKUP(K50,{"?","N","Y"},{1,0,2})</f>
@@ -8756,19 +8887,19 @@
         <v>643</v>
       </c>
       <c r="G51" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L51" s="24">
         <f>LOOKUP(I51,{"?","N","Y"},{1,0,2}) + LOOKUP(J51,{"?","N","Y"},{1,0,2}) + LOOKUP(K51,{"?","N","Y"},{1,0,2})</f>
@@ -8795,19 +8926,19 @@
         <v>564</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L52" s="24">
         <f>LOOKUP(I52,{"?","N","Y"},{1,0,2}) + LOOKUP(J52,{"?","N","Y"},{1,0,2}) + LOOKUP(K52,{"?","N","Y"},{1,0,2})</f>
@@ -8834,19 +8965,19 @@
         <v>312</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L53" s="24">
         <f>LOOKUP(I53,{"?","N","Y"},{1,0,2}) + LOOKUP(J53,{"?","N","Y"},{1,0,2}) + LOOKUP(K53,{"?","N","Y"},{1,0,2})</f>
@@ -8873,19 +9004,19 @@
         <v>429</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L54" s="24">
         <f>LOOKUP(I54,{"?","N","Y"},{1,0,2}) + LOOKUP(J54,{"?","N","Y"},{1,0,2}) + LOOKUP(K54,{"?","N","Y"},{1,0,2})</f>
@@ -8912,19 +9043,19 @@
         <v>405</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L55" s="24">
         <f>LOOKUP(I55,{"?","N","Y"},{1,0,2}) + LOOKUP(J55,{"?","N","Y"},{1,0,2}) + LOOKUP(K55,{"?","N","Y"},{1,0,2})</f>
@@ -8951,19 +9082,19 @@
         <v>632</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L56" s="24">
         <f>LOOKUP(I56,{"?","N","Y"},{1,0,2}) + LOOKUP(J56,{"?","N","Y"},{1,0,2}) + LOOKUP(K56,{"?","N","Y"},{1,0,2})</f>
@@ -8990,19 +9121,19 @@
         <v>565</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L57" s="24">
         <f>LOOKUP(I57,{"?","N","Y"},{1,0,2}) + LOOKUP(J57,{"?","N","Y"},{1,0,2}) + LOOKUP(K57,{"?","N","Y"},{1,0,2})</f>
@@ -9029,19 +9160,19 @@
         <v>643</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L58" s="24">
         <f>LOOKUP(I58,{"?","N","Y"},{1,0,2}) + LOOKUP(J58,{"?","N","Y"},{1,0,2}) + LOOKUP(K58,{"?","N","Y"},{1,0,2})</f>
@@ -9068,19 +9199,19 @@
         <v>301</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L59" s="24">
         <f>LOOKUP(I59,{"?","N","Y"},{1,0,2}) + LOOKUP(J59,{"?","N","Y"},{1,0,2}) + LOOKUP(K59,{"?","N","Y"},{1,0,2})</f>
@@ -9111,19 +9242,19 @@
         <v>394</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L60" s="24">
         <f>LOOKUP(I60,{"?","N","Y"},{1,0,2}) + LOOKUP(J60,{"?","N","Y"},{1,0,2}) + LOOKUP(K60,{"?","N","Y"},{1,0,2})</f>
@@ -9150,19 +9281,19 @@
         <v>572</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L61" s="24">
         <f>LOOKUP(I61,{"?","N","Y"},{1,0,2}) + LOOKUP(J61,{"?","N","Y"},{1,0,2}) + LOOKUP(K61,{"?","N","Y"},{1,0,2})</f>
@@ -9189,19 +9320,19 @@
         <v>476</v>
       </c>
       <c r="G62" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J62" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L62" s="24">
         <f>LOOKUP(I62,{"?","N","Y"},{1,0,2}) + LOOKUP(J62,{"?","N","Y"},{1,0,2}) + LOOKUP(K62,{"?","N","Y"},{1,0,2})</f>
@@ -9228,19 +9359,19 @@
         <v>642</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L63" s="24">
         <f>LOOKUP(I63,{"?","N","Y"},{1,0,2}) + LOOKUP(J63,{"?","N","Y"},{1,0,2}) + LOOKUP(K63,{"?","N","Y"},{1,0,2})</f>
@@ -9267,19 +9398,19 @@
         <v>440</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J64" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L64" s="24">
         <f>LOOKUP(I64,{"?","N","Y"},{1,0,2}) + LOOKUP(J64,{"?","N","Y"},{1,0,2}) + LOOKUP(K64,{"?","N","Y"},{1,0,2})</f>
@@ -9306,19 +9437,19 @@
         <v>521</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J65" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L65" s="24">
         <f>LOOKUP(I65,{"?","N","Y"},{1,0,2}) + LOOKUP(J65,{"?","N","Y"},{1,0,2}) + LOOKUP(K65,{"?","N","Y"},{1,0,2})</f>
@@ -9345,19 +9476,19 @@
         <v>570</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L66" s="24">
         <f>LOOKUP(I66,{"?","N","Y"},{1,0,2}) + LOOKUP(J66,{"?","N","Y"},{1,0,2}) + LOOKUP(K66,{"?","N","Y"},{1,0,2})</f>
@@ -9384,19 +9515,19 @@
         <v>377</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L67" s="24">
         <f>LOOKUP(I67,{"?","N","Y"},{1,0,2}) + LOOKUP(J67,{"?","N","Y"},{1,0,2}) + LOOKUP(K67,{"?","N","Y"},{1,0,2})</f>
@@ -9423,19 +9554,19 @@
         <v>606</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L68" s="24">
         <f>LOOKUP(I68,{"?","N","Y"},{1,0,2}) + LOOKUP(J68,{"?","N","Y"},{1,0,2}) + LOOKUP(K68,{"?","N","Y"},{1,0,2})</f>
@@ -9462,19 +9593,19 @@
         <v>382</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L69" s="24">
         <f>LOOKUP(I69,{"?","N","Y"},{1,0,2}) + LOOKUP(J69,{"?","N","Y"},{1,0,2}) + LOOKUP(K69,{"?","N","Y"},{1,0,2})</f>
@@ -9501,19 +9632,19 @@
         <v>516</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L70" s="24">
         <f>LOOKUP(I70,{"?","N","Y"},{1,0,2}) + LOOKUP(J70,{"?","N","Y"},{1,0,2}) + LOOKUP(K70,{"?","N","Y"},{1,0,2})</f>
@@ -9540,19 +9671,19 @@
         <v>610</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L71" s="24">
         <f>LOOKUP(I71,{"?","N","Y"},{1,0,2}) + LOOKUP(J71,{"?","N","Y"},{1,0,2}) + LOOKUP(K71,{"?","N","Y"},{1,0,2})</f>
@@ -9579,19 +9710,19 @@
         <v>397</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L72" s="24">
         <f>LOOKUP(I72,{"?","N","Y"},{1,0,2}) + LOOKUP(J72,{"?","N","Y"},{1,0,2}) + LOOKUP(K72,{"?","N","Y"},{1,0,2})</f>
@@ -9618,19 +9749,19 @@
         <v>409</v>
       </c>
       <c r="G73" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L73" s="24">
         <f>LOOKUP(I73,{"?","N","Y"},{1,0,2}) + LOOKUP(J73,{"?","N","Y"},{1,0,2}) + LOOKUP(K73,{"?","N","Y"},{1,0,2})</f>
@@ -9657,19 +9788,19 @@
         <v>657</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L74" s="24">
         <f>LOOKUP(I74,{"?","N","Y"},{1,0,2}) + LOOKUP(J74,{"?","N","Y"},{1,0,2}) + LOOKUP(K74,{"?","N","Y"},{1,0,2})</f>
@@ -9696,19 +9827,19 @@
         <v>281</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L75" s="24">
         <f>LOOKUP(I75,{"?","N","Y"},{1,0,2}) + LOOKUP(J75,{"?","N","Y"},{1,0,2}) + LOOKUP(K75,{"?","N","Y"},{1,0,2})</f>
@@ -9739,19 +9870,19 @@
         <v>540</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L76" s="24">
         <f>LOOKUP(I76,{"?","N","Y"},{1,0,2}) + LOOKUP(J76,{"?","N","Y"},{1,0,2}) + LOOKUP(K76,{"?","N","Y"},{1,0,2})</f>
@@ -9778,19 +9909,19 @@
         <v>447</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L77" s="24">
         <f>LOOKUP(I77,{"?","N","Y"},{1,0,2}) + LOOKUP(J77,{"?","N","Y"},{1,0,2}) + LOOKUP(K77,{"?","N","Y"},{1,0,2})</f>
@@ -9817,19 +9948,19 @@
         <v>294</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L78" s="24">
         <f>LOOKUP(I78,{"?","N","Y"},{1,0,2}) + LOOKUP(J78,{"?","N","Y"},{1,0,2}) + LOOKUP(K78,{"?","N","Y"},{1,0,2})</f>
@@ -9856,19 +9987,19 @@
         <v>628</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L79" s="24">
         <f>LOOKUP(I79,{"?","N","Y"},{1,0,2}) + LOOKUP(J79,{"?","N","Y"},{1,0,2}) + LOOKUP(K79,{"?","N","Y"},{1,0,2})</f>
@@ -9895,19 +10026,19 @@
         <v>589</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L80" s="24">
         <f>LOOKUP(I80,{"?","N","Y"},{1,0,2}) + LOOKUP(J80,{"?","N","Y"},{1,0,2}) + LOOKUP(K80,{"?","N","Y"},{1,0,2})</f>
@@ -9934,19 +10065,19 @@
         <v>646</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K81" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L81" s="24">
         <f>LOOKUP(I81,{"?","N","Y"},{1,0,2}) + LOOKUP(J81,{"?","N","Y"},{1,0,2}) + LOOKUP(K81,{"?","N","Y"},{1,0,2})</f>
@@ -9973,19 +10104,19 @@
         <v>323</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L82" s="24">
         <f>LOOKUP(I82,{"?","N","Y"},{1,0,2}) + LOOKUP(J82,{"?","N","Y"},{1,0,2}) + LOOKUP(K82,{"?","N","Y"},{1,0,2})</f>
@@ -10012,19 +10143,19 @@
         <v>652</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K83" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L83" s="24">
         <f>LOOKUP(I83,{"?","N","Y"},{1,0,2}) + LOOKUP(J83,{"?","N","Y"},{1,0,2}) + LOOKUP(K83,{"?","N","Y"},{1,0,2})</f>
@@ -10051,19 +10182,19 @@
         <v>661</v>
       </c>
       <c r="G84" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L84" s="24">
         <f>LOOKUP(I84,{"?","N","Y"},{1,0,2}) + LOOKUP(J84,{"?","N","Y"},{1,0,2}) + LOOKUP(K84,{"?","N","Y"},{1,0,2})</f>
@@ -10090,19 +10221,19 @@
         <v>653</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L85" s="24">
         <f>LOOKUP(I85,{"?","N","Y"},{1,0,2}) + LOOKUP(J85,{"?","N","Y"},{1,0,2}) + LOOKUP(K85,{"?","N","Y"},{1,0,2})</f>
@@ -10114,7 +10245,7 @@
         <v>271</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>176</v>
@@ -10123,25 +10254,25 @@
         <v>2005</v>
       </c>
       <c r="E86" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="F86" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="F86" s="26" t="s">
-        <v>675</v>
-      </c>
       <c r="G86" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K86" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L86" s="24">
         <f>LOOKUP(I86,{"?","N","Y"},{1,0,2}) + LOOKUP(J86,{"?","N","Y"},{1,0,2}) + LOOKUP(K86,{"?","N","Y"},{1,0,2})</f>
@@ -10168,19 +10299,19 @@
         <v>551</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I87" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L87" s="24">
         <f>LOOKUP(I87,{"?","N","Y"},{1,0,2}) + LOOKUP(J87,{"?","N","Y"},{1,0,2}) + LOOKUP(K87,{"?","N","Y"},{1,0,2})</f>
@@ -10207,19 +10338,19 @@
         <v>402</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L88" s="24">
         <f>LOOKUP(I88,{"?","N","Y"},{1,0,2}) + LOOKUP(J88,{"?","N","Y"},{1,0,2}) + LOOKUP(K88,{"?","N","Y"},{1,0,2})</f>
@@ -10246,19 +10377,19 @@
         <v>600</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L89" s="24">
         <f>LOOKUP(I89,{"?","N","Y"},{1,0,2}) + LOOKUP(J89,{"?","N","Y"},{1,0,2}) + LOOKUP(K89,{"?","N","Y"},{1,0,2})</f>
@@ -10285,19 +10416,19 @@
         <v>619</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J90" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L90" s="24">
         <f>LOOKUP(I90,{"?","N","Y"},{1,0,2}) + LOOKUP(J90,{"?","N","Y"},{1,0,2}) + LOOKUP(K90,{"?","N","Y"},{1,0,2})</f>
@@ -10324,19 +10455,19 @@
         <v>298</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L91" s="24">
         <f>LOOKUP(I91,{"?","N","Y"},{1,0,2}) + LOOKUP(J91,{"?","N","Y"},{1,0,2}) + LOOKUP(K91,{"?","N","Y"},{1,0,2})</f>
@@ -10363,19 +10494,19 @@
         <v>504</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J92" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L92" s="24">
         <f>LOOKUP(I92,{"?","N","Y"},{1,0,2}) + LOOKUP(J92,{"?","N","Y"},{1,0,2}) + LOOKUP(K92,{"?","N","Y"},{1,0,2})</f>
@@ -10402,19 +10533,19 @@
         <v>536</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L93" s="24">
         <f>LOOKUP(I93,{"?","N","Y"},{1,0,2}) + LOOKUP(J93,{"?","N","Y"},{1,0,2}) + LOOKUP(K93,{"?","N","Y"},{1,0,2})</f>
@@ -10441,19 +10572,19 @@
         <v>670</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L94" s="24">
         <f>LOOKUP(I94,{"?","N","Y"},{1,0,2}) + LOOKUP(J94,{"?","N","Y"},{1,0,2}) + LOOKUP(K94,{"?","N","Y"},{1,0,2})</f>
@@ -10480,19 +10611,19 @@
         <v>586</v>
       </c>
       <c r="G95" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K95" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L95" s="24">
         <f>LOOKUP(I95,{"?","N","Y"},{1,0,2}) + LOOKUP(J95,{"?","N","Y"},{1,0,2}) + LOOKUP(K95,{"?","N","Y"},{1,0,2})</f>
@@ -10519,19 +10650,19 @@
         <v>646</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I96" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L96" s="24">
         <f>LOOKUP(I96,{"?","N","Y"},{1,0,2}) + LOOKUP(J96,{"?","N","Y"},{1,0,2}) + LOOKUP(K96,{"?","N","Y"},{1,0,2})</f>
@@ -10558,19 +10689,19 @@
         <v>473</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L97" s="24">
         <f>LOOKUP(I97,{"?","N","Y"},{1,0,2}) + LOOKUP(J97,{"?","N","Y"},{1,0,2}) + LOOKUP(K97,{"?","N","Y"},{1,0,2})</f>
@@ -10597,19 +10728,19 @@
         <v>604</v>
       </c>
       <c r="G98" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K98" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L98" s="24">
         <f>LOOKUP(I98,{"?","N","Y"},{1,0,2}) + LOOKUP(J98,{"?","N","Y"},{1,0,2}) + LOOKUP(K98,{"?","N","Y"},{1,0,2})</f>
@@ -10636,19 +10767,19 @@
         <v>554</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J99" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K99" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L99" s="24">
         <f>LOOKUP(I99,{"?","N","Y"},{1,0,2}) + LOOKUP(J99,{"?","N","Y"},{1,0,2}) + LOOKUP(K99,{"?","N","Y"},{1,0,2})</f>
@@ -10675,19 +10806,19 @@
         <v>588</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J100" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K100" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L100" s="24">
         <f>LOOKUP(I100,{"?","N","Y"},{1,0,2}) + LOOKUP(J100,{"?","N","Y"},{1,0,2}) + LOOKUP(K100,{"?","N","Y"},{1,0,2})</f>
@@ -10714,19 +10845,19 @@
         <v>489</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J101" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L101" s="24">
         <f>LOOKUP(I101,{"?","N","Y"},{1,0,2}) + LOOKUP(J101,{"?","N","Y"},{1,0,2}) + LOOKUP(K101,{"?","N","Y"},{1,0,2})</f>
@@ -10753,19 +10884,19 @@
         <v>577</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I102" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J102" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L102" s="24">
         <f>LOOKUP(I102,{"?","N","Y"},{1,0,2}) + LOOKUP(J102,{"?","N","Y"},{1,0,2}) + LOOKUP(K102,{"?","N","Y"},{1,0,2})</f>
@@ -10792,19 +10923,19 @@
         <v>616</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I103" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J103" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L103" s="24">
         <f>LOOKUP(I103,{"?","N","Y"},{1,0,2}) + LOOKUP(J103,{"?","N","Y"},{1,0,2}) + LOOKUP(K103,{"?","N","Y"},{1,0,2})</f>
@@ -10831,19 +10962,19 @@
         <v>508</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L104" s="24">
         <f>LOOKUP(I104,{"?","N","Y"},{1,0,2}) + LOOKUP(J104,{"?","N","Y"},{1,0,2}) + LOOKUP(K104,{"?","N","Y"},{1,0,2})</f>
@@ -10870,19 +11001,19 @@
         <v>575</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I105" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J105" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L105" s="24">
         <f>LOOKUP(I105,{"?","N","Y"},{1,0,2}) + LOOKUP(J105,{"?","N","Y"},{1,0,2}) + LOOKUP(K105,{"?","N","Y"},{1,0,2})</f>
@@ -10909,19 +11040,19 @@
         <v>338</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L106" s="24">
         <f>LOOKUP(I106,{"?","N","Y"},{1,0,2}) + LOOKUP(J106,{"?","N","Y"},{1,0,2}) + LOOKUP(K106,{"?","N","Y"},{1,0,2})</f>
@@ -10948,19 +11079,19 @@
         <v>352</v>
       </c>
       <c r="G107" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I107" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L107" s="24">
         <f>LOOKUP(I107,{"?","N","Y"},{1,0,2}) + LOOKUP(J107,{"?","N","Y"},{1,0,2}) + LOOKUP(K107,{"?","N","Y"},{1,0,2})</f>
@@ -10987,19 +11118,19 @@
         <v>493</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I108" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J108" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L108" s="24">
         <f>LOOKUP(I108,{"?","N","Y"},{1,0,2}) + LOOKUP(J108,{"?","N","Y"},{1,0,2}) + LOOKUP(K108,{"?","N","Y"},{1,0,2})</f>
@@ -11026,19 +11157,19 @@
         <v>557</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J109" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L109" s="24">
         <f>LOOKUP(I109,{"?","N","Y"},{1,0,2}) + LOOKUP(J109,{"?","N","Y"},{1,0,2}) + LOOKUP(K109,{"?","N","Y"},{1,0,2})</f>
@@ -11065,19 +11196,19 @@
         <v>622</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I110" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J110" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L110" s="24">
         <f>LOOKUP(I110,{"?","N","Y"},{1,0,2}) + LOOKUP(J110,{"?","N","Y"},{1,0,2}) + LOOKUP(K110,{"?","N","Y"},{1,0,2})</f>
@@ -11104,19 +11235,19 @@
         <v>463</v>
       </c>
       <c r="G111" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I111" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J111" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L111" s="24">
         <f>LOOKUP(I111,{"?","N","Y"},{1,0,2}) + LOOKUP(J111,{"?","N","Y"},{1,0,2}) + LOOKUP(K111,{"?","N","Y"},{1,0,2})</f>
@@ -11143,19 +11274,19 @@
         <v>544</v>
       </c>
       <c r="G112" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I112" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J112" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L112" s="24">
         <f>LOOKUP(I112,{"?","N","Y"},{1,0,2}) + LOOKUP(J112,{"?","N","Y"},{1,0,2}) + LOOKUP(K112,{"?","N","Y"},{1,0,2})</f>
@@ -11182,19 +11313,19 @@
         <v>598</v>
       </c>
       <c r="G113" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J113" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L113" s="24">
         <f>LOOKUP(I113,{"?","N","Y"},{1,0,2}) + LOOKUP(J113,{"?","N","Y"},{1,0,2}) + LOOKUP(K113,{"?","N","Y"},{1,0,2})</f>
@@ -11221,19 +11352,19 @@
         <v>574</v>
       </c>
       <c r="G114" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J114" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K114" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L114" s="24">
         <f>LOOKUP(I114,{"?","N","Y"},{1,0,2}) + LOOKUP(J114,{"?","N","Y"},{1,0,2}) + LOOKUP(K114,{"?","N","Y"},{1,0,2})</f>
@@ -11260,19 +11391,19 @@
         <v>497</v>
       </c>
       <c r="G115" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J115" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K115" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L115" s="24">
         <f>LOOKUP(I115,{"?","N","Y"},{1,0,2}) + LOOKUP(J115,{"?","N","Y"},{1,0,2}) + LOOKUP(K115,{"?","N","Y"},{1,0,2})</f>
@@ -11296,22 +11427,22 @@
         <v>545</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G116" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I116" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J116" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K116" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L116" s="24">
         <f>LOOKUP(I116,{"?","N","Y"},{1,0,2}) + LOOKUP(J116,{"?","N","Y"},{1,0,2}) + LOOKUP(K116,{"?","N","Y"},{1,0,2})</f>
@@ -11338,19 +11469,19 @@
         <v>562</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I117" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J117" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K117" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L117" s="24">
         <f>LOOKUP(I117,{"?","N","Y"},{1,0,2}) + LOOKUP(J117,{"?","N","Y"},{1,0,2}) + LOOKUP(K117,{"?","N","Y"},{1,0,2})</f>
@@ -11377,19 +11508,19 @@
         <v>437</v>
       </c>
       <c r="G118" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J118" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L118" s="24">
         <f>LOOKUP(I118,{"?","N","Y"},{1,0,2}) + LOOKUP(J118,{"?","N","Y"},{1,0,2}) + LOOKUP(K118,{"?","N","Y"},{1,0,2})</f>
@@ -11416,19 +11547,19 @@
         <v>594</v>
       </c>
       <c r="G119" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J119" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L119" s="24">
         <f>LOOKUP(I119,{"?","N","Y"},{1,0,2}) + LOOKUP(J119,{"?","N","Y"},{1,0,2}) + LOOKUP(K119,{"?","N","Y"},{1,0,2})</f>
@@ -11455,19 +11586,19 @@
         <v>344</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J120" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L120" s="24">
         <f>LOOKUP(I120,{"?","N","Y"},{1,0,2}) + LOOKUP(J120,{"?","N","Y"},{1,0,2}) + LOOKUP(K120,{"?","N","Y"},{1,0,2})</f>
@@ -11476,42 +11607,42 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G121" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G122" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G123" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G124" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G125" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G126" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G127" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G128" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -11520,7 +11651,7 @@
       <c r="D129" s="22"/>
       <c r="F129" s="22"/>
       <c r="G129" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.25">
@@ -11529,7 +11660,7 @@
       <c r="D130" s="22"/>
       <c r="F130" s="22"/>
       <c r="G130" s="27" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="978">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -3029,6 +3029,37 @@
   </si>
   <si>
     <t>Focus not quite on transformation</t>
+  </si>
+  <si>
+    <t>Early 2004</t>
+  </si>
+  <si>
+    <t>Rapid growth and diversification had made it necessary to put more effort on process and coordination. Senior leadership and IT began exploring options for processes that would not sacrifice customer value.</t>
+  </si>
+  <si>
+    <t>Authors in organization</t>
+  </si>
+  <si>
+    <t>"The adoption of agile lowers the water in the pond and exposes all the large boulders you have never seen before or purposefully ignored."</t>
+  </si>
+  <si>
+    <t>Many pilot projects were conducted. Each pilot had an external Scrum coach. Pilots showed great success. Pilots had high management support and interest. Pilot team members showed great interest to continue with agile, and showed an increase in morale.
+After pilots executive management was supportive for implementing agile on a broader scale. Agile gained ground gradually and became the predominant process. Work areas were rebuilt to make better team rooms and collaborative spaces.
+To facilitate adoption internal coach training was started. People from various (managers, analysts, devs) positions sought to be coaches. External mentoring was given by external consultants. Scrum master certification was applied. With time it became clear that a community of coaches was needed.</t>
+  </si>
+  <si>
+    <t>Maintaining the quality of agile projects and coaches.
+Many new coaches are needed but there are few good mentor coaches. Many new coaches are accustomed with traditional practices, and they must receive quality coaching to get into the agile ways of working.
+Managers are anxious to get agile projects in their portfolio, but do not appreciate the initial investment in the coach position.</t>
+  </si>
+  <si>
+    <t>Continuously remind management that coaching is necessary for agile projects to get on the right track. Consult management to make them understand the importance of investing in a highly competent coach community.</t>
+  </si>
+  <si>
+    <t>Although there was strong executive level support, it was the grass root passion and effort sustained the growth and success of agile.
+It became obvious early that internal agile coaches were needed.
+The agile coaching community resides in the middle of the organizational change, and is the driver for actions in the correct direction.
+Foundational support for high quality coaches will be critical for maintaining current delivery and building future competency.</t>
   </si>
 </sst>
 </file>
@@ -3165,7 +3196,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3326,6 +3357,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -5283,7 +5317,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7972,25 +8006,25 @@
         <v>271</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="D30" s="25">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>667</v>
+        <v>568</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="G30" s="27" t="s">
         <v>677</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>680</v>
@@ -8011,25 +8045,25 @@
         <v>271</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>636</v>
+        <v>324</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>637</v>
+        <v>325</v>
       </c>
       <c r="D31" s="25">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>638</v>
+        <v>326</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>677</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>680</v>
@@ -8047,22 +8081,22 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="D32" s="25">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>529</v>
+        <v>280</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G32" s="27" t="s">
         <v>677</v>
@@ -8086,22 +8120,22 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>366</v>
+        <v>457</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>367</v>
+        <v>458</v>
       </c>
       <c r="D33" s="25">
         <v>2010</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>280</v>
+        <v>459</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>368</v>
+        <v>460</v>
       </c>
       <c r="G33" s="27" t="s">
         <v>677</v>
@@ -8123,199 +8157,299 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="D34" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="H34" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J34" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L34" s="24">
+    <row r="34" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="D34" s="35">
+        <v>2007</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>612</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="L34" s="34">
         <f>LOOKUP(I34,{"?","N","Y"},{1,0,2}) + LOOKUP(J34,{"?","N","Y"},{1,0,2}) + LOOKUP(K34,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="M34" s="38" t="s">
+        <v>679</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="O34" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="P34" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q34" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="R34" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="S34" s="34">
+        <v>2</v>
+      </c>
+      <c r="T34" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="U34" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="V34" s="18" t="s">
+        <v>972</v>
+      </c>
+      <c r="W34" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="X34" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y34" s="48" t="s">
+        <v>970</v>
+      </c>
+      <c r="Z34" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA34" s="40" t="s">
+        <v>971</v>
+      </c>
+      <c r="AB34" s="40" t="s">
+        <v>974</v>
+      </c>
+      <c r="AC34" s="40" t="s">
+        <v>942</v>
+      </c>
+      <c r="AD34" s="40" t="s">
+        <v>977</v>
+      </c>
+      <c r="AE34" s="40" t="s">
+        <v>976</v>
+      </c>
+      <c r="AF34" s="40" t="s">
+        <v>975</v>
+      </c>
+      <c r="AG34" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH34" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI34" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ34" s="40"/>
+      <c r="AK34" s="40"/>
+      <c r="AL34" s="40" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" s="33" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="B35" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="D35" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J35" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K35" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L35" s="24">
-        <f>LOOKUP(I35,{"?","N","Y"},{1,0,2}) + LOOKUP(J35,{"?","N","Y"},{1,0,2}) + LOOKUP(K35,{"?","N","Y"},{1,0,2})</f>
+      <c r="B35" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>671</v>
+      </c>
+      <c r="G35" s="45" t="s">
+        <v>677</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="I35" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="L35" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:38" s="33" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="M35" s="38" t="s">
+        <v>679</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="R35" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="S35" s="34">
+        <v>2</v>
+      </c>
+      <c r="T35" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="U35" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="V35" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="W35" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="X35" s="40" t="s">
+        <v>961</v>
+      </c>
+      <c r="Y35" s="48" t="s">
+        <v>962</v>
+      </c>
+      <c r="Z35" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA35" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB35" s="40" t="s">
+        <v>963</v>
+      </c>
+      <c r="AC35" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD35" s="40" t="s">
+        <v>964</v>
+      </c>
+      <c r="AE35" s="40" t="s">
+        <v>965</v>
+      </c>
+      <c r="AF35" s="40" t="s">
+        <v>966</v>
+      </c>
+      <c r="AG35" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH35" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI35" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ35" s="40" t="s">
+        <v>969</v>
+      </c>
+      <c r="AK35" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AL35" s="40" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>960</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>559</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>671</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="H36" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K36" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L36" s="34">
+      <c r="B36" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="25">
+        <v>2006</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="L36" s="24">
+        <f>LOOKUP(I36,{"?","N","Y"},{1,0,2}) + LOOKUP(J36,{"?","N","Y"},{1,0,2}) + LOOKUP(K36,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M36" s="42" t="s">
-        <v>679</v>
-      </c>
-      <c r="N36" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O36" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P36" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q36" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R36" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S36" s="34">
-        <v>2</v>
-      </c>
-      <c r="T36" s="43" t="s">
-        <v>735</v>
-      </c>
-      <c r="U36" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="V36" s="18" t="s">
-        <v>968</v>
-      </c>
-      <c r="W36" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X36" s="40" t="s">
-        <v>961</v>
-      </c>
-      <c r="Y36" s="48" t="s">
-        <v>962</v>
-      </c>
-      <c r="Z36" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AA36" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AB36" s="40" t="s">
-        <v>963</v>
-      </c>
-      <c r="AC36" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="AD36" s="40" t="s">
-        <v>964</v>
-      </c>
-      <c r="AE36" s="40" t="s">
-        <v>965</v>
-      </c>
-      <c r="AF36" s="40" t="s">
-        <v>966</v>
-      </c>
-      <c r="AG36" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AH36" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AI36" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AJ36" s="40" t="s">
-        <v>969</v>
-      </c>
-      <c r="AK36" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AL36" s="40" t="s">
-        <v>967</v>
-      </c>
+      <c r="M36" s="60"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="30"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="19"/>
+      <c r="AL36" s="19"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
@@ -9617,38 +9751,38 @@
         <v>271</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>114</v>
+        <v>486</v>
       </c>
       <c r="D70" s="25">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>516</v>
+        <v>610</v>
       </c>
       <c r="G70" s="27" t="s">
         <v>677</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I70" s="22" t="s">
         <v>680</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K70" s="22" t="s">
         <v>680</v>
       </c>
       <c r="L70" s="24">
         <f>LOOKUP(I70,{"?","N","Y"},{1,0,2}) + LOOKUP(J70,{"?","N","Y"},{1,0,2}) + LOOKUP(K70,{"?","N","Y"},{1,0,2})</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -9656,19 +9790,19 @@
         <v>271</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>485</v>
+        <v>395</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>486</v>
+        <v>396</v>
       </c>
       <c r="D71" s="25">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>610</v>
+        <v>397</v>
       </c>
       <c r="G71" s="27" t="s">
         <v>677</v>
@@ -9680,10 +9814,10 @@
         <v>680</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L71" s="24">
         <f>LOOKUP(I71,{"?","N","Y"},{1,0,2}) + LOOKUP(J71,{"?","N","Y"},{1,0,2}) + LOOKUP(K71,{"?","N","Y"},{1,0,2})</f>
@@ -9692,22 +9826,22 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D72" s="25">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>580</v>
+        <v>408</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="G72" s="27" t="s">
         <v>677</v>
@@ -9734,19 +9868,19 @@
         <v>290</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>406</v>
+        <v>654</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>407</v>
+        <v>655</v>
       </c>
       <c r="D73" s="25">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>408</v>
+        <v>656</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>409</v>
+        <v>657</v>
       </c>
       <c r="G73" s="27" t="s">
         <v>677</v>
@@ -9770,22 +9904,22 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>654</v>
+        <v>278</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>655</v>
+        <v>279</v>
       </c>
       <c r="D74" s="25">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>656</v>
+        <v>280</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>657</v>
+        <v>281</v>
       </c>
       <c r="G74" s="27" t="s">
         <v>677</v>
@@ -9806,25 +9940,29 @@
         <f>LOOKUP(I74,{"?","N","Y"},{1,0,2}) + LOOKUP(J74,{"?","N","Y"},{1,0,2}) + LOOKUP(K74,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
+      <c r="T74" s="20"/>
+      <c r="U74" s="31"/>
+      <c r="V74" s="31"/>
+      <c r="W74" s="31"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D75" s="25">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>280</v>
+        <v>539</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>281</v>
+        <v>540</v>
       </c>
       <c r="G75" s="27" t="s">
         <v>677</v>
@@ -9845,29 +9983,25 @@
         <f>LOOKUP(I75,{"?","N","Y"},{1,0,2}) + LOOKUP(J75,{"?","N","Y"},{1,0,2}) + LOOKUP(K75,{"?","N","Y"},{1,0,2})</f>
         <v>4</v>
       </c>
-      <c r="T75" s="20"/>
-      <c r="U75" s="31"/>
-      <c r="V75" s="31"/>
-      <c r="W75" s="31"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>282</v>
+        <v>445</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>284</v>
+        <v>446</v>
       </c>
       <c r="D76" s="25">
-        <v>1997</v>
+        <v>2008</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>539</v>
+        <v>1</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>540</v>
+        <v>447</v>
       </c>
       <c r="G76" s="27" t="s">
         <v>677</v>
@@ -9879,10 +10013,10 @@
         <v>680</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L76" s="24">
         <f>LOOKUP(I76,{"?","N","Y"},{1,0,2}) + LOOKUP(J76,{"?","N","Y"},{1,0,2}) + LOOKUP(K76,{"?","N","Y"},{1,0,2})</f>
@@ -9894,19 +10028,19 @@
         <v>290</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>445</v>
+        <v>291</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>446</v>
+        <v>292</v>
       </c>
       <c r="D77" s="25">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>1</v>
+        <v>293</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>447</v>
+        <v>294</v>
       </c>
       <c r="G77" s="27" t="s">
         <v>677</v>
@@ -9918,10 +10052,10 @@
         <v>680</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L77" s="24">
         <f>LOOKUP(I77,{"?","N","Y"},{1,0,2}) + LOOKUP(J77,{"?","N","Y"},{1,0,2}) + LOOKUP(K77,{"?","N","Y"},{1,0,2})</f>
@@ -9930,22 +10064,22 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>291</v>
+        <v>626</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>292</v>
+        <v>627</v>
       </c>
       <c r="D78" s="25">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>293</v>
+        <v>559</v>
       </c>
       <c r="F78" s="26" t="s">
-        <v>294</v>
+        <v>628</v>
       </c>
       <c r="G78" s="27" t="s">
         <v>677</v>
@@ -9972,19 +10106,19 @@
         <v>271</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>626</v>
+        <v>417</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>627</v>
+        <v>418</v>
       </c>
       <c r="D79" s="25">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="G79" s="27" t="s">
         <v>677</v>
@@ -9996,10 +10130,10 @@
         <v>680</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K79" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L79" s="24">
         <f>LOOKUP(I79,{"?","N","Y"},{1,0,2}) + LOOKUP(J79,{"?","N","Y"},{1,0,2}) + LOOKUP(K79,{"?","N","Y"},{1,0,2})</f>
@@ -10011,19 +10145,19 @@
         <v>271</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>417</v>
+        <v>644</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>418</v>
+        <v>645</v>
       </c>
       <c r="D80" s="25">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>589</v>
+        <v>646</v>
       </c>
       <c r="G80" s="27" t="s">
         <v>677</v>
@@ -10035,10 +10169,10 @@
         <v>680</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L80" s="24">
         <f>LOOKUP(I80,{"?","N","Y"},{1,0,2}) + LOOKUP(J80,{"?","N","Y"},{1,0,2}) + LOOKUP(K80,{"?","N","Y"},{1,0,2})</f>
@@ -10050,19 +10184,19 @@
         <v>271</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>644</v>
+        <v>321</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>645</v>
+        <v>322</v>
       </c>
       <c r="D81" s="25">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>646</v>
+        <v>323</v>
       </c>
       <c r="G81" s="27" t="s">
         <v>677</v>
@@ -10089,19 +10223,19 @@
         <v>271</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>321</v>
+        <v>651</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>322</v>
+        <v>146</v>
       </c>
       <c r="D82" s="25">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>323</v>
+        <v>652</v>
       </c>
       <c r="G82" s="27" t="s">
         <v>677</v>
@@ -10128,10 +10262,10 @@
         <v>271</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="D83" s="25">
         <v>2009</v>
@@ -10140,7 +10274,7 @@
         <v>561</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="G83" s="27" t="s">
         <v>677</v>
@@ -10167,19 +10301,19 @@
         <v>271</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>660</v>
+        <v>398</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>215</v>
+        <v>399</v>
       </c>
       <c r="D84" s="25">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="G84" s="27" t="s">
         <v>677</v>
@@ -10191,10 +10325,10 @@
         <v>680</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="L84" s="24">
         <f>LOOKUP(I84,{"?","N","Y"},{1,0,2}) + LOOKUP(J84,{"?","N","Y"},{1,0,2}) + LOOKUP(K84,{"?","N","Y"},{1,0,2})</f>
@@ -10206,19 +10340,19 @@
         <v>271</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>398</v>
+        <v>672</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>399</v>
+        <v>176</v>
       </c>
       <c r="D85" s="25">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>581</v>
+        <v>673</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
       <c r="G85" s="27" t="s">
         <v>677</v>
@@ -10230,10 +10364,10 @@
         <v>680</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L85" s="24">
         <f>LOOKUP(I85,{"?","N","Y"},{1,0,2}) + LOOKUP(J85,{"?","N","Y"},{1,0,2}) + LOOKUP(K85,{"?","N","Y"},{1,0,2})</f>
@@ -10245,19 +10379,19 @@
         <v>271</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>672</v>
+        <v>308</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="D86" s="25">
         <v>2005</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>673</v>
+        <v>550</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>674</v>
+        <v>551</v>
       </c>
       <c r="G86" s="27" t="s">
         <v>677</v>
@@ -10266,10 +10400,10 @@
         <v>679</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="K86" s="22" t="s">
         <v>680</v>
@@ -10284,19 +10418,19 @@
         <v>271</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>308</v>
+        <v>400</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="D87" s="25">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>551</v>
+        <v>402</v>
       </c>
       <c r="G87" s="27" t="s">
         <v>677</v>
@@ -10323,31 +10457,31 @@
         <v>271</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>401</v>
+        <v>452</v>
       </c>
       <c r="D88" s="25">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>402</v>
+        <v>600</v>
       </c>
       <c r="G88" s="27" t="s">
         <v>677</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K88" s="22" t="s">
         <v>680</v>
@@ -10362,34 +10496,34 @@
         <v>271</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>452</v>
+        <v>518</v>
       </c>
       <c r="D89" s="25">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="G89" s="27" t="s">
         <v>677</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I89" s="22" t="s">
         <v>680</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L89" s="24">
         <f>LOOKUP(I89,{"?","N","Y"},{1,0,2}) + LOOKUP(J89,{"?","N","Y"},{1,0,2}) + LOOKUP(K89,{"?","N","Y"},{1,0,2})</f>
@@ -10398,22 +10532,22 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>517</v>
+        <v>295</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>518</v>
+        <v>296</v>
       </c>
       <c r="D90" s="25">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>559</v>
+        <v>297</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>619</v>
+        <v>298</v>
       </c>
       <c r="G90" s="27" t="s">
         <v>677</v>
@@ -10437,37 +10571,37 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>295</v>
+        <v>420</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>296</v>
+        <v>421</v>
       </c>
       <c r="D91" s="25">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>297</v>
+        <v>591</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>298</v>
+        <v>504</v>
       </c>
       <c r="G91" s="27" t="s">
         <v>677</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I91" s="22" t="s">
         <v>680</v>
       </c>
       <c r="J91" s="22" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="L91" s="24">
         <f>LOOKUP(I91,{"?","N","Y"},{1,0,2}) + LOOKUP(J91,{"?","N","Y"},{1,0,2}) + LOOKUP(K91,{"?","N","Y"},{1,0,2})</f>
@@ -10479,34 +10613,34 @@
         <v>271</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>420</v>
+        <v>272</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>421</v>
+        <v>273</v>
       </c>
       <c r="D92" s="25">
         <v>2011</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="G92" s="27" t="s">
         <v>677</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="J92" s="22" t="s">
         <v>682</v>
       </c>
       <c r="K92" s="22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L92" s="24">
         <f>LOOKUP(I92,{"?","N","Y"},{1,0,2}) + LOOKUP(J92,{"?","N","Y"},{1,0,2}) + LOOKUP(K92,{"?","N","Y"},{1,0,2})</f>
@@ -10515,37 +10649,37 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>272</v>
+        <v>669</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="D93" s="25">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>535</v>
+        <v>304</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>536</v>
+        <v>670</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>677</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J93" s="22" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L93" s="24">
         <f>LOOKUP(I93,{"?","N","Y"},{1,0,2}) + LOOKUP(J93,{"?","N","Y"},{1,0,2}) + LOOKUP(K93,{"?","N","Y"},{1,0,2})</f>
@@ -10554,22 +10688,22 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>86</v>
+        <v>666</v>
       </c>
       <c r="D94" s="25">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>304</v>
+        <v>667</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>677</v>
@@ -11664,13 +11798,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:L130">
+  <sortState ref="A3:AL130">
     <sortCondition descending="1" ref="L3:L130"/>
+    <sortCondition ref="C3:C130"/>
   </sortState>
   <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="Y22" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Haut" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Form" sheetId="4" r:id="rId2"/>
+    <sheet name="Results" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="1040">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -3060,6 +3061,197 @@
 It became obvious early that internal agile coaches were needed.
 The agile coaching community resides in the middle of the organizational change, and is the driver for actions in the correct direction.
 Foundational support for high quality coaches will be critical for maintaining current delivery and building future competency.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ASSF framework</t>
+  </si>
+  <si>
+    <t>Scrum, TDD, Customer feedback</t>
+  </si>
+  <si>
+    <t>Scrum practices, lean values</t>
+  </si>
+  <si>
+    <t>Scrum, mixing agile practices</t>
+  </si>
+  <si>
+    <t>Combining best ideas</t>
+  </si>
+  <si>
+    <t>Unified Process, combining ideas</t>
+  </si>
+  <si>
+    <t>Scrum, FDD, TDD, combining</t>
+  </si>
+  <si>
+    <t>Combining Scrum, XP, lean</t>
+  </si>
+  <si>
+    <t>Agile process reported</t>
+  </si>
+  <si>
+    <t>Start time</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>4 y</t>
+  </si>
+  <si>
+    <t>1 y</t>
+  </si>
+  <si>
+    <t>1+ y</t>
+  </si>
+  <si>
+    <t>2+ y</t>
+  </si>
+  <si>
+    <t>3+ y</t>
+  </si>
+  <si>
+    <t>3 y</t>
+  </si>
+  <si>
+    <t>3 m</t>
+  </si>
+  <si>
+    <t>A value based technique</t>
+  </si>
+  <si>
+    <t>Notable good practices</t>
+  </si>
+  <si>
+    <t>Notable challenegs</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>Conf.</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Lots of teams</t>
+  </si>
+  <si>
+    <t>150 p</t>
+  </si>
+  <si>
+    <t>300 p</t>
+  </si>
+  <si>
+    <t>200 p, 6 t</t>
+  </si>
+  <si>
+    <t>Several teams</t>
+  </si>
+  <si>
+    <t>14000 p</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>1500 p, 5 loc</t>
+  </si>
+  <si>
+    <t>300 p, 5 loc</t>
+  </si>
+  <si>
+    <t>5000 p</t>
+  </si>
+  <si>
+    <t>150 p, several loc</t>
+  </si>
+  <si>
+    <t>2 loc</t>
+  </si>
+  <si>
+    <t>860 p</t>
+  </si>
+  <si>
+    <t>2000 p</t>
+  </si>
+  <si>
+    <t>160 p</t>
+  </si>
+  <si>
+    <t>275 p</t>
+  </si>
+  <si>
+    <t>200 p, 30 t</t>
+  </si>
+  <si>
+    <t>500 p</t>
+  </si>
+  <si>
+    <t>150 teams</t>
+  </si>
+  <si>
+    <t>300 p, 25 t, 3 loc</t>
+  </si>
+  <si>
+    <t>50 p, 4 loc</t>
+  </si>
+  <si>
+    <t>Initial state</t>
+  </si>
+  <si>
+    <t>Main reason for change</t>
+  </si>
+  <si>
+    <t>Management support reported Y/N</t>
+  </si>
+  <si>
+    <t>Coaching reported Y/N</t>
+  </si>
+  <si>
+    <t>General trend of transformation</t>
+  </si>
+  <si>
+    <t>Case study or exp rep?</t>
+  </si>
+  <si>
+    <t>Did the use continue</t>
+  </si>
+  <si>
+    <t>160000 employees</t>
+  </si>
+  <si>
+    <t>Development cycles of 36-60 months.</t>
+  </si>
+  <si>
+    <t>To improve market responsiveness. New technologies, rapidly emerging new markets and regulations made this necessary.</t>
+  </si>
+  <si>
+    <t>Teams misinterpreted practices, and bad practices grew endemically.</t>
+  </si>
+  <si>
+    <t>TDD, automated testing, CI</t>
+  </si>
+  <si>
+    <t>An agile approach was first attempted by changing project management to be more adaptive and iterative. The new approaches resulted in better cycle times, but there was integration problems. The problems were investigated. As a result a handful of pilot projects were conducted across two release streams. The results were very positive and demand for wider effort spread virally. (Pilots: 60% end-to-end test defect reduction, almost eliminate in-life faults). A company wide effort was kicked off to build a framework for the rollout.
+Early investigations showed incosistencies between teams implementing agile. Some teams ignored developer testing practices, and considered them as the responsibility of later QA. This behavior created large quality issues. Seven key practices were identified to standardize quality in development. The practices were chosen based on evidence of productivity increase, but also because of externally and internally available reference material. The practices were assessed by a maturity model inspired by CMMI.</t>
+  </si>
+  <si>
+    <t>Standardization of practices
+Communicate dependencies
+There has been resistance from partners and offshore suppliers. Contracts have been rewritten to accomodate the new model.
+Challenge in outreach and education of key stakeholders throughout the business. The model has been engineering-focused.
+COTS products, and hardware and process integration do not integrate to the seven dimensions framework in a straight forward fashion. It's believed that vendors who make activities such as automatic deployment difficult will be replaced with flexible ones.</t>
   </si>
 </sst>
 </file>
@@ -3128,12 +3320,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -3196,7 +3394,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3359,8 +3557,56 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3377,6 +3623,335 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Results!$G$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Journal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$D$46:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$G$46:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Conference proceedings</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Results!$D$46:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Results!$H$46:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="148017536"/>
+        <c:axId val="148019072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="148017536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148019072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148019072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148017536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75072623949529249"/>
+          <c:y val="0.41628280839895015"/>
+          <c:w val="0.23240310586176727"/>
+          <c:h val="0.32947142023913678"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1123951</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5316,17 +5891,19 @@
   <dimension ref="A1:AL130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="21" style="24" customWidth="1"/>
-    <col min="3" max="3" width="104" style="24" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="25" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" style="22" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21" style="24" customWidth="1"/>
+    <col min="2" max="2" width="102.140625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="25" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="89.7109375" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="22" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="26" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="27" customWidth="1"/>
     <col min="8" max="10" width="4.28515625" style="22" customWidth="1"/>
@@ -5343,7 +5920,7 @@
     <col min="25" max="25" width="17.5703125" style="49" customWidth="1"/>
     <col min="26" max="26" width="47.85546875" style="19" customWidth="1"/>
     <col min="27" max="27" width="47.42578125" style="19" customWidth="1"/>
-    <col min="28" max="28" width="90.140625" style="19" customWidth="1"/>
+    <col min="28" max="28" width="91.140625" style="19" customWidth="1"/>
     <col min="29" max="29" width="22.42578125" style="19" customWidth="1"/>
     <col min="30" max="30" width="56.42578125" style="19" customWidth="1"/>
     <col min="31" max="31" width="66.28515625" style="19" customWidth="1"/>
@@ -5457,20 +6034,20 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="25">
+        <v>2006</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="D3" s="25">
-        <v>2006</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>297</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>468</v>
@@ -5501,20 +6078,20 @@
       <c r="Y3" s="47"/>
     </row>
     <row r="4" spans="1:38" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="C4" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="D4" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>561</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>625</v>
@@ -5586,20 +6163,20 @@
       </c>
     </row>
     <row r="5" spans="1:38" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>277</v>
+      <c r="A5" s="34" t="s">
+        <v>388</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="C5" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="35">
+      <c r="C5" s="35">
         <v>2011</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="33" t="s">
         <v>280</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>390</v>
@@ -5697,20 +6274,20 @@
       <c r="AL5" s="40"/>
     </row>
     <row r="6" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" s="35">
+        <v>2004</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>647</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>648</v>
-      </c>
-      <c r="D6" s="35">
-        <v>2004</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>649</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>650</v>
@@ -5784,20 +6361,20 @@
       <c r="AL6" s="40"/>
     </row>
     <row r="7" spans="1:38" s="33" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="35">
+        <v>2008</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="D7" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>566</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>355</v>
@@ -5893,20 +6470,20 @@
       <c r="AL7" s="40"/>
     </row>
     <row r="8" spans="1:38" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D8" s="25">
-        <v>2012</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>358</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>359</v>
@@ -5996,20 +6573,20 @@
       </c>
     </row>
     <row r="9" spans="1:38" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="35">
+        <v>2011</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>449</v>
-      </c>
-      <c r="D9" s="35">
-        <v>2011</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>599</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>450</v>
@@ -6103,20 +6680,20 @@
       <c r="AL9" s="40"/>
     </row>
     <row r="10" spans="1:38" s="33" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="35">
+        <v>2007</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="35">
-        <v>2007</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>545</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>592</v>
@@ -6208,20 +6785,20 @@
       <c r="AL10" s="40"/>
     </row>
     <row r="11" spans="1:38" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2005</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="D11" s="25">
-        <v>2005</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>304</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>385</v>
@@ -6295,20 +6872,20 @@
       </c>
     </row>
     <row r="12" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="35">
+        <v>2007</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="E12" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>465</v>
-      </c>
-      <c r="D12" s="35">
-        <v>2007</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>531</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>532</v>
@@ -6392,20 +6969,20 @@
       <c r="AL12" s="40"/>
     </row>
     <row r="13" spans="1:38" s="33" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="C13" s="35">
+        <v>2007</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="D13" s="35">
-        <v>2007</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>547</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>482</v>
@@ -6501,20 +7078,20 @@
       <c r="AL13" s="40"/>
     </row>
     <row r="14" spans="1:38" s="33" customFormat="1" ht="405" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="35">
+        <v>2009</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="35">
-        <v>2009</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>561</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>590</v>
@@ -6610,20 +7187,20 @@
       <c r="AL14" s="40"/>
     </row>
     <row r="15" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" s="35">
+        <v>2010</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>845</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="D15" s="35">
-        <v>2010</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>578</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>579</v>
@@ -6708,20 +7285,20 @@
       <c r="AL15" s="40"/>
     </row>
     <row r="16" spans="1:38" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2003</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="25">
-        <v>2003</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>548</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>614</v>
@@ -6804,20 +7381,20 @@
       </c>
     </row>
     <row r="17" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="35">
+        <v>2011</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>567</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>854</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="D17" s="35">
-        <v>2011</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>567</v>
       </c>
       <c r="F17" s="44" t="s">
         <v>361</v>
@@ -6912,20 +7489,20 @@
       <c r="AL17" s="40"/>
     </row>
     <row r="18" spans="1:38" s="33" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="35">
+        <v>2005</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="D18" s="35">
-        <v>2005</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>541</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>542</v>
@@ -7019,20 +7596,20 @@
       <c r="AL18" s="40"/>
     </row>
     <row r="19" spans="1:38" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="35">
+        <v>2009</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" s="35">
-        <v>2009</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>537</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>276</v>
@@ -7126,20 +7703,20 @@
       <c r="AL19" s="40"/>
     </row>
     <row r="20" spans="1:38" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
+        <v>887</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="35">
+        <v>2007</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>887</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="D20" s="35">
-        <v>2007</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>545</v>
       </c>
       <c r="F20" s="44" t="s">
         <v>546</v>
@@ -7236,20 +7813,20 @@
       <c r="AL20" s="40"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="E21" s="56" t="s">
         <v>271</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>477</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>478</v>
-      </c>
-      <c r="D21" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>607</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>479</v>
@@ -7278,20 +7855,20 @@
       </c>
     </row>
     <row r="22" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="35">
+        <v>2003</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>548</v>
+      </c>
+      <c r="E22" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="D22" s="35">
-        <v>2003</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>548</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>549</v>
@@ -7371,20 +7948,20 @@
       <c r="AL22" s="40"/>
     </row>
     <row r="23" spans="1:38" s="33" customFormat="1" ht="270" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="35">
+        <v>2007</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>916</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="D23" s="35">
-        <v>2007</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>547</v>
       </c>
       <c r="F23" s="44" t="s">
         <v>340</v>
@@ -7475,20 +8052,20 @@
       <c r="AL23" s="40"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>303</v>
+      </c>
+      <c r="C24" s="25">
+        <v>2005</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" s="56" t="s">
         <v>290</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="D24" s="25">
-        <v>2005</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>304</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>305</v>
@@ -7517,20 +8094,20 @@
       </c>
     </row>
     <row r="25" spans="1:38" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25" s="35">
+        <v>2011</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="D25" s="35">
-        <v>2011</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>535</v>
       </c>
       <c r="F25" s="36" t="s">
         <v>525</v>
@@ -7630,20 +8207,20 @@
       <c r="AL25" s="40"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="57" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>316</v>
+      </c>
+      <c r="C26" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" s="56" t="s">
         <v>290</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="D26" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>317</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>318</v>
@@ -7672,20 +8249,20 @@
       </c>
     </row>
     <row r="27" spans="1:38" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="C27" s="35">
+        <v>2009</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="E27" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>928</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="D27" s="35">
-        <v>2009</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>561</v>
       </c>
       <c r="F27" s="44" t="s">
         <v>620</v>
@@ -7784,20 +8361,20 @@
       <c r="AL27" s="40"/>
     </row>
     <row r="28" spans="1:38" s="33" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
+        <v>938</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="C28" s="35">
+        <v>2008</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="E28" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>938</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>633</v>
-      </c>
-      <c r="D28" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>634</v>
       </c>
       <c r="F28" s="58" t="s">
         <v>635</v>
@@ -7894,20 +8471,20 @@
       <c r="AL28" s="40"/>
     </row>
     <row r="29" spans="1:38" s="33" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
+        <v>951</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" s="35">
+        <v>2008</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>566</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>951</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="D29" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>566</v>
       </c>
       <c r="F29" s="44" t="s">
         <v>431</v>
@@ -8001,60 +8578,132 @@
         <v>959</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:38" s="60" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A30" s="61" t="s">
+        <v>636</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>637</v>
+      </c>
+      <c r="C30" s="62">
+        <v>2010</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>568</v>
+      </c>
+      <c r="E30" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>636</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="D30" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="63" t="s">
         <v>638</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="64" t="s">
         <v>677</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L30" s="24">
+      <c r="H30" s="60" t="s">
+        <v>679</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>680</v>
+      </c>
+      <c r="J30" s="60" t="s">
+        <v>680</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>680</v>
+      </c>
+      <c r="L30" s="61">
         <f>LOOKUP(I30,{"?","N","Y"},{1,0,2}) + LOOKUP(J30,{"?","N","Y"},{1,0,2}) + LOOKUP(K30,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
+      <c r="M30" s="75" t="s">
+        <v>680</v>
+      </c>
+      <c r="N30" s="60" t="s">
+        <v>680</v>
+      </c>
+      <c r="O30" s="60" t="s">
+        <v>679</v>
+      </c>
+      <c r="P30" s="60" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q30" s="60" t="s">
+        <v>679</v>
+      </c>
+      <c r="R30" s="60" t="s">
+        <v>679</v>
+      </c>
+      <c r="S30" s="61">
+        <v>3</v>
+      </c>
+      <c r="T30" s="76" t="s">
+        <v>735</v>
+      </c>
+      <c r="U30" s="67" t="s">
+        <v>753</v>
+      </c>
+      <c r="V30" s="67" t="s">
+        <v>848</v>
+      </c>
+      <c r="W30" s="67" t="s">
+        <v>774</v>
+      </c>
+      <c r="X30" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Y30" s="69" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z30" s="68" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AA30" s="68" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AB30" s="68" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AC30" s="68" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AD30" s="68" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE30" s="68" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AF30" s="68" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AG30" s="68" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH30" s="68" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI30" s="68" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ30" s="68"/>
+      <c r="AK30" s="68"/>
+      <c r="AL30" s="68"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="25">
+        <v>2006</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>529</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="25">
-        <v>2006</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>529</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>326</v>
@@ -8080,20 +8729,20 @@
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>277</v>
+      <c r="A32" s="24" t="s">
+        <v>366</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="C32" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="D32" s="25">
+      <c r="C32" s="25">
         <v>2010</v>
       </c>
+      <c r="D32" s="22" t="s">
+        <v>280</v>
+      </c>
       <c r="E32" s="22" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>368</v>
@@ -8119,20 +8768,20 @@
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C33" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="D33" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>459</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>460</v>
@@ -8158,20 +8807,20 @@
       </c>
     </row>
     <row r="34" spans="1:38" ht="210" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C34" s="35">
+        <v>2007</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>490</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="D34" s="35">
-        <v>2007</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>603</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>612</v>
@@ -8271,20 +8920,20 @@
       </c>
     </row>
     <row r="35" spans="1:38" s="33" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="35">
+        <v>2008</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>960</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>559</v>
       </c>
       <c r="F35" s="44" t="s">
         <v>671</v>
@@ -8386,86 +9035,81 @@
         <v>967</v>
       </c>
     </row>
-    <row r="36" spans="1:38" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="62">
+        <v>2006</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>534</v>
+      </c>
+      <c r="E36" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="25">
-        <v>2006</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>534</v>
-      </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="63" t="s">
         <v>516</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="64" t="s">
         <v>677</v>
       </c>
-      <c r="H36" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L36" s="24">
+      <c r="H36" s="60" t="s">
+        <v>680</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>680</v>
+      </c>
+      <c r="J36" s="60" t="s">
+        <v>680</v>
+      </c>
+      <c r="K36" s="60" t="s">
+        <v>680</v>
+      </c>
+      <c r="L36" s="61">
         <f>LOOKUP(I36,{"?","N","Y"},{1,0,2}) + LOOKUP(J36,{"?","N","Y"},{1,0,2}) + LOOKUP(K36,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M36" s="60"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="54"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="19"/>
-      <c r="AC36" s="19"/>
-      <c r="AD36" s="19"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
+      <c r="M36" s="65"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="69"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="68"/>
+      <c r="AC36" s="68"/>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="68"/>
+      <c r="AF36" s="68"/>
+      <c r="AG36" s="68"/>
+      <c r="AH36" s="68"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="68"/>
+      <c r="AK36" s="68"/>
+      <c r="AL36" s="68"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="C37" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>599</v>
       </c>
       <c r="F37" s="26" t="s">
         <v>500</v>
@@ -8491,20 +9135,20 @@
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="C38" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>503</v>
-      </c>
-      <c r="D38" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>615</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>504</v>
@@ -8530,20 +9174,20 @@
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" s="25">
+        <v>2008</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E39" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D39" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>571</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>371</v>
@@ -8569,20 +9213,20 @@
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>524</v>
@@ -8608,20 +9252,20 @@
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="24" t="s">
+        <v>658</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>658</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>603</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>659</v>
@@ -8647,20 +9291,20 @@
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>484</v>
-      </c>
-      <c r="D42" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>608</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>609</v>
@@ -8686,20 +9330,20 @@
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E43" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="D43" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>545</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>558</v>
@@ -8725,20 +9369,20 @@
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="25">
+        <v>2005</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D44" s="25">
-        <v>2005</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>297</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>433</v>
@@ -8764,20 +9408,20 @@
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="C45" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="E45" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>454</v>
-      </c>
-      <c r="D45" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>601</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>602</v>
@@ -8803,20 +9447,20 @@
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="C46" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="D46" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>595</v>
       </c>
       <c r="F46" s="26" t="s">
         <v>596</v>
@@ -8842,20 +9486,20 @@
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C47" s="25">
+        <v>2008</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>663</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>663</v>
       </c>
       <c r="F47" s="26" t="s">
         <v>664</v>
@@ -8881,20 +9525,20 @@
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" s="25">
+        <v>2008</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="E48" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D48" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>559</v>
       </c>
       <c r="F48" s="26" t="s">
         <v>560</v>
@@ -8924,20 +9568,20 @@
       <c r="W48" s="31"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="25">
+        <v>2008</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>559</v>
       </c>
       <c r="F49" s="26" t="s">
         <v>584</v>
@@ -8963,20 +9607,20 @@
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="C50" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D50" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>585</v>
       </c>
       <c r="F50" s="26" t="s">
         <v>618</v>
@@ -9002,20 +9646,20 @@
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="C51" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="E51" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="D51" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>617</v>
       </c>
       <c r="F51" s="26" t="s">
         <v>643</v>
@@ -9041,20 +9685,20 @@
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C52" s="25">
+        <v>2006</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="E52" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D52" s="25">
-        <v>2006</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>563</v>
       </c>
       <c r="F52" s="26" t="s">
         <v>564</v>
@@ -9080,20 +9724,20 @@
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C53" s="25">
+        <v>2004</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="E53" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D53" s="25">
-        <v>2004</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>528</v>
       </c>
       <c r="F53" s="26" t="s">
         <v>312</v>
@@ -9119,20 +9763,20 @@
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="C54" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="D54" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>428</v>
       </c>
       <c r="F54" s="26" t="s">
         <v>429</v>
@@ -9158,20 +9802,20 @@
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C55" s="25">
+        <v>2008</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="D55" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>583</v>
       </c>
       <c r="F55" s="26" t="s">
         <v>405</v>
@@ -9197,20 +9841,20 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="C56" s="25">
+        <v>2012</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>631</v>
+      </c>
+      <c r="E56" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>630</v>
-      </c>
-      <c r="D56" s="25">
-        <v>2012</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>631</v>
       </c>
       <c r="F56" s="26" t="s">
         <v>632</v>
@@ -9236,20 +9880,20 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" s="25">
+        <v>2008</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="D57" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>559</v>
       </c>
       <c r="F57" s="26" t="s">
         <v>565</v>
@@ -9275,20 +9919,20 @@
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>552</v>
+      </c>
+      <c r="E58" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="D58" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>552</v>
       </c>
       <c r="F58" s="26" t="s">
         <v>643</v>
@@ -9314,20 +9958,20 @@
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>547</v>
+      </c>
+      <c r="E59" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D59" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>547</v>
       </c>
       <c r="F59" s="26" t="s">
         <v>301</v>
@@ -9357,20 +10001,20 @@
       <c r="W59" s="31"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="C60" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="D60" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>393</v>
       </c>
       <c r="F60" s="26" t="s">
         <v>394</v>
@@ -9396,20 +10040,20 @@
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C61" s="25">
+        <v>2005</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D61" s="25">
-        <v>2005</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>550</v>
       </c>
       <c r="F61" s="26" t="s">
         <v>572</v>
@@ -9435,20 +10079,20 @@
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" s="25">
+        <v>2005</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="D62" s="25">
-        <v>2005</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>317</v>
       </c>
       <c r="F62" s="26" t="s">
         <v>476</v>
@@ -9474,20 +10118,20 @@
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="C63" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="E63" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>639</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="D63" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>641</v>
       </c>
       <c r="F63" s="26" t="s">
         <v>642</v>
@@ -9513,20 +10157,20 @@
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C64" s="25">
+        <v>2005</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="E64" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="D64" s="25">
-        <v>2005</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>530</v>
       </c>
       <c r="F64" s="26" t="s">
         <v>440</v>
@@ -9552,20 +10196,20 @@
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="C65" s="25">
+        <v>2008</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="D65" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>566</v>
       </c>
       <c r="F65" s="26" t="s">
         <v>521</v>
@@ -9591,20 +10235,20 @@
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" s="25">
+        <v>2006</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D66" s="25">
-        <v>2006</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>569</v>
       </c>
       <c r="F66" s="26" t="s">
         <v>570</v>
@@ -9630,20 +10274,20 @@
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="E67" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="D67" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>537</v>
       </c>
       <c r="F67" s="26" t="s">
         <v>377</v>
@@ -9669,20 +10313,20 @@
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="C68" s="25">
+        <v>2012</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="E68" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="D68" s="25">
-        <v>2012</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>605</v>
       </c>
       <c r="F68" s="26" t="s">
         <v>606</v>
@@ -9708,20 +10352,20 @@
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C69" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="E69" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D69" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>537</v>
       </c>
       <c r="F69" s="26" t="s">
         <v>382</v>
@@ -9747,20 +10391,20 @@
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C70" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E70" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>486</v>
-      </c>
-      <c r="D70" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>545</v>
       </c>
       <c r="F70" s="26" t="s">
         <v>610</v>
@@ -9786,20 +10430,20 @@
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="E71" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="D71" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>580</v>
       </c>
       <c r="F71" s="26" t="s">
         <v>397</v>
@@ -9825,20 +10469,20 @@
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="C72" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="D72" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E72" s="22" t="s">
-        <v>408</v>
       </c>
       <c r="F72" s="26" t="s">
         <v>409</v>
@@ -9864,20 +10508,20 @@
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="C73" s="25">
+        <v>2004</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>654</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="D73" s="25">
-        <v>2004</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>656</v>
       </c>
       <c r="F73" s="26" t="s">
         <v>657</v>
@@ -9903,20 +10547,20 @@
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C74" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E74" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="D74" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>280</v>
       </c>
       <c r="F74" s="26" t="s">
         <v>281</v>
@@ -9946,20 +10590,20 @@
       <c r="W74" s="31"/>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75" s="25">
+        <v>1997</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="D75" s="25">
-        <v>1997</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>539</v>
       </c>
       <c r="F75" s="26" t="s">
         <v>540</v>
@@ -9985,20 +10629,20 @@
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C76" s="25">
+        <v>2008</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="D76" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>1</v>
       </c>
       <c r="F76" s="26" t="s">
         <v>447</v>
@@ -10024,20 +10668,20 @@
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E77" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="D77" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E77" s="22" t="s">
-        <v>293</v>
       </c>
       <c r="F77" s="26" t="s">
         <v>294</v>
@@ -10063,20 +10707,20 @@
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="C78" s="25">
+        <v>2008</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="E78" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="D78" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>559</v>
       </c>
       <c r="F78" s="26" t="s">
         <v>628</v>
@@ -10102,20 +10746,20 @@
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C79" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E79" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="D79" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>545</v>
       </c>
       <c r="F79" s="26" t="s">
         <v>589</v>
@@ -10141,20 +10785,20 @@
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="24" t="s">
+        <v>644</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>645</v>
+      </c>
+      <c r="C80" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="E80" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>644</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>645</v>
-      </c>
-      <c r="D80" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>568</v>
       </c>
       <c r="F80" s="26" t="s">
         <v>646</v>
@@ -10180,20 +10824,20 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C81" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="E81" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="D81" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>555</v>
       </c>
       <c r="F81" s="26" t="s">
         <v>323</v>
@@ -10219,20 +10863,20 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="E82" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>651</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D82" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>561</v>
       </c>
       <c r="F82" s="26" t="s">
         <v>652</v>
@@ -10258,20 +10902,20 @@
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="24" t="s">
+        <v>660</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C83" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>660</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D83" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E83" s="22" t="s">
-        <v>561</v>
       </c>
       <c r="F83" s="26" t="s">
         <v>661</v>
@@ -10297,20 +10941,20 @@
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="E84" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="D84" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>581</v>
       </c>
       <c r="F84" s="26" t="s">
         <v>653</v>
@@ -10336,20 +10980,20 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="25">
+        <v>2005</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="E85" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>672</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D85" s="25">
-        <v>2005</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>673</v>
       </c>
       <c r="F85" s="26" t="s">
         <v>674</v>
@@ -10375,20 +11019,20 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C86" s="25">
+        <v>2005</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D86" s="25">
-        <v>2005</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>550</v>
       </c>
       <c r="F86" s="26" t="s">
         <v>551</v>
@@ -10414,20 +11058,20 @@
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C87" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="E87" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D87" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>582</v>
       </c>
       <c r="F87" s="26" t="s">
         <v>402</v>
@@ -10453,20 +11097,20 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="C88" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="E88" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>452</v>
-      </c>
-      <c r="D88" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>591</v>
       </c>
       <c r="F88" s="26" t="s">
         <v>600</v>
@@ -10492,20 +11136,20 @@
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="C89" s="25">
+        <v>2008</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="E89" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="D89" s="25">
-        <v>2008</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>559</v>
       </c>
       <c r="F89" s="26" t="s">
         <v>619</v>
@@ -10531,20 +11175,20 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E90" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="D90" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E90" s="22" t="s">
-        <v>297</v>
       </c>
       <c r="F90" s="26" t="s">
         <v>298</v>
@@ -10570,20 +11214,20 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="C91" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="E91" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D91" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E91" s="22" t="s">
-        <v>591</v>
       </c>
       <c r="F91" s="26" t="s">
         <v>504</v>
@@ -10609,20 +11253,20 @@
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D92" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>535</v>
       </c>
       <c r="F92" s="26" t="s">
         <v>536</v>
@@ -10648,20 +11292,20 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="24" t="s">
+        <v>669</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="25">
+        <v>2003</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E93" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>669</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D93" s="25">
-        <v>2003</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>304</v>
       </c>
       <c r="F93" s="26" t="s">
         <v>670</v>
@@ -10687,20 +11331,20 @@
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>666</v>
+      </c>
+      <c r="C94" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="E94" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>666</v>
-      </c>
-      <c r="D94" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>667</v>
       </c>
       <c r="F94" s="26" t="s">
         <v>668</v>
@@ -10726,20 +11370,20 @@
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C95" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="E95" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="D95" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>585</v>
       </c>
       <c r="F95" s="26" t="s">
         <v>586</v>
@@ -10765,20 +11409,20 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C96" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="E96" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="D96" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E96" s="22" t="s">
-        <v>568</v>
       </c>
       <c r="F96" s="26" t="s">
         <v>646</v>
@@ -10804,20 +11448,20 @@
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="C97" s="25">
+        <v>2006</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="D97" s="25">
-        <v>2006</v>
-      </c>
-      <c r="E97" s="22" t="s">
-        <v>1</v>
       </c>
       <c r="F97" s="26" t="s">
         <v>473</v>
@@ -10843,20 +11487,20 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="C98" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="E98" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="D98" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>603</v>
       </c>
       <c r="F98" s="26" t="s">
         <v>604</v>
@@ -10882,20 +11526,20 @@
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="C99" s="25">
+        <v>2005</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="E99" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D99" s="25">
-        <v>2005</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>553</v>
       </c>
       <c r="F99" s="26" t="s">
         <v>554</v>
@@ -10921,20 +11565,20 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="C100" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="E100" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="D100" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E100" s="22" t="s">
-        <v>587</v>
       </c>
       <c r="F100" s="26" t="s">
         <v>588</v>
@@ -10960,20 +11604,20 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C101" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="E101" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="D101" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>611</v>
       </c>
       <c r="F101" s="26" t="s">
         <v>489</v>
@@ -10999,20 +11643,20 @@
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C102" s="25">
+        <v>1997</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="E102" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="D102" s="25">
-        <v>1997</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>576</v>
       </c>
       <c r="F102" s="26" t="s">
         <v>577</v>
@@ -11038,20 +11682,20 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="C103" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E103" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="D103" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>545</v>
       </c>
       <c r="F103" s="26" t="s">
         <v>616</v>
@@ -11077,20 +11721,20 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="C104" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="E104" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="D104" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>507</v>
       </c>
       <c r="F104" s="26" t="s">
         <v>508</v>
@@ -11116,20 +11760,20 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C105" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="E105" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="D105" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>561</v>
       </c>
       <c r="F105" s="26" t="s">
         <v>575</v>
@@ -11155,20 +11799,20 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="E106" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B106" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D106" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>337</v>
       </c>
       <c r="F106" s="26" t="s">
         <v>338</v>
@@ -11194,20 +11838,20 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E107" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B107" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="D107" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>351</v>
       </c>
       <c r="F107" s="26" t="s">
         <v>352</v>
@@ -11233,20 +11877,20 @@
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="C108" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="E108" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D108" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>613</v>
       </c>
       <c r="F108" s="26" t="s">
         <v>493</v>
@@ -11272,20 +11916,20 @@
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" s="25">
+        <v>2010</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="E109" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D109" s="25">
-        <v>2010</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>556</v>
       </c>
       <c r="F109" s="26" t="s">
         <v>557</v>
@@ -11311,20 +11955,20 @@
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C110" s="25">
+        <v>1998</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="E110" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D110" s="25">
-        <v>1998</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>538</v>
       </c>
       <c r="F110" s="26" t="s">
         <v>622</v>
@@ -11350,20 +11994,20 @@
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C111" s="25">
+        <v>2006</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="E111" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B111" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="C111" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D111" s="25">
-        <v>2006</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>462</v>
       </c>
       <c r="F111" s="26" t="s">
         <v>463</v>
@@ -11389,20 +12033,20 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C112" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>543</v>
+      </c>
+      <c r="E112" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B112" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C112" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D112" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>543</v>
       </c>
       <c r="F112" s="26" t="s">
         <v>544</v>
@@ -11428,20 +12072,20 @@
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="C113" s="25">
+        <v>2004</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="E113" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="D113" s="25">
-        <v>2004</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>597</v>
       </c>
       <c r="F113" s="26" t="s">
         <v>598</v>
@@ -11467,20 +12111,20 @@
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C114" s="25">
+        <v>2002</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="E114" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="D114" s="25">
-        <v>2002</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>573</v>
       </c>
       <c r="F114" s="26" t="s">
         <v>574</v>
@@ -11506,20 +12150,20 @@
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C115" s="25">
+        <v>1994</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="E115" s="22" t="s">
         <v>290</v>
-      </c>
-      <c r="B115" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="D115" s="25">
-        <v>1994</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>496</v>
       </c>
       <c r="F115" s="26" t="s">
         <v>497</v>
@@ -11545,20 +12189,20 @@
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
+      <c r="A116" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="C116" s="25">
+        <v>2007</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="E116" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B116" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="D116" s="25">
-        <v>2007</v>
-      </c>
-      <c r="E116" s="22" t="s">
-        <v>545</v>
       </c>
       <c r="F116" s="26" t="s">
         <v>675</v>
@@ -11584,20 +12228,20 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C117" s="25">
+        <v>2009</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="E117" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B117" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="D117" s="25">
-        <v>2009</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>561</v>
       </c>
       <c r="F117" s="26" t="s">
         <v>562</v>
@@ -11623,20 +12267,20 @@
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="C118" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="E118" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="B118" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D118" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>436</v>
       </c>
       <c r="F118" s="26" t="s">
         <v>437</v>
@@ -11662,20 +12306,20 @@
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="C119" s="25">
+        <v>1996</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="E119" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="D119" s="25">
-        <v>1996</v>
-      </c>
-      <c r="E119" s="22" t="s">
-        <v>593</v>
       </c>
       <c r="F119" s="26" t="s">
         <v>594</v>
@@ -11701,20 +12345,20 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C120" s="25">
+        <v>2011</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="E120" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="B120" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="C120" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D120" s="25">
-        <v>2011</v>
-      </c>
-      <c r="E120" s="22" t="s">
-        <v>343</v>
       </c>
       <c r="F120" s="26" t="s">
         <v>344</v>
@@ -11779,30 +12423,1200 @@
         <v>677</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
       <c r="F129" s="22"/>
       <c r="G129" s="27" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
       <c r="F130" s="22"/>
       <c r="G130" s="27" t="s">
         <v>677</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:AL130">
+  <sortState ref="B3:AN130">
     <sortCondition descending="1" ref="L3:L130"/>
-    <sortCondition ref="C3:C130"/>
+    <sortCondition ref="B3:B130"/>
   </sortState>
   <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" style="24" customWidth="1"/>
+    <col min="2" max="2" width="101" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="10" style="25" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" customWidth="1"/>
+    <col min="16" max="16" width="24" style="24" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" style="49" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" customWidth="1"/>
+    <col min="23" max="23" width="21" style="24" customWidth="1"/>
+    <col min="24" max="24" width="22.5703125" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="70" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C1" s="70" t="s">
+        <v>978</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>988</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>990</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>989</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J1" s="71" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L1" s="70" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>987</v>
+      </c>
+      <c r="O1" s="70" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P1" s="72" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q1" s="73" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R1" s="70" t="s">
+        <v>1032</v>
+      </c>
+      <c r="W1" s="15"/>
+      <c r="X1" s="16"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="25">
+        <v>2009</v>
+      </c>
+      <c r="F2" s="25">
+        <v>2004</v>
+      </c>
+      <c r="G2" s="25">
+        <v>2008</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>991</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>1005</v>
+      </c>
+      <c r="S2" s="24"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="35">
+        <v>2011</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35" t="s">
+        <v>992</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="Q3" s="47"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="40"/>
+      <c r="X3" s="18"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="35">
+        <v>2004</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="Q4" s="47"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35">
+        <v>2007</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
+        <v>993</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="48"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="40"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="25">
+        <v>2012</v>
+      </c>
+      <c r="F6" s="25">
+        <v>2009</v>
+      </c>
+      <c r="G6" s="25">
+        <v>2010</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>1008</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="19"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="35">
+        <v>2011</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
+        <v>993</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="48"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="40"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="35">
+        <v>2007</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35">
+        <v>2005</v>
+      </c>
+      <c r="G8" s="35">
+        <v>2007</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" t="s">
+        <v>998</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="48"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="40"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="25">
+        <v>2005</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>1011</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="19"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>464</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="35">
+        <v>2007</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="33" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" t="s">
+        <v>979</v>
+      </c>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="48"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="40"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="35">
+        <v>2007</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35">
+        <v>2005</v>
+      </c>
+      <c r="G11" s="35">
+        <v>2007</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" t="s">
+        <v>980</v>
+      </c>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="48"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="40"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="35">
+        <v>2009</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35">
+        <v>2006</v>
+      </c>
+      <c r="G12" s="35">
+        <v>2008</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" t="s">
+        <v>981</v>
+      </c>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="48"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="40"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="35">
+        <v>2010</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35" t="s">
+        <v>993</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" t="s">
+        <v>982</v>
+      </c>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="48"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="40"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="25">
+        <v>2003</v>
+      </c>
+      <c r="F14" s="25">
+        <v>2002</v>
+      </c>
+      <c r="G14" s="25">
+        <v>2003</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>993</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>1014</v>
+      </c>
+      <c r="S14" s="24"/>
+      <c r="T14" s="19"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="35">
+        <v>2011</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="33" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="48"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="40"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="35">
+        <v>2005</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35">
+        <v>1999</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35" t="s">
+        <v>993</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="48"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="40"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="35">
+        <v>2009</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35">
+        <v>2007</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35" t="s">
+        <v>995</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" t="s">
+        <v>983</v>
+      </c>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="48"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="40"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>887</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="35">
+        <v>2007</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35">
+        <v>2004</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35" t="s">
+        <v>996</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" t="s">
+        <v>984</v>
+      </c>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="48"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="40"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="35">
+        <v>2003</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35">
+        <v>2002</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" t="s">
+        <v>985</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="48"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="40"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="35">
+        <v>2007</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
+        <v>997</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" t="s">
+        <v>986</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="48"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="40"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="35">
+        <v>2011</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35">
+        <v>2007</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
+        <v>993</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" t="s">
+        <v>904</v>
+      </c>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="48"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="40"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="35">
+        <v>2009</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" t="s">
+        <v>904</v>
+      </c>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="48"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="40"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>938</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35">
+        <v>2005</v>
+      </c>
+      <c r="G23" s="35">
+        <v>2007</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" t="s">
+        <v>942</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="48"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="40"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>951</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="33" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" t="s">
+        <v>904</v>
+      </c>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="48"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="40"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>636</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="25">
+        <v>2010</v>
+      </c>
+      <c r="S25" s="24"/>
+      <c r="T25" s="19"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="25">
+        <v>2006</v>
+      </c>
+      <c r="S26" s="24"/>
+      <c r="T26" s="19"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="25">
+        <v>2010</v>
+      </c>
+      <c r="S27" s="24"/>
+      <c r="T27" s="19"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="25">
+        <v>2010</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="19"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" s="35">
+        <v>2007</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35">
+        <v>2004</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="40" t="s">
+        <v>942</v>
+      </c>
+      <c r="O29" s="40"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="35">
+        <v>2008</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35">
+        <v>2006</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="O30" s="40"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="62">
+        <v>2006</v>
+      </c>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D45" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P45"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="D46" s="22">
+        <v>2002</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22">
+        <f>COUNTIF(D$2:D$31,D46)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="74">
+        <v>0</v>
+      </c>
+      <c r="H46" s="22">
+        <f>F46-G46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="D47" s="22">
+        <v>2003</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22">
+        <f>COUNTIF(D$2:D$31,D47)</f>
+        <v>2</v>
+      </c>
+      <c r="G47" s="74">
+        <v>0</v>
+      </c>
+      <c r="H47" s="22">
+        <f t="shared" ref="H47:H56" si="0">F47-G47</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D48" s="22">
+        <v>2004</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22">
+        <f>COUNTIF(D$2:D$31,D48)</f>
+        <v>1</v>
+      </c>
+      <c r="G48" s="74">
+        <v>0</v>
+      </c>
+      <c r="H48" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="22">
+        <v>2005</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22">
+        <f>COUNTIF(D$2:D$31,D49)</f>
+        <v>2</v>
+      </c>
+      <c r="G49" s="74">
+        <v>1</v>
+      </c>
+      <c r="H49" s="22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="22">
+        <v>2006</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22">
+        <f>COUNTIF(D$2:D$31,D50)</f>
+        <v>2</v>
+      </c>
+      <c r="G50" s="74">
+        <v>0</v>
+      </c>
+      <c r="H50" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="22">
+        <v>2007</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22">
+        <f>COUNTIF(D$2:D$31,D51)</f>
+        <v>6</v>
+      </c>
+      <c r="G51" s="74">
+        <v>0</v>
+      </c>
+      <c r="H51" s="22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="22">
+        <v>2008</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22">
+        <f>COUNTIF(D$2:D$31,D52)</f>
+        <v>4</v>
+      </c>
+      <c r="G52" s="74">
+        <v>0</v>
+      </c>
+      <c r="H52" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="22">
+        <v>2009</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22">
+        <f>COUNTIF(D$2:D$31,D53)</f>
+        <v>4</v>
+      </c>
+      <c r="G53" s="74">
+        <v>0</v>
+      </c>
+      <c r="H53" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="22">
+        <v>2010</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22">
+        <f>COUNTIF(D$2:D$31,D54)</f>
+        <v>4</v>
+      </c>
+      <c r="G54" s="74">
+        <v>1</v>
+      </c>
+      <c r="H54" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="22">
+        <v>2011</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22">
+        <f>COUNTIF(D$2:D$31,D55)</f>
+        <v>4</v>
+      </c>
+      <c r="G55" s="74">
+        <v>0</v>
+      </c>
+      <c r="H55" s="22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="22">
+        <v>2012</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22">
+        <f>COUNTIF(D$2:D$31,D56)</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="74">
+        <v>1</v>
+      </c>
+      <c r="H56" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W129" s="22"/>
+    </row>
+    <row r="130" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W130" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1066">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -3252,6 +3252,92 @@
 There has been resistance from partners and offshore suppliers. Contracts have been rewritten to accomodate the new model.
 Challenge in outreach and education of key stakeholders throughout the business. The model has been engineering-focused.
 COTS products, and hardware and process integration do not integrate to the seven dimensions framework in a straight forward fashion. It's believed that vendors who make activities such as automatic deployment difficult will be replaced with flexible ones.</t>
+  </si>
+  <si>
+    <t>Y. Dubinsky, O. Hazzan, D. Talby and A. Keren.</t>
+  </si>
+  <si>
+    <t>Quantitative data analysis, interviews, comparison between an agile and a non-agile project</t>
+  </si>
+  <si>
+    <t>Two of the authors in organization, but the paper is published by a research group</t>
+  </si>
+  <si>
+    <t>80 engineers and analysts</t>
+  </si>
+  <si>
+    <t>Organized in a hierarchical structure of small teams. Specification using a highly formal CASE tool. Code generation from specification. A strict waterfall model.</t>
+  </si>
+  <si>
+    <t>When project leadership decided to change to an agile process Air Force leadership supported the transition. The fitness of different methods was investigated during several months. A pilot team of 15 people was established.</t>
+  </si>
+  <si>
+    <t>XP</t>
+  </si>
+  <si>
+    <t>How can the concept “the teams sits together” be applied on large scale.</t>
+  </si>
+  <si>
+    <t>The CASE tool remains in use. System analysts work as a part of the development team. The specifications are handed over to the development team earlier an in a more abstract form. The system analysts act more as a bridge between the customer and development than as a producer of formal specifications.</t>
+  </si>
+  <si>
+    <t>There was a difference in complexity between a solution built with the old system and one built with the new one. This was speculatively seen as a consequence of refactoring.</t>
+  </si>
+  <si>
+    <t>System analysis and design perspective on transformation</t>
+  </si>
+  <si>
+    <t>Present study</t>
+  </si>
+  <si>
+    <t>Present multiple-case study</t>
+  </si>
+  <si>
+    <t>Case study method, workshops, interviews, follow-ups</t>
+  </si>
+  <si>
+    <t>Small co-located projects and large geographically distributed projects. Large projects often divided into specialist teams.</t>
+  </si>
+  <si>
+    <t>2008, 2009</t>
+  </si>
+  <si>
+    <t>Focus no piloting. The outcome of the pilots and further plans were not described.</t>
+  </si>
+  <si>
+    <t>Case1: 60 people, whereof 20 in pilot team. Case2: 15 people in dev and 15 in other interest groups</t>
+  </si>
+  <si>
+    <t>Meet an ever increasing demand for high-quality products while hitting tighter market windows. Get right functionality at right time. React to changing requirements and circumstances. To meet this top management decided to move in a more agile direction. Mistrust and communication problems in organization.</t>
+  </si>
+  <si>
+    <t>Scrum, tailored model. In the other pilot the name Scrum was however not explicitly used.</t>
+  </si>
+  <si>
+    <t>Case1 pilot was put on hold and the project was outsourced due to the overall financial situation.</t>
+  </si>
+  <si>
+    <t>Piloting projects were started, as a smaller scale test was seen necessary to reduce risk. In addition to being a small scale test piloting was regarded as a means for introducing change. Projects were so diverse that there had to be more than one pilot.
+A piloting model was developed: 1) Marketing the pilot: determine stakeholders, create business case. 2) Preparing the pilot: define current state, define desired state. 3) Executing the pilot: iterate between implementing the pilot and learning by doing.
+Piloiting was seen as a means to create better understanding of agile menthods in the organization, create and sustain a need for change by management sponsorship, allow those affected by the change to participate actively. It was important for pilots to be success stories.
+Agile spark came from project and business management and teams. Issues in communication and possibility for requirements changes were reasonsfor change. External consultants were used for determining the current state of the organization. Training was organized by an external training provider, and also by in-house personnel due to financial constraints. Retrospectives were arranged to support learning by doing.</t>
+  </si>
+  <si>
+    <t>Inherent resistance to change. Resistance of stakeholders needed to be bridged. The most resistant groups were engineers and project managers.
+Team rooms take more space per person than regular office layout.</t>
+  </si>
+  <si>
+    <t>Attitudes towards agile became more positive as the pilots progressed.</t>
+  </si>
+  <si>
+    <t>Use piloting. Use retrospectives. Watch that the motivation of the pilot team is right at the beginning. Inform management well ahead on the need for team rooms. Perform multiple pilots if the company setting is diverse.</t>
+  </si>
+  <si>
+    <t>The Scrum method had to be tailored to fit with the specific requirements of the organization. For instance interacitons with hardware design had to be planned up-front. The interfacing team had to work in a time boxed fashion.
+The existing company processes had to be adapted to integrate with agile.
+There may be resistance towards agile based on perceptions of "no design". Use different vocabulary to overcome these perceptions.
+There is a need to understand organizational cultural differences, and it is important to be empathic. Use external help to bridge differences.
+A pilot an be agile even if the rest of the company is non-agile. The pilot reduces resistance to change.</t>
   </si>
 </sst>
 </file>
@@ -3394,7 +3480,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3601,12 +3687,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3855,11 +3935,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="148017536"/>
-        <c:axId val="148019072"/>
+        <c:axId val="163005952"/>
+        <c:axId val="163007488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148017536"/>
+        <c:axId val="163005952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,7 +3949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148019072"/>
+        <c:crossAx val="163007488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3877,7 +3957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148019072"/>
+        <c:axId val="163007488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148017536"/>
+        <c:crossAx val="163005952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5891,10 +5971,10 @@
   <dimension ref="A1:AL130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE31" sqref="AE31"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8578,194 +8658,339 @@
         <v>959</v>
       </c>
     </row>
-    <row r="30" spans="1:38" s="60" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+    <row r="30" spans="1:38" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>636</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="34" t="s">
         <v>637</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="35">
         <v>2010</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="G30" s="64" t="s">
+      <c r="G30" s="37" t="s">
         <v>677</v>
       </c>
-      <c r="H30" s="60" t="s">
-        <v>679</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>680</v>
-      </c>
-      <c r="J30" s="60" t="s">
-        <v>680</v>
-      </c>
-      <c r="K30" s="60" t="s">
-        <v>680</v>
-      </c>
-      <c r="L30" s="61">
+      <c r="H30" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="L30" s="34">
         <f>LOOKUP(I30,{"?","N","Y"},{1,0,2}) + LOOKUP(J30,{"?","N","Y"},{1,0,2}) + LOOKUP(K30,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M30" s="75" t="s">
-        <v>680</v>
-      </c>
-      <c r="N30" s="60" t="s">
-        <v>680</v>
-      </c>
-      <c r="O30" s="60" t="s">
-        <v>679</v>
-      </c>
-      <c r="P30" s="60" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q30" s="60" t="s">
-        <v>679</v>
-      </c>
-      <c r="R30" s="60" t="s">
-        <v>679</v>
-      </c>
-      <c r="S30" s="61">
+      <c r="M30" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="N30" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q30" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="R30" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="S30" s="34">
         <v>3</v>
       </c>
-      <c r="T30" s="76" t="s">
+      <c r="T30" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="U30" s="67" t="s">
+      <c r="U30" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="V30" s="67" t="s">
+      <c r="V30" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="W30" s="67" t="s">
+      <c r="W30" s="18" t="s">
         <v>774</v>
       </c>
-      <c r="X30" s="68" t="s">
+      <c r="X30" s="40" t="s">
         <v>1033</v>
       </c>
-      <c r="Y30" s="69" t="s">
+      <c r="Y30" s="48" t="s">
         <v>684</v>
       </c>
-      <c r="Z30" s="68" t="s">
+      <c r="Z30" s="40" t="s">
         <v>1034</v>
       </c>
-      <c r="AA30" s="68" t="s">
+      <c r="AA30" s="40" t="s">
         <v>1035</v>
       </c>
-      <c r="AB30" s="68" t="s">
+      <c r="AB30" s="40" t="s">
         <v>1038</v>
       </c>
-      <c r="AC30" s="68" t="s">
+      <c r="AC30" s="40" t="s">
         <v>1037</v>
       </c>
-      <c r="AD30" s="68" t="s">
+      <c r="AD30" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="AE30" s="68" t="s">
+      <c r="AE30" s="40" t="s">
         <v>1039</v>
       </c>
-      <c r="AF30" s="68" t="s">
+      <c r="AF30" s="40" t="s">
         <v>1036</v>
       </c>
-      <c r="AG30" s="68" t="s">
+      <c r="AG30" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="AH30" s="68" t="s">
+      <c r="AH30" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="AI30" s="68" t="s">
+      <c r="AI30" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="AJ30" s="68"/>
-      <c r="AK30" s="68"/>
-      <c r="AL30" s="68"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="B31" s="24" t="s">
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="40"/>
+      <c r="AL30" s="40"/>
+    </row>
+    <row r="31" spans="1:38" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B31" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="35">
         <v>2006</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="44" t="s">
         <v>326</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="45" t="s">
         <v>677</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J31" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L31" s="24">
-        <f>LOOKUP(I31,{"?","N","Y"},{1,0,2}) + LOOKUP(J31,{"?","N","Y"},{1,0,2}) + LOOKUP(K31,{"?","N","Y"},{1,0,2})</f>
+      <c r="H31" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="L31" s="34">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="M31" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q31" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="R31" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="S31" s="34">
+        <v>2</v>
+      </c>
+      <c r="T31" s="43" t="s">
+        <v>1051</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V31" s="18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="W31" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="X31" s="40" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Y31" s="48" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z31" s="40" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AA31" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB31" s="40" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AC31" s="40" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AD31" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE31" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF31" s="40" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AG31" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH31" s="40" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AI31" s="40" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AJ31" s="40" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="40"/>
+    </row>
+    <row r="32" spans="1:38" s="33" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="34" t="s">
         <v>367</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="35">
         <v>2010</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="37" t="s">
         <v>677</v>
       </c>
-      <c r="H32" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J32" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L32" s="24">
+      <c r="H32" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="L32" s="34">
         <f>LOOKUP(I32,{"?","N","Y"},{1,0,2}) + LOOKUP(J32,{"?","N","Y"},{1,0,2}) + LOOKUP(K32,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
+      <c r="M32" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q32" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="R32" s="33" t="s">
+        <v>680</v>
+      </c>
+      <c r="S32" s="34">
+        <v>3</v>
+      </c>
+      <c r="T32" s="39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="U32" s="18" t="s">
+        <v>1053</v>
+      </c>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="X32" s="40" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y32" s="48" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Z32" s="40" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AA32" s="40" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AB32" s="40" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AC32" s="40" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AD32" s="40" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AE32" s="40" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AF32" s="40" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AG32" s="40" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AH32" s="40" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AI32" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ32" s="40" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="40"/>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
@@ -13425,7 +13650,7 @@
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="22">
-        <f>COUNTIF(D$2:D$31,D46)</f>
+        <f t="shared" ref="F46:F56" si="0">COUNTIF(D$2:D$31,D46)</f>
         <v>0</v>
       </c>
       <c r="G46" s="74">
@@ -13444,14 +13669,14 @@
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22">
-        <f>COUNTIF(D$2:D$31,D47)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G47" s="74">
         <v>0</v>
       </c>
       <c r="H47" s="22">
-        <f t="shared" ref="H47:H56" si="0">F47-G47</f>
+        <f t="shared" ref="H47:H56" si="1">F47-G47</f>
         <v>2</v>
       </c>
     </row>
@@ -13461,14 +13686,14 @@
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22">
-        <f>COUNTIF(D$2:D$31,D48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G48" s="74">
         <v>0</v>
       </c>
       <c r="H48" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13478,14 +13703,14 @@
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22">
-        <f>COUNTIF(D$2:D$31,D49)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G49" s="74">
         <v>1</v>
       </c>
       <c r="H49" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13495,14 +13720,14 @@
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="22">
-        <f>COUNTIF(D$2:D$31,D50)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G50" s="74">
         <v>0</v>
       </c>
       <c r="H50" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -13512,14 +13737,14 @@
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22">
-        <f>COUNTIF(D$2:D$31,D51)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G51" s="74">
         <v>0</v>
       </c>
       <c r="H51" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -13529,14 +13754,14 @@
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22">
-        <f>COUNTIF(D$2:D$31,D52)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G52" s="74">
         <v>0</v>
       </c>
       <c r="H52" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -13546,14 +13771,14 @@
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22">
-        <f>COUNTIF(D$2:D$31,D53)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G53" s="74">
         <v>0</v>
       </c>
       <c r="H53" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -13563,14 +13788,14 @@
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22">
-        <f>COUNTIF(D$2:D$31,D54)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G54" s="74">
         <v>1</v>
       </c>
       <c r="H54" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -13580,14 +13805,14 @@
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22">
-        <f>COUNTIF(D$2:D$31,D55)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G55" s="74">
         <v>0</v>
       </c>
       <c r="H55" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -13597,14 +13822,14 @@
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22">
-        <f>COUNTIF(D$2:D$31,D56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G56" s="74">
         <v>1</v>
       </c>
       <c r="H56" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="1100">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -2178,9 +2178,6 @@
     <t>Other notes</t>
   </si>
   <si>
-    <t>Study of partnership between the disciplines of organizational change management and agile development.</t>
-  </si>
-  <si>
     <t>Objective of research (or publication)</t>
   </si>
   <si>
@@ -2246,9 +2243,6 @@
     <t>There were challenges in projects: project failure, deadline miss, quality variations, lack of knowledge transfer between team members. These challenges were acknowledged and a task force was formed to address them. The task force recommended agile approaches as a result of the analysis.</t>
   </si>
   <si>
-    <t xml:space="preserve">Analysis: 2009. Adoption: 2010- </t>
-  </si>
-  <si>
     <t>Present experience</t>
   </si>
   <si>
@@ -2293,9 +2287,6 @@
   </si>
   <si>
     <t>No measurements reported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyze issues and present </t>
   </si>
   <si>
     <t>Proposition: Apply suitable agile practices depending on the type of work the team is to perform. Set team level goals for the transformation accordingly.</t>
@@ -3338,6 +3329,128 @@
 There may be resistance towards agile based on perceptions of "no design". Use different vocabulary to overcome these perceptions.
 There is a need to understand organizational cultural differences, and it is important to be empathic. Use external help to bridge differences.
 A pilot an be agile even if the rest of the company is non-agile. The pilot reduces resistance to change.</t>
+  </si>
+  <si>
+    <t>A. Atlas.</t>
+  </si>
+  <si>
+    <t>Scrum, a mix of practices known from XP</t>
+  </si>
+  <si>
+    <t>J. Goos and A. Melisse.</t>
+  </si>
+  <si>
+    <t>Scrum masters, TDD</t>
+  </si>
+  <si>
+    <t>H. Hajjdiab, A. S. Taleb and J. Ali.</t>
+  </si>
+  <si>
+    <t>Analyze issues and present</t>
+  </si>
+  <si>
+    <t>Analysis: 2009. Adoption: 2010-</t>
+  </si>
+  <si>
+    <t>C. P. O'Connor.</t>
+  </si>
+  <si>
+    <t>Agile principles</t>
+  </si>
+  <si>
+    <t>D. Karlstrom and P. Runeson.</t>
+  </si>
+  <si>
+    <t>M. K. Spayd.</t>
+  </si>
+  <si>
+    <t>XP practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study of partnership between the disciplines of organizational change management and agile development.
+The Eight Determinants of Organizational Change
+</t>
+  </si>
+  <si>
+    <t>D. Tudor and G. A. Walter.</t>
+  </si>
+  <si>
+    <t>Author consultant in transition</t>
+  </si>
+  <si>
+    <t>1998: start analyzing problems with original approach. DSDM has been monitored over 3 years</t>
+  </si>
+  <si>
+    <t>18-24 month release cycles. Traditional “waterfall” entrenched and supported by policies, procedures and templates. Standardized approach in all teams.</t>
+  </si>
+  <si>
+    <t>There was problems with software delivery. Time -to-market was becoming increasingly important for customers. Products were often obsolete before release.</t>
+  </si>
+  <si>
+    <t>Alternatives to the traditional approach were researched, and DSDM was found. The change champion from the organization went for a DSDM course. A consultant was hired for introducing the method. One team was chosen to implement the method first. Team resources were allocated so that maintenance tasks were done in rotation, leaving full focus for the new project for maximum time spans.
+The pilot project was a success. The continued use of DSDM was an easy decision as the consultant had developed good relations with people in lead positions. New teams were introduced to DSDM through a 3-day course and a project kick off workshop with the consultant.
+Data on project success with DSDM is collected in post-project reviews.
+The agile adoption is ongoing.</t>
+  </si>
+  <si>
+    <t>DSDM, prioritizing, time-boxing</t>
+  </si>
+  <si>
+    <t>Although unit and integration testing could be performed continuously, system and acceptance testing were performed against a frozen version towards the end of the cycle.
+Mixed team approach required time and training to be adopted, but it has considerably improved user/developer working relations.</t>
+  </si>
+  <si>
+    <t>A defined method gives a common vocabulary. DSDM was continued to be used even if new agile methods were appearing.</t>
+  </si>
+  <si>
+    <t>All guidelines set for the DSDM process could not always be applied, for instance fully continuous testing.
+Some old ways of thinking were hard to get rid of. Mixed team approach was against the old ways.
+Customers are hard to access.
+The ISO 9000 certification had to be complied to. It was possible, but the most extreme agility could not be allowed.
+Users were worried that prioritizing would lead to less functionality.</t>
+  </si>
+  <si>
+    <t>Overall the DSDM has been a very positive move. Move towards agile is in the right direction and is a WIN.</t>
+  </si>
+  <si>
+    <t>DSDM is applied in the entire organization. Some teams still develop in a waterfall approach, but have adopted some DSDM tools and techniques.</t>
+  </si>
+  <si>
+    <t>18-24 months delivery to 2-3 months delivery</t>
+  </si>
+  <si>
+    <t>K. Petersen and C. Wohlin.</t>
+  </si>
+  <si>
+    <t>Compare the use of a traditional and an agile approach</t>
+  </si>
+  <si>
+    <t>Interviews, comparison of quantitative data</t>
+  </si>
+  <si>
+    <t>Basic threats in empirical studies</t>
+  </si>
+  <si>
+    <t>500 people in R&amp;D</t>
+  </si>
+  <si>
+    <t>Incremental in middle of 2005. Agile in late 2006. Case study in end of 2007</t>
+  </si>
+  <si>
+    <t>Stage-gate model (quality door). Market units collected customers' needs on high level. Analyzed requirements were stored in a repository and picked into projects from there. Quality checks for requirements, architecture design and source code. Changes handled by formal change requests.</t>
+  </si>
+  <si>
+    <t>Based on results on industry benchmarks. E.g. release lead-times were seen as a performance issue.</t>
+  </si>
+  <si>
+    <t>The change was conducted stepwise. First to be implemented was small teams, latest system version, and product backlog. Then continuous reflection and improvement, frequent face-to-face interactions, and standups were implemented.</t>
+  </si>
+  <si>
+    <t>Selected ID, Scrum and XP practices</t>
+  </si>
+  <si>
+    <t>There were significantly less issued perceived in the new model. The issues perceived in agile were less common than issues in the original model. Less perceived requirements change and rework, measured requirements waste down from 26% to 4%.
+The results of the case study indicate that it is beneficial for large-scale organizations using a plan-driven approach to introduce incremental and agile practices.</t>
   </si>
 </sst>
 </file>
@@ -3480,7 +3593,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3559,9 +3672,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3584,9 +3694,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3652,27 +3759,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3687,6 +3773,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3935,11 +4024,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="163005952"/>
-        <c:axId val="163007488"/>
+        <c:axId val="165359616"/>
+        <c:axId val="165361152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163005952"/>
+        <c:axId val="165359616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3949,7 +4038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163007488"/>
+        <c:crossAx val="165361152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3957,7 +4046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163007488"/>
+        <c:axId val="165361152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,7 +4057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163005952"/>
+        <c:crossAx val="165359616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5971,16 +6060,16 @@
   <dimension ref="A1:AL130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="24" customWidth="1"/>
-    <col min="2" max="2" width="102.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" style="24" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="25" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="89.7109375" style="22" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="5.28515625" style="22" customWidth="1"/>
@@ -5997,7 +6086,7 @@
     <col min="21" max="21" width="18" style="30" customWidth="1"/>
     <col min="22" max="23" width="21.140625" style="30" customWidth="1"/>
     <col min="24" max="24" width="22.5703125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="49" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" style="47" customWidth="1"/>
     <col min="26" max="26" width="47.85546875" style="19" customWidth="1"/>
     <col min="27" max="27" width="47.42578125" style="19" customWidth="1"/>
     <col min="28" max="28" width="91.140625" style="19" customWidth="1"/>
@@ -6041,36 +6130,36 @@
         <v>688</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="X1" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="44" t="s">
         <v>694</v>
       </c>
       <c r="Z1" s="16" t="s">
@@ -6083,34 +6172,34 @@
         <v>698</v>
       </c>
       <c r="AC1" s="16" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AD1" s="16" t="s">
         <v>708</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="AF1" s="16" t="s">
         <v>678</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AH1" s="16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AI1" s="16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AJ1" s="28" t="s">
         <v>711</v>
       </c>
       <c r="AK1" s="28" t="s">
+        <v>728</v>
+      </c>
+      <c r="AL1" s="28" t="s">
         <v>729</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -6155,54 +6244,53 @@
       <c r="R3" s="23"/>
       <c r="S3" s="29"/>
       <c r="X3" s="18"/>
-      <c r="Y3" s="47"/>
-    </row>
-    <row r="4" spans="1:38" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="Y3" s="45"/>
+    </row>
+    <row r="4" spans="1:38" s="32" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>624</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="34">
         <v>2009</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="42" t="s">
         <v>625</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="43" t="s">
         <v>677</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L4" s="24">
-        <f>LOOKUP(I4,{"?","N","Y"},{1,0,2}) + LOOKUP(J4,{"?","N","Y"},{1,0,2}) + LOOKUP(K4,{"?","N","Y"},{1,0,2})</f>
+      <c r="H4" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L4" s="33">
         <v>6</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="40" t="s">
         <v>680</v>
       </c>
       <c r="N4" s="23" t="s">
         <v>680</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="23" t="s">
@@ -6214,1689 +6302,1725 @@
       <c r="S4" s="29">
         <v>3</v>
       </c>
-      <c r="T4" s="17" t="s">
-        <v>735</v>
-      </c>
+      <c r="T4" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
       <c r="X4" s="18" t="s">
         <v>690</v>
       </c>
-      <c r="Y4" s="47" t="s">
+      <c r="Y4" s="45" t="s">
         <v>695</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AB4" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AC4" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="AD4" s="39" t="s">
         <v>705</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AE4" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AF4" s="39" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" s="33" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="B5" s="34" t="s">
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+    </row>
+    <row r="5" spans="1:38" s="32" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>842</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="34">
         <v>2011</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="43" t="s">
         <v>677</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L5" s="34">
-        <f>LOOKUP(I5,{"?","N","Y"},{1,0,2}) + LOOKUP(J5,{"?","N","Y"},{1,0,2}) + LOOKUP(K5,{"?","N","Y"},{1,0,2})</f>
+      <c r="H5" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L5" s="33">
         <v>6</v>
       </c>
-      <c r="M5" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="N5" s="33" t="s">
+      <c r="M5" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>682</v>
       </c>
-      <c r="O5" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="S5" s="34">
+      <c r="O5" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="S5" s="33">
         <v>3</v>
       </c>
-      <c r="T5" s="39" t="s">
-        <v>757</v>
+      <c r="T5" s="41" t="s">
+        <v>754</v>
       </c>
       <c r="U5" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="W5" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="X5" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y5" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="Z5" s="39" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA5" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="AB5" s="39" t="s">
+        <v>764</v>
+      </c>
+      <c r="AC5" s="39" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AD5" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE5" s="39" t="s">
+        <v>748</v>
+      </c>
+      <c r="AF5" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="AI5" s="39" t="s">
+        <v>765</v>
+      </c>
+      <c r="AJ5" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="W5" s="18" t="s">
-        <v>761</v>
-      </c>
-      <c r="X5" s="40" t="s">
-        <v>759</v>
-      </c>
-      <c r="Y5" s="48" t="s">
-        <v>764</v>
-      </c>
-      <c r="Z5" s="40" t="s">
-        <v>762</v>
-      </c>
-      <c r="AA5" s="40" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB5" s="40" t="s">
-        <v>767</v>
-      </c>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40" t="s">
-        <v>766</v>
-      </c>
-      <c r="AE5" s="40" t="s">
-        <v>751</v>
-      </c>
-      <c r="AF5" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40" t="s">
-        <v>763</v>
-      </c>
-      <c r="AI5" s="40" t="s">
-        <v>768</v>
-      </c>
-      <c r="AJ5" s="40" t="s">
-        <v>756</v>
-      </c>
-      <c r="AK5" s="40" t="s">
-        <v>752</v>
-      </c>
-      <c r="AL5" s="40"/>
-    </row>
-    <row r="6" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="AK5" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="AL5" s="39"/>
+    </row>
+    <row r="6" spans="1:38" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>2004</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>650</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L6" s="34">
+      <c r="H6" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L6" s="33">
         <f>LOOKUP(I6,{"?","N","Y"},{1,0,2}) + LOOKUP(J6,{"?","N","Y"},{1,0,2}) + LOOKUP(K6,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M6" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S6" s="34">
+      <c r="M6" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S6" s="33">
         <v>1</v>
       </c>
-      <c r="T6" s="39" t="s">
-        <v>770</v>
+      <c r="T6" s="38" t="s">
+        <v>767</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="W6" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+    </row>
+    <row r="7" spans="1:38" s="32" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2008</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L7" s="33">
+        <v>6</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S7" s="33">
+        <v>4</v>
+      </c>
+      <c r="T7" s="41" t="s">
+        <v>777</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="X7" s="39" t="s">
         <v>769</v>
       </c>
-      <c r="W6" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40" t="s">
-        <v>771</v>
-      </c>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-    </row>
-    <row r="7" spans="1:38" s="33" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="C7" s="35">
-        <v>2008</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="E7" s="33" t="s">
+      <c r="Y7" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>782</v>
+      </c>
+      <c r="AA7" s="39" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB7" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="AC7" s="39" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AD7" s="39" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE7" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="AF7" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="AG7" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH7" s="39" t="s">
+        <v>780</v>
+      </c>
+      <c r="AI7" s="39" t="s">
+        <v>776</v>
+      </c>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+    </row>
+    <row r="8" spans="1:38" s="32" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="34">
+        <v>2012</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L8" s="33">
+        <v>6</v>
+      </c>
+      <c r="M8" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="S8" s="33">
+        <v>5</v>
+      </c>
+      <c r="T8" s="41" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="V8" s="66" t="s">
+        <v>751</v>
+      </c>
+      <c r="W8" s="66"/>
+      <c r="X8" s="39" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y8" s="46" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Z8" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA8" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB8" s="39" t="s">
+        <v>736</v>
+      </c>
+      <c r="AC8" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="AD8" s="39" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE8" s="39" t="s">
+        <v>745</v>
+      </c>
+      <c r="AF8" s="39" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39" t="s">
+        <v>740</v>
+      </c>
+      <c r="AI8" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39" t="s">
+        <v>743</v>
+      </c>
+      <c r="AL8" s="39"/>
+    </row>
+    <row r="9" spans="1:38" s="32" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="G7" s="37" t="s">
+      <c r="F9" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="43" t="s">
         <v>677</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L7" s="34">
-        <f>LOOKUP(I7,{"?","N","Y"},{1,0,2}) + LOOKUP(J7,{"?","N","Y"},{1,0,2}) + LOOKUP(K7,{"?","N","Y"},{1,0,2})</f>
+      <c r="H9" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L9" s="33">
         <v>6</v>
       </c>
-      <c r="M7" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S7" s="34">
+      <c r="M9" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S9" s="33">
         <v>4</v>
       </c>
-      <c r="T7" s="39" t="s">
-        <v>780</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>777</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>773</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>787</v>
-      </c>
-      <c r="X7" s="40" t="s">
-        <v>772</v>
-      </c>
-      <c r="Y7" s="48" t="s">
-        <v>775</v>
-      </c>
-      <c r="Z7" s="40" t="s">
-        <v>785</v>
-      </c>
-      <c r="AA7" s="40" t="s">
-        <v>784</v>
-      </c>
-      <c r="AB7" s="40" t="s">
-        <v>776</v>
-      </c>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40" t="s">
-        <v>782</v>
-      </c>
-      <c r="AE7" s="40" t="s">
-        <v>786</v>
-      </c>
-      <c r="AF7" s="40" t="s">
-        <v>781</v>
-      </c>
-      <c r="AG7" s="40" t="s">
-        <v>778</v>
-      </c>
-      <c r="AH7" s="40" t="s">
-        <v>783</v>
-      </c>
-      <c r="AI7" s="41" t="s">
-        <v>779</v>
-      </c>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="40"/>
-    </row>
-    <row r="8" spans="1:38" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="C8" s="25">
-        <v>2012</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L8" s="24">
-        <f>LOOKUP(I8,{"?","N","Y"},{1,0,2}) + LOOKUP(J8,{"?","N","Y"},{1,0,2}) + LOOKUP(K8,{"?","N","Y"},{1,0,2})</f>
-        <v>6</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="S8" s="24">
-        <v>5</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>750</v>
-      </c>
-      <c r="U8" s="30" t="s">
-        <v>739</v>
-      </c>
-      <c r="V8" s="32" t="s">
-        <v>754</v>
-      </c>
-      <c r="W8" s="32"/>
-      <c r="X8" s="19" t="s">
-        <v>741</v>
-      </c>
-      <c r="Y8" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="AA8" s="19" t="s">
+      <c r="T9" s="41" t="s">
         <v>733</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>738</v>
-      </c>
-      <c r="AD8" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>747</v>
-      </c>
-      <c r="AF8" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>749</v>
-      </c>
-      <c r="AK8" s="19" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" s="33" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>449</v>
-      </c>
-      <c r="C9" s="35">
-        <v>2011</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>599</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>450</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>677</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L9" s="34">
-        <f>LOOKUP(I9,{"?","N","Y"},{1,0,2}) + LOOKUP(J9,{"?","N","Y"},{1,0,2}) + LOOKUP(K9,{"?","N","Y"},{1,0,2})</f>
-        <v>6</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S9" s="34">
-        <v>4</v>
-      </c>
-      <c r="T9" s="39" t="s">
-        <v>735</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="X9" s="39" t="s">
+        <v>787</v>
+      </c>
+      <c r="Y9" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="Z9" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="AA9" s="39" t="s">
         <v>788</v>
       </c>
-      <c r="W9" s="18" t="s">
-        <v>789</v>
-      </c>
-      <c r="X9" s="40" t="s">
+      <c r="AB9" s="39" t="s">
         <v>790</v>
       </c>
-      <c r="Y9" s="48" t="s">
+      <c r="AC9" s="39" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AD9" s="39" t="s">
+        <v>791</v>
+      </c>
+      <c r="AE9" s="39" t="s">
+        <v>792</v>
+      </c>
+      <c r="AF9" s="39" t="s">
+        <v>793</v>
+      </c>
+      <c r="AG9" s="39" t="s">
         <v>797</v>
       </c>
-      <c r="Z9" s="40" t="s">
-        <v>792</v>
-      </c>
-      <c r="AA9" s="40" t="s">
-        <v>791</v>
-      </c>
-      <c r="AB9" s="40" t="s">
-        <v>793</v>
-      </c>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40" t="s">
-        <v>794</v>
-      </c>
-      <c r="AE9" s="40" t="s">
+      <c r="AH9" s="39" t="s">
+        <v>796</v>
+      </c>
+      <c r="AI9" s="39" t="s">
         <v>795</v>
       </c>
-      <c r="AF9" s="40" t="s">
-        <v>796</v>
-      </c>
-      <c r="AG9" s="40" t="s">
-        <v>800</v>
-      </c>
-      <c r="AH9" s="40" t="s">
-        <v>799</v>
-      </c>
-      <c r="AI9" s="40" t="s">
-        <v>798</v>
-      </c>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40"/>
-    </row>
-    <row r="10" spans="1:38" s="33" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
+    </row>
+    <row r="10" spans="1:38" s="32" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <v>2007</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L10" s="34">
+      <c r="H10" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L10" s="33">
         <f>LOOKUP(I10,{"?","N","Y"},{1,0,2}) + LOOKUP(J10,{"?","N","Y"},{1,0,2}) + LOOKUP(K10,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M10" s="42" t="s">
-        <v>679</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O10" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="R10" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S10" s="34">
+      <c r="M10" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S10" s="33">
         <v>3</v>
       </c>
-      <c r="T10" s="43" t="s">
-        <v>735</v>
+      <c r="T10" s="41" t="s">
+        <v>733</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="V10" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="W10" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="X10" s="39" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y10" s="46" t="s">
         <v>802</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39" t="s">
         <v>803</v>
       </c>
-      <c r="X10" s="40" t="s">
+      <c r="AB10" s="39" t="s">
         <v>804</v>
       </c>
-      <c r="Y10" s="48" t="s">
+      <c r="AC10" s="39" t="s">
         <v>805</v>
       </c>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40" t="s">
+      <c r="AD10" s="39" t="s">
         <v>806</v>
       </c>
-      <c r="AB10" s="40" t="s">
+      <c r="AE10" s="39" t="s">
         <v>807</v>
       </c>
-      <c r="AC10" s="40" t="s">
+      <c r="AF10" s="39" t="s">
         <v>808</v>
       </c>
-      <c r="AD10" s="40" t="s">
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39" t="s">
         <v>809</v>
       </c>
-      <c r="AE10" s="40" t="s">
-        <v>810</v>
-      </c>
-      <c r="AF10" s="40" t="s">
-        <v>811</v>
-      </c>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40" t="s">
-        <v>812</v>
-      </c>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="40"/>
-      <c r="AL10" s="40"/>
-    </row>
-    <row r="11" spans="1:38" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
+    </row>
+    <row r="11" spans="1:38" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="34">
         <v>2005</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="43" t="s">
         <v>677</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L11" s="24">
-        <f>LOOKUP(I11,{"?","N","Y"},{1,0,2}) + LOOKUP(J11,{"?","N","Y"},{1,0,2}) + LOOKUP(K11,{"?","N","Y"},{1,0,2})</f>
+      <c r="H11" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L11" s="33">
         <v>6</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="40" t="s">
         <v>682</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="32" t="s">
         <v>682</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="S11" s="24">
+      <c r="O11" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="S11" s="33">
         <v>3</v>
       </c>
-      <c r="T11" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="X11" s="19" t="s">
+      <c r="T11" s="41" t="s">
+        <v>713</v>
+      </c>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="39" t="s">
         <v>701</v>
       </c>
-      <c r="Y11" s="49" t="s">
+      <c r="Y11" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="Z11" s="19" t="s">
+      <c r="Z11" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="AA11" s="19" t="s">
+      <c r="AA11" s="39" t="s">
         <v>703</v>
       </c>
-      <c r="AB11" s="19" t="s">
+      <c r="AB11" s="39" t="s">
         <v>704</v>
       </c>
-      <c r="AD11" s="19" t="s">
+      <c r="AC11" s="39" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AD11" s="39" t="s">
         <v>707</v>
       </c>
-      <c r="AE11" s="19" t="s">
+      <c r="AE11" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="AF11" s="19" t="s">
+      <c r="AF11" s="39" t="s">
         <v>706</v>
       </c>
-      <c r="AK11" s="19" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="33" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="AL11" s="39"/>
+    </row>
+    <row r="12" spans="1:38" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>2007</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L12" s="34">
+      <c r="H12" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L12" s="33">
         <f>LOOKUP(I12,{"?","N","Y"},{1,0,2}) + LOOKUP(J12,{"?","N","Y"},{1,0,2}) + LOOKUP(K12,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M12" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P12" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R12" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="S12" s="34">
+      <c r="M12" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="S12" s="33">
         <v>2</v>
       </c>
-      <c r="T12" s="39"/>
+      <c r="T12" s="38"/>
       <c r="U12" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="W12" s="18"/>
+      <c r="X12" s="39" t="s">
+        <v>810</v>
+      </c>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39" t="s">
+        <v>815</v>
+      </c>
+      <c r="AB12" s="39" t="s">
+        <v>818</v>
+      </c>
+      <c r="AC12" s="39" t="s">
+        <v>817</v>
+      </c>
+      <c r="AD12" s="39" t="s">
         <v>816</v>
       </c>
-      <c r="V12" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="W12" s="18"/>
-      <c r="X12" s="40" t="s">
-        <v>813</v>
-      </c>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40" t="s">
-        <v>818</v>
-      </c>
-      <c r="AB12" s="40" t="s">
-        <v>821</v>
-      </c>
-      <c r="AC12" s="40" t="s">
-        <v>820</v>
-      </c>
-      <c r="AD12" s="40" t="s">
-        <v>819</v>
-      </c>
-      <c r="AE12" s="40" t="s">
-        <v>814</v>
-      </c>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="40" t="s">
-        <v>815</v>
-      </c>
-      <c r="AL12" s="40"/>
-    </row>
-    <row r="13" spans="1:38" s="33" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="AE12" s="39" t="s">
+        <v>811</v>
+      </c>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39" t="s">
+        <v>812</v>
+      </c>
+      <c r="AL12" s="39"/>
+    </row>
+    <row r="13" spans="1:38" s="32" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>2007</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K13" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L13" s="34">
+      <c r="H13" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L13" s="33">
         <f>LOOKUP(I13,{"?","N","Y"},{1,0,2}) + LOOKUP(J13,{"?","N","Y"},{1,0,2}) + LOOKUP(K13,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M13" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="N13" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O13" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R13" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S13" s="34">
+      <c r="M13" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S13" s="33">
         <v>5</v>
       </c>
-      <c r="T13" s="39" t="s">
-        <v>735</v>
+      <c r="T13" s="38" t="s">
+        <v>733</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X13" s="40" t="s">
-        <v>830</v>
-      </c>
-      <c r="Y13" s="48" t="s">
-        <v>831</v>
-      </c>
-      <c r="Z13" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="X13" s="39" t="s">
+        <v>827</v>
+      </c>
+      <c r="Y13" s="46" t="s">
+        <v>828</v>
+      </c>
+      <c r="Z13" s="39" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA13" s="39" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB13" s="39" t="s">
+        <v>825</v>
+      </c>
+      <c r="AC13" s="39" t="s">
+        <v>829</v>
+      </c>
+      <c r="AD13" s="39" t="s">
+        <v>826</v>
+      </c>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39" t="s">
+        <v>822</v>
+      </c>
+      <c r="AG13" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="AA13" s="40" t="s">
-        <v>822</v>
-      </c>
-      <c r="AB13" s="40" t="s">
-        <v>828</v>
-      </c>
-      <c r="AC13" s="40" t="s">
-        <v>832</v>
-      </c>
-      <c r="AD13" s="40" t="s">
-        <v>829</v>
-      </c>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40" t="s">
-        <v>825</v>
-      </c>
-      <c r="AG13" s="40" t="s">
-        <v>826</v>
-      </c>
-      <c r="AH13" s="40" t="s">
+      <c r="AH13" s="39" t="s">
+        <v>821</v>
+      </c>
+      <c r="AI13" s="39" t="s">
         <v>824</v>
       </c>
-      <c r="AI13" s="40" t="s">
-        <v>827</v>
-      </c>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="40"/>
-      <c r="AL13" s="40"/>
-    </row>
-    <row r="14" spans="1:38" s="33" customFormat="1" ht="405" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
+    </row>
+    <row r="14" spans="1:38" s="32" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="34">
         <v>2009</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35" t="s">
         <v>590</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H14" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L14" s="34">
+      <c r="H14" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L14" s="33">
         <f>LOOKUP(I14,{"?","N","Y"},{1,0,2}) + LOOKUP(J14,{"?","N","Y"},{1,0,2}) + LOOKUP(K14,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M14" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="N14" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P14" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q14" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R14" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S14" s="34">
+      <c r="M14" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S14" s="33">
         <v>5</v>
       </c>
-      <c r="T14" s="39" t="s">
-        <v>735</v>
+      <c r="T14" s="38" t="s">
+        <v>733</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="V14" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="X14" s="39" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y14" s="46" t="s">
+        <v>834</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>841</v>
+      </c>
+      <c r="AA14" s="39" t="s">
+        <v>833</v>
+      </c>
+      <c r="AB14" s="39" t="s">
+        <v>836</v>
+      </c>
+      <c r="AC14" s="39" t="s">
         <v>835</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X14" s="40" t="s">
-        <v>833</v>
-      </c>
-      <c r="Y14" s="48" t="s">
+      <c r="AD14" s="39" t="s">
+        <v>839</v>
+      </c>
+      <c r="AE14" s="39" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF14" s="39" t="s">
         <v>837</v>
       </c>
-      <c r="Z14" s="40" t="s">
+      <c r="AG14" s="39" t="s">
+        <v>831</v>
+      </c>
+      <c r="AH14" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+    </row>
+    <row r="15" spans="1:38" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>842</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C15" s="34">
+        <v>2010</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L15" s="33">
+        <v>6</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="S15" s="33">
+        <v>2</v>
+      </c>
+      <c r="T15" s="41" t="s">
+        <v>843</v>
+      </c>
+      <c r="U15" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="AA14" s="40" t="s">
-        <v>836</v>
-      </c>
-      <c r="AB14" s="40" t="s">
-        <v>839</v>
-      </c>
-      <c r="AC14" s="40" t="s">
-        <v>838</v>
-      </c>
-      <c r="AD14" s="40" t="s">
-        <v>842</v>
-      </c>
-      <c r="AE14" s="40" t="s">
+      <c r="V15" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="W15" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="X15" s="39" t="s">
+        <v>846</v>
+      </c>
+      <c r="Y15" s="46" t="s">
+        <v>847</v>
+      </c>
+      <c r="Z15" s="39" t="s">
         <v>841</v>
       </c>
-      <c r="AF14" s="40" t="s">
-        <v>840</v>
-      </c>
-      <c r="AG14" s="40" t="s">
-        <v>834</v>
-      </c>
-      <c r="AH14" s="40" t="s">
-        <v>843</v>
-      </c>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="40"/>
-      <c r="AL14" s="40"/>
-    </row>
-    <row r="15" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39" t="s">
+        <v>848</v>
+      </c>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39" t="s">
+        <v>849</v>
+      </c>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39" t="s">
+        <v>850</v>
+      </c>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
+    </row>
+    <row r="16" spans="1:38" s="32" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="34">
+        <v>2003</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>548</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L16" s="33">
+        <v>6</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="R16" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S16" s="33">
+        <v>5</v>
+      </c>
+      <c r="T16" s="50" t="s">
+        <v>733</v>
+      </c>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="39" t="s">
+        <v>710</v>
+      </c>
+      <c r="Y16" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="Z16" s="39" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA16" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="AB16" s="39" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC16" s="39" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AD16" s="39" t="s">
+        <v>723</v>
+      </c>
+      <c r="AE16" s="39" t="s">
+        <v>721</v>
+      </c>
+      <c r="AF16" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AK16" s="39" t="s">
+        <v>715</v>
+      </c>
+      <c r="AL16" s="39"/>
+    </row>
+    <row r="17" spans="1:38" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>851</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="34">
+        <v>2011</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L17" s="33">
+        <v>6</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="N17" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q17" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="R17" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S17" s="33">
+        <v>3</v>
+      </c>
+      <c r="T17" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="V17" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="C15" s="35">
-        <v>2010</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>578</v>
-      </c>
-      <c r="E15" s="33" t="s">
+      <c r="W17" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="X17" s="39" t="s">
+        <v>853</v>
+      </c>
+      <c r="Y17" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z17" s="39" t="s">
+        <v>854</v>
+      </c>
+      <c r="AA17" s="39" t="s">
+        <v>855</v>
+      </c>
+      <c r="AB17" s="39" t="s">
+        <v>856</v>
+      </c>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39" t="s">
+        <v>857</v>
+      </c>
+      <c r="AE17" s="39" t="s">
+        <v>858</v>
+      </c>
+      <c r="AF17" s="39" t="s">
+        <v>859</v>
+      </c>
+      <c r="AG17" s="39" t="s">
+        <v>860</v>
+      </c>
+      <c r="AH17" s="39" t="s">
+        <v>861</v>
+      </c>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39" t="s">
+        <v>862</v>
+      </c>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
+    </row>
+    <row r="18" spans="1:38" s="32" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="34">
+        <v>2005</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="44" t="s">
-        <v>579</v>
-      </c>
-      <c r="G15" s="45" t="s">
+      <c r="F18" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="G18" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H15" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L15" s="34">
-        <v>6</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>679</v>
-      </c>
-      <c r="N15" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O15" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="P15" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q15" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R15" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="S15" s="34">
-        <v>2</v>
-      </c>
-      <c r="T15" s="43" t="s">
-        <v>846</v>
-      </c>
-      <c r="U15" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="V15" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="W15" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X15" s="40" t="s">
-        <v>849</v>
-      </c>
-      <c r="Y15" s="48" t="s">
-        <v>850</v>
-      </c>
-      <c r="Z15" s="40" t="s">
-        <v>844</v>
-      </c>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40" t="s">
-        <v>851</v>
-      </c>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40" t="s">
-        <v>852</v>
-      </c>
-      <c r="AG15" s="40"/>
-      <c r="AH15" s="40"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40" t="s">
-        <v>853</v>
-      </c>
-      <c r="AK15" s="40"/>
-      <c r="AL15" s="40"/>
-    </row>
-    <row r="16" spans="1:38" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="25">
-        <v>2003</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>614</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L16" s="24">
-        <f>LOOKUP(I16,{"?","N","Y"},{1,0,2}) + LOOKUP(J16,{"?","N","Y"},{1,0,2}) + LOOKUP(K16,{"?","N","Y"},{1,0,2})</f>
-        <v>6</v>
-      </c>
-      <c r="M16" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="R16" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="S16" s="24">
-        <v>5</v>
-      </c>
-      <c r="T16" s="20" t="s">
-        <v>735</v>
-      </c>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="Y16" s="49" t="s">
-        <v>723</v>
-      </c>
-      <c r="Z16" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="AA16" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="AB16" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="AD16" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="AE16" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="AF16" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="AJ16" s="19" t="s">
-        <v>712</v>
-      </c>
-      <c r="AK16" s="19" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>854</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="C17" s="35">
-        <v>2011</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>361</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L17" s="34">
-        <v>6</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>680</v>
-      </c>
-      <c r="N17" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P17" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="R17" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S17" s="34">
-        <v>3</v>
-      </c>
-      <c r="T17" s="43" t="s">
-        <v>735</v>
-      </c>
-      <c r="U17" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="V17" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="W17" s="18" t="s">
-        <v>855</v>
-      </c>
-      <c r="X17" s="40" t="s">
-        <v>856</v>
-      </c>
-      <c r="Y17" s="48" t="s">
-        <v>684</v>
-      </c>
-      <c r="Z17" s="40" t="s">
-        <v>857</v>
-      </c>
-      <c r="AA17" s="40" t="s">
-        <v>858</v>
-      </c>
-      <c r="AB17" s="40" t="s">
-        <v>859</v>
-      </c>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40" t="s">
-        <v>860</v>
-      </c>
-      <c r="AE17" s="40" t="s">
-        <v>861</v>
-      </c>
-      <c r="AF17" s="40" t="s">
-        <v>862</v>
-      </c>
-      <c r="AG17" s="40" t="s">
-        <v>863</v>
-      </c>
-      <c r="AH17" s="40" t="s">
-        <v>864</v>
-      </c>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40" t="s">
-        <v>865</v>
-      </c>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-    </row>
-    <row r="18" spans="1:38" s="33" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" s="35">
-        <v>2005</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>542</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>677</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L18" s="34">
+      <c r="H18" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L18" s="33">
         <f>LOOKUP(I18,{"?","N","Y"},{1,0,2}) + LOOKUP(J18,{"?","N","Y"},{1,0,2}) + LOOKUP(K18,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M18" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O18" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P18" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q18" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R18" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S18" s="34">
+      <c r="M18" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q18" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S18" s="33">
         <v>3</v>
       </c>
-      <c r="T18" s="39" t="s">
-        <v>735</v>
+      <c r="T18" s="38" t="s">
+        <v>733</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X18" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="X18" s="39" t="s">
+        <v>863</v>
+      </c>
+      <c r="Y18" s="46" t="s">
         <v>866</v>
       </c>
-      <c r="Y18" s="48" t="s">
+      <c r="Z18" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="AA18" s="39" t="s">
+        <v>865</v>
+      </c>
+      <c r="AB18" s="39" t="s">
+        <v>868</v>
+      </c>
+      <c r="AC18" s="39" t="s">
+        <v>867</v>
+      </c>
+      <c r="AD18" s="39" t="s">
+        <v>875</v>
+      </c>
+      <c r="AE18" s="39" t="s">
         <v>869</v>
       </c>
-      <c r="Z18" s="40" t="s">
-        <v>867</v>
-      </c>
-      <c r="AA18" s="40" t="s">
-        <v>868</v>
-      </c>
-      <c r="AB18" s="40" t="s">
-        <v>871</v>
-      </c>
-      <c r="AC18" s="40" t="s">
-        <v>870</v>
-      </c>
-      <c r="AD18" s="40" t="s">
-        <v>878</v>
-      </c>
-      <c r="AE18" s="40" t="s">
-        <v>872</v>
-      </c>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40" t="s">
-        <v>880</v>
-      </c>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40" t="s">
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39" t="s">
         <v>877</v>
       </c>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
-    </row>
-    <row r="19" spans="1:38" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39" t="s">
+        <v>874</v>
+      </c>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+    </row>
+    <row r="19" spans="1:38" s="32" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>2009</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>537</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H19" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L19" s="34">
+      <c r="H19" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L19" s="33">
         <f>LOOKUP(I19,{"?","N","Y"},{1,0,2}) + LOOKUP(J19,{"?","N","Y"},{1,0,2}) + LOOKUP(K19,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M19" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O19" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q19" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S19" s="34">
+      <c r="M19" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="N19" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O19" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q19" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S19" s="33">
         <v>3</v>
       </c>
-      <c r="T19" s="50" t="s">
-        <v>735</v>
-      </c>
-      <c r="U19" s="51" t="s">
-        <v>753</v>
-      </c>
-      <c r="V19" s="51" t="s">
-        <v>874</v>
-      </c>
-      <c r="W19" s="51" t="s">
-        <v>774</v>
-      </c>
-      <c r="X19" s="40" t="s">
+      <c r="T19" s="48" t="s">
+        <v>733</v>
+      </c>
+      <c r="U19" s="49" t="s">
+        <v>750</v>
+      </c>
+      <c r="V19" s="49" t="s">
+        <v>871</v>
+      </c>
+      <c r="W19" s="49" t="s">
+        <v>771</v>
+      </c>
+      <c r="X19" s="39" t="s">
+        <v>870</v>
+      </c>
+      <c r="Y19" s="46" t="s">
+        <v>876</v>
+      </c>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39" t="s">
+        <v>872</v>
+      </c>
+      <c r="AB19" s="39" t="s">
+        <v>880</v>
+      </c>
+      <c r="AC19" s="39" t="s">
         <v>873</v>
       </c>
-      <c r="Y19" s="48" t="s">
+      <c r="AD19" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="AE19" s="39" t="s">
         <v>879</v>
       </c>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40" t="s">
-        <v>875</v>
-      </c>
-      <c r="AB19" s="40" t="s">
+      <c r="AF19" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="AG19" s="39" t="s">
         <v>883</v>
       </c>
-      <c r="AC19" s="40" t="s">
-        <v>876</v>
-      </c>
-      <c r="AD19" s="40" t="s">
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+    </row>
+    <row r="20" spans="1:38" s="32" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
         <v>884</v>
       </c>
-      <c r="AE19" s="40" t="s">
-        <v>882</v>
-      </c>
-      <c r="AF19" s="40" t="s">
-        <v>881</v>
-      </c>
-      <c r="AG19" s="40" t="s">
+      <c r="B20" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="34">
+        <v>2007</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>546</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L20" s="33">
+        <v>6</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q20" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="R20" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S20" s="33">
+        <v>3</v>
+      </c>
+      <c r="T20" s="50" t="s">
+        <v>733</v>
+      </c>
+      <c r="U20" s="51" t="s">
+        <v>750</v>
+      </c>
+      <c r="V20" s="51" t="s">
+        <v>845</v>
+      </c>
+      <c r="W20" s="51" t="s">
+        <v>885</v>
+      </c>
+      <c r="X20" s="39" t="s">
         <v>886</v>
       </c>
-      <c r="AH19" s="40"/>
-      <c r="AI19" s="40" t="s">
-        <v>885</v>
-      </c>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="40"/>
-      <c r="AL19" s="40"/>
-    </row>
-    <row r="20" spans="1:38" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="Y20" s="46" t="s">
         <v>887</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" s="35">
-        <v>2007</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>546</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L20" s="34">
-        <v>6</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>680</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P20" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S20" s="34">
-        <v>3</v>
-      </c>
-      <c r="T20" s="52" t="s">
-        <v>735</v>
-      </c>
-      <c r="U20" s="53" t="s">
-        <v>753</v>
-      </c>
-      <c r="V20" s="53" t="s">
-        <v>848</v>
-      </c>
-      <c r="W20" s="53" t="s">
+      <c r="Z20" s="39" t="s">
         <v>888</v>
       </c>
-      <c r="X20" s="40" t="s">
+      <c r="AA20" s="39" t="s">
         <v>889</v>
       </c>
-      <c r="Y20" s="48" t="s">
+      <c r="AB20" s="39" t="s">
         <v>890</v>
       </c>
-      <c r="Z20" s="40" t="s">
+      <c r="AC20" s="39" t="s">
         <v>891</v>
       </c>
-      <c r="AA20" s="40" t="s">
+      <c r="AD20" s="39" t="s">
         <v>892</v>
       </c>
-      <c r="AB20" s="40" t="s">
+      <c r="AE20" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF20" s="39" t="s">
         <v>893</v>
       </c>
-      <c r="AC20" s="40" t="s">
-        <v>894</v>
-      </c>
-      <c r="AD20" s="40" t="s">
-        <v>895</v>
-      </c>
-      <c r="AE20" s="40" t="s">
+      <c r="AG20" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AF20" s="40" t="s">
-        <v>896</v>
-      </c>
-      <c r="AG20" s="40" t="s">
+      <c r="AH20" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AH20" s="40" t="s">
+      <c r="AI20" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AI20" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="40"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="55" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="55" t="s">
         <v>478</v>
       </c>
       <c r="C21" s="25">
@@ -7905,7 +8029,7 @@
       <c r="D21" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="54" t="s">
         <v>271</v>
       </c>
       <c r="F21" s="26" t="s">
@@ -7931,211 +8055,211 @@
         <v>6</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="34">
         <v>2003</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H22" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L22" s="34">
+      <c r="H22" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L22" s="33">
         <f>LOOKUP(I22,{"?","N","Y"},{1,0,2}) + LOOKUP(J22,{"?","N","Y"},{1,0,2}) + LOOKUP(K22,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M22" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P22" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q22" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S22" s="34">
+      <c r="M22" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="R22" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S22" s="33">
         <v>2</v>
       </c>
-      <c r="T22" s="39"/>
+      <c r="T22" s="38"/>
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
-      <c r="X22" s="40" t="s">
+      <c r="X22" s="39" t="s">
+        <v>906</v>
+      </c>
+      <c r="Y22" s="46" t="s">
+        <v>907</v>
+      </c>
+      <c r="Z22" s="39" t="s">
+        <v>912</v>
+      </c>
+      <c r="AA22" s="39" t="s">
+        <v>908</v>
+      </c>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39" t="s">
         <v>909</v>
       </c>
-      <c r="Y22" s="48" t="s">
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39" t="s">
+        <v>911</v>
+      </c>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39" t="s">
         <v>910</v>
       </c>
-      <c r="Z22" s="40" t="s">
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+    </row>
+    <row r="23" spans="1:38" s="32" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="34">
+        <v>2007</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L23" s="33">
+        <v>6</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="N23" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q23" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S23" s="33">
+        <v>5</v>
+      </c>
+      <c r="T23" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="V23" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="W23" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="X23" s="39" t="s">
         <v>915</v>
       </c>
-      <c r="AA22" s="40" t="s">
-        <v>911</v>
-      </c>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="40" t="s">
-        <v>912</v>
-      </c>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40" t="s">
-        <v>914</v>
-      </c>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="40" t="s">
-        <v>913</v>
-      </c>
-      <c r="AK22" s="40"/>
-      <c r="AL22" s="40"/>
-    </row>
-    <row r="23" spans="1:38" s="33" customFormat="1" ht="270" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="Y23" s="46" t="s">
         <v>916</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="C23" s="35">
-        <v>2007</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K23" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L23" s="34">
-        <v>6</v>
-      </c>
-      <c r="M23" s="42" t="s">
-        <v>680</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O23" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P23" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q23" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="R23" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S23" s="34">
-        <v>5</v>
-      </c>
-      <c r="T23" s="43" t="s">
-        <v>735</v>
-      </c>
-      <c r="U23" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="V23" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="W23" s="18" t="s">
+      <c r="Z23" s="39" t="s">
         <v>917</v>
       </c>
-      <c r="X23" s="40" t="s">
+      <c r="AA23" s="39" t="s">
         <v>918</v>
       </c>
-      <c r="Y23" s="48" t="s">
+      <c r="AB23" s="39" t="s">
         <v>919</v>
       </c>
-      <c r="Z23" s="40" t="s">
+      <c r="AC23" s="39" t="s">
         <v>920</v>
       </c>
-      <c r="AA23" s="40" t="s">
+      <c r="AD23" s="39" t="s">
         <v>921</v>
       </c>
-      <c r="AB23" s="40" t="s">
+      <c r="AE23" s="39" t="s">
         <v>922</v>
       </c>
-      <c r="AC23" s="40" t="s">
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39" t="s">
         <v>923</v>
       </c>
-      <c r="AD23" s="40" t="s">
-        <v>924</v>
-      </c>
-      <c r="AE23" s="40" t="s">
-        <v>925</v>
-      </c>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40" t="s">
-        <v>926</v>
-      </c>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="40"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="55" t="s">
         <v>303</v>
       </c>
       <c r="C24" s="25">
@@ -8144,7 +8268,7 @@
       <c r="D24" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="54" t="s">
         <v>290</v>
       </c>
       <c r="F24" s="26" t="s">
@@ -8169,128 +8293,128 @@
         <f>LOOKUP(I24,{"?","N","Y"},{1,0,2}) + LOOKUP(J24,{"?","N","Y"},{1,0,2}) + LOOKUP(K24,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="T24" s="54" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="T24" s="52" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" s="32" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="34">
         <v>2011</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>535</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H25" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L25" s="34">
+      <c r="H25" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L25" s="33">
         <f>LOOKUP(I25,{"?","N","Y"},{1,0,2}) + LOOKUP(J25,{"?","N","Y"},{1,0,2}) + LOOKUP(K25,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M25" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="N25" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O25" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P25" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q25" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R25" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S25" s="34">
+      <c r="M25" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S25" s="33">
         <v>3</v>
       </c>
-      <c r="T25" s="39" t="s">
-        <v>735</v>
+      <c r="T25" s="38" t="s">
+        <v>733</v>
       </c>
       <c r="U25" s="18" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="V25" s="18" t="s">
+        <v>895</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="X25" s="39" t="s">
+        <v>896</v>
+      </c>
+      <c r="Y25" s="46" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z25" s="39" t="s">
         <v>898</v>
       </c>
-      <c r="W25" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X25" s="40" t="s">
+      <c r="AA25" s="39" t="s">
+        <v>867</v>
+      </c>
+      <c r="AB25" s="39" t="s">
+        <v>904</v>
+      </c>
+      <c r="AC25" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="AD25" s="39" t="s">
+        <v>903</v>
+      </c>
+      <c r="AE25" s="39" t="s">
         <v>899</v>
       </c>
-      <c r="Y25" s="48" t="s">
+      <c r="AF25" s="39" t="s">
+        <v>902</v>
+      </c>
+      <c r="AG25" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH25" s="39" t="s">
+        <v>900</v>
+      </c>
+      <c r="AI25" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ25" s="39" t="s">
         <v>897</v>
       </c>
-      <c r="Z25" s="40" t="s">
-        <v>901</v>
-      </c>
-      <c r="AA25" s="40" t="s">
-        <v>870</v>
-      </c>
-      <c r="AB25" s="40" t="s">
-        <v>907</v>
-      </c>
-      <c r="AC25" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="AD25" s="40" t="s">
-        <v>906</v>
-      </c>
-      <c r="AE25" s="40" t="s">
-        <v>902</v>
-      </c>
-      <c r="AF25" s="40" t="s">
-        <v>905</v>
-      </c>
-      <c r="AG25" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AH25" s="40" t="s">
-        <v>903</v>
-      </c>
-      <c r="AI25" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AJ25" s="40" t="s">
-        <v>900</v>
-      </c>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="55" t="s">
         <v>316</v>
       </c>
       <c r="C26" s="25">
@@ -8299,7 +8423,7 @@
       <c r="D26" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="E26" s="56" t="s">
+      <c r="E26" s="54" t="s">
         <v>290</v>
       </c>
       <c r="F26" s="26" t="s">
@@ -8324,1001 +8448,1103 @@
         <f>LOOKUP(I26,{"?","N","Y"},{1,0,2}) + LOOKUP(J26,{"?","N","Y"},{1,0,2}) + LOOKUP(K26,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="T26" s="54" t="s">
+      <c r="T26" s="52" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>925</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="C27" s="34">
+        <v>2009</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>620</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L27" s="33">
+        <v>6</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O27" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P27" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q27" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S27" s="33">
+        <v>3</v>
+      </c>
+      <c r="T27" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="U27" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="V27" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="W27" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="X27" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y27" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z27" s="39" t="s">
+        <v>926</v>
+      </c>
+      <c r="AA27" s="39" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" s="33" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="AB27" s="39" t="s">
         <v>928</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C27" s="35">
-        <v>2009</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="E27" s="33" t="s">
+      <c r="AC27" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="AD27" s="39" t="s">
+        <v>929</v>
+      </c>
+      <c r="AE27" s="39" t="s">
+        <v>930</v>
+      </c>
+      <c r="AF27" s="39" t="s">
+        <v>931</v>
+      </c>
+      <c r="AG27" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH27" s="53" t="s">
+        <v>932</v>
+      </c>
+      <c r="AI27" s="39" t="s">
+        <v>933</v>
+      </c>
+      <c r="AJ27" s="39" t="s">
+        <v>934</v>
+      </c>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
+    </row>
+    <row r="28" spans="1:38" s="32" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>935</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="C28" s="34">
+        <v>2008</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="E28" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="44" t="s">
-        <v>620</v>
-      </c>
-      <c r="G27" s="45" t="s">
+      <c r="F28" s="56" t="s">
+        <v>635</v>
+      </c>
+      <c r="G28" s="57" t="s">
         <v>677</v>
       </c>
-      <c r="H27" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K27" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L27" s="34">
+      <c r="H28" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L28" s="33">
         <v>6</v>
       </c>
-      <c r="M27" s="42" t="s">
-        <v>679</v>
-      </c>
-      <c r="N27" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O27" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P27" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q27" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R27" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S27" s="34">
+      <c r="M28" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="N28" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O28" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P28" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q28" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R28" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S28" s="33">
+        <v>4</v>
+      </c>
+      <c r="T28" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="U28" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="V28" s="18" t="s">
+        <v>941</v>
+      </c>
+      <c r="W28" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="X28" s="39" t="s">
+        <v>936</v>
+      </c>
+      <c r="Y28" s="46" t="s">
+        <v>943</v>
+      </c>
+      <c r="Z28" s="39" t="s">
+        <v>937</v>
+      </c>
+      <c r="AA28" s="39" t="s">
+        <v>938</v>
+      </c>
+      <c r="AB28" s="39" t="s">
+        <v>944</v>
+      </c>
+      <c r="AC28" s="39" t="s">
+        <v>939</v>
+      </c>
+      <c r="AD28" s="39" t="s">
+        <v>945</v>
+      </c>
+      <c r="AE28" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF28" s="39" t="s">
+        <v>946</v>
+      </c>
+      <c r="AG28" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH28" s="39" t="s">
+        <v>947</v>
+      </c>
+      <c r="AI28" s="39" t="s">
+        <v>940</v>
+      </c>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+    </row>
+    <row r="29" spans="1:38" s="32" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C29" s="34">
+        <v>2008</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L29" s="33">
+        <v>6</v>
+      </c>
+      <c r="M29" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="N29" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O29" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P29" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q29" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R29" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S29" s="33">
         <v>3</v>
       </c>
-      <c r="T27" s="43" t="s">
-        <v>735</v>
-      </c>
-      <c r="U27" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="V27" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="W27" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X27" s="40" t="s">
+      <c r="T29" s="41" t="s">
+        <v>949</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="V29" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="W29" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="X29" s="39" t="s">
+        <v>950</v>
+      </c>
+      <c r="Y29" s="46" t="s">
         <v>684</v>
       </c>
-      <c r="Y27" s="48" t="s">
+      <c r="Z29" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="Z27" s="40" t="s">
-        <v>929</v>
-      </c>
-      <c r="AA27" s="40" t="s">
-        <v>930</v>
-      </c>
-      <c r="AB27" s="40" t="s">
-        <v>931</v>
-      </c>
-      <c r="AC27" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="AD27" s="40" t="s">
-        <v>932</v>
-      </c>
-      <c r="AE27" s="40" t="s">
-        <v>933</v>
-      </c>
-      <c r="AF27" s="40" t="s">
-        <v>934</v>
-      </c>
-      <c r="AG27" s="40" t="s">
+      <c r="AA29" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AH27" s="55" t="s">
-        <v>935</v>
-      </c>
-      <c r="AI27" s="40" t="s">
-        <v>936</v>
-      </c>
-      <c r="AJ27" s="40" t="s">
-        <v>937</v>
-      </c>
-      <c r="AK27" s="40"/>
-      <c r="AL27" s="40"/>
-    </row>
-    <row r="28" spans="1:38" s="33" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>938</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>633</v>
-      </c>
-      <c r="C28" s="35">
-        <v>2008</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="E28" s="33" t="s">
+      <c r="AB29" s="39" t="s">
+        <v>951</v>
+      </c>
+      <c r="AC29" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="AD29" s="39" t="s">
+        <v>952</v>
+      </c>
+      <c r="AE29" s="39" t="s">
+        <v>953</v>
+      </c>
+      <c r="AF29" s="39" t="s">
+        <v>954</v>
+      </c>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39" t="s">
+        <v>955</v>
+      </c>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" s="32" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="C30" s="34">
+        <v>2010</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F28" s="58" t="s">
-        <v>635</v>
-      </c>
-      <c r="G28" s="59" t="s">
+      <c r="F30" s="35" t="s">
+        <v>638</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H28" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K28" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L28" s="34">
-        <v>6</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>680</v>
-      </c>
-      <c r="N28" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O28" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P28" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q28" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R28" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S28" s="34">
-        <v>4</v>
-      </c>
-      <c r="T28" s="43" t="s">
-        <v>735</v>
-      </c>
-      <c r="U28" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="V28" s="18" t="s">
-        <v>944</v>
-      </c>
-      <c r="W28" s="18" t="s">
-        <v>945</v>
-      </c>
-      <c r="X28" s="40" t="s">
-        <v>939</v>
-      </c>
-      <c r="Y28" s="48" t="s">
-        <v>946</v>
-      </c>
-      <c r="Z28" s="40" t="s">
-        <v>940</v>
-      </c>
-      <c r="AA28" s="40" t="s">
-        <v>941</v>
-      </c>
-      <c r="AB28" s="40" t="s">
-        <v>947</v>
-      </c>
-      <c r="AC28" s="40" t="s">
-        <v>942</v>
-      </c>
-      <c r="AD28" s="40" t="s">
-        <v>948</v>
-      </c>
-      <c r="AE28" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AF28" s="40" t="s">
-        <v>949</v>
-      </c>
-      <c r="AG28" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AH28" s="40" t="s">
-        <v>950</v>
-      </c>
-      <c r="AI28" s="40" t="s">
-        <v>943</v>
-      </c>
-      <c r="AJ28" s="40"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="40"/>
-    </row>
-    <row r="29" spans="1:38" s="33" customFormat="1" ht="285" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>951</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C29" s="35">
-        <v>2008</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>566</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>431</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J29" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L29" s="34">
-        <v>6</v>
-      </c>
-      <c r="M29" s="42" t="s">
-        <v>679</v>
-      </c>
-      <c r="N29" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O29" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P29" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q29" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R29" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S29" s="34">
-        <v>3</v>
-      </c>
-      <c r="T29" s="43" t="s">
-        <v>952</v>
-      </c>
-      <c r="U29" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="V29" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="W29" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X29" s="40" t="s">
-        <v>953</v>
-      </c>
-      <c r="Y29" s="48" t="s">
-        <v>684</v>
-      </c>
-      <c r="Z29" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AA29" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AB29" s="40" t="s">
-        <v>954</v>
-      </c>
-      <c r="AC29" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="AD29" s="40" t="s">
-        <v>955</v>
-      </c>
-      <c r="AE29" s="40" t="s">
-        <v>956</v>
-      </c>
-      <c r="AF29" s="40" t="s">
-        <v>957</v>
-      </c>
-      <c r="AG29" s="40"/>
-      <c r="AH29" s="40" t="s">
-        <v>958</v>
-      </c>
-      <c r="AI29" s="40"/>
-      <c r="AJ29" s="40"/>
-      <c r="AK29" s="40"/>
-      <c r="AL29" s="40" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" s="33" customFormat="1" ht="210" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>636</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>637</v>
-      </c>
-      <c r="C30" s="35">
-        <v>2010</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>638</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>677</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K30" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L30" s="34">
+      <c r="H30" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L30" s="33">
         <f>LOOKUP(I30,{"?","N","Y"},{1,0,2}) + LOOKUP(J30,{"?","N","Y"},{1,0,2}) + LOOKUP(K30,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M30" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="N30" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O30" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P30" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q30" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R30" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S30" s="34">
+      <c r="M30" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q30" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R30" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S30" s="33">
         <v>3</v>
       </c>
-      <c r="T30" s="39" t="s">
-        <v>735</v>
+      <c r="T30" s="38" t="s">
+        <v>733</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="V30" s="18" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="W30" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X30" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="X30" s="39" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Y30" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z30" s="39" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AA30" s="39" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AB30" s="39" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AC30" s="39" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AD30" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE30" s="39" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AF30" s="39" t="s">
         <v>1033</v>
       </c>
-      <c r="Y30" s="48" t="s">
+      <c r="AG30" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="Z30" s="40" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AA30" s="40" t="s">
-        <v>1035</v>
-      </c>
-      <c r="AB30" s="40" t="s">
+      <c r="AH30" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI30" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
+    </row>
+    <row r="31" spans="1:38" s="32" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="34">
+        <v>2006</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L31" s="33">
+        <v>6</v>
+      </c>
+      <c r="M31" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q31" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R31" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="S31" s="33">
+        <v>2</v>
+      </c>
+      <c r="T31" s="41" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U31" s="18" t="s">
         <v>1038</v>
       </c>
-      <c r="AC30" s="40" t="s">
-        <v>1037</v>
-      </c>
-      <c r="AD30" s="40" t="s">
+      <c r="V31" s="18" t="s">
+        <v>1039</v>
+      </c>
+      <c r="W31" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="X31" s="39" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Y31" s="46" t="s">
         <v>684</v>
       </c>
-      <c r="AE30" s="40" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AF30" s="40" t="s">
-        <v>1036</v>
-      </c>
-      <c r="AG30" s="40" t="s">
+      <c r="Z31" s="39" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AA31" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AH30" s="40" t="s">
+      <c r="AB31" s="39" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AC31" s="39" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AD31" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AI30" s="40" t="s">
+      <c r="AE31" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AJ30" s="40"/>
-      <c r="AK30" s="40"/>
-      <c r="AL30" s="40"/>
-    </row>
-    <row r="31" spans="1:38" s="33" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C31" s="35">
-        <v>2006</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>529</v>
-      </c>
-      <c r="E31" s="33" t="s">
+      <c r="AF31" s="39" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AG31" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH31" s="39" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AI31" s="39" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AJ31" s="39" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="39"/>
+    </row>
+    <row r="32" spans="1:38" s="32" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="34">
+        <v>2010</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F31" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="G31" s="45" t="s">
+      <c r="F32" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="G32" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H31" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="I31" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L31" s="34">
-        <v>6</v>
-      </c>
-      <c r="M31" s="42" t="s">
-        <v>680</v>
-      </c>
-      <c r="N31" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O31" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="P31" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q31" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R31" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="S31" s="34">
-        <v>2</v>
-      </c>
-      <c r="T31" s="43" t="s">
-        <v>1051</v>
-      </c>
-      <c r="U31" s="18" t="s">
-        <v>1041</v>
-      </c>
-      <c r="V31" s="18" t="s">
-        <v>1042</v>
-      </c>
-      <c r="W31" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="X31" s="40" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Y31" s="48" t="s">
-        <v>684</v>
-      </c>
-      <c r="Z31" s="40" t="s">
-        <v>1044</v>
-      </c>
-      <c r="AA31" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AB31" s="40" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AC31" s="40" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD31" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AE31" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AF31" s="40" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AG31" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AH31" s="40" t="s">
-        <v>1048</v>
-      </c>
-      <c r="AI31" s="40" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AJ31" s="40" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="40"/>
-    </row>
-    <row r="32" spans="1:38" s="33" customFormat="1" ht="270" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="C32" s="35">
-        <v>2010</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>368</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>677</v>
-      </c>
-      <c r="H32" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="I32" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K32" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L32" s="34">
+      <c r="H32" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L32" s="33">
         <f>LOOKUP(I32,{"?","N","Y"},{1,0,2}) + LOOKUP(J32,{"?","N","Y"},{1,0,2}) + LOOKUP(K32,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M32" s="38" t="s">
-        <v>680</v>
-      </c>
-      <c r="N32" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O32" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="P32" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q32" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R32" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="S32" s="34">
+      <c r="M32" s="37" t="s">
+        <v>680</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O32" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q32" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R32" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="S32" s="33">
         <v>3</v>
       </c>
-      <c r="T32" s="39" t="s">
-        <v>1052</v>
+      <c r="T32" s="38" t="s">
+        <v>1049</v>
       </c>
       <c r="U32" s="18" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="V32" s="18"/>
       <c r="W32" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="X32" s="40" t="s">
+        <v>750</v>
+      </c>
+      <c r="X32" s="39" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Y32" s="46" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Z32" s="39" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AA32" s="39" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AB32" s="39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AC32" s="39" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AD32" s="39" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AE32" s="39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AF32" s="39" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AG32" s="39" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AH32" s="39" t="s">
         <v>1057</v>
       </c>
-      <c r="Y32" s="48" t="s">
-        <v>1055</v>
-      </c>
-      <c r="Z32" s="40" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AA32" s="40" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AB32" s="40" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AC32" s="40" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AD32" s="40" t="s">
-        <v>1065</v>
-      </c>
-      <c r="AE32" s="40" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AF32" s="40" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AG32" s="40" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AH32" s="40" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AI32" s="40" t="s">
+      <c r="AI32" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AJ32" s="40" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="40"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>457</v>
-      </c>
-      <c r="B33" s="24" t="s">
+      <c r="AJ32" s="39" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
+    </row>
+    <row r="33" spans="1:38" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B33" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="34">
         <v>2010</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="43" t="s">
         <v>677</v>
       </c>
-      <c r="H33" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="J33" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="K33" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="L33" s="24">
-        <f>LOOKUP(I33,{"?","N","Y"},{1,0,2}) + LOOKUP(J33,{"?","N","Y"},{1,0,2}) + LOOKUP(K33,{"?","N","Y"},{1,0,2})</f>
+      <c r="H33" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L33" s="33">
         <v>6</v>
       </c>
+      <c r="M33" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="N33" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O33" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="P33" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q33" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R33" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="S33" s="33">
+        <v>3</v>
+      </c>
+      <c r="T33" s="41" t="s">
+        <v>1090</v>
+      </c>
+      <c r="U33" s="18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="V33" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="W33" s="18" t="s">
+        <v>1092</v>
+      </c>
+      <c r="X33" s="39" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Y33" s="46" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Z33" s="39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AA33" s="39" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AB33" s="39" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AC33" s="39" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AD33" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE33" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF33" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AG33" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AH33" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI33" s="39" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="39"/>
     </row>
     <row r="34" spans="1:38" ht="210" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <v>2007</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="35" t="s">
         <v>612</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="36" t="s">
         <v>677</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L34" s="34">
+      <c r="H34" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L34" s="33">
         <f>LOOKUP(I34,{"?","N","Y"},{1,0,2}) + LOOKUP(J34,{"?","N","Y"},{1,0,2}) + LOOKUP(K34,{"?","N","Y"},{1,0,2})</f>
         <v>6</v>
       </c>
-      <c r="M34" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="N34" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O34" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P34" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q34" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R34" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S34" s="34">
+      <c r="M34" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="N34" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P34" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q34" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R34" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S34" s="33">
         <v>2</v>
       </c>
-      <c r="T34" s="39" t="s">
-        <v>735</v>
+      <c r="T34" s="38" t="s">
+        <v>733</v>
       </c>
       <c r="U34" s="18" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="V34" s="18" t="s">
+        <v>969</v>
+      </c>
+      <c r="W34" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="X34" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="Y34" s="46" t="s">
+        <v>967</v>
+      </c>
+      <c r="Z34" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA34" s="39" t="s">
+        <v>968</v>
+      </c>
+      <c r="AB34" s="39" t="s">
+        <v>971</v>
+      </c>
+      <c r="AC34" s="39" t="s">
+        <v>939</v>
+      </c>
+      <c r="AD34" s="39" t="s">
+        <v>974</v>
+      </c>
+      <c r="AE34" s="39" t="s">
+        <v>973</v>
+      </c>
+      <c r="AF34" s="39" t="s">
         <v>972</v>
       </c>
-      <c r="W34" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X34" s="40" t="s">
+      <c r="AG34" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="Y34" s="48" t="s">
+      <c r="AH34" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI34" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="39" t="s">
         <v>970</v>
       </c>
-      <c r="Z34" s="40" t="s">
+    </row>
+    <row r="35" spans="1:38" s="32" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="34">
+        <v>2008</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>671</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>677</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K35" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L35" s="33">
+        <v>6</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>679</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="O35" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="P35" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q35" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="R35" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="S35" s="33">
+        <v>2</v>
+      </c>
+      <c r="T35" s="38" t="s">
+        <v>733</v>
+      </c>
+      <c r="U35" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="V35" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="W35" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="X35" s="39" t="s">
+        <v>958</v>
+      </c>
+      <c r="Y35" s="46" t="s">
+        <v>959</v>
+      </c>
+      <c r="Z35" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AA34" s="40" t="s">
-        <v>971</v>
-      </c>
-      <c r="AB34" s="40" t="s">
-        <v>974</v>
-      </c>
-      <c r="AC34" s="40" t="s">
-        <v>942</v>
-      </c>
-      <c r="AD34" s="40" t="s">
-        <v>977</v>
-      </c>
-      <c r="AE34" s="40" t="s">
-        <v>976</v>
-      </c>
-      <c r="AF34" s="40" t="s">
-        <v>975</v>
-      </c>
-      <c r="AG34" s="40" t="s">
+      <c r="AA35" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AH34" s="40" t="s">
+      <c r="AB35" s="39" t="s">
+        <v>960</v>
+      </c>
+      <c r="AC35" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="AD35" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="AE35" s="39" t="s">
+        <v>962</v>
+      </c>
+      <c r="AF35" s="39" t="s">
+        <v>963</v>
+      </c>
+      <c r="AG35" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AI34" s="40" t="s">
+      <c r="AH35" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AJ34" s="40"/>
-      <c r="AK34" s="40"/>
-      <c r="AL34" s="40" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" s="33" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>960</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="35">
-        <v>2008</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>559</v>
-      </c>
-      <c r="E35" s="33" t="s">
+      <c r="AI35" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AJ35" s="39" t="s">
+        <v>966</v>
+      </c>
+      <c r="AK35" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AL35" s="39" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" s="32" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="34">
+        <v>2006</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="E36" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F35" s="44" t="s">
-        <v>671</v>
-      </c>
-      <c r="G35" s="45" t="s">
+      <c r="F36" s="42" t="s">
+        <v>516</v>
+      </c>
+      <c r="G36" s="43" t="s">
         <v>677</v>
       </c>
-      <c r="H35" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="L35" s="34">
+      <c r="H36" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="L36" s="33">
         <v>6</v>
       </c>
-      <c r="M35" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="N35" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="O35" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="P35" s="33" t="s">
-        <v>680</v>
-      </c>
-      <c r="Q35" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="R35" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="S35" s="34">
-        <v>2</v>
-      </c>
-      <c r="T35" s="39" t="s">
-        <v>735</v>
-      </c>
-      <c r="U35" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="V35" s="18" t="s">
-        <v>968</v>
-      </c>
-      <c r="W35" s="18" t="s">
-        <v>774</v>
-      </c>
-      <c r="X35" s="40" t="s">
-        <v>961</v>
-      </c>
-      <c r="Y35" s="48" t="s">
-        <v>962</v>
-      </c>
-      <c r="Z35" s="40" t="s">
+      <c r="M36" s="40"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="U36" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="V36" s="18" t="s">
+        <v>1077</v>
+      </c>
+      <c r="W36" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="X36" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="AA35" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AB35" s="40" t="s">
-        <v>963</v>
-      </c>
-      <c r="AC35" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="AD35" s="40" t="s">
-        <v>964</v>
-      </c>
-      <c r="AE35" s="40" t="s">
-        <v>965</v>
-      </c>
-      <c r="AF35" s="40" t="s">
-        <v>966</v>
-      </c>
-      <c r="AG35" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AH35" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AI35" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AJ35" s="40" t="s">
-        <v>969</v>
-      </c>
-      <c r="AK35" s="40" t="s">
-        <v>684</v>
-      </c>
-      <c r="AL35" s="40" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
-        <v>515</v>
-      </c>
-      <c r="B36" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="62">
-        <v>2006</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>534</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>516</v>
-      </c>
-      <c r="G36" s="64" t="s">
-        <v>677</v>
-      </c>
-      <c r="H36" s="60" t="s">
-        <v>680</v>
-      </c>
-      <c r="I36" s="60" t="s">
-        <v>680</v>
-      </c>
-      <c r="J36" s="60" t="s">
-        <v>680</v>
-      </c>
-      <c r="K36" s="60" t="s">
-        <v>680</v>
-      </c>
-      <c r="L36" s="61">
-        <f>LOOKUP(I36,{"?","N","Y"},{1,0,2}) + LOOKUP(J36,{"?","N","Y"},{1,0,2}) + LOOKUP(K36,{"?","N","Y"},{1,0,2})</f>
-        <v>6</v>
-      </c>
-      <c r="M36" s="65"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="68"/>
-      <c r="AF36" s="68"/>
-      <c r="AG36" s="68"/>
-      <c r="AH36" s="68"/>
-      <c r="AI36" s="68"/>
-      <c r="AJ36" s="68"/>
-      <c r="AK36" s="68"/>
-      <c r="AL36" s="68"/>
+      <c r="Y36" s="46" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Z36" s="39" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AA36" s="39" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AB36" s="39" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AC36" s="39" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AD36" s="39" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AE36" s="39" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AF36" s="39" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AG36" s="39" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AH36" s="39" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AI36" s="39" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
@@ -12671,8 +12897,9 @@
     <sortCondition descending="1" ref="L3:L130"/>
     <sortCondition ref="B3:B130"/>
   </sortState>
-  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="60" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12704,61 +12931,61 @@
     <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.28515625" customWidth="1"/>
     <col min="16" max="16" width="24" style="24" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" style="49" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" style="47" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
     <col min="20" max="20" width="27.5703125" customWidth="1"/>
     <col min="23" max="23" width="21" style="24" customWidth="1"/>
     <col min="24" max="24" width="22.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="70" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="C1" s="70" t="s">
-        <v>978</v>
-      </c>
-      <c r="D1" s="70" t="s">
+    <row r="1" spans="1:24" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C1" s="61" t="s">
+        <v>975</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="70" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>988</v>
-      </c>
-      <c r="G1" s="70" t="s">
-        <v>990</v>
-      </c>
-      <c r="H1" s="70" t="s">
-        <v>989</v>
-      </c>
-      <c r="I1" s="71" t="s">
-        <v>1004</v>
-      </c>
-      <c r="J1" s="71" t="s">
+      <c r="E1" s="61" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>985</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>987</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>986</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L1" s="61" t="s">
         <v>1026</v>
       </c>
-      <c r="K1" s="70" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L1" s="70" t="s">
+      <c r="M1" s="62" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>984</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P1" s="63" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>997</v>
+      </c>
+      <c r="R1" s="61" t="s">
         <v>1029</v>
-      </c>
-      <c r="M1" s="71" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N1" s="70" t="s">
-        <v>987</v>
-      </c>
-      <c r="O1" s="70" t="s">
-        <v>1030</v>
-      </c>
-      <c r="P1" s="72" t="s">
-        <v>999</v>
-      </c>
-      <c r="Q1" s="73" t="s">
-        <v>1000</v>
-      </c>
-      <c r="R1" s="70" t="s">
-        <v>1032</v>
       </c>
       <c r="W1" s="15"/>
       <c r="X1" s="16"/>
@@ -12783,96 +13010,96 @@
         <v>2008</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="S2" s="24"/>
       <c r="T2" s="18"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>389</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>2011</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35" t="s">
-        <v>992</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>1006</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="Q3" s="47"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="40"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34" t="s">
+        <v>989</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="Q3" s="45"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="39"/>
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>2004</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="Q4" s="47"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="40"/>
+      <c r="E4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="Q4" s="45"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="39"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>2008</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34">
         <v>2007</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35" t="s">
-        <v>993</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="48"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="40"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="46"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="39"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
@@ -12894,78 +13121,78 @@
         <v>2010</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="S6" s="24"/>
       <c r="T6" s="19"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>448</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>2011</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35" t="s">
-        <v>993</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>1009</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="48"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="40"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="46"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="39"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>2007</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34">
         <v>2005</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>2007</v>
       </c>
-      <c r="H8" s="35" t="s">
-        <v>994</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="H8" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J8" s="32"/>
+      <c r="M8" s="32"/>
       <c r="N8" t="s">
-        <v>998</v>
-      </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="48"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="40"/>
+        <v>995</v>
+      </c>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="46"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="39"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
@@ -12981,144 +13208,144 @@
         <v>2005</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="S9" s="24"/>
       <c r="T9" s="19"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>2007</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="33" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="M10" s="32"/>
       <c r="N10" t="s">
+        <v>976</v>
+      </c>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="46"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="34">
+        <v>2007</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34">
+        <v>2005</v>
+      </c>
+      <c r="G11" s="34">
+        <v>2007</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" t="s">
+        <v>977</v>
+      </c>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="46"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="39"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="34">
+        <v>2009</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34">
+        <v>2006</v>
+      </c>
+      <c r="G12" s="34">
+        <v>2008</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" t="s">
+        <v>978</v>
+      </c>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="46"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="39"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>842</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="34">
+        <v>2010</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" t="s">
         <v>979</v>
       </c>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="48"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="40"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="35">
-        <v>2007</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35">
-        <v>2005</v>
-      </c>
-      <c r="G11" s="35">
-        <v>2007</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>994</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>1012</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" t="s">
-        <v>980</v>
-      </c>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="48"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="40"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="35">
-        <v>2009</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35">
-        <v>2006</v>
-      </c>
-      <c r="G12" s="35">
-        <v>2008</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>994</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" t="s">
-        <v>981</v>
-      </c>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="48"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="40"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>845</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="35">
-        <v>2010</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35" t="s">
-        <v>993</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>1015</v>
-      </c>
-      <c r="J13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" t="s">
-        <v>982</v>
-      </c>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="48"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="40"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="46"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="39"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
@@ -13140,331 +13367,331 @@
         <v>2003</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="S14" s="24"/>
       <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>854</v>
-      </c>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="33" t="s">
+        <v>851</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>2011</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="33" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="46"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="39"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="34">
+        <v>2005</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34">
+        <v>1999</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="46"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="39"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="34">
+        <v>2009</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34">
+        <v>2007</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34" t="s">
+        <v>992</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" t="s">
+        <v>980</v>
+      </c>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="46"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="39"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>884</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="34">
+        <v>2007</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34">
+        <v>2004</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34" t="s">
+        <v>993</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>1016</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="48"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="40"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="J18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" t="s">
+        <v>981</v>
+      </c>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="46"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="39"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D19" s="34">
+        <v>2003</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34">
+        <v>2002</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" t="s">
+        <v>982</v>
+      </c>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="46"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="39"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="34">
+        <v>2007</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34" t="s">
+        <v>994</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" t="s">
+        <v>983</v>
+      </c>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="46"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="39"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="34">
+        <v>2011</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34">
+        <v>2007</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" t="s">
+        <v>901</v>
+      </c>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="46"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="39"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>925</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="34">
+        <v>2009</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" t="s">
+        <v>901</v>
+      </c>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="46"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="39"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>935</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="34">
+        <v>2008</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34">
         <v>2005</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35">
-        <v>1999</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35" t="s">
-        <v>993</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="48"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="40"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="G23" s="34">
+        <v>2007</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" t="s">
+        <v>939</v>
+      </c>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="46"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="39"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="35">
-        <v>2009</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35">
-        <v>2007</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35" t="s">
-        <v>995</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" t="s">
-        <v>983</v>
-      </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="48"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="40"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>887</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D18" s="35">
-        <v>2007</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35">
-        <v>2004</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35" t="s">
-        <v>996</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" t="s">
-        <v>984</v>
-      </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="48"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="40"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" s="35">
-        <v>2003</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35">
-        <v>2002</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="33" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" t="s">
-        <v>985</v>
-      </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="48"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="40"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>916</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="35">
-        <v>2007</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35" t="s">
-        <v>997</v>
-      </c>
-      <c r="I20" s="33" t="s">
+      <c r="D24" s="34">
+        <v>2008</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="32" t="s">
         <v>1021</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" t="s">
-        <v>986</v>
-      </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="48"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="40"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="35">
-        <v>2011</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35">
-        <v>2007</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35" t="s">
-        <v>993</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" t="s">
-        <v>904</v>
-      </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="48"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="40"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>928</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>522</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="35">
-        <v>2009</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" t="s">
-        <v>904</v>
-      </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="48"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="40"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>938</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>633</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D23" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35">
-        <v>2005</v>
-      </c>
-      <c r="G23" s="35">
-        <v>2007</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>994</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" t="s">
-        <v>942</v>
-      </c>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="48"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="40"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>951</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>430</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" s="35">
-        <v>2008</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="33" t="s">
-        <v>1024</v>
-      </c>
-      <c r="J24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="J24" s="32"/>
+      <c r="M24" s="32"/>
       <c r="N24" t="s">
-        <v>904</v>
-      </c>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="48"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="40"/>
+        <v>901</v>
+      </c>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="46"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="39"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
@@ -13533,87 +13760,87 @@
       <c r="T28" s="19"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="33" t="s">
         <v>490</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="34">
         <v>2007</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34">
         <v>2004</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="40" t="s">
-        <v>942</v>
-      </c>
-      <c r="O29" s="40"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="39" t="s">
+        <v>939</v>
+      </c>
+      <c r="O29" s="39"/>
       <c r="P29"/>
       <c r="Q29"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>960</v>
-      </c>
-      <c r="B30" s="34" t="s">
+      <c r="A30" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="34">
         <v>2008</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35">
+      <c r="E30" s="34"/>
+      <c r="F30" s="34">
         <v>2006</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35" t="s">
-        <v>994</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>1025</v>
-      </c>
-      <c r="J30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="40" t="s">
-        <v>904</v>
-      </c>
-      <c r="O30" s="40"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="O30" s="39"/>
       <c r="P30"/>
       <c r="Q30"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="59" t="s">
         <v>515</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="60">
         <v>2006</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="M31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="M31" s="58"/>
       <c r="P31"/>
       <c r="Q31"/>
     </row>
@@ -13631,13 +13858,13 @@
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="P45"/>
       <c r="Q45"/>
@@ -13653,7 +13880,7 @@
         <f t="shared" ref="F46:F56" si="0">COUNTIF(D$2:D$31,D46)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="74">
+      <c r="G46" s="65">
         <v>0</v>
       </c>
       <c r="H46" s="22">
@@ -13672,7 +13899,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G47" s="74">
+      <c r="G47" s="65">
         <v>0</v>
       </c>
       <c r="H47" s="22">
@@ -13689,7 +13916,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G48" s="74">
+      <c r="G48" s="65">
         <v>0</v>
       </c>
       <c r="H48" s="22">
@@ -13706,7 +13933,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G49" s="74">
+      <c r="G49" s="65">
         <v>1</v>
       </c>
       <c r="H49" s="22">
@@ -13723,7 +13950,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G50" s="74">
+      <c r="G50" s="65">
         <v>0</v>
       </c>
       <c r="H50" s="22">
@@ -13740,7 +13967,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G51" s="74">
+      <c r="G51" s="65">
         <v>0</v>
       </c>
       <c r="H51" s="22">
@@ -13757,7 +13984,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G52" s="74">
+      <c r="G52" s="65">
         <v>0</v>
       </c>
       <c r="H52" s="22">
@@ -13774,7 +14001,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G53" s="74">
+      <c r="G53" s="65">
         <v>0</v>
       </c>
       <c r="H53" s="22">
@@ -13791,7 +14018,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G54" s="74">
+      <c r="G54" s="65">
         <v>1</v>
       </c>
       <c r="H54" s="22">
@@ -13808,7 +14035,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G55" s="74">
+      <c r="G55" s="65">
         <v>0</v>
       </c>
       <c r="H55" s="22">
@@ -13825,7 +14052,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G56" s="74">
+      <c r="G56" s="65">
         <v>1</v>
       </c>
       <c r="H56" s="22">

--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1111">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -2215,9 +2215,6 @@
     <t>The experiment may be considered a failure if evaluated as faithful application of XP. Some teams adapt better to the new methodology than others. The XP methodology does not suit all projects, e.g. maintenance and mainframe projects. Collaboration is a core value in XP, and it relies on buy-in on the lowest organizational levels. Customers were happy with the increased level of involvement. XP is a development process, but not an end-to-end delivery system that the company required. XP creates confusion of the managers' roles. XP (as other agile aproaches) must be lead by focus on collaboration, but not top-down control. The organization showed great courage in commencing the process of change.</t>
   </si>
   <si>
-    <t>X?</t>
-  </si>
-  <si>
     <t>Author bias</t>
   </si>
   <si>
@@ -3451,6 +3448,42 @@
   <si>
     <t>There were significantly less issued perceived in the new model. The issues perceived in agile were less common than issues in the original model. Less perceived requirements change and rework, measured requirements waste down from 26% to 4%.
 The results of the case study indicate that it is beneficial for large-scale organizations using a plan-driven approach to introduce incremental and agile practices.</t>
+  </si>
+  <si>
+    <t>160000 p</t>
+  </si>
+  <si>
+    <t>80 p</t>
+  </si>
+  <si>
+    <t>60 p / 20 p in pilot</t>
+  </si>
+  <si>
+    <t>ID, Scrum and XP combining</t>
+  </si>
+  <si>
+    <t>Scrum, tailored</t>
+  </si>
+  <si>
+    <t>Lean and agile, Scrum roles</t>
+  </si>
+  <si>
+    <t>Scrum roles, TDD</t>
+  </si>
+  <si>
+    <t>Scrum, mix of practices known from XP</t>
+  </si>
+  <si>
+    <t>In-house methods not based directly on XP; mixing JAD, ASD</t>
+  </si>
+  <si>
+    <t>In-house; not directly XP; mixing JAD, ASD</t>
+  </si>
+  <si>
+    <t>Strict qualitative research process. Interviews.</t>
+  </si>
+  <si>
+    <t>Author manager in organization</t>
   </si>
 </sst>
 </file>
@@ -3519,18 +3552,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -3593,7 +3620,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3750,15 +3777,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3777,6 +3795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -6059,11 +6078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6072,28 +6091,28 @@
     <col min="2" max="2" width="47.140625" style="24" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="25" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="89.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="22" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="26" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="27" customWidth="1"/>
-    <col min="8" max="10" width="4.28515625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="6" style="24" customWidth="1"/>
+    <col min="7" max="7" width="4" style="27" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="4.28515625" style="22" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="22" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="24" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="4.28515625" style="21" customWidth="1"/>
     <col min="14" max="16" width="4.28515625" style="22" customWidth="1"/>
     <col min="17" max="18" width="4.85546875" style="22" customWidth="1"/>
     <col min="19" max="19" width="7.85546875" style="24" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" style="17" customWidth="1"/>
-    <col min="21" max="21" width="18" style="30" customWidth="1"/>
-    <col min="22" max="23" width="21.140625" style="30" customWidth="1"/>
-    <col min="24" max="24" width="22.5703125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="17.5703125" style="47" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" style="17" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="18" style="30" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="21.140625" style="30" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="22.5703125" style="19" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" style="47" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="47.85546875" style="19" customWidth="1"/>
     <col min="27" max="27" width="47.42578125" style="19" customWidth="1"/>
-    <col min="28" max="28" width="91.140625" style="19" customWidth="1"/>
+    <col min="28" max="28" width="87.85546875" style="19" customWidth="1"/>
     <col min="29" max="29" width="22.42578125" style="19" customWidth="1"/>
-    <col min="30" max="30" width="56.42578125" style="19" customWidth="1"/>
-    <col min="31" max="31" width="66.28515625" style="19" customWidth="1"/>
-    <col min="32" max="32" width="66.42578125" style="19" customWidth="1"/>
+    <col min="30" max="30" width="65.7109375" style="19" customWidth="1"/>
+    <col min="31" max="31" width="65.140625" style="19" customWidth="1"/>
+    <col min="32" max="32" width="76.5703125" style="19" customWidth="1"/>
     <col min="33" max="33" width="37" style="19" customWidth="1"/>
     <col min="34" max="34" width="42.5703125" style="19" customWidth="1"/>
     <col min="35" max="35" width="44.85546875" style="19" customWidth="1"/>
@@ -6130,19 +6149,19 @@
         <v>688</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>735</v>
-      </c>
       <c r="Q1" s="13" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="R1" s="13" t="s">
         <v>714</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T1" s="16" t="s">
         <v>712</v>
@@ -6151,10 +6170,10 @@
         <v>714</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W1" s="16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="X1" s="16" t="s">
         <v>689</v>
@@ -6172,34 +6191,34 @@
         <v>698</v>
       </c>
       <c r="AC1" s="16" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AD1" s="16" t="s">
         <v>708</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AF1" s="16" t="s">
         <v>678</v>
       </c>
       <c r="AG1" s="16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AH1" s="16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AI1" s="16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AJ1" s="28" t="s">
         <v>711</v>
       </c>
       <c r="AK1" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="AL1" s="28" t="s">
         <v>728</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -6248,7 +6267,7 @@
     </row>
     <row r="4" spans="1:38" s="32" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>624</v>
@@ -6290,9 +6309,11 @@
         <v>680</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>724</v>
-      </c>
-      <c r="P4" s="23"/>
+        <v>679</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>680</v>
+      </c>
       <c r="Q4" s="23" t="s">
         <v>680</v>
       </c>
@@ -6303,10 +6324,14 @@
         <v>3</v>
       </c>
       <c r="T4" s="41" t="s">
-        <v>733</v>
-      </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
+        <v>732</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>1110</v>
+      </c>
       <c r="W4" s="18"/>
       <c r="X4" s="18" t="s">
         <v>690</v>
@@ -6324,7 +6349,7 @@
         <v>697</v>
       </c>
       <c r="AC4" s="39" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AD4" s="39" t="s">
         <v>705</v>
@@ -6335,16 +6360,20 @@
       <c r="AF4" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="AG4" s="39"/>
+      <c r="AG4" s="39" t="s">
+        <v>684</v>
+      </c>
       <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
+      <c r="AI4" s="39" t="s">
+        <v>684</v>
+      </c>
       <c r="AJ4" s="39"/>
       <c r="AK4" s="39"/>
       <c r="AL4" s="39"/>
     </row>
     <row r="5" spans="1:38" s="32" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>389</v>
@@ -6401,60 +6430,60 @@
         <v>3</v>
       </c>
       <c r="T5" s="41" t="s">
+        <v>753</v>
+      </c>
+      <c r="U5" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="V5" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="W5" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="X5" s="39" t="s">
         <v>755</v>
       </c>
-      <c r="V5" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="W5" s="18" t="s">
+      <c r="Y5" s="46" t="s">
+        <v>760</v>
+      </c>
+      <c r="Z5" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="X5" s="39" t="s">
-        <v>756</v>
-      </c>
-      <c r="Y5" s="46" t="s">
+      <c r="AA5" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB5" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="AC5" s="39" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AD5" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE5" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="AF5" s="39" t="s">
         <v>761</v>
-      </c>
-      <c r="Z5" s="39" t="s">
-        <v>759</v>
-      </c>
-      <c r="AA5" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="AB5" s="39" t="s">
-        <v>764</v>
-      </c>
-      <c r="AC5" s="39" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AD5" s="39" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE5" s="39" t="s">
-        <v>748</v>
-      </c>
-      <c r="AF5" s="39" t="s">
-        <v>762</v>
       </c>
       <c r="AG5" s="39"/>
       <c r="AH5" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AI5" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AJ5" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AK5" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AL5" s="39"/>
     </row>
-    <row r="6" spans="1:38" s="32" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>647</v>
       </c>
@@ -6514,24 +6543,30 @@
         <v>1</v>
       </c>
       <c r="T6" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X6" s="39"/>
       <c r="Y6" s="46"/>
       <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
+      <c r="AA6" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB6" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="AC6" s="39" t="s">
+        <v>1107</v>
+      </c>
       <c r="AD6" s="39"/>
       <c r="AE6" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF6" s="39"/>
       <c r="AG6" s="39"/>
@@ -6543,7 +6578,7 @@
     </row>
     <row r="7" spans="1:38" s="32" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>354</v>
@@ -6600,60 +6635,60 @@
         <v>4</v>
       </c>
       <c r="T7" s="41" t="s">
+        <v>776</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="V7" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="W7" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="X7" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="Y7" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>781</v>
+      </c>
+      <c r="AA7" s="39" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB7" s="39" t="s">
+        <v>772</v>
+      </c>
+      <c r="AC7" s="39" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AD7" s="39" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE7" s="39" t="s">
+        <v>782</v>
+      </c>
+      <c r="AF7" s="39" t="s">
         <v>777</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="AG7" s="39" t="s">
         <v>774</v>
       </c>
-      <c r="V7" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>784</v>
-      </c>
-      <c r="X7" s="39" t="s">
-        <v>769</v>
-      </c>
-      <c r="Y7" s="46" t="s">
-        <v>772</v>
-      </c>
-      <c r="Z7" s="39" t="s">
-        <v>782</v>
-      </c>
-      <c r="AA7" s="39" t="s">
-        <v>781</v>
-      </c>
-      <c r="AB7" s="39" t="s">
-        <v>773</v>
-      </c>
-      <c r="AC7" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AD7" s="39" t="s">
+      <c r="AH7" s="39" t="s">
         <v>779</v>
       </c>
-      <c r="AE7" s="39" t="s">
-        <v>783</v>
-      </c>
-      <c r="AF7" s="39" t="s">
-        <v>778</v>
-      </c>
-      <c r="AG7" s="39" t="s">
+      <c r="AI7" s="39" t="s">
         <v>775</v>
-      </c>
-      <c r="AH7" s="39" t="s">
-        <v>780</v>
-      </c>
-      <c r="AI7" s="39" t="s">
-        <v>776</v>
       </c>
       <c r="AJ7" s="39"/>
       <c r="AK7" s="39"/>
       <c r="AL7" s="39"/>
     </row>
-    <row r="8" spans="1:38" s="32" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" s="32" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>357</v>
@@ -6710,58 +6745,58 @@
         <v>5</v>
       </c>
       <c r="T8" s="41" t="s">
+        <v>1067</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="V8" s="63" t="s">
+        <v>750</v>
+      </c>
+      <c r="W8" s="63"/>
+      <c r="X8" s="39" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y8" s="46" t="s">
         <v>1068</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="Z8" s="39" t="s">
         <v>737</v>
       </c>
-      <c r="V8" s="66" t="s">
-        <v>751</v>
-      </c>
-      <c r="W8" s="66"/>
-      <c r="X8" s="39" t="s">
-        <v>739</v>
-      </c>
-      <c r="Y8" s="46" t="s">
-        <v>1069</v>
-      </c>
-      <c r="Z8" s="39" t="s">
-        <v>738</v>
-      </c>
       <c r="AA8" s="39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AB8" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AC8" s="39" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AD8" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AE8" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AF8" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AG8" s="39"/>
       <c r="AH8" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AI8" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AJ8" s="39"/>
       <c r="AK8" s="39" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AL8" s="39"/>
     </row>
     <row r="9" spans="1:38" s="32" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>449</v>
@@ -6818,50 +6853,50 @@
         <v>4</v>
       </c>
       <c r="T9" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="W9" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="X9" s="39" t="s">
         <v>786</v>
       </c>
-      <c r="X9" s="39" t="s">
+      <c r="Y9" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z9" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="AA9" s="39" t="s">
         <v>787</v>
       </c>
-      <c r="Y9" s="46" t="s">
+      <c r="AB9" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="AC9" s="39" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AD9" s="39" t="s">
+        <v>790</v>
+      </c>
+      <c r="AE9" s="39" t="s">
+        <v>791</v>
+      </c>
+      <c r="AF9" s="39" t="s">
+        <v>792</v>
+      </c>
+      <c r="AG9" s="39" t="s">
+        <v>796</v>
+      </c>
+      <c r="AH9" s="39" t="s">
+        <v>795</v>
+      </c>
+      <c r="AI9" s="39" t="s">
         <v>794</v>
-      </c>
-      <c r="Z9" s="39" t="s">
-        <v>789</v>
-      </c>
-      <c r="AA9" s="39" t="s">
-        <v>788</v>
-      </c>
-      <c r="AB9" s="39" t="s">
-        <v>790</v>
-      </c>
-      <c r="AC9" s="39" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AD9" s="39" t="s">
-        <v>791</v>
-      </c>
-      <c r="AE9" s="39" t="s">
-        <v>792</v>
-      </c>
-      <c r="AF9" s="39" t="s">
-        <v>793</v>
-      </c>
-      <c r="AG9" s="39" t="s">
-        <v>797</v>
-      </c>
-      <c r="AH9" s="39" t="s">
-        <v>796</v>
-      </c>
-      <c r="AI9" s="39" t="s">
-        <v>795</v>
       </c>
       <c r="AJ9" s="39"/>
       <c r="AK9" s="39"/>
@@ -6927,46 +6962,46 @@
         <v>3</v>
       </c>
       <c r="T10" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V10" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="W10" s="18" t="s">
         <v>799</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="X10" s="39" t="s">
         <v>800</v>
       </c>
-      <c r="X10" s="39" t="s">
+      <c r="Y10" s="46" t="s">
         <v>801</v>
-      </c>
-      <c r="Y10" s="46" t="s">
-        <v>802</v>
       </c>
       <c r="Z10" s="39"/>
       <c r="AA10" s="39" t="s">
+        <v>802</v>
+      </c>
+      <c r="AB10" s="39" t="s">
         <v>803</v>
       </c>
-      <c r="AB10" s="39" t="s">
+      <c r="AC10" s="39" t="s">
         <v>804</v>
       </c>
-      <c r="AC10" s="39" t="s">
+      <c r="AD10" s="39" t="s">
         <v>805</v>
       </c>
-      <c r="AD10" s="39" t="s">
+      <c r="AE10" s="39" t="s">
         <v>806</v>
       </c>
-      <c r="AE10" s="39" t="s">
+      <c r="AF10" s="39" t="s">
         <v>807</v>
-      </c>
-      <c r="AF10" s="39" t="s">
-        <v>808</v>
       </c>
       <c r="AG10" s="39"/>
       <c r="AH10" s="39"/>
       <c r="AI10" s="39" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AJ10" s="39"/>
       <c r="AK10" s="39"/>
@@ -6974,7 +7009,7 @@
     </row>
     <row r="11" spans="1:38" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>384</v>
@@ -7018,6 +7053,9 @@
       <c r="O11" s="32" t="s">
         <v>680</v>
       </c>
+      <c r="P11" s="32" t="s">
+        <v>679</v>
+      </c>
       <c r="Q11" s="32" t="s">
         <v>679</v>
       </c>
@@ -7030,7 +7068,9 @@
       <c r="T11" s="41" t="s">
         <v>713</v>
       </c>
-      <c r="U11" s="18"/>
+      <c r="U11" s="18" t="s">
+        <v>1109</v>
+      </c>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="X11" s="39" t="s">
@@ -7049,7 +7089,7 @@
         <v>704</v>
       </c>
       <c r="AC11" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AD11" s="39" t="s">
         <v>707</v>
@@ -7130,31 +7170,31 @@
       </c>
       <c r="T12" s="38"/>
       <c r="U12" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="V12" s="18" t="s">
         <v>813</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>814</v>
       </c>
       <c r="W12" s="18"/>
       <c r="X12" s="39" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Y12" s="46"/>
       <c r="Z12" s="39"/>
       <c r="AA12" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="AB12" s="39" t="s">
+        <v>817</v>
+      </c>
+      <c r="AC12" s="39" t="s">
+        <v>816</v>
+      </c>
+      <c r="AD12" s="39" t="s">
         <v>815</v>
       </c>
-      <c r="AB12" s="39" t="s">
-        <v>818</v>
-      </c>
-      <c r="AC12" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="AD12" s="39" t="s">
-        <v>816</v>
-      </c>
       <c r="AE12" s="39" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF12" s="39"/>
       <c r="AG12" s="39"/>
@@ -7162,11 +7202,11 @@
       <c r="AI12" s="39"/>
       <c r="AJ12" s="39"/>
       <c r="AK12" s="39" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AL12" s="39"/>
     </row>
-    <row r="13" spans="1:38" s="32" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" s="32" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>480</v>
       </c>
@@ -7226,56 +7266,56 @@
         <v>5</v>
       </c>
       <c r="T13" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X13" s="39" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y13" s="46" t="s">
         <v>827</v>
       </c>
-      <c r="Y13" s="46" t="s">
+      <c r="Z13" s="39" t="s">
+        <v>819</v>
+      </c>
+      <c r="AA13" s="39" t="s">
+        <v>818</v>
+      </c>
+      <c r="AB13" s="39" t="s">
+        <v>824</v>
+      </c>
+      <c r="AC13" s="39" t="s">
         <v>828</v>
       </c>
-      <c r="Z13" s="39" t="s">
-        <v>820</v>
-      </c>
-      <c r="AA13" s="39" t="s">
-        <v>819</v>
-      </c>
-      <c r="AB13" s="39" t="s">
+      <c r="AD13" s="39" t="s">
         <v>825</v>
-      </c>
-      <c r="AC13" s="39" t="s">
-        <v>829</v>
-      </c>
-      <c r="AD13" s="39" t="s">
-        <v>826</v>
       </c>
       <c r="AE13" s="39"/>
       <c r="AF13" s="39" t="s">
+        <v>821</v>
+      </c>
+      <c r="AG13" s="39" t="s">
         <v>822</v>
       </c>
-      <c r="AG13" s="39" t="s">
+      <c r="AH13" s="39" t="s">
+        <v>820</v>
+      </c>
+      <c r="AI13" s="39" t="s">
         <v>823</v>
-      </c>
-      <c r="AH13" s="39" t="s">
-        <v>821</v>
-      </c>
-      <c r="AI13" s="39" t="s">
-        <v>824</v>
       </c>
       <c r="AJ13" s="39"/>
       <c r="AK13" s="39"/>
       <c r="AL13" s="39"/>
     </row>
-    <row r="14" spans="1:38" s="32" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="32" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>419</v>
       </c>
@@ -7335,49 +7375,49 @@
         <v>5</v>
       </c>
       <c r="T14" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V14" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="X14" s="39" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y14" s="46" t="s">
+        <v>833</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="AA14" s="39" t="s">
         <v>832</v>
       </c>
-      <c r="W14" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="X14" s="39" t="s">
+      <c r="AB14" s="39" t="s">
+        <v>835</v>
+      </c>
+      <c r="AC14" s="39" t="s">
+        <v>834</v>
+      </c>
+      <c r="AD14" s="39" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE14" s="39" t="s">
+        <v>837</v>
+      </c>
+      <c r="AF14" s="39" t="s">
+        <v>836</v>
+      </c>
+      <c r="AG14" s="39" t="s">
         <v>830</v>
       </c>
-      <c r="Y14" s="46" t="s">
-        <v>834</v>
-      </c>
-      <c r="Z14" s="39" t="s">
-        <v>841</v>
-      </c>
-      <c r="AA14" s="39" t="s">
-        <v>833</v>
-      </c>
-      <c r="AB14" s="39" t="s">
-        <v>836</v>
-      </c>
-      <c r="AC14" s="39" t="s">
-        <v>835</v>
-      </c>
-      <c r="AD14" s="39" t="s">
+      <c r="AH14" s="39" t="s">
         <v>839</v>
-      </c>
-      <c r="AE14" s="39" t="s">
-        <v>838</v>
-      </c>
-      <c r="AF14" s="39" t="s">
-        <v>837</v>
-      </c>
-      <c r="AG14" s="39" t="s">
-        <v>831</v>
-      </c>
-      <c r="AH14" s="39" t="s">
-        <v>840</v>
       </c>
       <c r="AI14" s="39"/>
       <c r="AJ14" s="39"/>
@@ -7386,7 +7426,7 @@
     </row>
     <row r="15" spans="1:38" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>391</v>
@@ -7443,48 +7483,48 @@
         <v>2</v>
       </c>
       <c r="T15" s="41" t="s">
+        <v>842</v>
+      </c>
+      <c r="U15" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="U15" s="18" t="s">
+      <c r="V15" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="W15" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="X15" s="39" t="s">
         <v>845</v>
       </c>
-      <c r="W15" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="X15" s="39" t="s">
+      <c r="Y15" s="46" t="s">
         <v>846</v>
       </c>
-      <c r="Y15" s="46" t="s">
-        <v>847</v>
-      </c>
       <c r="Z15" s="39" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AA15" s="39"/>
       <c r="AB15" s="39"/>
       <c r="AC15" s="39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AD15" s="39"/>
       <c r="AE15" s="39"/>
       <c r="AF15" s="39" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AG15" s="39"/>
       <c r="AH15" s="39"/>
       <c r="AI15" s="39"/>
       <c r="AJ15" s="39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AK15" s="39"/>
       <c r="AL15" s="39"/>
     </row>
-    <row r="16" spans="1:38" s="32" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>202</v>
@@ -7541,7 +7581,7 @@
         <v>5</v>
       </c>
       <c r="T16" s="50" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U16" s="51"/>
       <c r="V16" s="51"/>
@@ -7562,7 +7602,7 @@
         <v>719</v>
       </c>
       <c r="AC16" s="39" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AD16" s="39" t="s">
         <v>723</v>
@@ -7577,7 +7617,7 @@
       <c r="AH16" s="39"/>
       <c r="AI16" s="39"/>
       <c r="AJ16" s="39" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AK16" s="39" t="s">
         <v>715</v>
@@ -7586,7 +7626,7 @@
     </row>
     <row r="17" spans="1:38" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>360</v>
@@ -7643,51 +7683,53 @@
         <v>3</v>
       </c>
       <c r="T17" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V17" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="W17" s="18" t="s">
+        <v>851</v>
+      </c>
+      <c r="X17" s="39" t="s">
         <v>852</v>
-      </c>
-      <c r="X17" s="39" t="s">
-        <v>853</v>
       </c>
       <c r="Y17" s="46" t="s">
         <v>684</v>
       </c>
       <c r="Z17" s="39" t="s">
+        <v>853</v>
+      </c>
+      <c r="AA17" s="39" t="s">
         <v>854</v>
       </c>
-      <c r="AA17" s="39" t="s">
+      <c r="AB17" s="39" t="s">
         <v>855</v>
       </c>
-      <c r="AB17" s="39" t="s">
+      <c r="AC17" s="39" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AD17" s="39" t="s">
         <v>856</v>
       </c>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39" t="s">
+      <c r="AE17" s="39" t="s">
         <v>857</v>
       </c>
-      <c r="AE17" s="39" t="s">
+      <c r="AF17" s="39" t="s">
         <v>858</v>
       </c>
-      <c r="AF17" s="39" t="s">
+      <c r="AG17" s="39" t="s">
         <v>859</v>
       </c>
-      <c r="AG17" s="39" t="s">
+      <c r="AH17" s="39" t="s">
         <v>860</v>
-      </c>
-      <c r="AH17" s="39" t="s">
-        <v>861</v>
       </c>
       <c r="AI17" s="39"/>
       <c r="AJ17" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AK17" s="39"/>
       <c r="AL17" s="39"/>
@@ -7752,49 +7794,49 @@
         <v>3</v>
       </c>
       <c r="T18" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="W18" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X18" s="39" t="s">
+        <v>862</v>
+      </c>
+      <c r="Y18" s="46" t="s">
+        <v>865</v>
+      </c>
+      <c r="Z18" s="39" t="s">
         <v>863</v>
       </c>
-      <c r="Y18" s="46" t="s">
+      <c r="AA18" s="39" t="s">
+        <v>864</v>
+      </c>
+      <c r="AB18" s="39" t="s">
+        <v>867</v>
+      </c>
+      <c r="AC18" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="Z18" s="39" t="s">
-        <v>864</v>
-      </c>
-      <c r="AA18" s="39" t="s">
-        <v>865</v>
-      </c>
-      <c r="AB18" s="39" t="s">
+      <c r="AD18" s="39" t="s">
+        <v>874</v>
+      </c>
+      <c r="AE18" s="39" t="s">
         <v>868</v>
-      </c>
-      <c r="AC18" s="39" t="s">
-        <v>867</v>
-      </c>
-      <c r="AD18" s="39" t="s">
-        <v>875</v>
-      </c>
-      <c r="AE18" s="39" t="s">
-        <v>869</v>
       </c>
       <c r="AF18" s="39"/>
       <c r="AG18" s="39"/>
       <c r="AH18" s="39" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AI18" s="39"/>
       <c r="AJ18" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AK18" s="39"/>
       <c r="AL18" s="39"/>
@@ -7859,48 +7901,48 @@
         <v>3</v>
       </c>
       <c r="T19" s="48" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U19" s="49" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V19" s="49" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="W19" s="49" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X19" s="39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Y19" s="46" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Z19" s="39"/>
       <c r="AA19" s="39" t="s">
+        <v>871</v>
+      </c>
+      <c r="AB19" s="39" t="s">
+        <v>879</v>
+      </c>
+      <c r="AC19" s="39" t="s">
         <v>872</v>
       </c>
-      <c r="AB19" s="39" t="s">
+      <c r="AD19" s="39" t="s">
         <v>880</v>
       </c>
-      <c r="AC19" s="39" t="s">
-        <v>873</v>
-      </c>
-      <c r="AD19" s="39" t="s">
-        <v>881</v>
-      </c>
       <c r="AE19" s="39" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AF19" s="39" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AG19" s="39" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AH19" s="39"/>
       <c r="AI19" s="39" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AJ19" s="39"/>
       <c r="AK19" s="39"/>
@@ -7908,7 +7950,7 @@
     </row>
     <row r="20" spans="1:38" s="32" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>289</v>
@@ -7965,43 +8007,43 @@
         <v>3</v>
       </c>
       <c r="T20" s="50" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U20" s="51" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V20" s="51" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="W20" s="51" t="s">
+        <v>884</v>
+      </c>
+      <c r="X20" s="39" t="s">
         <v>885</v>
       </c>
-      <c r="X20" s="39" t="s">
+      <c r="Y20" s="46" t="s">
         <v>886</v>
       </c>
-      <c r="Y20" s="46" t="s">
+      <c r="Z20" s="39" t="s">
         <v>887</v>
       </c>
-      <c r="Z20" s="39" t="s">
+      <c r="AA20" s="39" t="s">
         <v>888</v>
       </c>
-      <c r="AA20" s="39" t="s">
+      <c r="AB20" s="39" t="s">
         <v>889</v>
       </c>
-      <c r="AB20" s="39" t="s">
+      <c r="AC20" s="39" t="s">
         <v>890</v>
       </c>
-      <c r="AC20" s="39" t="s">
+      <c r="AD20" s="39" t="s">
         <v>891</v>
-      </c>
-      <c r="AD20" s="39" t="s">
-        <v>892</v>
       </c>
       <c r="AE20" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AF20" s="39" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AG20" s="39" t="s">
         <v>684</v>
@@ -8055,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:38" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -8122,38 +8164,38 @@
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
       <c r="X22" s="39" t="s">
+        <v>905</v>
+      </c>
+      <c r="Y22" s="46" t="s">
         <v>906</v>
       </c>
-      <c r="Y22" s="46" t="s">
+      <c r="Z22" s="39" t="s">
+        <v>911</v>
+      </c>
+      <c r="AA22" s="39" t="s">
         <v>907</v>
-      </c>
-      <c r="Z22" s="39" t="s">
-        <v>912</v>
-      </c>
-      <c r="AA22" s="39" t="s">
-        <v>908</v>
       </c>
       <c r="AB22" s="39"/>
       <c r="AC22" s="39" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AD22" s="39"/>
       <c r="AE22" s="39" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AF22" s="39"/>
       <c r="AG22" s="39"/>
       <c r="AH22" s="39"/>
       <c r="AI22" s="39"/>
       <c r="AJ22" s="39" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AK22" s="39"/>
       <c r="AL22" s="39"/>
     </row>
-    <row r="23" spans="1:38" s="32" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" s="32" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>339</v>
@@ -8210,46 +8252,46 @@
         <v>5</v>
       </c>
       <c r="T23" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="W23" s="18" t="s">
+        <v>913</v>
+      </c>
+      <c r="X23" s="39" t="s">
         <v>914</v>
       </c>
-      <c r="X23" s="39" t="s">
+      <c r="Y23" s="46" t="s">
         <v>915</v>
       </c>
-      <c r="Y23" s="46" t="s">
+      <c r="Z23" s="39" t="s">
         <v>916</v>
       </c>
-      <c r="Z23" s="39" t="s">
+      <c r="AA23" s="39" t="s">
         <v>917</v>
       </c>
-      <c r="AA23" s="39" t="s">
+      <c r="AB23" s="39" t="s">
         <v>918</v>
       </c>
-      <c r="AB23" s="39" t="s">
+      <c r="AC23" s="39" t="s">
         <v>919</v>
       </c>
-      <c r="AC23" s="39" t="s">
+      <c r="AD23" s="39" t="s">
         <v>920</v>
       </c>
-      <c r="AD23" s="39" t="s">
+      <c r="AE23" s="39" t="s">
         <v>921</v>
-      </c>
-      <c r="AE23" s="39" t="s">
-        <v>922</v>
       </c>
       <c r="AF23" s="39"/>
       <c r="AG23" s="39"/>
       <c r="AH23" s="39"/>
       <c r="AI23" s="39" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AJ23" s="39"/>
       <c r="AK23" s="39"/>
@@ -8294,7 +8336,7 @@
         <v>6</v>
       </c>
       <c r="T24" s="52" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="25" spans="1:38" s="32" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -8357,55 +8399,55 @@
         <v>3</v>
       </c>
       <c r="T25" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U25" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V25" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="W25" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="X25" s="39" t="s">
         <v>895</v>
       </c>
-      <c r="W25" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="X25" s="39" t="s">
-        <v>896</v>
-      </c>
       <c r="Y25" s="46" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="Z25" s="39" t="s">
+        <v>897</v>
+      </c>
+      <c r="AA25" s="39" t="s">
+        <v>866</v>
+      </c>
+      <c r="AB25" s="39" t="s">
+        <v>903</v>
+      </c>
+      <c r="AC25" s="39" t="s">
+        <v>900</v>
+      </c>
+      <c r="AD25" s="39" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE25" s="39" t="s">
         <v>898</v>
       </c>
-      <c r="AA25" s="39" t="s">
-        <v>867</v>
-      </c>
-      <c r="AB25" s="39" t="s">
-        <v>904</v>
-      </c>
-      <c r="AC25" s="39" t="s">
+      <c r="AF25" s="39" t="s">
         <v>901</v>
-      </c>
-      <c r="AD25" s="39" t="s">
-        <v>903</v>
-      </c>
-      <c r="AE25" s="39" t="s">
-        <v>899</v>
-      </c>
-      <c r="AF25" s="39" t="s">
-        <v>902</v>
       </c>
       <c r="AG25" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AH25" s="39" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AI25" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AJ25" s="39" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AK25" s="39"/>
       <c r="AL25" s="39"/>
@@ -8449,12 +8491,12 @@
         <v>6</v>
       </c>
       <c r="T26" s="52" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" s="32" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>924</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>925</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>522</v>
@@ -8511,16 +8553,16 @@
         <v>3</v>
       </c>
       <c r="T27" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U27" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V27" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="W27" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X27" s="39" t="s">
         <v>684</v>
@@ -8529,44 +8571,44 @@
         <v>684</v>
       </c>
       <c r="Z27" s="39" t="s">
+        <v>925</v>
+      </c>
+      <c r="AA27" s="39" t="s">
         <v>926</v>
       </c>
-      <c r="AA27" s="39" t="s">
+      <c r="AB27" s="39" t="s">
         <v>927</v>
       </c>
-      <c r="AB27" s="39" t="s">
+      <c r="AC27" s="39" t="s">
+        <v>900</v>
+      </c>
+      <c r="AD27" s="39" t="s">
         <v>928</v>
       </c>
-      <c r="AC27" s="39" t="s">
-        <v>901</v>
-      </c>
-      <c r="AD27" s="39" t="s">
+      <c r="AE27" s="39" t="s">
         <v>929</v>
       </c>
-      <c r="AE27" s="39" t="s">
+      <c r="AF27" s="39" t="s">
         <v>930</v>
-      </c>
-      <c r="AF27" s="39" t="s">
-        <v>931</v>
       </c>
       <c r="AG27" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AH27" s="53" t="s">
+        <v>931</v>
+      </c>
+      <c r="AI27" s="39" t="s">
         <v>932</v>
       </c>
-      <c r="AI27" s="39" t="s">
+      <c r="AJ27" s="39" t="s">
         <v>933</v>
-      </c>
-      <c r="AJ27" s="39" t="s">
-        <v>934</v>
       </c>
       <c r="AK27" s="39"/>
       <c r="AL27" s="39"/>
     </row>
-    <row r="28" spans="1:38" s="32" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" s="32" customFormat="1" ht="390" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>633</v>
@@ -8623,60 +8665,60 @@
         <v>4</v>
       </c>
       <c r="T28" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U28" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V28" s="18" t="s">
+        <v>940</v>
+      </c>
+      <c r="W28" s="18" t="s">
         <v>941</v>
       </c>
-      <c r="W28" s="18" t="s">
+      <c r="X28" s="39" t="s">
+        <v>935</v>
+      </c>
+      <c r="Y28" s="46" t="s">
         <v>942</v>
       </c>
-      <c r="X28" s="39" t="s">
+      <c r="Z28" s="39" t="s">
         <v>936</v>
       </c>
-      <c r="Y28" s="46" t="s">
+      <c r="AA28" s="39" t="s">
+        <v>937</v>
+      </c>
+      <c r="AB28" s="39" t="s">
         <v>943</v>
       </c>
-      <c r="Z28" s="39" t="s">
-        <v>937</v>
-      </c>
-      <c r="AA28" s="39" t="s">
+      <c r="AC28" s="39" t="s">
         <v>938</v>
       </c>
-      <c r="AB28" s="39" t="s">
+      <c r="AD28" s="39" t="s">
         <v>944</v>
-      </c>
-      <c r="AC28" s="39" t="s">
-        <v>939</v>
-      </c>
-      <c r="AD28" s="39" t="s">
-        <v>945</v>
       </c>
       <c r="AE28" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AF28" s="39" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AG28" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AH28" s="39" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AI28" s="39" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AJ28" s="39"/>
       <c r="AK28" s="39"/>
       <c r="AL28" s="39"/>
     </row>
-    <row r="29" spans="1:38" s="32" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" s="32" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>430</v>
@@ -8733,19 +8775,19 @@
         <v>3</v>
       </c>
       <c r="T29" s="41" t="s">
+        <v>948</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="V29" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="W29" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="X29" s="39" t="s">
         <v>949</v>
-      </c>
-      <c r="U29" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="V29" s="18" t="s">
-        <v>845</v>
-      </c>
-      <c r="W29" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="X29" s="39" t="s">
-        <v>950</v>
       </c>
       <c r="Y29" s="46" t="s">
         <v>684</v>
@@ -8757,29 +8799,29 @@
         <v>684</v>
       </c>
       <c r="AB29" s="39" t="s">
+        <v>950</v>
+      </c>
+      <c r="AC29" s="39" t="s">
+        <v>900</v>
+      </c>
+      <c r="AD29" s="39" t="s">
         <v>951</v>
       </c>
-      <c r="AC29" s="39" t="s">
-        <v>901</v>
-      </c>
-      <c r="AD29" s="39" t="s">
+      <c r="AE29" s="39" t="s">
         <v>952</v>
       </c>
-      <c r="AE29" s="39" t="s">
+      <c r="AF29" s="39" t="s">
         <v>953</v>
-      </c>
-      <c r="AF29" s="39" t="s">
-        <v>954</v>
       </c>
       <c r="AG29" s="39"/>
       <c r="AH29" s="39" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AI29" s="39"/>
       <c r="AJ29" s="39"/>
       <c r="AK29" s="39"/>
       <c r="AL29" s="39" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="30" spans="1:38" s="32" customFormat="1" ht="210" x14ac:dyDescent="0.25">
@@ -8842,43 +8884,43 @@
         <v>3</v>
       </c>
       <c r="T30" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U30" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V30" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="W30" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X30" s="39" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="Y30" s="46" t="s">
         <v>684</v>
       </c>
       <c r="Z30" s="39" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AA30" s="39" t="s">
         <v>1031</v>
       </c>
-      <c r="AA30" s="39" t="s">
-        <v>1032</v>
-      </c>
       <c r="AB30" s="39" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AC30" s="39" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="AD30" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AE30" s="39" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AF30" s="39" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="AG30" s="39" t="s">
         <v>684</v>
@@ -8895,7 +8937,7 @@
     </row>
     <row r="31" spans="1:38" s="32" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>325</v>
@@ -8952,34 +8994,34 @@
         <v>2</v>
       </c>
       <c r="T31" s="41" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="U31" s="18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="V31" s="18" t="s">
         <v>1038</v>
       </c>
-      <c r="V31" s="18" t="s">
+      <c r="W31" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="X31" s="39" t="s">
         <v>1039</v>
-      </c>
-      <c r="W31" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="X31" s="39" t="s">
-        <v>1040</v>
       </c>
       <c r="Y31" s="46" t="s">
         <v>684</v>
       </c>
       <c r="Z31" s="39" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AA31" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AB31" s="39" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AC31" s="39" t="s">
         <v>1042</v>
-      </c>
-      <c r="AC31" s="39" t="s">
-        <v>1043</v>
       </c>
       <c r="AD31" s="39" t="s">
         <v>684</v>
@@ -8988,19 +9030,19 @@
         <v>684</v>
       </c>
       <c r="AF31" s="39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AG31" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AH31" s="39" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AI31" s="39" t="s">
         <v>1045</v>
       </c>
-      <c r="AI31" s="39" t="s">
+      <c r="AJ31" s="39" t="s">
         <v>1046</v>
-      </c>
-      <c r="AJ31" s="39" t="s">
-        <v>1047</v>
       </c>
       <c r="AK31" s="39"/>
       <c r="AL31" s="39"/>
@@ -9065,60 +9107,60 @@
         <v>3</v>
       </c>
       <c r="T32" s="38" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U32" s="18" t="s">
         <v>1049</v>
-      </c>
-      <c r="U32" s="18" t="s">
-        <v>1050</v>
       </c>
       <c r="V32" s="18"/>
       <c r="W32" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="X32" s="39" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Y32" s="46" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Z32" s="39" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AA32" s="39" t="s">
         <v>1054</v>
       </c>
-      <c r="Y32" s="46" t="s">
-        <v>1052</v>
-      </c>
-      <c r="Z32" s="39" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AA32" s="39" t="s">
+      <c r="AB32" s="39" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AC32" s="39" t="s">
         <v>1055</v>
       </c>
-      <c r="AB32" s="39" t="s">
+      <c r="AD32" s="39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AE32" s="39" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AF32" s="39" t="s">
         <v>1058</v>
       </c>
-      <c r="AC32" s="39" t="s">
+      <c r="AG32" s="39" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AH32" s="39" t="s">
         <v>1056</v>
-      </c>
-      <c r="AD32" s="39" t="s">
-        <v>1062</v>
-      </c>
-      <c r="AE32" s="39" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AF32" s="39" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AG32" s="39" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AH32" s="39" t="s">
-        <v>1057</v>
       </c>
       <c r="AI32" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AJ32" s="39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AK32" s="39"/>
       <c r="AL32" s="39"/>
     </row>
     <row r="33" spans="1:38" s="32" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>458</v>
@@ -9175,34 +9217,34 @@
         <v>3</v>
       </c>
       <c r="T33" s="41" t="s">
+        <v>1089</v>
+      </c>
+      <c r="U33" s="18" t="s">
         <v>1090</v>
       </c>
-      <c r="U33" s="18" t="s">
+      <c r="V33" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="W33" s="18" t="s">
         <v>1091</v>
       </c>
-      <c r="V33" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="W33" s="18" t="s">
+      <c r="X33" s="39" t="s">
         <v>1092</v>
       </c>
-      <c r="X33" s="39" t="s">
+      <c r="Y33" s="46" t="s">
         <v>1093</v>
       </c>
-      <c r="Y33" s="46" t="s">
+      <c r="Z33" s="39" t="s">
         <v>1094</v>
       </c>
-      <c r="Z33" s="39" t="s">
+      <c r="AA33" s="39" t="s">
         <v>1095</v>
       </c>
-      <c r="AA33" s="39" t="s">
+      <c r="AB33" s="39" t="s">
         <v>1096</v>
       </c>
-      <c r="AB33" s="39" t="s">
+      <c r="AC33" s="39" t="s">
         <v>1097</v>
-      </c>
-      <c r="AC33" s="39" t="s">
-        <v>1098</v>
       </c>
       <c r="AD33" s="39" t="s">
         <v>684</v>
@@ -9220,7 +9262,7 @@
         <v>684</v>
       </c>
       <c r="AI33" s="39" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AJ33" s="39"/>
       <c r="AK33" s="39"/>
@@ -9286,43 +9328,43 @@
         <v>2</v>
       </c>
       <c r="T34" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U34" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V34" s="18" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="W34" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X34" s="39" t="s">
         <v>684</v>
       </c>
       <c r="Y34" s="46" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Z34" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AA34" s="39" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AB34" s="39" t="s">
+        <v>970</v>
+      </c>
+      <c r="AC34" s="39" t="s">
+        <v>938</v>
+      </c>
+      <c r="AD34" s="39" t="s">
+        <v>973</v>
+      </c>
+      <c r="AE34" s="39" t="s">
+        <v>972</v>
+      </c>
+      <c r="AF34" s="39" t="s">
         <v>971</v>
-      </c>
-      <c r="AC34" s="39" t="s">
-        <v>939</v>
-      </c>
-      <c r="AD34" s="39" t="s">
-        <v>974</v>
-      </c>
-      <c r="AE34" s="39" t="s">
-        <v>973</v>
-      </c>
-      <c r="AF34" s="39" t="s">
-        <v>972</v>
       </c>
       <c r="AG34" s="39" t="s">
         <v>684</v>
@@ -9336,12 +9378,12 @@
       <c r="AJ34" s="39"/>
       <c r="AK34" s="39"/>
       <c r="AL34" s="39" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" s="32" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" s="32" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B35" s="33" t="s">
         <v>140</v>
@@ -9398,22 +9440,22 @@
         <v>2</v>
       </c>
       <c r="T35" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U35" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V35" s="18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="W35" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X35" s="39" t="s">
+        <v>957</v>
+      </c>
+      <c r="Y35" s="46" t="s">
         <v>958</v>
-      </c>
-      <c r="Y35" s="46" t="s">
-        <v>959</v>
       </c>
       <c r="Z35" s="39" t="s">
         <v>684</v>
@@ -9422,19 +9464,19 @@
         <v>684</v>
       </c>
       <c r="AB35" s="39" t="s">
+        <v>959</v>
+      </c>
+      <c r="AC35" s="39" t="s">
+        <v>900</v>
+      </c>
+      <c r="AD35" s="39" t="s">
         <v>960</v>
       </c>
-      <c r="AC35" s="39" t="s">
-        <v>901</v>
-      </c>
-      <c r="AD35" s="39" t="s">
+      <c r="AE35" s="39" t="s">
         <v>961</v>
       </c>
-      <c r="AE35" s="39" t="s">
+      <c r="AF35" s="39" t="s">
         <v>962</v>
-      </c>
-      <c r="AF35" s="39" t="s">
-        <v>963</v>
       </c>
       <c r="AG35" s="39" t="s">
         <v>684</v>
@@ -9446,18 +9488,18 @@
         <v>684</v>
       </c>
       <c r="AJ35" s="39" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AK35" s="39" t="s">
         <v>684</v>
       </c>
       <c r="AL35" s="39" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" s="32" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" s="32" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>114</v>
@@ -9495,52 +9537,52 @@
       <c r="M36" s="40"/>
       <c r="S36" s="33"/>
       <c r="T36" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U36" s="18" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V36" s="18" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="W36" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X36" s="39" t="s">
         <v>684</v>
       </c>
       <c r="Y36" s="46" t="s">
+        <v>1077</v>
+      </c>
+      <c r="Z36" s="39" t="s">
         <v>1078</v>
       </c>
-      <c r="Z36" s="39" t="s">
+      <c r="AA36" s="39" t="s">
         <v>1079</v>
       </c>
-      <c r="AA36" s="39" t="s">
+      <c r="AB36" s="39" t="s">
         <v>1080</v>
       </c>
-      <c r="AB36" s="39" t="s">
+      <c r="AC36" s="39" t="s">
         <v>1081</v>
       </c>
-      <c r="AC36" s="39" t="s">
+      <c r="AD36" s="39" t="s">
         <v>1082</v>
       </c>
-      <c r="AD36" s="39" t="s">
+      <c r="AE36" s="39" t="s">
         <v>1083</v>
       </c>
-      <c r="AE36" s="39" t="s">
+      <c r="AF36" s="39" t="s">
         <v>1084</v>
       </c>
-      <c r="AF36" s="39" t="s">
+      <c r="AG36" s="39" t="s">
         <v>1085</v>
       </c>
-      <c r="AG36" s="39" t="s">
+      <c r="AH36" s="39" t="s">
         <v>1086</v>
       </c>
-      <c r="AH36" s="39" t="s">
+      <c r="AI36" s="39" t="s">
         <v>1087</v>
-      </c>
-      <c r="AI36" s="39" t="s">
-        <v>1088</v>
       </c>
       <c r="AJ36" s="39"/>
       <c r="AK36" s="39"/>
@@ -12908,10 +12950,10 @@
   <dimension ref="A1:X130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12922,13 +12964,14 @@
     <col min="4" max="4" width="7.85546875" style="25" customWidth="1"/>
     <col min="5" max="5" width="10" style="25" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="22" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="22" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="17.140625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.28515625" customWidth="1"/>
     <col min="16" max="16" width="24" style="24" customWidth="1"/>
     <col min="17" max="17" width="22.7109375" style="47" customWidth="1"/>
@@ -12938,54 +12981,54 @@
     <col min="24" max="24" width="22.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="C1" s="61" t="s">
-        <v>975</v>
-      </c>
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:24" s="58" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C1" s="58" t="s">
+        <v>974</v>
+      </c>
+      <c r="D1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>984</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>986</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>985</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>1023</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>983</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>1026</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>995</v>
+      </c>
+      <c r="Q1" s="61" t="s">
+        <v>996</v>
+      </c>
+      <c r="R1" s="58" t="s">
         <v>1028</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>985</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>987</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>986</v>
-      </c>
-      <c r="I1" s="62" t="s">
-        <v>1001</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>1023</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>1025</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>1026</v>
-      </c>
-      <c r="M1" s="62" t="s">
-        <v>1024</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>984</v>
-      </c>
-      <c r="O1" s="61" t="s">
-        <v>1027</v>
-      </c>
-      <c r="P1" s="63" t="s">
-        <v>996</v>
-      </c>
-      <c r="Q1" s="64" t="s">
-        <v>997</v>
-      </c>
-      <c r="R1" s="61" t="s">
-        <v>1029</v>
       </c>
       <c r="W1" s="15"/>
       <c r="X1" s="16"/>
@@ -13010,10 +13053,13 @@
         <v>2008</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>1002</v>
+        <v>1001</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>900</v>
       </c>
       <c r="S2" s="24"/>
       <c r="T2" s="18"/>
@@ -13035,13 +13081,16 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J3" s="32"/>
       <c r="M3" s="32"/>
+      <c r="N3" s="39" t="s">
+        <v>1106</v>
+      </c>
       <c r="Q3" s="45"/>
       <c r="S3" s="33"/>
       <c r="T3" s="39"/>
@@ -13066,6 +13115,9 @@
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="M4" s="32"/>
+      <c r="N4" s="39" t="s">
+        <v>1108</v>
+      </c>
       <c r="Q4" s="45"/>
       <c r="S4" s="33"/>
       <c r="T4" s="39"/>
@@ -13089,13 +13141,16 @@
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J5" s="32"/>
       <c r="M5" s="32"/>
+      <c r="N5" s="39" t="s">
+        <v>1105</v>
+      </c>
       <c r="P5" s="33"/>
       <c r="Q5" s="46"/>
       <c r="S5" s="33"/>
@@ -13121,10 +13176,13 @@
         <v>2010</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>1005</v>
+        <v>1004</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>900</v>
       </c>
       <c r="S6" s="24"/>
       <c r="T6" s="19"/>
@@ -13146,13 +13204,16 @@
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J7" s="32"/>
       <c r="M7" s="32"/>
+      <c r="N7" s="39" t="s">
+        <v>1070</v>
+      </c>
       <c r="P7" s="33"/>
       <c r="Q7" s="46"/>
       <c r="S7" s="33"/>
@@ -13179,15 +13240,15 @@
         <v>2007</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="P8" s="33"/>
       <c r="Q8" s="46"/>
@@ -13208,7 +13269,10 @@
         <v>2005</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>1008</v>
+        <v>1007</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>1042</v>
       </c>
       <c r="S9" s="24"/>
       <c r="T9" s="19"/>
@@ -13231,12 +13295,12 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="32" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="P10" s="33"/>
       <c r="Q10" s="46"/>
@@ -13264,15 +13328,15 @@
         <v>2007</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="46"/>
@@ -13300,15 +13364,15 @@
         <v>2008</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="P12" s="33"/>
       <c r="Q12" s="46"/>
@@ -13317,7 +13381,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>391</v>
@@ -13332,15 +13396,15 @@
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="P13" s="33"/>
       <c r="Q13" s="46"/>
@@ -13367,17 +13431,20 @@
         <v>2003</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>1011</v>
+        <v>1010</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>1073</v>
       </c>
       <c r="S14" s="24"/>
       <c r="T14" s="19"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>360</v>
@@ -13393,10 +13460,13 @@
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
       <c r="I15" s="32" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J15" s="32"/>
       <c r="M15" s="32"/>
+      <c r="N15" s="39" t="s">
+        <v>1104</v>
+      </c>
       <c r="P15" s="33"/>
       <c r="Q15" s="46"/>
       <c r="S15" s="33"/>
@@ -13421,19 +13491,22 @@
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J16" s="32"/>
       <c r="M16" s="32"/>
+      <c r="N16" t="s">
+        <v>684</v>
+      </c>
       <c r="P16" s="33"/>
       <c r="Q16" s="46"/>
       <c r="S16" s="33"/>
       <c r="T16" s="39"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>274</v>
       </c>
@@ -13452,24 +13525,24 @@
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="P17" s="33"/>
       <c r="Q17" s="46"/>
       <c r="S17" s="33"/>
       <c r="T17" s="39"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>289</v>
@@ -13486,22 +13559,22 @@
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J18" s="32"/>
       <c r="M18" s="32"/>
       <c r="N18" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="P18" s="33"/>
       <c r="Q18" s="46"/>
       <c r="S18" s="33"/>
       <c r="T18" s="39"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>306</v>
       </c>
@@ -13521,21 +13594,21 @@
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
       <c r="I19" s="32" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="P19" s="33"/>
       <c r="Q19" s="46"/>
       <c r="S19" s="33"/>
       <c r="T19" s="39"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>339</v>
@@ -13550,22 +13623,22 @@
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="P20" s="33"/>
       <c r="Q20" s="46"/>
       <c r="S20" s="33"/>
       <c r="T20" s="39"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>415</v>
       </c>
@@ -13584,24 +13657,24 @@
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P21" s="33"/>
       <c r="Q21" s="46"/>
       <c r="S21" s="33"/>
       <c r="T21" s="39"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>522</v>
@@ -13620,16 +13693,16 @@
       <c r="J22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P22" s="33"/>
       <c r="Q22" s="46"/>
       <c r="S22" s="33"/>
       <c r="T22" s="39"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>633</v>
@@ -13648,24 +13721,24 @@
         <v>2007</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="P23" s="33"/>
       <c r="Q23" s="46"/>
       <c r="S23" s="33"/>
       <c r="T23" s="39"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>430</v>
@@ -13681,19 +13754,19 @@
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="I24" s="32" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J24" s="32"/>
       <c r="M24" s="32"/>
       <c r="N24" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="P24" s="33"/>
       <c r="Q24" s="46"/>
       <c r="S24" s="33"/>
       <c r="T24" s="39"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>636</v>
       </c>
@@ -13706,10 +13779,16 @@
       <c r="D25" s="25">
         <v>2010</v>
       </c>
+      <c r="I25" s="39" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>1033</v>
+      </c>
       <c r="S25" s="24"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>324</v>
       </c>
@@ -13722,10 +13801,16 @@
       <c r="D26" s="25">
         <v>2006</v>
       </c>
+      <c r="I26" s="39" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>1042</v>
+      </c>
       <c r="S26" s="24"/>
       <c r="T26" s="19"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>366</v>
       </c>
@@ -13738,10 +13823,25 @@
       <c r="D27" s="25">
         <v>2010</v>
       </c>
+      <c r="F27" s="25">
+        <v>2008</v>
+      </c>
+      <c r="G27" s="25">
+        <v>2009</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>1103</v>
+      </c>
       <c r="S27" s="24"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>457</v>
       </c>
@@ -13753,13 +13853,25 @@
       </c>
       <c r="D28" s="25">
         <v>2010</v>
+      </c>
+      <c r="F28" s="25">
+        <v>2006</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>990</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N28" s="39" t="s">
+        <v>1102</v>
       </c>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="S28" s="24"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>490</v>
       </c>
@@ -13777,20 +13889,22 @@
         <v>2004</v>
       </c>
       <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="H29" s="34" t="s">
+        <v>988</v>
+      </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
       <c r="M29" s="32"/>
       <c r="N29" s="39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O29" s="39"/>
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>140</v>
@@ -13807,44 +13921,51 @@
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="34" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J30" s="32"/>
       <c r="M30" s="32"/>
       <c r="N30" s="39" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="O30" s="39"/>
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+    <row r="31" spans="1:24" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>515</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="34">
         <v>2006</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E31" s="34"/>
+      <c r="F31" s="34">
+        <v>1998</v>
+      </c>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="39" t="s">
+        <v>1081</v>
+      </c>
+      <c r="W31" s="33"/>
+      <c r="X31" s="39"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P32"/>
       <c r="Q32"/>
     </row>
@@ -13858,13 +13979,13 @@
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="G45" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="H45" s="24" t="s">
         <v>999</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>1000</v>
       </c>
       <c r="P45"/>
       <c r="Q45"/>
@@ -13880,7 +14001,7 @@
         <f t="shared" ref="F46:F56" si="0">COUNTIF(D$2:D$31,D46)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="65">
+      <c r="G46" s="62">
         <v>0</v>
       </c>
       <c r="H46" s="22">
@@ -13899,7 +14020,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G47" s="65">
+      <c r="G47" s="62">
         <v>0</v>
       </c>
       <c r="H47" s="22">
@@ -13916,7 +14037,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="62">
         <v>0</v>
       </c>
       <c r="H48" s="22">
@@ -13933,7 +14054,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G49" s="62">
         <v>1</v>
       </c>
       <c r="H49" s="22">
@@ -13950,7 +14071,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G50" s="65">
+      <c r="G50" s="62">
         <v>0</v>
       </c>
       <c r="H50" s="22">
@@ -13967,7 +14088,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G51" s="65">
+      <c r="G51" s="62">
         <v>0</v>
       </c>
       <c r="H51" s="22">
@@ -13984,7 +14105,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G52" s="65">
+      <c r="G52" s="62">
         <v>0</v>
       </c>
       <c r="H52" s="22">
@@ -14001,7 +14122,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G53" s="65">
+      <c r="G53" s="62">
         <v>0</v>
       </c>
       <c r="H53" s="22">
@@ -14018,7 +14139,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G54" s="65">
+      <c r="G54" s="62">
         <v>1</v>
       </c>
       <c r="H54" s="22">
@@ -14035,7 +14156,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G55" s="65">
+      <c r="G55" s="62">
         <v>0</v>
       </c>
       <c r="H55" s="22">
@@ -14052,7 +14173,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G56" s="65">
+      <c r="G56" s="62">
         <v>1</v>
       </c>
       <c r="H56" s="22">

--- a/Materiaali.xlsx
+++ b/Materiaali.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="1171">
   <si>
     <t xml:space="preserve">Baby Steps: Agile Transformation at BabyCenter.com </t>
   </si>
@@ -3523,6 +3523,147 @@
   </si>
   <si>
     <t>Conference proceedings</t>
+  </si>
+  <si>
+    <t>Existing issues were analyzed</t>
+  </si>
+  <si>
+    <t>Natural next step for the "Streamline" change.</t>
+  </si>
+  <si>
+    <t>The team needed a method.</t>
+  </si>
+  <si>
+    <t>Choice of agile</t>
+  </si>
+  <si>
+    <t>Curiosity towards Scrum.</t>
+  </si>
+  <si>
+    <t>Agile practices chosen after analysis</t>
+  </si>
+  <si>
+    <t>Natural next step</t>
+  </si>
+  <si>
+    <t>Agile recommended by investigating task force</t>
+  </si>
+  <si>
+    <t>Challenges acknowledged: failure, DL miss, quality, knowledge.</t>
+  </si>
+  <si>
+    <t>Long time to market, management saw resource waste</t>
+  </si>
+  <si>
+    <t>The authors' team</t>
+  </si>
+  <si>
+    <t>Task force</t>
+  </si>
+  <si>
+    <t>Recommended by whom</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Strategic viewpoint</t>
+  </si>
+  <si>
+    <t>Change ways of working</t>
+  </si>
+  <si>
+    <t>Quicker team to market, due to competitors and marketplace</t>
+  </si>
+  <si>
+    <t>Higher priority deadlines demanded change. Reduce costs, improve control.</t>
+  </si>
+  <si>
+    <t>Something had to be changed</t>
+  </si>
+  <si>
+    <t>Competition required new features in shorter timeframes</t>
+  </si>
+  <si>
+    <t>Traditional methods too slow</t>
+  </si>
+  <si>
+    <t>Demand of new ways of working</t>
+  </si>
+  <si>
+    <t>Barriers between business and technology</t>
+  </si>
+  <si>
+    <t>Agile piloting had given excellent results</t>
+  </si>
+  <si>
+    <t>Reduce costs, boost efficiency and quality, provide operational oversight</t>
+  </si>
+  <si>
+    <t>Do not add rigor</t>
+  </si>
+  <si>
+    <t>Change of market situation, too long delivery, good acceptance not guaranteed</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>CIO</t>
+  </si>
+  <si>
+    <t>Rapid business changes were anticipated, changing market</t>
+  </si>
+  <si>
+    <t>Agile as strategic lever</t>
+  </si>
+  <si>
+    <t>Need to deliver more with less, faster and with less risk.</t>
+  </si>
+  <si>
+    <t>Higher quality demanded, late testing problems, better external quality, problems with existing process</t>
+  </si>
+  <si>
+    <t>Mitigate risks caused by late deliveries by parent organization</t>
+  </si>
+  <si>
+    <t>Waterfall-based process did not scale up well</t>
+  </si>
+  <si>
+    <t>Slow release cycle. Problems with release dates, testing, visibility, late feedback, productivity decline</t>
+  </si>
+  <si>
+    <t>Roadmaps were not trusted by anyone</t>
+  </si>
+  <si>
+    <t>By consultant</t>
+  </si>
+  <si>
+    <t>Internal discussion after hearing a consultant</t>
+  </si>
+  <si>
+    <t>Improve market responsiveness. New technologies, markets, regulations</t>
+  </si>
+  <si>
+    <t>Top management</t>
+  </si>
+  <si>
+    <t>High-quality in tighter windows, right functionality at right time, react to change, mistrust, communication problems</t>
+  </si>
+  <si>
+    <t>Comparing to industry benchmarks, e.g. lead-times a performance issue.</t>
+  </si>
+  <si>
+    <t>Senior leadership, IT</t>
+  </si>
+  <si>
+    <t>Exploring process retaining customer value</t>
+  </si>
+  <si>
+    <t>Need to put more effort on process and coordination</t>
+  </si>
+  <si>
+    <t>Problems with time -to-market, products were obsolete before release</t>
   </si>
 </sst>
 </file>
@@ -3666,7 +3807,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -3841,9 +3982,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4119,11 +4257,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="160937472"/>
-        <c:axId val="160939008"/>
+        <c:axId val="163006336"/>
+        <c:axId val="163007872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160937472"/>
+        <c:axId val="163006336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160939008"/>
+        <c:crossAx val="163007872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4141,7 +4279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160939008"/>
+        <c:axId val="163007872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4152,7 +4290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160937472"/>
+        <c:crossAx val="163006336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4343,11 +4481,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="178453888"/>
-        <c:axId val="180192384"/>
+        <c:axId val="163040256"/>
+        <c:axId val="163046144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178453888"/>
+        <c:axId val="163040256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180192384"/>
+        <c:crossAx val="163046144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4365,7 +4503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180192384"/>
+        <c:axId val="163046144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4376,7 +4514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178453888"/>
+        <c:crossAx val="163040256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -6415,7 +6553,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13302,10 +13440,10 @@
   <dimension ref="A1:AMI130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O51" sqref="O51"/>
+      <selection pane="bottomRight" activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13328,9 +13466,13 @@
     <col min="16" max="16" width="24" style="24" customWidth="1"/>
     <col min="17" max="17" width="22.7109375" style="47" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
     <col min="20" max="20" width="27.5703125" customWidth="1"/>
+    <col min="22" max="22" width="61.42578125" customWidth="1"/>
     <col min="23" max="23" width="21" style="24" customWidth="1"/>
-    <col min="24" max="24" width="22.5703125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="73.28515625" style="19" customWidth="1"/>
+    <col min="25" max="25" width="48.140625" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1023" ht="45" x14ac:dyDescent="0.25">
@@ -13392,10 +13534,16 @@
       </c>
       <c r="U1" s="61"/>
       <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="65"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y1" s="61" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Z1" s="61" t="s">
+        <v>1136</v>
+      </c>
       <c r="AA1" s="61"/>
       <c r="AB1" s="61"/>
       <c r="AC1" s="61"/>
@@ -14407,7 +14555,7 @@
       <c r="D2" s="25">
         <v>2009</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="65" t="s">
         <v>1103</v>
       </c>
       <c r="F2" s="25">
@@ -14426,7 +14574,7 @@
         <v>991</v>
       </c>
       <c r="K2" s="22"/>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="66" t="s">
         <v>891</v>
       </c>
       <c r="P2" s="22"/>
@@ -14435,10 +14583,18 @@
       <c r="S2" s="47"/>
       <c r="U2" s="24"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="19"/>
+      <c r="W2" s="33" t="s">
+        <v>1052</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Z2" s="39" t="s">
+        <v>1134</v>
+      </c>
     </row>
     <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -14468,7 +14624,7 @@
       <c r="K3" s="32">
         <v>150</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="66" t="s">
         <v>1096</v>
       </c>
       <c r="M3" s="32"/>
@@ -14478,10 +14634,16 @@
       <c r="S3" s="45"/>
       <c r="U3" s="33"/>
       <c r="V3" s="39"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="18"/>
+      <c r="W3" s="33" t="s">
+        <v>832</v>
+      </c>
+      <c r="X3" s="39" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Y3" s="32" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Z3" s="39"/>
     </row>
     <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
@@ -14504,7 +14666,7 @@
       <c r="I4" s="25"/>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="66" t="s">
         <v>1098</v>
       </c>
       <c r="M4" s="32"/>
@@ -14514,9 +14676,15 @@
       <c r="S4" s="45"/>
       <c r="U4" s="33"/>
       <c r="V4" s="39"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
+      <c r="W4" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="X4" s="39" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y4" s="32" t="s">
+        <v>675</v>
+      </c>
       <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
@@ -14551,7 +14719,7 @@
       <c r="K5" s="32">
         <v>300</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="66" t="s">
         <v>1095</v>
       </c>
       <c r="M5" s="32"/>
@@ -14561,9 +14729,15 @@
       <c r="S5" s="46"/>
       <c r="U5" s="33"/>
       <c r="V5" s="39"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
+      <c r="W5" s="33" t="s">
+        <v>1054</v>
+      </c>
+      <c r="X5" s="39" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Y5" s="32" t="s">
+        <v>1130</v>
+      </c>
       <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
@@ -14600,7 +14774,7 @@
       <c r="K6" s="22">
         <v>200</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="66" t="s">
         <v>891</v>
       </c>
       <c r="P6" s="22"/>
@@ -14609,10 +14783,18 @@
       <c r="S6" s="47"/>
       <c r="U6" s="24"/>
       <c r="V6" s="19"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="19"/>
+      <c r="W6" s="33" t="s">
+        <v>1056</v>
+      </c>
+      <c r="X6" s="39" t="s">
+        <v>1132</v>
+      </c>
+      <c r="Y6" s="32" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -14640,7 +14822,7 @@
         <v>995</v>
       </c>
       <c r="K7" s="32"/>
-      <c r="L7" s="67" t="s">
+      <c r="L7" s="66" t="s">
         <v>1060</v>
       </c>
       <c r="M7" s="32"/>
@@ -14650,10 +14832,16 @@
       <c r="S7" s="46"/>
       <c r="U7" s="33"/>
       <c r="V7" s="39"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="32"/>
+      <c r="W7" s="33" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X7" s="39" t="s">
+        <v>1133</v>
+      </c>
       <c r="Y7" s="32"/>
-      <c r="Z7" s="19"/>
+      <c r="Z7" s="19" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="8" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
@@ -14689,7 +14877,7 @@
       <c r="K8" s="32">
         <v>14000</v>
       </c>
-      <c r="L8" s="68" t="s">
+      <c r="L8" s="67" t="s">
         <v>985</v>
       </c>
       <c r="M8" s="32"/>
@@ -14699,10 +14887,18 @@
       <c r="S8" s="46"/>
       <c r="U8" s="33"/>
       <c r="V8" s="39"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="19"/>
+      <c r="W8" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="X8" s="39" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Y8" s="32" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="9" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
@@ -14725,7 +14921,7 @@
         <v>997</v>
       </c>
       <c r="K9" s="22"/>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="66" t="s">
         <v>1032</v>
       </c>
       <c r="P9" s="22"/>
@@ -14733,11 +14929,19 @@
       <c r="R9" s="24"/>
       <c r="S9" s="47"/>
       <c r="U9" s="24"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="19"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="33" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>1141</v>
+      </c>
+      <c r="Y9" s="32" t="s">
+        <v>1142</v>
+      </c>
+      <c r="Z9" s="19" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="10" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
@@ -14765,7 +14969,7 @@
       <c r="K10" s="32">
         <v>300</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="67" t="s">
         <v>966</v>
       </c>
       <c r="M10" s="32"/>
@@ -14775,9 +14979,15 @@
       <c r="S10" s="46"/>
       <c r="U10" s="33"/>
       <c r="V10" s="39"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
+      <c r="W10" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="X10" s="39" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Y10" s="32" t="s">
+        <v>1144</v>
+      </c>
       <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:1023" x14ac:dyDescent="0.25">
@@ -14814,7 +15024,7 @@
       <c r="K11" s="32">
         <v>1500</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="67" t="s">
         <v>967</v>
       </c>
       <c r="M11" s="32"/>
@@ -14824,9 +15034,15 @@
       <c r="S11" s="46"/>
       <c r="U11" s="33"/>
       <c r="V11" s="39"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
+      <c r="W11" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="X11" s="39" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Y11" s="32" t="s">
+        <v>1145</v>
+      </c>
       <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="1:1023" x14ac:dyDescent="0.25">
@@ -14863,7 +15079,7 @@
       <c r="K12" s="32">
         <v>300</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L12" s="67" t="s">
         <v>968</v>
       </c>
       <c r="M12" s="32"/>
@@ -14873,9 +15089,15 @@
       <c r="S12" s="46"/>
       <c r="U12" s="33"/>
       <c r="V12" s="39"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
+      <c r="W12" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="X12" s="39" t="s">
+        <v>1148</v>
+      </c>
+      <c r="Y12" s="32" t="s">
+        <v>1147</v>
+      </c>
       <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:1023" x14ac:dyDescent="0.25">
@@ -14906,7 +15128,7 @@
       <c r="K13" s="32">
         <v>150</v>
       </c>
-      <c r="L13" s="68" t="s">
+      <c r="L13" s="67" t="s">
         <v>969</v>
       </c>
       <c r="M13" s="32"/>
@@ -14916,9 +15138,15 @@
       <c r="S13" s="46"/>
       <c r="U13" s="33"/>
       <c r="V13" s="39"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
+      <c r="W13" s="33" t="s">
+        <v>832</v>
+      </c>
+      <c r="X13" s="39" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y13" s="32" t="s">
+        <v>675</v>
+      </c>
       <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:1023" x14ac:dyDescent="0.25">
@@ -14955,7 +15183,7 @@
       <c r="K14" s="22">
         <v>5000</v>
       </c>
-      <c r="L14" s="67" t="s">
+      <c r="L14" s="66" t="s">
         <v>1063</v>
       </c>
       <c r="P14" s="22"/>
@@ -14963,10 +15191,16 @@
       <c r="R14" s="24"/>
       <c r="S14" s="47"/>
       <c r="U14" s="24"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="33" t="s">
+        <v>1062</v>
+      </c>
+      <c r="X14" s="39" t="s">
+        <v>1150</v>
+      </c>
+      <c r="Y14" s="32" t="s">
+        <v>1149</v>
+      </c>
       <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:1023" x14ac:dyDescent="0.25">
@@ -14993,7 +15227,7 @@
         <v>1002</v>
       </c>
       <c r="K15" s="32"/>
-      <c r="L15" s="67" t="s">
+      <c r="L15" s="66" t="s">
         <v>1094</v>
       </c>
       <c r="M15" s="32"/>
@@ -15003,10 +15237,16 @@
       <c r="S15" s="46"/>
       <c r="U15" s="33"/>
       <c r="V15" s="39"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="32"/>
+      <c r="W15" s="33" t="s">
+        <v>841</v>
+      </c>
+      <c r="X15" s="39" t="s">
+        <v>845</v>
+      </c>
       <c r="Y15" s="32"/>
-      <c r="Z15" s="19"/>
+      <c r="Z15" s="19" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="16" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
@@ -15040,7 +15280,7 @@
       <c r="K16" s="32">
         <v>860</v>
       </c>
-      <c r="L16" s="68" t="s">
+      <c r="L16" s="67" t="s">
         <v>675</v>
       </c>
       <c r="M16" s="32"/>
@@ -15050,10 +15290,16 @@
       <c r="S16" s="46"/>
       <c r="U16" s="33"/>
       <c r="V16" s="39"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="32"/>
+      <c r="W16" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="X16" s="39" t="s">
+        <v>1153</v>
+      </c>
       <c r="Y16" s="32"/>
-      <c r="Z16" s="19"/>
+      <c r="Z16" s="19" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="17" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
@@ -15087,7 +15333,7 @@
       <c r="K17" s="32">
         <v>2000</v>
       </c>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="67" t="s">
         <v>970</v>
       </c>
       <c r="M17" s="32"/>
@@ -15097,12 +15343,20 @@
       <c r="S17" s="46"/>
       <c r="U17" s="33"/>
       <c r="V17" s="39"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="19"/>
-    </row>
-    <row r="18" spans="1:1023" x14ac:dyDescent="0.25">
+      <c r="W17" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="X17" s="39" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Y17" s="32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Z17" s="19" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>874</v>
       </c>
@@ -15134,7 +15388,7 @@
       <c r="K18" s="32">
         <v>160</v>
       </c>
-      <c r="L18" s="68" t="s">
+      <c r="L18" s="67" t="s">
         <v>971</v>
       </c>
       <c r="M18" s="32"/>
@@ -15144,8 +15398,12 @@
       <c r="S18" s="46"/>
       <c r="U18" s="33"/>
       <c r="V18" s="39"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="32"/>
+      <c r="W18" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="X18" s="39" t="s">
+        <v>1156</v>
+      </c>
       <c r="Y18" s="32"/>
       <c r="Z18" s="19"/>
     </row>
@@ -15179,7 +15437,7 @@
       <c r="K19" s="32">
         <v>275</v>
       </c>
-      <c r="L19" s="68" t="s">
+      <c r="L19" s="67" t="s">
         <v>972</v>
       </c>
       <c r="M19" s="32"/>
@@ -15189,12 +15447,16 @@
       <c r="S19" s="46"/>
       <c r="U19" s="33"/>
       <c r="V19" s="39"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="32"/>
+      <c r="W19" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="X19" s="39" t="s">
+        <v>1157</v>
+      </c>
       <c r="Y19" s="32"/>
       <c r="Z19" s="19"/>
     </row>
-    <row r="20" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>903</v>
       </c>
@@ -15222,7 +15484,7 @@
       <c r="K20" s="32">
         <v>200</v>
       </c>
-      <c r="L20" s="68" t="s">
+      <c r="L20" s="67" t="s">
         <v>973</v>
       </c>
       <c r="M20" s="32"/>
@@ -15232,9 +15494,15 @@
       <c r="S20" s="46"/>
       <c r="U20" s="33"/>
       <c r="V20" s="39"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
+      <c r="W20" s="33" t="s">
+        <v>903</v>
+      </c>
+      <c r="X20" s="39" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Y20" s="32" t="s">
+        <v>1158</v>
+      </c>
       <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="1:1023" x14ac:dyDescent="0.25">
@@ -15269,7 +15537,7 @@
       <c r="K21" s="32">
         <v>500</v>
       </c>
-      <c r="L21" s="68" t="s">
+      <c r="L21" s="67" t="s">
         <v>891</v>
       </c>
       <c r="M21" s="32"/>
@@ -15279,9 +15547,15 @@
       <c r="S21" s="46"/>
       <c r="U21" s="33"/>
       <c r="V21" s="39"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
+      <c r="W21" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="X21" s="39" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y21" s="32" t="s">
+        <v>675</v>
+      </c>
       <c r="Z21" s="19"/>
     </row>
     <row r="22" spans="1:1023" x14ac:dyDescent="0.25">
@@ -15306,7 +15580,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
-      <c r="L22" s="68" t="s">
+      <c r="L22" s="67" t="s">
         <v>891</v>
       </c>
       <c r="M22" s="32"/>
@@ -15316,8 +15590,12 @@
       <c r="S22" s="46"/>
       <c r="U22" s="33"/>
       <c r="V22" s="39"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="32"/>
+      <c r="W22" s="33" t="s">
+        <v>915</v>
+      </c>
+      <c r="X22" s="39" t="s">
+        <v>1160</v>
+      </c>
       <c r="Y22" s="32"/>
       <c r="Z22" s="19"/>
     </row>
@@ -15353,7 +15631,7 @@
         <v>1009</v>
       </c>
       <c r="K23" s="32"/>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="67" t="s">
         <v>929</v>
       </c>
       <c r="M23" s="32"/>
@@ -15363,10 +15641,18 @@
       <c r="S23" s="46"/>
       <c r="U23" s="33"/>
       <c r="V23" s="39"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="19"/>
+      <c r="W23" s="33" t="s">
+        <v>925</v>
+      </c>
+      <c r="X23" s="39" t="s">
+        <v>1162</v>
+      </c>
+      <c r="Y23" s="32" t="s">
+        <v>1161</v>
+      </c>
+      <c r="Z23" s="19" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="24" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
@@ -15394,7 +15680,7 @@
       <c r="K24" s="32">
         <v>300</v>
       </c>
-      <c r="L24" s="68" t="s">
+      <c r="L24" s="67" t="s">
         <v>891</v>
       </c>
       <c r="M24" s="32"/>
@@ -15404,9 +15690,15 @@
       <c r="S24" s="46"/>
       <c r="U24" s="33"/>
       <c r="V24" s="39"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
+      <c r="W24" s="33" t="s">
+        <v>938</v>
+      </c>
+      <c r="X24" s="39" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y24" s="32" t="s">
+        <v>675</v>
+      </c>
       <c r="Z24" s="19"/>
     </row>
     <row r="25" spans="1:1023" x14ac:dyDescent="0.25">
@@ -15432,7 +15724,7 @@
       <c r="K25" s="39">
         <v>16000</v>
       </c>
-      <c r="L25" s="67" t="s">
+      <c r="L25" s="66" t="s">
         <v>1023</v>
       </c>
       <c r="P25" s="22"/>
@@ -15441,8 +15733,12 @@
       <c r="S25" s="47"/>
       <c r="U25" s="24"/>
       <c r="V25" s="19"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="32"/>
+      <c r="W25" s="33" t="s">
+        <v>627</v>
+      </c>
+      <c r="X25" s="39" t="s">
+        <v>1163</v>
+      </c>
       <c r="Y25" s="32"/>
       <c r="Z25" s="19"/>
     </row>
@@ -15469,7 +15765,7 @@
       <c r="K26" s="39">
         <v>80</v>
       </c>
-      <c r="L26" s="67" t="s">
+      <c r="L26" s="66" t="s">
         <v>1032</v>
       </c>
       <c r="P26" s="22"/>
@@ -15478,12 +15774,16 @@
       <c r="S26" s="47"/>
       <c r="U26" s="24"/>
       <c r="V26" s="19"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="32"/>
+      <c r="W26" s="33" t="s">
+        <v>1026</v>
+      </c>
+      <c r="X26" s="39" t="s">
+        <v>675</v>
+      </c>
       <c r="Y26" s="32"/>
       <c r="Z26" s="19"/>
     </row>
-    <row r="27" spans="1:1023" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1023" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>1115</v>
       </c>
@@ -15517,7 +15817,7 @@
       <c r="K27" s="39">
         <v>60</v>
       </c>
-      <c r="L27" s="67" t="s">
+      <c r="L27" s="66" t="s">
         <v>1093</v>
       </c>
       <c r="P27" s="22"/>
@@ -15525,11 +15825,17 @@
       <c r="R27" s="24"/>
       <c r="S27" s="47"/>
       <c r="U27" s="24"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="32"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="X27" s="39" t="s">
+        <v>1165</v>
+      </c>
       <c r="Y27" s="32"/>
-      <c r="Z27" s="19"/>
+      <c r="Z27" s="19" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="28" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
@@ -15562,7 +15868,7 @@
       <c r="K28" s="22">
         <v>500</v>
       </c>
-      <c r="L28" s="67" t="s">
+      <c r="L28" s="66" t="s">
         <v>1092</v>
       </c>
       <c r="P28" s="22"/>
@@ -15571,8 +15877,12 @@
       <c r="S28" s="47"/>
       <c r="U28" s="24"/>
       <c r="V28" s="19"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="32"/>
+      <c r="W28" s="33" t="s">
+        <v>1078</v>
+      </c>
+      <c r="X28" s="39" t="s">
+        <v>1166</v>
+      </c>
       <c r="Y28" s="32"/>
       <c r="Z28" s="19"/>
     </row>
@@ -15604,7 +15914,7 @@
       </c>
       <c r="J29" s="32"/>
       <c r="K29" s="32"/>
-      <c r="L29" s="67" t="s">
+      <c r="L29" s="66" t="s">
         <v>929</v>
       </c>
       <c r="M29" s="32"/>
@@ -15612,10 +15922,19 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="24"/>
       <c r="S29" s="47"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="19"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="X29" s="39" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Y29" s="32" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Z29" s="19" t="s">
+        <v>1167</v>
+      </c>
     </row>
     <row r="30" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
@@ -15649,7 +15968,7 @@
       <c r="K30" s="32">
         <v>50</v>
       </c>
-      <c r="L30" s="67" t="s">
+      <c r="L30" s="66" t="s">
         <v>891</v>
       </c>
       <c r="M30" s="32"/>
@@ -15657,9 +15976,15 @@
       <c r="Q30" s="39"/>
       <c r="R30" s="24"/>
       <c r="S30" s="47"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
+      <c r="W30" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="X30" s="39" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y30" s="32" t="s">
+        <v>675</v>
+      </c>
       <c r="Z30" s="19"/>
     </row>
     <row r="31" spans="1:1023" x14ac:dyDescent="0.25">
@@ -15690,7 +16015,7 @@
       </c>
       <c r="J31" s="32"/>
       <c r="K31" s="32"/>
-      <c r="L31" s="67" t="s">
+      <c r="L31" s="66" t="s">
         <v>1071</v>
       </c>
       <c r="M31" s="32"/>
@@ -15702,9 +16027,13 @@
       <c r="S31" s="46"/>
       <c r="T31" s="60"/>
       <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="32"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="33" t="s">
+        <v>1065</v>
+      </c>
+      <c r="X31" s="39" t="s">
+        <v>1170</v>
+      </c>
       <c r="Y31" s="32"/>
       <c r="Z31" s="39"/>
       <c r="AA31" s="60"/>
@@ -16708,24 +17037,20 @@
     <row r="32" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="I32" s="25"/>
       <c r="K32" s="22"/>
-      <c r="L32" s="68"/>
+      <c r="L32" s="67"/>
       <c r="P32" s="22"/>
       <c r="Q32"/>
       <c r="R32" s="24"/>
       <c r="S32" s="47"/>
-      <c r="W32"/>
-      <c r="X32"/>
       <c r="Z32" s="19"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I33" s="25"/>
-      <c r="L33" s="68"/>
+      <c r="L33" s="67"/>
       <c r="P33" s="22"/>
       <c r="Q33"/>
       <c r="R33" s="24"/>
       <c r="S33" s="47"/>
-      <c r="W33"/>
-      <c r="X33"/>
       <c r="Z33" s="19"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -16741,15 +17066,13 @@
         <f>MEDIAN((K2:K31))</f>
         <v>300</v>
       </c>
-      <c r="L34" s="68" t="s">
+      <c r="L34" s="67" t="s">
         <v>1117</v>
       </c>
       <c r="P34" s="22"/>
       <c r="Q34"/>
       <c r="R34" s="24"/>
       <c r="S34" s="47"/>
-      <c r="W34"/>
-      <c r="X34"/>
       <c r="Z34" s="19"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -16759,106 +17082,96 @@
       </c>
       <c r="I35" s="25"/>
       <c r="K35" s="22"/>
-      <c r="L35" s="68" t="s">
+      <c r="L35" s="67" t="s">
         <v>1118</v>
       </c>
       <c r="P35" s="22"/>
       <c r="Q35"/>
       <c r="R35" s="24"/>
       <c r="S35" s="47"/>
-      <c r="W35"/>
-      <c r="X35"/>
       <c r="Z35" s="19"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I36" s="25"/>
       <c r="K36" s="22"/>
-      <c r="L36" s="68" t="s">
+      <c r="L36" s="67" t="s">
         <v>1119</v>
       </c>
       <c r="P36" s="22"/>
       <c r="Q36"/>
       <c r="R36" s="24"/>
       <c r="S36" s="47"/>
-      <c r="W36"/>
-      <c r="X36"/>
       <c r="Z36" s="19"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I37" s="25"/>
       <c r="K37" s="22"/>
-      <c r="L37" s="68" t="s">
+      <c r="L37" s="67" t="s">
         <v>1120</v>
       </c>
       <c r="P37" s="22"/>
       <c r="Q37"/>
       <c r="R37" s="24"/>
       <c r="S37" s="47"/>
-      <c r="X37" s="22"/>
       <c r="Y37" s="22"/>
       <c r="Z37" s="19"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I38" s="25"/>
       <c r="K38" s="22"/>
-      <c r="L38" s="68" t="s">
+      <c r="L38" s="67" t="s">
         <v>1121</v>
       </c>
       <c r="P38" s="22"/>
       <c r="Q38"/>
       <c r="R38" s="24"/>
       <c r="S38" s="47"/>
-      <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
       <c r="Z38" s="19"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I39" s="25"/>
       <c r="K39" s="22"/>
-      <c r="L39" s="68" t="s">
+      <c r="L39" s="67" t="s">
         <v>1122</v>
       </c>
       <c r="P39" s="22"/>
       <c r="Q39"/>
       <c r="R39" s="24"/>
       <c r="S39" s="47"/>
-      <c r="X39" s="22"/>
       <c r="Y39" s="22"/>
       <c r="Z39" s="19"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I40" s="25"/>
       <c r="K40" s="22"/>
-      <c r="L40" s="68"/>
+      <c r="L40" s="67"/>
       <c r="P40" s="22"/>
       <c r="Q40"/>
       <c r="R40" s="24"/>
       <c r="S40" s="47"/>
-      <c r="X40" s="22"/>
       <c r="Y40" s="22"/>
       <c r="Z40" s="19"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I41" s="25"/>
       <c r="K41" s="22"/>
-      <c r="L41" s="68"/>
+      <c r="L41" s="67"/>
       <c r="P41" s="22"/>
       <c r="Q41"/>
       <c r="R41" s="24"/>
       <c r="S41" s="47"/>
-      <c r="X41" s="22"/>
       <c r="Y41" s="22"/>
       <c r="Z41" s="19"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I42" s="25"/>
       <c r="K42" s="22"/>
-      <c r="L42" s="68"/>
+      <c r="L42" s="67"/>
       <c r="P42" s="22"/>
       <c r="Q42"/>
       <c r="R42" s="24"/>
       <c r="S42" s="47"/>
-      <c r="X42" s="22"/>
       <c r="Y42" s="22"/>
       <c r="Z42" s="19"/>
     </row>
@@ -16869,7 +17182,6 @@
       <c r="Q43"/>
       <c r="R43" s="24"/>
       <c r="S43" s="47"/>
-      <c r="X43" s="22"/>
       <c r="Y43" s="22"/>
       <c r="Z43" s="19"/>
     </row>
@@ -16880,7 +17192,6 @@
       <c r="Q44"/>
       <c r="R44" s="24"/>
       <c r="S44" s="47"/>
-      <c r="X44" s="22"/>
       <c r="Y44" s="22"/>
       <c r="Z44" s="19"/>
     </row>
@@ -16904,7 +17215,6 @@
       <c r="Q45"/>
       <c r="R45" s="24"/>
       <c r="S45" s="47"/>
-      <c r="X45" s="22"/>
       <c r="Y45" s="22"/>
       <c r="Z45" s="19"/>
     </row>
@@ -16930,7 +17240,6 @@
       <c r="Q46"/>
       <c r="R46" s="24"/>
       <c r="S46" s="47"/>
-      <c r="X46" s="22"/>
       <c r="Y46" s="22"/>
       <c r="Z46" s="19"/>
     </row>
@@ -16956,7 +17265,6 @@
       <c r="Q47"/>
       <c r="R47" s="24"/>
       <c r="S47" s="47"/>
-      <c r="X47" s="22"/>
       <c r="Y47" s="22"/>
       <c r="Z47" s="19"/>
     </row>
@@ -16980,7 +17288,6 @@
       <c r="Q48"/>
       <c r="R48" s="24"/>
       <c r="S48" s="47"/>
-      <c r="X48" s="22"/>
       <c r="Y48" s="22"/>
       <c r="Z48" s="19"/>
     </row>
@@ -17004,7 +17311,6 @@
       <c r="Q49"/>
       <c r="R49" s="24"/>
       <c r="S49" s="47"/>
-      <c r="X49" s="22"/>
       <c r="Y49" s="22"/>
       <c r="Z49" s="19"/>
     </row>
@@ -17028,7 +17334,6 @@
       <c r="Q50"/>
       <c r="R50" s="24"/>
       <c r="S50" s="47"/>
-      <c r="X50" s="22"/>
       <c r="Y50" s="22"/>
       <c r="Z50" s="19"/>
     </row>
@@ -17052,7 +17357,6 @@
       <c r="Q51"/>
       <c r="R51" s="24"/>
       <c r="S51" s="47"/>
-      <c r="X51" s="22"/>
       <c r="Y51" s="22"/>
       <c r="Z51" s="19"/>
     </row>
@@ -17076,7 +17380,6 @@
       <c r="Q52"/>
       <c r="R52" s="24"/>
       <c r="S52" s="47"/>
-      <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="19"/>
     </row>
@@ -17100,7 +17403,6 @@
       <c r="Q53"/>
       <c r="R53" s="24"/>
       <c r="S53" s="47"/>
-      <c r="X53" s="22"/>
       <c r="Y53" s="22"/>
       <c r="Z53" s="19"/>
     </row>
@@ -17124,7 +17426,6 @@
       <c r="Q54"/>
       <c r="R54" s="24"/>
       <c r="S54" s="47"/>
-      <c r="X54" s="22"/>
       <c r="Y54" s="22"/>
       <c r="Z54" s="19"/>
     </row>
@@ -17148,7 +17449,6 @@
       <c r="Q55"/>
       <c r="R55" s="24"/>
       <c r="S55" s="47"/>
-      <c r="X55" s="22"/>
       <c r="Y55" s="22"/>
       <c r="Z55" s="19"/>
     </row>
@@ -17172,7 +17472,6 @@
       <c r="Q56"/>
       <c r="R56" s="24"/>
       <c r="S56" s="47"/>
-      <c r="X56" s="22"/>
       <c r="Y56" s="22"/>
       <c r="Z56" s="19"/>
     </row>
@@ -17184,7 +17483,6 @@
       <c r="Q57"/>
       <c r="R57" s="24"/>
       <c r="S57" s="47"/>
-      <c r="X57" s="22"/>
       <c r="Y57" s="22"/>
       <c r="Z57" s="19"/>
     </row>
@@ -17196,7 +17494,6 @@
       <c r="Q58"/>
       <c r="R58" s="24"/>
       <c r="S58" s="47"/>
-      <c r="X58" s="22"/>
       <c r="Y58" s="22"/>
       <c r="Z58" s="19"/>
     </row>
@@ -17208,7 +17505,6 @@
       <c r="Q59"/>
       <c r="R59" s="24"/>
       <c r="S59" s="47"/>
-      <c r="X59" s="22"/>
       <c r="Y59" s="22"/>
       <c r="Z59" s="19"/>
     </row>
@@ -17226,7 +17522,6 @@
       <c r="Q60"/>
       <c r="R60" s="24"/>
       <c r="S60" s="47"/>
-      <c r="X60" s="22"/>
       <c r="Y60" s="22"/>
       <c r="Z60" s="19"/>
     </row>
@@ -17244,7 +17539,6 @@
       <c r="Q61"/>
       <c r="R61" s="24"/>
       <c r="S61" s="47"/>
-      <c r="X61" s="22"/>
       <c r="Y61" s="22"/>
       <c r="Z61" s="19"/>
     </row>
@@ -17262,7 +17556,6 @@
       <c r="Q62"/>
       <c r="R62" s="24"/>
       <c r="S62" s="47"/>
-      <c r="X62" s="22"/>
       <c r="Y62" s="22"/>
       <c r="Z62" s="19"/>
     </row>
@@ -17280,7 +17573,6 @@
       <c r="Q63"/>
       <c r="R63" s="24"/>
       <c r="S63" s="47"/>
-      <c r="X63" s="22"/>
       <c r="Y63" s="22"/>
       <c r="Z63" s="19"/>
     </row>
@@ -17298,7 +17590,6 @@
       <c r="Q64"/>
       <c r="R64" s="24"/>
       <c r="S64" s="47"/>
-      <c r="X64" s="22"/>
       <c r="Y64" s="22"/>
       <c r="Z64" s="19"/>
     </row>
@@ -17316,7 +17607,6 @@
       <c r="Q65"/>
       <c r="R65" s="24"/>
       <c r="S65" s="47"/>
-      <c r="X65" s="22"/>
       <c r="Y65" s="22"/>
       <c r="Z65" s="19"/>
     </row>
@@ -17334,7 +17624,6 @@
       <c r="Q66"/>
       <c r="R66" s="24"/>
       <c r="S66" s="47"/>
-      <c r="X66" s="22"/>
       <c r="Y66" s="22"/>
       <c r="Z66" s="19"/>
     </row>
@@ -17352,7 +17641,6 @@
       <c r="Q67"/>
       <c r="R67" s="24"/>
       <c r="S67" s="47"/>
-      <c r="X67" s="22"/>
       <c r="Y67" s="22"/>
       <c r="Z67" s="19"/>
     </row>
@@ -17370,7 +17658,6 @@
       <c r="Q68"/>
       <c r="R68" s="24"/>
       <c r="S68" s="47"/>
-      <c r="X68" s="22"/>
       <c r="Y68" s="22"/>
       <c r="Z68" s="19"/>
     </row>
@@ -17388,7 +17675,6 @@
       <c r="Q69"/>
       <c r="R69" s="24"/>
       <c r="S69" s="47"/>
-      <c r="X69" s="22"/>
       <c r="Y69" s="22"/>
       <c r="Z69" s="19"/>
     </row>
@@ -17406,7 +17692,6 @@
       <c r="Q70"/>
       <c r="R70" s="24"/>
       <c r="S70" s="47"/>
-      <c r="X70" s="22"/>
       <c r="Y70" s="22"/>
       <c r="Z70" s="19"/>
     </row>
@@ -17424,7 +17709,6 @@
       <c r="Q71"/>
       <c r="R71" s="24"/>
       <c r="S71" s="47"/>
-      <c r="X71" s="22"/>
       <c r="Y71" s="22"/>
       <c r="Z71" s="19"/>
     </row>
@@ -17442,7 +17726,6 @@
       <c r="Q72"/>
       <c r="R72" s="24"/>
       <c r="S72" s="47"/>
-      <c r="X72" s="22"/>
       <c r="Y72" s="22"/>
       <c r="Z72" s="19"/>
     </row>
@@ -17460,7 +17743,6 @@
       <c r="Q73"/>
       <c r="R73" s="24"/>
       <c r="S73" s="47"/>
-      <c r="X73" s="22"/>
       <c r="Y73" s="22"/>
       <c r="Z73" s="19"/>
     </row>
@@ -17478,7 +17760,6 @@
       <c r="Q74"/>
       <c r="R74" s="24"/>
       <c r="S74" s="47"/>
-      <c r="X74" s="22"/>
       <c r="Y74" s="22"/>
       <c r="Z74" s="19"/>
     </row>
@@ -17490,7 +17771,6 @@
       <c r="Q75"/>
       <c r="R75" s="24"/>
       <c r="S75" s="47"/>
-      <c r="X75" s="22"/>
       <c r="Y75" s="22"/>
       <c r="Z75" s="19"/>
     </row>
@@ -17502,7 +17782,6 @@
       <c r="Q76"/>
       <c r="R76" s="24"/>
       <c r="S76" s="47"/>
-      <c r="X76" s="22"/>
       <c r="Y76" s="22"/>
       <c r="Z76" s="19"/>
     </row>
@@ -17514,7 +17793,6 @@
       <c r="Q77"/>
       <c r="R77" s="24"/>
       <c r="S77" s="47"/>
-      <c r="X77" s="22"/>
       <c r="Y77" s="22"/>
       <c r="Z77" s="19"/>
     </row>
